--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="151">
   <si>
     <t>BSL NO</t>
   </si>
@@ -124,30 +124,27 @@
     <t>Visomox</t>
   </si>
   <si>
-    <t>Volmax</t>
-  </si>
-  <si>
     <t>Xenthol</t>
   </si>
   <si>
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 375 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
-    <t>Augment 375 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -157,27 +154,27 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
@@ -199,33 +196,33 @@
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Levomax 500mg Tablet - 20's</t>
+  </si>
+  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
-    <t>Levomax 500mg Tablet - 20's</t>
-  </si>
-  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -238,81 +235,81 @@
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin 60ml Suspension</t>
+  </si>
+  <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
-    <t>Oradin FT 10mg Tablet</t>
+    <t>Osticare Tablet 30's</t>
   </si>
   <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
-    <t>Osticare Tablet 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
@@ -328,57 +325,54 @@
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 50mg Tablet</t>
+  </si>
+  <si>
     <t>Timothy 5mg IM/IV</t>
   </si>
   <si>
-    <t>Timothy 50mg Tablet</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti 100ml Syrup</t>
+  </si>
+  <si>
     <t>Toti Tablet</t>
   </si>
   <si>
-    <t>Toti 100ml Syrup</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
-    <t>Volmax SR 100mg Capsule</t>
-  </si>
-  <si>
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
+    <t>18's</t>
+  </si>
+  <si>
+    <t>1's</t>
   </si>
   <si>
     <t>12's</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>18's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -397,12 +391,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -412,12 +406,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -430,18 +424,21 @@
     <t>15 gm</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
     <t>15 ml</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -460,16 +457,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>20ml</t>
   </si>
   <si>
-    <t>35ml</t>
-  </si>
-  <si>
     <t>50ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
   </si>
 </sst>
 </file>
@@ -827,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,13 +861,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -884,13 +881,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -904,13 +901,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4">
-        <v>262</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -924,13 +921,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5">
-        <v>194</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -944,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -964,13 +961,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F7">
-        <v>1800</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -984,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1004,13 +1001,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1021,16 +1018,16 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1041,16 +1038,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F11">
-        <v>1597</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1061,16 +1058,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12">
-        <v>53</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,13 +1081,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F13">
-        <v>493</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1101,16 +1098,16 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14">
-        <v>910</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1121,16 +1118,16 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F15">
-        <v>1890</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1141,16 +1138,16 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16">
-        <v>987</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1161,16 +1158,16 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17">
-        <v>2059</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1181,16 +1178,16 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1204,13 +1201,13 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1221,16 +1218,16 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20">
-        <v>5120</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1241,16 +1238,16 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F21">
-        <v>2851</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1261,16 +1258,16 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22">
-        <v>351</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1281,16 +1278,16 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F23">
-        <v>358</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1301,16 +1298,16 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F24">
-        <v>142</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1321,16 +1318,16 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F25">
-        <v>734</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1341,16 +1338,16 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26">
-        <v>1382</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1364,13 +1361,13 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1384,13 +1381,13 @@
         <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1404,13 +1401,13 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,13 +1421,13 @@
         <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F30">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1444,13 +1441,13 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F31">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1464,13 +1461,13 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1484,13 +1481,13 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1504,13 +1501,13 @@
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F34">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1524,13 +1521,13 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35">
-        <v>1045</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1544,13 +1541,13 @@
         <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F36">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,13 +1561,13 @@
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37">
-        <v>704</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1584,13 +1581,13 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F38">
-        <v>235</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1604,13 +1601,13 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F39">
-        <v>586</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,13 +1621,13 @@
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F40">
-        <v>278</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1641,16 +1638,16 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F41">
-        <v>249</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1664,13 +1661,13 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1684,13 +1681,13 @@
         <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F43">
-        <v>273</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1704,13 +1701,13 @@
         <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F44">
-        <v>1114</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1721,16 +1718,16 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F45">
-        <v>1408</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1744,13 +1741,13 @@
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F46">
-        <v>38</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1764,13 +1761,13 @@
         <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F47">
-        <v>44</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1784,13 +1781,13 @@
         <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48">
-        <v>284</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1804,13 +1801,13 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F49">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1824,13 +1821,13 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F50">
-        <v>940</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1844,13 +1841,13 @@
         <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,13 +1861,13 @@
         <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1881,16 +1878,16 @@
         <v>25</v>
       </c>
       <c r="C53">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F53">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1901,56 +1898,56 @@
         <v>25</v>
       </c>
       <c r="C54">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F55">
-        <v>245</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F56">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1961,16 +1958,16 @@
         <v>27</v>
       </c>
       <c r="C57">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F57">
-        <v>52</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1981,16 +1978,16 @@
         <v>27</v>
       </c>
       <c r="C58">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F58">
-        <v>945</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2001,16 +1998,16 @@
         <v>27</v>
       </c>
       <c r="C59">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F59">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2021,16 +2018,16 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F60">
-        <v>102</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2044,13 +2041,13 @@
         <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F61">
-        <v>1067</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,13 +2061,13 @@
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2084,13 +2081,13 @@
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F63">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2104,13 +2101,13 @@
         <v>86</v>
       </c>
       <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>119</v>
+      </c>
+      <c r="F64">
         <v>101</v>
-      </c>
-      <c r="E64" t="s">
-        <v>121</v>
-      </c>
-      <c r="F64">
-        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,13 +2121,13 @@
         <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F65">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,13 +2141,13 @@
         <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F66">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2164,13 +2161,13 @@
         <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F67">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2184,13 +2181,13 @@
         <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F68">
-        <v>264</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2204,13 +2201,13 @@
         <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F69">
-        <v>280</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2224,13 +2221,13 @@
         <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2244,13 +2241,13 @@
         <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F71">
-        <v>165</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2264,13 +2261,13 @@
         <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F72">
-        <v>6093</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2284,53 +2281,53 @@
         <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
         <v>36</v>
       </c>
       <c r="C74">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F74">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
       </c>
       <c r="C75">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F75">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2338,19 +2335,19 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F76">
-        <v>643</v>
+        <v>679</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2358,19 +2355,19 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F77">
-        <v>1242</v>
+        <v>825</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2378,19 +2375,19 @@
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F78">
-        <v>154</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2398,39 +2395,19 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F79">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>35</v>
-      </c>
-      <c r="B80" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80">
-        <v>103</v>
-      </c>
-      <c r="D80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80" t="s">
-        <v>151</v>
-      </c>
-      <c r="F80">
-        <v>1115</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
   <si>
     <t>BSL NO</t>
   </si>
@@ -124,6 +124,9 @@
     <t>Visomox</t>
   </si>
   <si>
+    <t>Volmax</t>
+  </si>
+  <si>
     <t>Xenthol</t>
   </si>
   <si>
@@ -133,15 +136,15 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
@@ -154,46 +157,49 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet 40's</t>
+    <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 10mg Tablet</t>
-  </si>
-  <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg IM/IV Injection</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
+    <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
     <t>Ketonic 60mg IM Injection</t>
@@ -202,13 +208,16 @@
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
+    <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Levomax 750mg Tablet - 10's</t>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
     <t>Lindamax 150mg Capsule</t>
@@ -217,12 +226,6 @@
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -235,36 +238,36 @@
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Naprox 250mg Tablet</t>
   </si>
   <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare Tablet 30's</t>
   </si>
   <si>
@@ -274,54 +277,54 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet (40's)</t>
+    <t>Quinox 250mg Tablet</t>
   </si>
   <si>
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule</t>
+    <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
+    <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
@@ -337,42 +340,45 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti Tablet</t>
+  </si>
+  <si>
     <t>Toti 100ml Syrup</t>
   </si>
   <si>
-    <t>Toti Tablet</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
+    <t>Volmax SR 100mg Capsule</t>
+  </si>
+  <si>
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>1's</t>
   </si>
   <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -391,12 +397,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>50's</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -406,12 +412,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>20 's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -433,12 +439,12 @@
     <t>60 ml</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -457,16 +463,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>20ml</t>
+  </si>
+  <si>
     <t>12 's</t>
   </si>
   <si>
     <t>35ml</t>
-  </si>
-  <si>
-    <t>20ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
   </si>
 </sst>
 </file>
@@ -824,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -881,13 +887,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -901,13 +907,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F4">
-        <v>112</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -921,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>118</v>
       </c>
       <c r="F5">
-        <v>85</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -941,13 +947,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -961,13 +967,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F7">
-        <v>937</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -981,13 +987,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -998,16 +1004,16 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F9">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1018,16 +1024,16 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F10">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1038,16 +1044,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F11">
-        <v>291</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1058,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12">
-        <v>774</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1078,16 +1084,16 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F13">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1098,16 +1104,16 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F14">
-        <v>706</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1118,16 +1124,16 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F15">
-        <v>575</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1138,16 +1144,16 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F16">
-        <v>1310</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1158,16 +1164,16 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>1154</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1181,13 +1187,13 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1201,13 +1207,13 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1218,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20">
-        <v>2675</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1238,16 +1244,16 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F21">
-        <v>1497</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1258,16 +1264,16 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>156</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1278,16 +1284,16 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F23">
-        <v>131</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1298,16 +1304,16 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F24">
-        <v>725</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1318,16 +1324,16 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1338,16 +1344,16 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F26">
-        <v>747</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1361,13 +1367,13 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F27">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1381,13 +1387,13 @@
         <v>45</v>
       </c>
       <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28">
         <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1401,13 +1407,13 @@
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1421,13 +1427,13 @@
         <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F30">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1441,13 +1447,13 @@
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1461,13 +1467,13 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1481,13 +1487,13 @@
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F33">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1501,13 +1507,13 @@
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F34">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1521,13 +1527,13 @@
         <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F35">
-        <v>565</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1541,13 +1547,13 @@
         <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1561,13 +1567,13 @@
         <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F37">
-        <v>111</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1581,13 +1587,13 @@
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38">
-        <v>357</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1601,13 +1607,13 @@
         <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F39">
-        <v>318</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1621,13 +1627,13 @@
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F40">
-        <v>124</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1638,16 +1644,16 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F41">
-        <v>106</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1661,13 +1667,13 @@
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F42">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1681,13 +1687,13 @@
         <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43">
-        <v>183</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1701,13 +1707,13 @@
         <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F44">
-        <v>935</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1721,13 +1727,13 @@
         <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F45">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1738,16 +1744,16 @@
         <v>22</v>
       </c>
       <c r="C46">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F46">
-        <v>588</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1758,16 +1764,16 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F47">
-        <v>156</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1778,16 +1784,16 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F48">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1801,13 +1807,13 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1821,13 +1827,13 @@
         <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F50">
-        <v>25</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1838,16 +1844,16 @@
         <v>25</v>
       </c>
       <c r="C51">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F51">
-        <v>118</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1858,16 +1864,16 @@
         <v>25</v>
       </c>
       <c r="C52">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1881,13 +1887,13 @@
         <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F53">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1901,13 +1907,13 @@
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F54">
-        <v>600</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1918,16 +1924,16 @@
         <v>26</v>
       </c>
       <c r="C55">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F55">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1941,13 +1947,13 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F56">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1961,13 +1967,13 @@
         <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F57">
-        <v>420</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1981,13 +1987,13 @@
         <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F58">
-        <v>75</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2001,13 +2007,13 @@
         <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F59">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2021,13 +2027,13 @@
         <v>82</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F60">
-        <v>469</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2041,13 +2047,13 @@
         <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>990</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2061,13 +2067,13 @@
         <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F62">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2081,13 +2087,13 @@
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2101,13 +2107,13 @@
         <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F64">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2121,13 +2127,13 @@
         <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F65">
-        <v>13</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2141,13 +2147,13 @@
         <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F66">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2161,13 +2167,13 @@
         <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F67">
-        <v>158</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2181,13 +2187,13 @@
         <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F68">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2201,13 +2207,13 @@
         <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F69">
-        <v>212</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2221,13 +2227,13 @@
         <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F70">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2241,13 +2247,13 @@
         <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F71">
-        <v>3569</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2261,13 +2267,13 @@
         <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F72">
-        <v>74</v>
+        <v>8533</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2281,53 +2287,53 @@
         <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F73">
-        <v>90</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
         <v>36</v>
       </c>
       <c r="C74">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
         <v>146</v>
       </c>
       <c r="F74">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
         <v>37</v>
       </c>
       <c r="C75">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F75">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2335,19 +2341,19 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C76">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="F76">
-        <v>679</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2355,19 +2361,19 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C77">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F77">
-        <v>825</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2375,19 +2381,19 @@
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C78">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F78">
-        <v>287</v>
+        <v>687</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2395,19 +2401,39 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C79">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F79">
-        <v>88</v>
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80">
+        <v>102</v>
+      </c>
+      <c r="D80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80">
+        <v>1678</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -136,18 +136,18 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -157,75 +157,75 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
+    <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 5mg Tablet</t>
+    <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -235,63 +235,63 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
+    <t>Ontin 60ml Syrup</t>
   </si>
   <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
-    <t>Ontin 60ml Syrup</t>
+    <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
+    <t>Osticare FC Tab Container 30's</t>
+  </si>
+  <si>
     <t>Osticare Tablet 30's</t>
   </si>
   <si>
-    <t>Osticare FC Tab Container 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
@@ -301,39 +301,39 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
+    <t>Sulidac 200 Tablet 20's</t>
+  </si>
+  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
-    <t>Sulidac 200 Tablet 20's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 5mg IM/IV</t>
+  </si>
+  <si>
     <t>Timothy 50mg Tablet</t>
   </si>
   <si>
-    <t>Timothy 5mg IM/IV</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -355,21 +355,21 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -427,15 +427,15 @@
     <t>24's</t>
   </si>
   <si>
+    <t>36's</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>15 gm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
-    <t>36's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -463,16 +463,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>50ml</t>
   </si>
   <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>20ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
   </si>
 </sst>
 </file>
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3">
-        <v>78</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -910,10 +910,10 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4">
-        <v>274</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -930,10 +930,10 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F5">
-        <v>342</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -953,7 +953,7 @@
         <v>120</v>
       </c>
       <c r="F6">
-        <v>233</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1033,7 +1033,7 @@
         <v>124</v>
       </c>
       <c r="F10">
-        <v>86</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1050,10 +1050,10 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11">
-        <v>1792</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1070,10 +1070,10 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F12">
-        <v>688</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -1093,7 +1093,7 @@
         <v>124</v>
       </c>
       <c r="F13">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1124,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
@@ -1144,16 +1144,16 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F16">
-        <v>2721</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1164,16 +1164,16 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F17">
-        <v>1389</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1190,10 +1190,10 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F18">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1204,16 +1204,16 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F20">
-        <v>6195</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1244,16 +1244,16 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F21">
-        <v>383</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1264,16 +1264,16 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F22">
-        <v>670</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>3376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1304,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>61</v>
@@ -1313,7 +1313,7 @@
         <v>131</v>
       </c>
       <c r="F24">
-        <v>1938</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1324,16 +1324,16 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F25">
-        <v>1071</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1344,16 +1344,16 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F26">
-        <v>219</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1410,10 +1410,10 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F29">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1470,10 +1470,10 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F32">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1553,7 +1553,7 @@
         <v>137</v>
       </c>
       <c r="F36">
-        <v>61</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1570,10 +1570,10 @@
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F37">
-        <v>758</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1590,10 +1590,10 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F38">
-        <v>255</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1610,10 +1610,10 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F39">
-        <v>373</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1630,10 +1630,10 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F40">
-        <v>386</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1650,10 +1650,10 @@
         <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F41">
-        <v>802</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1670,10 +1670,10 @@
         <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F42">
-        <v>41</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1690,10 +1690,10 @@
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F43">
-        <v>613</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1710,10 +1710,10 @@
         <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F44">
-        <v>1316</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1724,16 +1724,16 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
         <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F45">
-        <v>53</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1744,7 +1744,7 @@
         <v>22</v>
       </c>
       <c r="C46">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
         <v>83</v>
@@ -1764,7 +1764,7 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
         <v>84</v>
@@ -1773,7 +1773,7 @@
         <v>127</v>
       </c>
       <c r="F47">
-        <v>330</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1793,7 +1793,7 @@
         <v>127</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1830,10 +1830,10 @@
         <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F50">
-        <v>276</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1844,16 +1844,16 @@
         <v>25</v>
       </c>
       <c r="C51">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F51">
-        <v>1343</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,7 +1864,7 @@
         <v>25</v>
       </c>
       <c r="C52">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
         <v>89</v>
@@ -1890,10 +1890,10 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1910,10 +1910,10 @@
         <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F54">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1990,10 +1990,10 @@
         <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F58">
-        <v>213</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2013,7 +2013,7 @@
         <v>126</v>
       </c>
       <c r="F59">
-        <v>82</v>
+        <v>990</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2050,10 +2050,10 @@
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F61">
-        <v>990</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2110,10 +2110,10 @@
         <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F64">
-        <v>64</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2130,10 +2130,10 @@
         <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F65">
-        <v>252</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2170,10 +2170,10 @@
         <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F67">
-        <v>342</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2190,10 +2190,10 @@
         <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F68">
-        <v>98</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2350,10 +2350,10 @@
         <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="F76">
-        <v>198</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2370,10 +2370,10 @@
         <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="F77">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2393,7 +2393,7 @@
         <v>150</v>
       </c>
       <c r="F78">
-        <v>687</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2413,7 +2413,7 @@
         <v>151</v>
       </c>
       <c r="F79">
-        <v>1456</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2424,7 +2424,7 @@
         <v>38</v>
       </c>
       <c r="C80">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D80" t="s">
         <v>117</v>
@@ -2433,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="F80">
-        <v>1678</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -133,21 +133,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -157,48 +157,48 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet 40's</t>
+    <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 10mg Tablet</t>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
-    <t>Flucloxin 250mg Capsule</t>
-  </si>
-  <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
@@ -208,24 +208,24 @@
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Levomax 500mg Tablet - 20's</t>
+  </si>
+  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
-    <t>Levomax 500mg Tablet - 20's</t>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -235,105 +235,105 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
+    <t>Oradin 60ml Suspension</t>
+  </si>
+  <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
+    <t>Osticare Tablet 30's</t>
   </si>
   <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
-    <t>Osticare Tablet 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
+    <t>Sulidac 100mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 50mg Tablet</t>
+  </si>
+  <si>
     <t>Timothy 5mg IM/IV</t>
   </si>
   <si>
-    <t>Timothy 50mg Tablet</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -355,6 +355,12 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
@@ -364,10 +370,7 @@
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
+    <t>1's</t>
   </si>
   <si>
     <t>18's</t>
@@ -376,9 +379,6 @@
     <t>12's</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -412,12 +412,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -427,24 +427,24 @@
     <t>24's</t>
   </si>
   <si>
+    <t>15 gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
-    <t>15 gm</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>48 's</t>
   </si>
   <si>
-    <t>15 ml</t>
-  </si>
-  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -463,16 +463,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>12 's</t>
   </si>
   <si>
     <t>50ml</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>20ml</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
         <v>118</v>
       </c>
       <c r="F2">
-        <v>53</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3">
-        <v>342</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -910,10 +910,10 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4">
-        <v>78</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -933,7 +933,7 @@
         <v>120</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -950,10 +950,10 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6">
-        <v>274</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1004,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -1033,7 +1033,7 @@
         <v>124</v>
       </c>
       <c r="F10">
-        <v>688</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1044,16 +1044,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11">
-        <v>89</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12">
-        <v>1792</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -1093,7 +1093,7 @@
         <v>124</v>
       </c>
       <c r="F13">
-        <v>86</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1104,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
@@ -1124,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
@@ -1133,7 +1133,7 @@
         <v>127</v>
       </c>
       <c r="F15">
-        <v>2839</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1144,16 +1144,16 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F16">
-        <v>1389</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1164,16 +1164,16 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>2721</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1184,16 +1184,16 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F18">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1204,16 +1204,16 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F19">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>670</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1244,16 +1244,16 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21">
-        <v>6195</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1264,16 +1264,16 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22">
-        <v>3376</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1284,16 +1284,16 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F23">
-        <v>383</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1304,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>61</v>
@@ -1324,13 +1324,13 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25">
         <v>219</v>
@@ -1344,7 +1344,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1364,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>64</v>
@@ -1373,7 +1373,7 @@
         <v>132</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1384,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -1393,7 +1393,7 @@
         <v>133</v>
       </c>
       <c r="F28">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1404,16 +1404,16 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F29">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1424,16 +1424,16 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F30">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1444,16 +1444,16 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1464,16 +1464,16 @@
         <v>17</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F32">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>70</v>
@@ -1504,7 +1504,7 @@
         <v>19</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>71</v>
@@ -1524,13 +1524,13 @@
         <v>19</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F35">
         <v>1217</v>
@@ -1544,7 +1544,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
@@ -1553,7 +1553,7 @@
         <v>137</v>
       </c>
       <c r="F36">
-        <v>802</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1564,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
         <v>74</v>
@@ -1584,16 +1584,16 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F38">
-        <v>373</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1604,16 +1604,16 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F39">
-        <v>758</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1624,16 +1624,16 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F40">
-        <v>61</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1644,16 +1644,16 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F41">
-        <v>386</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1664,7 +1664,7 @@
         <v>21</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
         <v>79</v>
@@ -1684,7 +1684,7 @@
         <v>21</v>
       </c>
       <c r="C43">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -1704,16 +1704,16 @@
         <v>22</v>
       </c>
       <c r="C44">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F44">
-        <v>53</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1724,16 +1724,16 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
         <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F45">
-        <v>1316</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1744,16 +1744,16 @@
         <v>22</v>
       </c>
       <c r="C46">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
         <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F46">
-        <v>1684</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1764,16 +1764,16 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
         <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1784,16 +1784,16 @@
         <v>23</v>
       </c>
       <c r="C48">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>330</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1804,7 +1804,7 @@
         <v>24</v>
       </c>
       <c r="C49">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
         <v>86</v>
@@ -1824,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="C50">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
         <v>87</v>
@@ -1844,16 +1844,16 @@
         <v>25</v>
       </c>
       <c r="C51">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F51">
-        <v>276</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1864,13 +1864,13 @@
         <v>25</v>
       </c>
       <c r="C52">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
         <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52">
         <v>50</v>
@@ -1884,16 +1884,16 @@
         <v>25</v>
       </c>
       <c r="C53">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1904,7 +1904,7 @@
         <v>25</v>
       </c>
       <c r="C54">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
         <v>91</v>
@@ -1924,13 +1924,13 @@
         <v>26</v>
       </c>
       <c r="C55">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
         <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55">
         <v>151</v>
@@ -1944,16 +1944,16 @@
         <v>27</v>
       </c>
       <c r="C56">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
         <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F56">
-        <v>53</v>
+        <v>990</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1964,16 +1964,16 @@
         <v>27</v>
       </c>
       <c r="C57">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
         <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1984,16 +1984,16 @@
         <v>27</v>
       </c>
       <c r="C58">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
         <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F58">
-        <v>82</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2004,16 +2004,16 @@
         <v>27</v>
       </c>
       <c r="C59">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F59">
-        <v>990</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2024,16 +2024,16 @@
         <v>27</v>
       </c>
       <c r="C60">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
         <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F60">
-        <v>1169</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2044,7 +2044,7 @@
         <v>27</v>
       </c>
       <c r="C61">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
         <v>98</v>
@@ -2053,7 +2053,7 @@
         <v>142</v>
       </c>
       <c r="F61">
-        <v>213</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2064,7 +2064,7 @@
         <v>28</v>
       </c>
       <c r="C62">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
         <v>99</v>
@@ -2084,13 +2084,13 @@
         <v>28</v>
       </c>
       <c r="C63">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
         <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F63">
         <v>183</v>
@@ -2104,16 +2104,16 @@
         <v>29</v>
       </c>
       <c r="C64">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
         <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F64">
-        <v>252</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2124,16 +2124,16 @@
         <v>29</v>
       </c>
       <c r="C65">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
         <v>102</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F65">
-        <v>64</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2144,13 +2144,13 @@
         <v>30</v>
       </c>
       <c r="C66">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
         <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F66">
         <v>96</v>
@@ -2164,16 +2164,16 @@
         <v>31</v>
       </c>
       <c r="C67">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
         <v>104</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F67">
-        <v>98</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2184,16 +2184,16 @@
         <v>31</v>
       </c>
       <c r="C68">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
         <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F68">
-        <v>342</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2204,7 +2204,7 @@
         <v>32</v>
       </c>
       <c r="C69">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
         <v>106</v>
@@ -2224,7 +2224,7 @@
         <v>33</v>
       </c>
       <c r="C70">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
         <v>107</v>
@@ -2244,7 +2244,7 @@
         <v>34</v>
       </c>
       <c r="C71">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
         <v>108</v>
@@ -2264,7 +2264,7 @@
         <v>34</v>
       </c>
       <c r="C72">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
         <v>109</v>
@@ -2284,7 +2284,7 @@
         <v>35</v>
       </c>
       <c r="C73">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
         <v>110</v>
@@ -2304,7 +2304,7 @@
         <v>36</v>
       </c>
       <c r="C74">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
         <v>111</v>
@@ -2324,7 +2324,7 @@
         <v>37</v>
       </c>
       <c r="C75">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
         <v>112</v>
@@ -2344,7 +2344,7 @@
         <v>38</v>
       </c>
       <c r="C76">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
         <v>113</v>
@@ -2353,7 +2353,7 @@
         <v>149</v>
       </c>
       <c r="F76">
-        <v>1456</v>
+        <v>687</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2364,16 +2364,16 @@
         <v>38</v>
       </c>
       <c r="C77">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
         <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="F77">
-        <v>198</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2384,16 +2384,16 @@
         <v>38</v>
       </c>
       <c r="C78">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
         <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F78">
-        <v>192</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2404,16 +2404,16 @@
         <v>38</v>
       </c>
       <c r="C79">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
         <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F79">
-        <v>1678</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2424,7 +2424,7 @@
         <v>38</v>
       </c>
       <c r="C80">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
         <v>117</v>
@@ -2433,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="F80">
-        <v>687</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -133,21 +133,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -160,27 +160,27 @@
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet 40's</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
@@ -190,36 +190,36 @@
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
+    <t>Flucloxin 500mg IM/IV Injection</t>
+  </si>
+  <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
+    <t>Ketonic 10mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
+    <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Levomax 750mg Tablet - 10's</t>
+    <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
@@ -235,30 +235,30 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox 250mg Tablet</t>
   </si>
   <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
+    <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
-    <t>Ontin 10mg Tablet</t>
-  </si>
-  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
@@ -268,57 +268,57 @@
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
+    <t>Osticare FC Tab Container 30's</t>
+  </si>
+  <si>
     <t>Osticare Tablet 30's</t>
   </si>
   <si>
-    <t>Osticare FC Tab Container 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
+    <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule</t>
+    <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
-    <t>Stiba 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti 100ml Syrup</t>
+  </si>
+  <si>
     <t>Toti Tablet</t>
   </si>
   <si>
-    <t>Toti 100ml Syrup</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -355,30 +355,30 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
+    <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
+    <t>18's</t>
+  </si>
+  <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>1's</t>
   </si>
   <si>
-    <t>18's</t>
-  </si>
-  <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>50's</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -412,12 +412,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>20 's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -427,15 +427,15 @@
     <t>24's</t>
   </si>
   <si>
+    <t>36's</t>
+  </si>
+  <si>
     <t>15 gm</t>
   </si>
   <si>
     <t xml:space="preserve"> 50 's</t>
   </si>
   <si>
-    <t>36's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -463,10 +463,10 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>20ml</t>
-  </si>
-  <si>
-    <t>35ml</t>
   </si>
   <si>
     <t>12 's</t>
@@ -873,7 +873,7 @@
         <v>118</v>
       </c>
       <c r="F2">
-        <v>233</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -893,7 +893,7 @@
         <v>119</v>
       </c>
       <c r="F3">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -910,10 +910,10 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F4">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -933,7 +933,7 @@
         <v>120</v>
       </c>
       <c r="F5">
-        <v>78</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -950,10 +950,10 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6">
-        <v>342</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -973,7 +973,7 @@
         <v>121</v>
       </c>
       <c r="F7">
-        <v>2009</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -993,7 +993,7 @@
         <v>122</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1013,7 +1013,7 @@
         <v>123</v>
       </c>
       <c r="F9">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1033,7 +1033,7 @@
         <v>124</v>
       </c>
       <c r="F10">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1050,10 +1050,10 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11">
-        <v>1792</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1073,7 +1073,7 @@
         <v>124</v>
       </c>
       <c r="F12">
-        <v>89</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1090,10 +1090,10 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13">
-        <v>688</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1113,7 +1113,7 @@
         <v>126</v>
       </c>
       <c r="F14">
-        <v>1306</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1133,7 +1133,7 @@
         <v>127</v>
       </c>
       <c r="F15">
-        <v>1389</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1153,7 +1153,7 @@
         <v>124</v>
       </c>
       <c r="F16">
-        <v>2721</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1173,7 +1173,7 @@
         <v>128</v>
       </c>
       <c r="F17">
-        <v>2839</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1193,7 +1193,7 @@
         <v>129</v>
       </c>
       <c r="F18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1213,7 +1213,7 @@
         <v>123</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1233,7 +1233,7 @@
         <v>130</v>
       </c>
       <c r="F20">
-        <v>383</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1250,10 +1250,10 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F21">
-        <v>3376</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1273,7 +1273,7 @@
         <v>126</v>
       </c>
       <c r="F22">
-        <v>6195</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1290,10 +1290,10 @@
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F23">
-        <v>670</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1310,10 +1310,10 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F24">
-        <v>1071</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1330,10 +1330,10 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F25">
-        <v>219</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1353,7 +1353,7 @@
         <v>131</v>
       </c>
       <c r="F26">
-        <v>1938</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1373,7 +1373,7 @@
         <v>132</v>
       </c>
       <c r="F27">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1393,7 +1393,7 @@
         <v>133</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1410,10 +1410,10 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F29">
-        <v>87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1430,10 +1430,10 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1450,10 +1450,10 @@
         <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F31">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1470,10 +1470,10 @@
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1493,7 +1493,7 @@
         <v>135</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1513,7 +1513,7 @@
         <v>136</v>
       </c>
       <c r="F34">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1530,10 +1530,10 @@
         <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35">
-        <v>1217</v>
+        <v>946</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1553,7 +1553,7 @@
         <v>137</v>
       </c>
       <c r="F36">
-        <v>61</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1570,10 +1570,10 @@
         <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F37">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1590,10 +1590,10 @@
         <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F38">
-        <v>758</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1610,10 +1610,10 @@
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F39">
-        <v>386</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1630,10 +1630,10 @@
         <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F40">
-        <v>373</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1653,7 +1653,7 @@
         <v>139</v>
       </c>
       <c r="F41">
-        <v>802</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1670,10 +1670,10 @@
         <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F42">
-        <v>613</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1690,10 +1690,10 @@
         <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F43">
-        <v>41</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1713,7 +1713,7 @@
         <v>140</v>
       </c>
       <c r="F44">
-        <v>1684</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1733,7 +1733,7 @@
         <v>122</v>
       </c>
       <c r="F45">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1753,7 +1753,7 @@
         <v>130</v>
       </c>
       <c r="F46">
-        <v>1316</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1770,10 +1770,10 @@
         <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47">
-        <v>330</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1790,10 +1790,10 @@
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1813,7 +1813,7 @@
         <v>130</v>
       </c>
       <c r="F49">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1833,7 +1833,7 @@
         <v>140</v>
       </c>
       <c r="F50">
-        <v>1343</v>
+        <v>950</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1850,10 +1850,10 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1870,10 +1870,10 @@
         <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1890,10 +1890,10 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F53">
-        <v>276</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1910,10 +1910,10 @@
         <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1930,10 +1930,10 @@
         <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1950,10 +1950,10 @@
         <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F56">
-        <v>990</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1970,10 +1970,10 @@
         <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F57">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1990,10 +1990,10 @@
         <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F58">
-        <v>213</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2010,10 +2010,10 @@
         <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F59">
-        <v>1169</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2030,10 +2030,10 @@
         <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F60">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2050,10 +2050,10 @@
         <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2070,10 +2070,10 @@
         <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F62">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2090,10 +2090,10 @@
         <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F63">
-        <v>183</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2110,10 +2110,10 @@
         <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F64">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2133,7 +2133,7 @@
         <v>121</v>
       </c>
       <c r="F65">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2150,10 +2150,10 @@
         <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F66">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2173,7 +2173,7 @@
         <v>123</v>
       </c>
       <c r="F67">
-        <v>342</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2193,7 +2193,7 @@
         <v>144</v>
       </c>
       <c r="F68">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2213,7 +2213,7 @@
         <v>145</v>
       </c>
       <c r="F69">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2233,7 +2233,7 @@
         <v>146</v>
       </c>
       <c r="F70">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2250,10 +2250,10 @@
         <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F71">
-        <v>194</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2270,10 +2270,10 @@
         <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F72">
-        <v>8533</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2293,7 +2293,7 @@
         <v>147</v>
       </c>
       <c r="F73">
-        <v>119</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2313,7 +2313,7 @@
         <v>146</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2333,7 +2333,7 @@
         <v>148</v>
       </c>
       <c r="F75">
-        <v>64</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2353,7 +2353,7 @@
         <v>149</v>
       </c>
       <c r="F76">
-        <v>687</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2373,7 +2373,7 @@
         <v>150</v>
       </c>
       <c r="F77">
-        <v>1678</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2390,10 +2390,10 @@
         <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F78">
-        <v>1456</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2410,10 +2410,10 @@
         <v>116</v>
       </c>
       <c r="E79" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F79">
-        <v>198</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2433,7 +2433,7 @@
         <v>152</v>
       </c>
       <c r="F80">
-        <v>192</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Code\GPM_new\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D3259-BB03-4725-8154-89F236584601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-1080" yWindow="4392" windowWidth="23004" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,7 +37,19 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>YesterdaySales</t>
+    <t>YesterdaySalesQty</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TP Sales Value</t>
+  </si>
+  <si>
+    <t>Net Sales Value</t>
+  </si>
+  <si>
+    <t>Discount</t>
   </si>
   <si>
     <t>Augment</t>
@@ -133,21 +151,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>Augment 375 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
-    <t>Augment 375 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -157,30 +175,30 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
@@ -214,18 +232,18 @@
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -235,24 +253,24 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
@@ -268,57 +286,57 @@
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
+    <t>Osticare Tablet 30's</t>
+  </si>
+  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
-    <t>Osticare Tablet 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule</t>
-  </si>
-  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Stiba 30ml Syrup</t>
+  </si>
+  <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
-  </si>
-  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
@@ -328,12 +346,12 @@
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 5mg IM/IV</t>
+  </si>
+  <si>
     <t>Timothy 50mg Tablet</t>
   </si>
   <si>
-    <t>Timothy 5mg IM/IV</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -355,19 +373,22 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
+    <t>1's</t>
   </si>
   <si>
     <t>18's</t>
@@ -376,9 +397,6 @@
     <t>12's</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -388,12 +406,12 @@
     <t>50 's</t>
   </si>
   <si>
+    <t>50 ml</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>50 ml</t>
-  </si>
-  <si>
     <t>100 ml</t>
   </si>
   <si>
@@ -427,24 +445,24 @@
     <t>24's</t>
   </si>
   <si>
+    <t>15 gm</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
-    <t>15 gm</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 50 's</t>
   </si>
   <si>
     <t>60 ml</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -463,6 +481,9 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>50ml</t>
+  </si>
+  <si>
     <t>35ml</t>
   </si>
   <si>
@@ -470,16 +491,13 @@
   </si>
   <si>
     <t>12 's</t>
-  </si>
-  <si>
-    <t>50ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +560,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -588,7 +614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,9 +646,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,6 +698,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -829,14 +891,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,1585 +931,2545 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>270</v>
+      </c>
+      <c r="G2">
+        <v>206.15</v>
+      </c>
+      <c r="H2">
+        <v>55660.5</v>
+      </c>
+      <c r="I2">
+        <v>55660.5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G3">
+        <v>269.87</v>
+      </c>
+      <c r="H3">
+        <v>20510.12</v>
+      </c>
+      <c r="I3">
+        <v>20510.12</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>269.87</v>
+      </c>
+      <c r="H4">
+        <v>7016.62</v>
+      </c>
+      <c r="I4">
+        <v>7016.62</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F5">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>327</v>
+      </c>
+      <c r="G5">
+        <v>337.33</v>
+      </c>
+      <c r="H5">
+        <v>110306.91</v>
+      </c>
+      <c r="I5">
+        <v>110306.91</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>182</v>
+      </c>
+      <c r="G6">
+        <v>131.18</v>
+      </c>
+      <c r="H6">
+        <v>23874.76</v>
+      </c>
+      <c r="I6">
+        <v>23874.76</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F7">
         <v>1933</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>224.89</v>
+      </c>
+      <c r="H7">
+        <v>434712.37</v>
+      </c>
+      <c r="I7">
+        <v>434712.37</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>239.88</v>
+      </c>
+      <c r="H8">
+        <v>479.76</v>
+      </c>
+      <c r="I8">
+        <v>479.76</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>112.45</v>
+      </c>
+      <c r="H9">
+        <v>2811.25</v>
+      </c>
+      <c r="I9">
+        <v>2811.25</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1363</v>
+      </c>
+      <c r="G10">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="H10">
+        <v>49040.74</v>
+      </c>
+      <c r="I10">
+        <v>49040.74</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F11">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>728</v>
+      </c>
+      <c r="G11">
+        <v>239.88</v>
+      </c>
+      <c r="H11">
+        <v>174632.64</v>
+      </c>
+      <c r="I11">
+        <v>174632.64</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F12">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="G12">
+        <v>104.95</v>
+      </c>
+      <c r="H12">
+        <v>9970.25</v>
+      </c>
+      <c r="I12">
+        <v>9970.25</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F13">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>299.85000000000002</v>
+      </c>
+      <c r="H13">
+        <v>26386.799999999999</v>
+      </c>
+      <c r="I13">
+        <v>26386.799999999999</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F14">
         <v>1048</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>29.99</v>
+      </c>
+      <c r="H14">
+        <v>31429.52</v>
+      </c>
+      <c r="I14">
+        <v>31429.52</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F15">
         <v>2318</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>314.83999999999997</v>
+      </c>
+      <c r="H15">
+        <v>729799.12</v>
+      </c>
+      <c r="I15">
+        <v>729799.12</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1104</v>
+      </c>
+      <c r="G16">
+        <v>262.37</v>
+      </c>
+      <c r="H16">
+        <v>289656.48</v>
+      </c>
+      <c r="I16">
+        <v>289656.48</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F17">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>2148</v>
+      </c>
+      <c r="G17">
+        <v>359.82</v>
+      </c>
+      <c r="H17">
+        <v>772893.36</v>
+      </c>
+      <c r="I17">
+        <v>772893.36</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F18">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>179.91</v>
+      </c>
+      <c r="H18">
+        <v>16191.9</v>
+      </c>
+      <c r="I18">
+        <v>16191.9</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>168.67</v>
+      </c>
+      <c r="H19">
+        <v>6746.8</v>
+      </c>
+      <c r="I19">
+        <v>6746.8</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F20">
         <v>277</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>432.53</v>
+      </c>
+      <c r="H20">
+        <v>119810.81</v>
+      </c>
+      <c r="I20">
+        <v>119810.81</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>33.94</v>
+      </c>
+      <c r="H21">
+        <v>10894.74</v>
+      </c>
+      <c r="I21">
+        <v>10894.74</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F22">
         <v>5043</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>45.73</v>
+      </c>
+      <c r="H22">
+        <v>230616.39</v>
+      </c>
+      <c r="I22">
+        <v>199154.15</v>
+      </c>
+      <c r="J22">
+        <v>31462.240000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F23">
         <v>2715</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>314.83999999999997</v>
+      </c>
+      <c r="H23">
+        <v>854790.6</v>
+      </c>
+      <c r="I23">
+        <v>804731.04</v>
+      </c>
+      <c r="J23">
+        <v>50059.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F24">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>224.89</v>
+      </c>
+      <c r="H24">
+        <v>37781.519999999997</v>
+      </c>
+      <c r="I24">
+        <v>37781.519999999997</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F25">
         <v>1256</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>22.83</v>
+      </c>
+      <c r="H25">
+        <v>28674.48</v>
+      </c>
+      <c r="I25">
+        <v>29852.080000000002</v>
+      </c>
+      <c r="J25">
+        <v>-1177.5999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F26">
         <v>697</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>37.61</v>
+      </c>
+      <c r="H26">
+        <v>26214.17</v>
+      </c>
+      <c r="I26">
+        <v>26214.17</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>149.93</v>
+      </c>
+      <c r="H27">
+        <v>149.93</v>
+      </c>
+      <c r="I27">
+        <v>149.93</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F28">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>224.89</v>
+      </c>
+      <c r="H28">
+        <v>10569.83</v>
+      </c>
+      <c r="I28">
+        <v>10569.83</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>337.33</v>
+      </c>
+      <c r="H29">
+        <v>15179.85</v>
+      </c>
+      <c r="I29">
+        <v>15179.85</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F30">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G30">
+        <v>93.7</v>
+      </c>
+      <c r="H30">
+        <v>5153.5</v>
+      </c>
+      <c r="I30">
+        <v>5153.5</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F31">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>89.96</v>
+      </c>
+      <c r="H31">
+        <v>8906.0400000000009</v>
+      </c>
+      <c r="I31">
+        <v>8906.0400000000009</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F32">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>179.91</v>
+      </c>
+      <c r="H32">
+        <v>359.82</v>
+      </c>
+      <c r="I32">
+        <v>359.82</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>449.78</v>
+      </c>
+      <c r="H33">
+        <v>4497.8</v>
+      </c>
+      <c r="I33">
+        <v>4497.8</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>395.8</v>
+      </c>
+      <c r="H34">
+        <v>42746.400000000001</v>
+      </c>
+      <c r="I34">
+        <v>42746.400000000001</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F35">
         <v>946</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>337.33</v>
+      </c>
+      <c r="H35">
+        <v>319114.18</v>
+      </c>
+      <c r="I35">
+        <v>319114.18</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F36">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G36">
+        <v>52.47</v>
+      </c>
+      <c r="H36">
+        <v>3095.73</v>
+      </c>
+      <c r="I36">
+        <v>3095.73</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F37">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>709</v>
+      </c>
+      <c r="G37">
+        <v>350.82</v>
+      </c>
+      <c r="H37">
+        <v>248731.38</v>
+      </c>
+      <c r="I37">
+        <v>248731.38</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F38">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>280</v>
+      </c>
+      <c r="G38">
+        <v>52.47</v>
+      </c>
+      <c r="H38">
+        <v>14691.6</v>
+      </c>
+      <c r="I38">
+        <v>14691.6</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F39">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>213</v>
+      </c>
+      <c r="G39">
+        <v>262.37</v>
+      </c>
+      <c r="H39">
+        <v>55884.81</v>
+      </c>
+      <c r="I39">
+        <v>55884.81</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F40">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>603</v>
+      </c>
+      <c r="G40">
+        <v>412.3</v>
+      </c>
+      <c r="H40">
+        <v>248616.9</v>
+      </c>
+      <c r="I40">
+        <v>248204.6</v>
+      </c>
+      <c r="J40">
+        <v>412.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F41">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>256</v>
+      </c>
+      <c r="G41">
+        <v>247.38</v>
+      </c>
+      <c r="H41">
+        <v>63329.279999999999</v>
+      </c>
+      <c r="I41">
+        <v>63329.279999999999</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>224.89</v>
+      </c>
+      <c r="H42">
+        <v>8995.6</v>
+      </c>
+      <c r="I42">
+        <v>8995.6</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F43">
         <v>399</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>22.49</v>
+      </c>
+      <c r="H43">
+        <v>8973.51</v>
+      </c>
+      <c r="I43">
+        <v>8973.51</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F44">
         <v>1624</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>22.49</v>
+      </c>
+      <c r="H44">
+        <v>36523.760000000002</v>
+      </c>
+      <c r="I44">
+        <v>36343.839999999997</v>
+      </c>
+      <c r="J44">
+        <v>179.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F45">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>119.94</v>
+      </c>
+      <c r="H45">
+        <v>2638.68</v>
+      </c>
+      <c r="I45">
+        <v>2638.68</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F46">
         <v>1205</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>299.85000000000002</v>
+      </c>
+      <c r="H46">
+        <v>361319.25</v>
+      </c>
+      <c r="I46">
+        <v>361319.25</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>353</v>
+      </c>
+      <c r="G47">
+        <v>269.87</v>
+      </c>
+      <c r="H47">
+        <v>95264.11</v>
+      </c>
+      <c r="I47">
+        <v>95264.11</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F48">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <v>269.87</v>
+      </c>
+      <c r="H48">
+        <v>6746.75</v>
+      </c>
+      <c r="I48">
+        <v>6746.75</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F49">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>299.85000000000002</v>
+      </c>
+      <c r="H49">
+        <v>33283.35</v>
+      </c>
+      <c r="I49">
+        <v>33283.35</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F50">
         <v>950</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="H50">
+        <v>71212</v>
+      </c>
+      <c r="I50">
+        <v>63940.88</v>
+      </c>
+      <c r="J50">
+        <v>7271.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <v>224.89</v>
+      </c>
+      <c r="H51">
+        <v>11019.61</v>
+      </c>
+      <c r="I51">
+        <v>2248.9</v>
+      </c>
+      <c r="J51">
+        <v>8770.7099999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
         <v>133</v>
       </c>
       <c r="F52">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>191.15</v>
+      </c>
+      <c r="H52">
+        <v>2867.25</v>
+      </c>
+      <c r="I52">
+        <v>2867.25</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="H53">
+        <v>149.91999999999999</v>
+      </c>
+      <c r="I53">
+        <v>149.91999999999999</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F54">
         <v>264</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>449.78</v>
+      </c>
+      <c r="H54">
+        <v>118741.92</v>
+      </c>
+      <c r="I54">
+        <v>113794.34</v>
+      </c>
+      <c r="J54">
+        <v>4947.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F55">
         <v>124</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>224.89</v>
+      </c>
+      <c r="H55">
+        <v>27886.36</v>
+      </c>
+      <c r="I55">
+        <v>27886.36</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F56">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>219.13</v>
+      </c>
+      <c r="H56">
+        <v>219.13</v>
+      </c>
+      <c r="I56">
+        <v>219.13</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F57">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>1058</v>
+      </c>
+      <c r="G57">
+        <v>35.68</v>
+      </c>
+      <c r="H57">
+        <v>37749.440000000002</v>
+      </c>
+      <c r="I57">
+        <v>37749.440000000002</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F58">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G58">
+        <v>22.64</v>
+      </c>
+      <c r="H58">
+        <v>3011.12</v>
+      </c>
+      <c r="I58">
+        <v>3011.12</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F59">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G59">
+        <v>266.12</v>
+      </c>
+      <c r="H59">
+        <v>13039.88</v>
+      </c>
+      <c r="I59">
+        <v>13039.88</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>1006</v>
+      </c>
+      <c r="G60">
+        <v>228.26</v>
+      </c>
+      <c r="H60">
+        <v>229629.56</v>
+      </c>
+      <c r="I60">
+        <v>229629.56</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F61">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>51.12</v>
+      </c>
+      <c r="H61">
+        <v>1329.12</v>
+      </c>
+      <c r="I61">
+        <v>1329.12</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F62">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G62">
+        <v>44.98</v>
+      </c>
+      <c r="H62">
+        <v>3103.62</v>
+      </c>
+      <c r="I62">
+        <v>3103.62</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F63">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>153</v>
+      </c>
+      <c r="G63">
+        <v>179.91</v>
+      </c>
+      <c r="H63">
+        <v>27526.23</v>
+      </c>
+      <c r="I63">
+        <v>27526.23</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F64">
         <v>99</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>187.41</v>
+      </c>
+      <c r="H64">
+        <v>18553.59</v>
+      </c>
+      <c r="I64">
+        <v>18553.59</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F65">
         <v>279</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>142.43</v>
+      </c>
+      <c r="H65">
+        <v>39737.97</v>
+      </c>
+      <c r="I65">
+        <v>39737.97</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F66">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>179.91</v>
+      </c>
+      <c r="H66">
+        <v>8275.86</v>
+      </c>
+      <c r="I66">
+        <v>8275.86</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F67">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>109</v>
+      </c>
+      <c r="G67">
+        <v>56.22</v>
+      </c>
+      <c r="H67">
+        <v>6127.98</v>
+      </c>
+      <c r="I67">
+        <v>6127.98</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="F68">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>301</v>
+      </c>
+      <c r="G68">
+        <v>149.93</v>
+      </c>
+      <c r="H68">
+        <v>45128.93</v>
+      </c>
+      <c r="I68">
+        <v>45128.93</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F69">
         <v>239</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>359.82</v>
+      </c>
+      <c r="H69">
+        <v>85996.98</v>
+      </c>
+      <c r="I69">
+        <v>85996.98</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F70">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>134.93</v>
+      </c>
+      <c r="H70">
+        <v>5397.2</v>
+      </c>
+      <c r="I70">
+        <v>5397.2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F71">
         <v>6285</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>41.23</v>
+      </c>
+      <c r="H71">
+        <v>259130.55</v>
+      </c>
+      <c r="I71">
+        <v>237154.96</v>
+      </c>
+      <c r="J71">
+        <v>21975.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F72">
         <v>151</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>187.41</v>
+      </c>
+      <c r="H72">
+        <v>28298.91</v>
+      </c>
+      <c r="I72">
+        <v>28298.91</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F73">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>299.85000000000002</v>
+      </c>
+      <c r="H73">
+        <v>20089.95</v>
+      </c>
+      <c r="I73">
+        <v>20089.95</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F74">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>134.93</v>
+      </c>
+      <c r="H74">
+        <v>1484.23</v>
+      </c>
+      <c r="I74">
+        <v>1484.23</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F75">
         <v>179</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>29.99</v>
+      </c>
+      <c r="H75">
+        <v>5368.21</v>
+      </c>
+      <c r="I75">
+        <v>5368.21</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F76">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>194</v>
+      </c>
+      <c r="G76">
+        <v>224.89</v>
+      </c>
+      <c r="H76">
+        <v>43628.66</v>
+      </c>
+      <c r="I76">
+        <v>43628.66</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C77">
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F77">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="G77">
+        <v>143.93</v>
+      </c>
+      <c r="H77">
+        <v>38429.31</v>
+      </c>
+      <c r="I77">
+        <v>38429.31</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C78">
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F78">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>1481</v>
+      </c>
+      <c r="G78">
+        <v>104.95</v>
+      </c>
+      <c r="H78">
+        <v>155430.95000000001</v>
+      </c>
+      <c r="I78">
+        <v>148294.35</v>
+      </c>
+      <c r="J78">
+        <v>7136.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C79">
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F79">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>580</v>
+      </c>
+      <c r="G79">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="H79">
+        <v>41301.800000000003</v>
+      </c>
+      <c r="I79">
+        <v>40233.65</v>
+      </c>
+      <c r="J79">
+        <v>1068.1500000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C80">
         <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F80">
-        <v>267</v>
+        <v>1107</v>
+      </c>
+      <c r="G80">
+        <v>314.83999999999997</v>
+      </c>
+      <c r="H80">
+        <v>348527.88</v>
+      </c>
+      <c r="I80">
+        <v>334045.24</v>
+      </c>
+      <c r="J80">
+        <v>14482.64</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Code\GPM_new\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D3259-BB03-4725-8154-89F236584601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="4392" windowWidth="23004" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -151,12 +145,12 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 375 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
-    <t>Augment 375 Tablet 18's</t>
-  </si>
-  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
@@ -175,18 +169,18 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
@@ -208,13 +202,16 @@
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
+    <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet - 30's</t>
@@ -223,24 +220,21 @@
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
@@ -253,96 +247,96 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin 10mg Tablet</t>
+    <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
     <t>Osticare Tablet 30's</t>
   </si>
   <si>
-    <t>Osticare FC Tab Container 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
+    <t>Sulidac 200 Tablet 20's</t>
+  </si>
+  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
-    <t>Sulidac 200 Tablet 20's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
@@ -373,27 +367,27 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
+    <t>18's</t>
   </si>
   <si>
     <t>1's</t>
   </si>
   <si>
-    <t>18's</t>
-  </si>
-  <si>
     <t>12's</t>
   </si>
   <si>
@@ -406,12 +400,12 @@
     <t>50 's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>50 ml</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100 ml</t>
   </si>
   <si>
@@ -445,24 +439,24 @@
     <t>24's</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
+    <t>36's</t>
+  </si>
+  <si>
     <t>15 gm</t>
   </si>
   <si>
-    <t>36's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
     <t>48 's</t>
   </si>
   <si>
-    <t>15 ml</t>
-  </si>
-  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -484,20 +478,20 @@
     <t>50ml</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>35ml</t>
   </si>
   <si>
     <t>20ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,14 +554,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -614,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,27 +632,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,24 +666,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -891,28 +841,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -961,22 +897,22 @@
         <v>122</v>
       </c>
       <c r="F2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="G2">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="H2">
-        <v>55660.5</v>
+        <v>20510.12</v>
       </c>
       <c r="I2">
-        <v>55660.5</v>
+        <v>20510.12</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -993,22 +929,22 @@
         <v>123</v>
       </c>
       <c r="F3">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="G3">
-        <v>269.87</v>
+        <v>206.15</v>
       </c>
       <c r="H3">
-        <v>20510.12</v>
+        <v>55660.5</v>
       </c>
       <c r="I3">
-        <v>20510.12</v>
+        <v>55660.5</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1040,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1054,7 +990,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>327</v>
@@ -1072,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1086,7 +1022,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>182</v>
@@ -1104,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1136,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1168,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1200,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1217,22 +1153,22 @@
         <v>128</v>
       </c>
       <c r="F10">
-        <v>1363</v>
+        <v>95</v>
       </c>
       <c r="G10">
-        <v>35.979999999999997</v>
+        <v>104.95</v>
       </c>
       <c r="H10">
-        <v>49040.74</v>
+        <v>9970.25</v>
       </c>
       <c r="I10">
-        <v>49040.74</v>
+        <v>9970.25</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1246,25 +1182,25 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11">
-        <v>728</v>
+        <v>88</v>
       </c>
       <c r="G11">
-        <v>239.88</v>
+        <v>299.85</v>
       </c>
       <c r="H11">
-        <v>174632.64</v>
+        <v>26386.8</v>
       </c>
       <c r="I11">
-        <v>174632.64</v>
+        <v>26386.8</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1281,22 +1217,22 @@
         <v>129</v>
       </c>
       <c r="F12">
-        <v>95</v>
+        <v>1363</v>
       </c>
       <c r="G12">
-        <v>104.95</v>
+        <v>35.98</v>
       </c>
       <c r="H12">
-        <v>9970.25</v>
+        <v>49040.74</v>
       </c>
       <c r="I12">
-        <v>9970.25</v>
+        <v>49040.74</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1310,25 +1246,25 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13">
-        <v>88</v>
+        <v>728</v>
       </c>
       <c r="G13">
-        <v>299.85000000000002</v>
+        <v>239.88</v>
       </c>
       <c r="H13">
-        <v>26386.799999999999</v>
+        <v>174632.64</v>
       </c>
       <c r="I13">
-        <v>26386.799999999999</v>
+        <v>174632.64</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1360,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1380,7 +1316,7 @@
         <v>2318</v>
       </c>
       <c r="G15">
-        <v>314.83999999999997</v>
+        <v>314.84</v>
       </c>
       <c r="H15">
         <v>729799.12</v>
@@ -1392,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1424,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1438,7 +1374,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17">
         <v>2148</v>
@@ -1456,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1488,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1520,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>9</v>
       </c>
@@ -1552,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1566,25 +1502,25 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F21">
-        <v>321</v>
+        <v>2715</v>
       </c>
       <c r="G21">
-        <v>33.94</v>
+        <v>314.84</v>
       </c>
       <c r="H21">
-        <v>10894.74</v>
+        <v>854790.6</v>
       </c>
       <c r="I21">
-        <v>10894.74</v>
+        <v>804731.04</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50059.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>9</v>
       </c>
@@ -1598,25 +1534,25 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F22">
-        <v>5043</v>
+        <v>321</v>
       </c>
       <c r="G22">
-        <v>45.73</v>
+        <v>33.94</v>
       </c>
       <c r="H22">
-        <v>230616.39</v>
+        <v>10894.74</v>
       </c>
       <c r="I22">
-        <v>199154.15</v>
+        <v>10894.74</v>
       </c>
       <c r="J22">
-        <v>31462.240000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1630,25 +1566,25 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>2715</v>
+        <v>5043</v>
       </c>
       <c r="G23">
-        <v>314.83999999999997</v>
+        <v>45.73</v>
       </c>
       <c r="H23">
-        <v>854790.6</v>
+        <v>230616.39</v>
       </c>
       <c r="I23">
-        <v>804731.04</v>
+        <v>199154.15</v>
       </c>
       <c r="J23">
-        <v>50059.56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>31462.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>11</v>
       </c>
@@ -1662,25 +1598,25 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F24">
-        <v>168</v>
+        <v>697</v>
       </c>
       <c r="G24">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H24">
-        <v>37781.519999999997</v>
+        <v>26214.17</v>
       </c>
       <c r="I24">
-        <v>37781.519999999997</v>
+        <v>26214.17</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>11</v>
       </c>
@@ -1694,25 +1630,25 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F25">
-        <v>1256</v>
+        <v>168</v>
       </c>
       <c r="G25">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="H25">
-        <v>28674.48</v>
+        <v>37781.52</v>
       </c>
       <c r="I25">
-        <v>29852.080000000002</v>
+        <v>37781.52</v>
       </c>
       <c r="J25">
-        <v>-1177.5999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>11</v>
       </c>
@@ -1729,22 +1665,22 @@
         <v>135</v>
       </c>
       <c r="F26">
-        <v>697</v>
+        <v>1256</v>
       </c>
       <c r="G26">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="H26">
-        <v>26214.17</v>
+        <v>28674.48</v>
       </c>
       <c r="I26">
-        <v>26214.17</v>
+        <v>29852.08</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-1177.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1776,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>13</v>
       </c>
@@ -1808,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>14</v>
       </c>
@@ -1822,25 +1758,25 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F29">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="G29">
-        <v>337.33</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H29">
-        <v>15179.85</v>
+        <v>8906.040000000001</v>
       </c>
       <c r="I29">
-        <v>15179.85</v>
+        <v>8906.040000000001</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>14</v>
       </c>
@@ -1854,25 +1790,25 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F30">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G30">
-        <v>93.7</v>
+        <v>337.33</v>
       </c>
       <c r="H30">
-        <v>5153.5</v>
+        <v>15179.85</v>
       </c>
       <c r="I30">
-        <v>5153.5</v>
+        <v>15179.85</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>14</v>
       </c>
@@ -1886,25 +1822,25 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F31">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G31">
-        <v>89.96</v>
+        <v>93.7</v>
       </c>
       <c r="H31">
-        <v>8906.0400000000009</v>
+        <v>5153.5</v>
       </c>
       <c r="I31">
-        <v>8906.0400000000009</v>
+        <v>5153.5</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>14</v>
       </c>
@@ -1936,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>15</v>
       </c>
@@ -1968,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>16</v>
       </c>
@@ -1991,16 +1927,16 @@
         <v>395.8</v>
       </c>
       <c r="H34">
-        <v>42746.400000000001</v>
+        <v>42746.4</v>
       </c>
       <c r="I34">
-        <v>42746.400000000001</v>
+        <v>42746.4</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>16</v>
       </c>
@@ -2032,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>17</v>
       </c>
@@ -2049,22 +1985,22 @@
         <v>141</v>
       </c>
       <c r="F36">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="G36">
-        <v>52.47</v>
+        <v>262.37</v>
       </c>
       <c r="H36">
-        <v>3095.73</v>
+        <v>55884.81</v>
       </c>
       <c r="I36">
-        <v>3095.73</v>
+        <v>55884.81</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2078,25 +2014,25 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F37">
-        <v>709</v>
+        <v>256</v>
       </c>
       <c r="G37">
-        <v>350.82</v>
+        <v>247.38</v>
       </c>
       <c r="H37">
-        <v>248731.38</v>
+        <v>63329.28</v>
       </c>
       <c r="I37">
-        <v>248731.38</v>
+        <v>63329.28</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>17</v>
       </c>
@@ -2110,25 +2046,25 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F38">
-        <v>280</v>
+        <v>709</v>
       </c>
       <c r="G38">
-        <v>52.47</v>
+        <v>350.82</v>
       </c>
       <c r="H38">
-        <v>14691.6</v>
+        <v>248731.38</v>
       </c>
       <c r="I38">
-        <v>14691.6</v>
+        <v>248731.38</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>17</v>
       </c>
@@ -2142,25 +2078,25 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F39">
-        <v>213</v>
+        <v>603</v>
       </c>
       <c r="G39">
-        <v>262.37</v>
+        <v>412.3</v>
       </c>
       <c r="H39">
-        <v>55884.81</v>
+        <v>248616.9</v>
       </c>
       <c r="I39">
-        <v>55884.81</v>
+        <v>248204.6</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>412.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>17</v>
       </c>
@@ -2174,25 +2110,25 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F40">
-        <v>603</v>
+        <v>280</v>
       </c>
       <c r="G40">
-        <v>412.3</v>
+        <v>52.47</v>
       </c>
       <c r="H40">
-        <v>248616.9</v>
+        <v>14691.6</v>
       </c>
       <c r="I40">
-        <v>248204.6</v>
+        <v>14691.6</v>
       </c>
       <c r="J40">
-        <v>412.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>17</v>
       </c>
@@ -2206,25 +2142,25 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F41">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="G41">
-        <v>247.38</v>
+        <v>52.47</v>
       </c>
       <c r="H41">
-        <v>63329.279999999999</v>
+        <v>3095.73</v>
       </c>
       <c r="I41">
-        <v>63329.279999999999</v>
+        <v>3095.73</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>18</v>
       </c>
@@ -2256,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>18</v>
       </c>
@@ -2288,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>19</v>
       </c>
@@ -2302,25 +2238,25 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F44">
-        <v>1624</v>
+        <v>22</v>
       </c>
       <c r="G44">
-        <v>22.49</v>
+        <v>119.94</v>
       </c>
       <c r="H44">
-        <v>36523.760000000002</v>
+        <v>2638.68</v>
       </c>
       <c r="I44">
-        <v>36343.839999999997</v>
+        <v>2638.68</v>
       </c>
       <c r="J44">
-        <v>179.92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>19</v>
       </c>
@@ -2334,25 +2270,25 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F45">
-        <v>22</v>
+        <v>1205</v>
       </c>
       <c r="G45">
-        <v>119.94</v>
+        <v>299.85</v>
       </c>
       <c r="H45">
-        <v>2638.68</v>
+        <v>361319.25</v>
       </c>
       <c r="I45">
-        <v>2638.68</v>
+        <v>361319.25</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>19</v>
       </c>
@@ -2366,25 +2302,25 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F46">
-        <v>1205</v>
+        <v>1624</v>
       </c>
       <c r="G46">
-        <v>299.85000000000002</v>
+        <v>22.49</v>
       </c>
       <c r="H46">
-        <v>361319.25</v>
+        <v>36523.76</v>
       </c>
       <c r="I46">
-        <v>361319.25</v>
+        <v>36343.84</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>179.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>20</v>
       </c>
@@ -2401,22 +2337,22 @@
         <v>131</v>
       </c>
       <c r="F47">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>95264.11</v>
+        <v>6746.75</v>
       </c>
       <c r="I47">
-        <v>95264.11</v>
+        <v>6746.75</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>20</v>
       </c>
@@ -2433,22 +2369,22 @@
         <v>131</v>
       </c>
       <c r="F48">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="G48">
         <v>269.87</v>
       </c>
       <c r="H48">
-        <v>6746.75</v>
+        <v>95264.11</v>
       </c>
       <c r="I48">
-        <v>6746.75</v>
+        <v>95264.11</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>21</v>
       </c>
@@ -2468,7 +2404,7 @@
         <v>111</v>
       </c>
       <c r="G49">
-        <v>299.85000000000002</v>
+        <v>299.85</v>
       </c>
       <c r="H49">
         <v>33283.35</v>
@@ -2480,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>22</v>
       </c>
@@ -2494,25 +2430,25 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F50">
-        <v>950</v>
+        <v>15</v>
       </c>
       <c r="G50">
-        <v>74.959999999999994</v>
+        <v>191.15</v>
       </c>
       <c r="H50">
-        <v>71212</v>
+        <v>2867.25</v>
       </c>
       <c r="I50">
-        <v>63940.88</v>
+        <v>2867.25</v>
       </c>
       <c r="J50">
-        <v>7271.12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>22</v>
       </c>
@@ -2541,10 +2477,10 @@
         <v>2248.9</v>
       </c>
       <c r="J51">
-        <v>8770.7099999999991</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8770.709999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2558,25 +2494,25 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F52">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="G52">
-        <v>191.15</v>
+        <v>449.78</v>
       </c>
       <c r="H52">
-        <v>2867.25</v>
+        <v>118741.92</v>
       </c>
       <c r="I52">
-        <v>2867.25</v>
+        <v>113794.34</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4947.58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>22</v>
       </c>
@@ -2590,25 +2526,25 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53">
-        <v>74.959999999999994</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H53">
-        <v>149.91999999999999</v>
+        <v>149.92</v>
       </c>
       <c r="I53">
-        <v>149.91999999999999</v>
+        <v>149.92</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>22</v>
       </c>
@@ -2622,25 +2558,25 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F54">
-        <v>264</v>
+        <v>950</v>
       </c>
       <c r="G54">
-        <v>449.78</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H54">
-        <v>118741.92</v>
+        <v>71212</v>
       </c>
       <c r="I54">
-        <v>113794.34</v>
+        <v>63940.88</v>
       </c>
       <c r="J54">
-        <v>4947.58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7271.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>23</v>
       </c>
@@ -2672,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>24</v>
       </c>
@@ -2686,25 +2622,25 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G56">
-        <v>219.13</v>
+        <v>51.12</v>
       </c>
       <c r="H56">
-        <v>219.13</v>
+        <v>1329.12</v>
       </c>
       <c r="I56">
-        <v>219.13</v>
+        <v>1329.12</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>24</v>
       </c>
@@ -2718,25 +2654,25 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F57">
-        <v>1058</v>
+        <v>133</v>
       </c>
       <c r="G57">
-        <v>35.68</v>
+        <v>22.64</v>
       </c>
       <c r="H57">
-        <v>37749.440000000002</v>
+        <v>3011.12</v>
       </c>
       <c r="I57">
-        <v>37749.440000000002</v>
+        <v>3011.12</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>24</v>
       </c>
@@ -2753,22 +2689,22 @@
         <v>146</v>
       </c>
       <c r="F58">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>22.64</v>
+        <v>219.13</v>
       </c>
       <c r="H58">
-        <v>3011.12</v>
+        <v>219.13</v>
       </c>
       <c r="I58">
-        <v>3011.12</v>
+        <v>219.13</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>24</v>
       </c>
@@ -2782,25 +2718,25 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F59">
-        <v>49</v>
+        <v>1058</v>
       </c>
       <c r="G59">
-        <v>266.12</v>
+        <v>35.68</v>
       </c>
       <c r="H59">
-        <v>13039.88</v>
+        <v>37749.44</v>
       </c>
       <c r="I59">
-        <v>13039.88</v>
+        <v>37749.44</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>24</v>
       </c>
@@ -2814,25 +2750,25 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F60">
-        <v>1006</v>
+        <v>49</v>
       </c>
       <c r="G60">
-        <v>228.26</v>
+        <v>266.12</v>
       </c>
       <c r="H60">
-        <v>229629.56</v>
+        <v>13039.88</v>
       </c>
       <c r="I60">
-        <v>229629.56</v>
+        <v>13039.88</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>24</v>
       </c>
@@ -2846,25 +2782,25 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F61">
-        <v>26</v>
+        <v>1006</v>
       </c>
       <c r="G61">
-        <v>51.12</v>
+        <v>228.26</v>
       </c>
       <c r="H61">
-        <v>1329.12</v>
+        <v>229629.56</v>
       </c>
       <c r="I61">
-        <v>1329.12</v>
+        <v>229629.56</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>25</v>
       </c>
@@ -2896,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>25</v>
       </c>
@@ -2928,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>26</v>
       </c>
@@ -2942,25 +2878,25 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F64">
-        <v>99</v>
+        <v>279</v>
       </c>
       <c r="G64">
-        <v>187.41</v>
+        <v>142.43</v>
       </c>
       <c r="H64">
-        <v>18553.59</v>
+        <v>39737.97</v>
       </c>
       <c r="I64">
-        <v>18553.59</v>
+        <v>39737.97</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>26</v>
       </c>
@@ -2974,25 +2910,25 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F65">
-        <v>279</v>
+        <v>99</v>
       </c>
       <c r="G65">
-        <v>142.43</v>
+        <v>187.41</v>
       </c>
       <c r="H65">
-        <v>39737.97</v>
+        <v>18553.59</v>
       </c>
       <c r="I65">
-        <v>39737.97</v>
+        <v>18553.59</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>27</v>
       </c>
@@ -3015,16 +2951,16 @@
         <v>179.91</v>
       </c>
       <c r="H66">
-        <v>8275.86</v>
+        <v>8275.860000000001</v>
       </c>
       <c r="I66">
-        <v>8275.86</v>
+        <v>8275.860000000001</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>28</v>
       </c>
@@ -3056,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>28</v>
       </c>
@@ -3088,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>29</v>
       </c>
@@ -3120,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>30</v>
       </c>
@@ -3152,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>31</v>
       </c>
@@ -3184,7 +3120,7 @@
         <v>21975.59</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>31</v>
       </c>
@@ -3216,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>32</v>
       </c>
@@ -3236,7 +3172,7 @@
         <v>67</v>
       </c>
       <c r="G73">
-        <v>299.85000000000002</v>
+        <v>299.85</v>
       </c>
       <c r="H73">
         <v>20089.95</v>
@@ -3248,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>33</v>
       </c>
@@ -3280,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>34</v>
       </c>
@@ -3312,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>35</v>
       </c>
@@ -3326,25 +3262,25 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F76">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="G76">
-        <v>224.89</v>
+        <v>143.93</v>
       </c>
       <c r="H76">
-        <v>43628.66</v>
+        <v>38429.31</v>
       </c>
       <c r="I76">
-        <v>43628.66</v>
+        <v>38429.31</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>35</v>
       </c>
@@ -3358,25 +3294,25 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F77">
-        <v>267</v>
+        <v>1107</v>
       </c>
       <c r="G77">
-        <v>143.93</v>
+        <v>314.84</v>
       </c>
       <c r="H77">
-        <v>38429.31</v>
+        <v>348527.88</v>
       </c>
       <c r="I77">
-        <v>38429.31</v>
+        <v>334045.24</v>
       </c>
       <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14482.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>35</v>
       </c>
@@ -3390,25 +3326,25 @@
         <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F78">
-        <v>1481</v>
+        <v>194</v>
       </c>
       <c r="G78">
-        <v>104.95</v>
+        <v>224.89</v>
       </c>
       <c r="H78">
-        <v>155430.95000000001</v>
+        <v>43628.66</v>
       </c>
       <c r="I78">
-        <v>148294.35</v>
+        <v>43628.66</v>
       </c>
       <c r="J78">
-        <v>7136.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>35</v>
       </c>
@@ -3425,22 +3361,22 @@
         <v>155</v>
       </c>
       <c r="F79">
-        <v>580</v>
+        <v>1481</v>
       </c>
       <c r="G79">
-        <v>71.209999999999994</v>
+        <v>104.95</v>
       </c>
       <c r="H79">
-        <v>41301.800000000003</v>
+        <v>155430.95</v>
       </c>
       <c r="I79">
-        <v>40233.65</v>
+        <v>148294.35</v>
       </c>
       <c r="J79">
-        <v>1068.1500000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7136.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>35</v>
       </c>
@@ -3457,19 +3393,19 @@
         <v>156</v>
       </c>
       <c r="F80">
-        <v>1107</v>
+        <v>580</v>
       </c>
       <c r="G80">
-        <v>314.83999999999997</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H80">
-        <v>348527.88</v>
+        <v>41301.8</v>
       </c>
       <c r="I80">
-        <v>334045.24</v>
+        <v>40233.65</v>
       </c>
       <c r="J80">
-        <v>14482.64</v>
+        <v>1068.15</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
   <si>
     <t>BSL NO</t>
   </si>
@@ -172,33 +172,33 @@
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet 40's</t>
+    <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 5mg Tablet</t>
-  </si>
-  <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
@@ -211,33 +211,30 @@
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection</t>
+  </si>
+  <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
-  </si>
-  <si>
-    <t>Levomax 750mg Tablet - 10's</t>
-  </si>
-  <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -247,39 +244,39 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox 250mg Tablet</t>
   </si>
   <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 15gm Gel</t>
+    <t>Ontin 60ml Syrup</t>
   </si>
   <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
-    <t>Ontin 60ml Syrup</t>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin 60ml Suspension</t>
   </si>
   <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
@@ -298,54 +298,51 @@
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule</t>
-  </si>
-  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
+    <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
-    <t>Stiba 10mg Tablet - 30's</t>
+    <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 50mg Tablet</t>
+  </si>
+  <si>
     <t>Timothy 5mg IM/IV</t>
   </si>
   <si>
-    <t>Timothy 50mg Tablet</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -370,18 +367,18 @@
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -409,12 +406,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -424,39 +421,36 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
+    <t>10gm</t>
+  </si>
+  <si>
+    <t>200 's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>36's</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
+    <t>15 gm</t>
+  </si>
+  <si>
+    <t>60 ml</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
-    <t>10gm</t>
-  </si>
-  <si>
-    <t>200 's</t>
-  </si>
-  <si>
-    <t>24's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
-    <t>36's</t>
-  </si>
-  <si>
-    <t>15 gm</t>
-  </si>
-  <si>
-    <t>60 ml</t>
-  </si>
-  <si>
     <t>15 ml</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -478,13 +472,13 @@
     <t>50ml</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>12 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>20ml</t>
   </si>
 </sst>
 </file>
@@ -842,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,19 +888,19 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>269.87</v>
       </c>
       <c r="H2">
-        <v>20510.12</v>
+        <v>21049.86</v>
       </c>
       <c r="I2">
-        <v>20510.12</v>
+        <v>21049.86</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -926,19 +920,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="G3">
         <v>206.15</v>
       </c>
       <c r="H3">
-        <v>55660.5</v>
+        <v>62051.15</v>
       </c>
       <c r="I3">
-        <v>55660.5</v>
+        <v>62051.15</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -958,19 +952,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>269.87</v>
       </c>
       <c r="H4">
-        <v>7016.62</v>
+        <v>16192.2</v>
       </c>
       <c r="I4">
-        <v>7016.62</v>
+        <v>16192.2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -990,19 +984,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>337.33</v>
       </c>
       <c r="H5">
-        <v>110306.91</v>
+        <v>109969.58</v>
       </c>
       <c r="I5">
-        <v>110306.91</v>
+        <v>109969.58</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1022,19 +1016,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6">
         <v>131.18</v>
       </c>
       <c r="H6">
-        <v>23874.76</v>
+        <v>23612.4</v>
       </c>
       <c r="I6">
-        <v>23874.76</v>
+        <v>23612.4</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1054,19 +1048,19 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7">
-        <v>1933</v>
+        <v>2016</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>434712.37</v>
+        <v>453378.24</v>
       </c>
       <c r="I7">
-        <v>434712.37</v>
+        <v>453378.24</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1086,19 +1080,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>239.88</v>
       </c>
       <c r="H8">
-        <v>479.76</v>
+        <v>4317.84</v>
       </c>
       <c r="I8">
-        <v>479.76</v>
+        <v>4317.84</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1118,19 +1112,19 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>2811.25</v>
+        <v>4835.35</v>
       </c>
       <c r="I9">
-        <v>2811.25</v>
+        <v>4835.35</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1150,19 +1144,19 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>104.95</v>
       </c>
       <c r="H10">
-        <v>9970.25</v>
+        <v>10285.1</v>
       </c>
       <c r="I10">
-        <v>9970.25</v>
+        <v>10285.1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1182,19 +1176,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="G11">
-        <v>299.85</v>
+        <v>239.88</v>
       </c>
       <c r="H11">
-        <v>26386.8</v>
+        <v>111544.2</v>
       </c>
       <c r="I11">
-        <v>26386.8</v>
+        <v>111544.2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1214,19 +1208,19 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>1363</v>
+        <v>1470</v>
       </c>
       <c r="G12">
         <v>35.98</v>
       </c>
       <c r="H12">
-        <v>49040.74</v>
+        <v>52890.6</v>
       </c>
       <c r="I12">
-        <v>49040.74</v>
+        <v>52890.6</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1246,19 +1240,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13">
-        <v>728</v>
+        <v>77</v>
       </c>
       <c r="G13">
-        <v>239.88</v>
+        <v>299.85</v>
       </c>
       <c r="H13">
-        <v>174632.64</v>
+        <v>23088.45</v>
       </c>
       <c r="I13">
-        <v>174632.64</v>
+        <v>23088.45</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1278,19 +1272,19 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14">
-        <v>1048</v>
+        <v>1241</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>31429.52</v>
+        <v>37217.59</v>
       </c>
       <c r="I14">
-        <v>31429.52</v>
+        <v>37217.59</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1310,19 +1304,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15">
-        <v>2318</v>
+        <v>1177</v>
       </c>
       <c r="G15">
-        <v>314.84</v>
+        <v>262.37</v>
       </c>
       <c r="H15">
-        <v>729799.12</v>
+        <v>308809.49</v>
       </c>
       <c r="I15">
-        <v>729799.12</v>
+        <v>308809.49</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1342,19 +1336,19 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F16">
-        <v>1104</v>
+        <v>2353</v>
       </c>
       <c r="G16">
-        <v>262.37</v>
+        <v>359.82</v>
       </c>
       <c r="H16">
-        <v>289656.48</v>
+        <v>846656.46</v>
       </c>
       <c r="I16">
-        <v>289656.48</v>
+        <v>846656.46</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1374,19 +1368,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F17">
-        <v>2148</v>
+        <v>2544</v>
       </c>
       <c r="G17">
-        <v>359.82</v>
+        <v>314.84</v>
       </c>
       <c r="H17">
-        <v>772893.36</v>
+        <v>800952.96</v>
       </c>
       <c r="I17">
-        <v>772893.36</v>
+        <v>800952.96</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1406,19 +1400,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G18">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="H18">
-        <v>16191.9</v>
+        <v>8602.17</v>
       </c>
       <c r="I18">
-        <v>16191.9</v>
+        <v>8602.17</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1438,19 +1432,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="G19">
-        <v>168.67</v>
+        <v>179.91</v>
       </c>
       <c r="H19">
-        <v>6746.8</v>
+        <v>19250.37</v>
       </c>
       <c r="I19">
-        <v>6746.8</v>
+        <v>19250.37</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1470,19 +1464,19 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G20">
         <v>432.53</v>
       </c>
       <c r="H20">
-        <v>119810.81</v>
+        <v>132786.71</v>
       </c>
       <c r="I20">
-        <v>119810.81</v>
+        <v>132786.71</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1502,22 +1496,22 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21">
-        <v>2715</v>
+        <v>2836</v>
       </c>
       <c r="G21">
         <v>314.84</v>
       </c>
       <c r="H21">
-        <v>854790.6</v>
+        <v>892886.24</v>
       </c>
       <c r="I21">
-        <v>804731.04</v>
+        <v>839363.4399999999</v>
       </c>
       <c r="J21">
-        <v>50059.56</v>
+        <v>53522.8</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1534,19 +1528,19 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="G22">
         <v>33.94</v>
       </c>
       <c r="H22">
-        <v>10894.74</v>
+        <v>11811.12</v>
       </c>
       <c r="I22">
-        <v>10894.74</v>
+        <v>11811.12</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1566,22 +1560,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23">
-        <v>5043</v>
+        <v>5249</v>
       </c>
       <c r="G23">
         <v>45.73</v>
       </c>
       <c r="H23">
-        <v>230616.39</v>
+        <v>240036.77</v>
       </c>
       <c r="I23">
-        <v>199154.15</v>
+        <v>206059.38</v>
       </c>
       <c r="J23">
-        <v>31462.24</v>
+        <v>33977.39</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1598,22 +1592,22 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24">
-        <v>697</v>
+        <v>1847</v>
       </c>
       <c r="G24">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="H24">
-        <v>26214.17</v>
+        <v>42167.01</v>
       </c>
       <c r="I24">
-        <v>26214.17</v>
+        <v>42185.41</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-18.4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1630,22 +1624,22 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F25">
-        <v>168</v>
+        <v>1500</v>
       </c>
       <c r="G25">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H25">
-        <v>37781.52</v>
+        <v>56415</v>
       </c>
       <c r="I25">
-        <v>37781.52</v>
+        <v>56515.8</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-100.8</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1662,22 +1656,22 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F26">
-        <v>1256</v>
+        <v>145</v>
       </c>
       <c r="G26">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="H26">
-        <v>28674.48</v>
+        <v>32609.05</v>
       </c>
       <c r="I26">
-        <v>29852.08</v>
+        <v>32609.05</v>
       </c>
       <c r="J26">
-        <v>-1177.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1694,19 +1688,19 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G27">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="H27">
-        <v>149.93</v>
+        <v>10794.72</v>
       </c>
       <c r="I27">
-        <v>149.93</v>
+        <v>10794.72</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1714,10 +1708,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1726,19 +1720,19 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F28">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28">
-        <v>224.89</v>
+        <v>337.33</v>
       </c>
       <c r="H28">
-        <v>10569.83</v>
+        <v>15517.18</v>
       </c>
       <c r="I28">
-        <v>10569.83</v>
+        <v>15517.18</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1758,19 +1752,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F29">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>89.95999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="H29">
-        <v>8906.040000000001</v>
+        <v>899.55</v>
       </c>
       <c r="I29">
-        <v>8906.040000000001</v>
+        <v>899.55</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1790,19 +1784,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F30">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G30">
-        <v>337.33</v>
+        <v>93.7</v>
       </c>
       <c r="H30">
-        <v>15179.85</v>
+        <v>3373.2</v>
       </c>
       <c r="I30">
-        <v>15179.85</v>
+        <v>3373.2</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1822,19 +1816,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F31">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G31">
-        <v>93.7</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H31">
-        <v>5153.5</v>
+        <v>7646.6</v>
       </c>
       <c r="I31">
-        <v>5153.5</v>
+        <v>7646.6</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1842,10 +1836,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1854,19 +1848,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G32">
-        <v>179.91</v>
+        <v>449.78</v>
       </c>
       <c r="H32">
-        <v>359.82</v>
+        <v>10344.94</v>
       </c>
       <c r="I32">
-        <v>359.82</v>
+        <v>10344.94</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1874,10 +1868,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1886,19 +1880,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="G33">
-        <v>449.78</v>
+        <v>395.8</v>
       </c>
       <c r="H33">
-        <v>4497.8</v>
+        <v>36413.6</v>
       </c>
       <c r="I33">
-        <v>4497.8</v>
+        <v>36413.6</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1918,19 +1912,19 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F34">
-        <v>108</v>
+        <v>1013</v>
       </c>
       <c r="G34">
-        <v>395.8</v>
+        <v>337.33</v>
       </c>
       <c r="H34">
-        <v>42746.4</v>
+        <v>341715.29</v>
       </c>
       <c r="I34">
-        <v>42746.4</v>
+        <v>341715.29</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1938,10 +1932,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1950,19 +1944,19 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F35">
-        <v>946</v>
+        <v>634</v>
       </c>
       <c r="G35">
-        <v>337.33</v>
+        <v>350.82</v>
       </c>
       <c r="H35">
-        <v>319114.18</v>
+        <v>222419.88</v>
       </c>
       <c r="I35">
-        <v>319114.18</v>
+        <v>222419.88</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1982,22 +1976,22 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F36">
-        <v>213</v>
+        <v>621</v>
       </c>
       <c r="G36">
-        <v>262.37</v>
+        <v>412.3</v>
       </c>
       <c r="H36">
-        <v>55884.81</v>
+        <v>256038.3</v>
       </c>
       <c r="I36">
-        <v>55884.81</v>
+        <v>255213.7</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>824.6</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2014,19 +2008,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F37">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="G37">
-        <v>247.38</v>
+        <v>52.47</v>
       </c>
       <c r="H37">
-        <v>63329.28</v>
+        <v>15373.71</v>
       </c>
       <c r="I37">
-        <v>63329.28</v>
+        <v>15373.71</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2046,19 +2040,19 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F38">
-        <v>709</v>
+        <v>198</v>
       </c>
       <c r="G38">
-        <v>350.82</v>
+        <v>262.37</v>
       </c>
       <c r="H38">
-        <v>248731.38</v>
+        <v>51949.26</v>
       </c>
       <c r="I38">
-        <v>248731.38</v>
+        <v>51949.26</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2078,22 +2072,22 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F39">
-        <v>603</v>
+        <v>67</v>
       </c>
       <c r="G39">
-        <v>412.3</v>
+        <v>52.47</v>
       </c>
       <c r="H39">
-        <v>248616.9</v>
+        <v>3515.49</v>
       </c>
       <c r="I39">
-        <v>248204.6</v>
+        <v>3515.49</v>
       </c>
       <c r="J39">
-        <v>412.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2110,19 +2104,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F40">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="G40">
-        <v>52.47</v>
+        <v>247.38</v>
       </c>
       <c r="H40">
-        <v>14691.6</v>
+        <v>61350.24</v>
       </c>
       <c r="I40">
-        <v>14691.6</v>
+        <v>61350.24</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2130,10 +2124,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -2142,19 +2136,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41">
-        <v>59</v>
+        <v>463</v>
       </c>
       <c r="G41">
-        <v>52.47</v>
+        <v>22.49</v>
       </c>
       <c r="H41">
-        <v>3095.73</v>
+        <v>10412.87</v>
       </c>
       <c r="I41">
-        <v>3095.73</v>
+        <v>10412.87</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2174,19 +2168,19 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F42">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>224.89</v>
       </c>
       <c r="H42">
-        <v>8995.6</v>
+        <v>9670.27</v>
       </c>
       <c r="I42">
-        <v>8995.6</v>
+        <v>9670.27</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2194,10 +2188,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -2206,19 +2200,19 @@
         <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F43">
-        <v>399</v>
+        <v>1146</v>
       </c>
       <c r="G43">
-        <v>22.49</v>
+        <v>299.85</v>
       </c>
       <c r="H43">
-        <v>8973.51</v>
+        <v>343628.1</v>
       </c>
       <c r="I43">
-        <v>8973.51</v>
+        <v>343628.1</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2238,22 +2232,22 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F44">
-        <v>22</v>
+        <v>1817</v>
       </c>
       <c r="G44">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="H44">
-        <v>2638.68</v>
+        <v>40864.33</v>
       </c>
       <c r="I44">
-        <v>2638.68</v>
+        <v>40616.94</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>247.39</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2270,19 +2264,19 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F45">
-        <v>1205</v>
+        <v>23</v>
       </c>
       <c r="G45">
-        <v>299.85</v>
+        <v>119.94</v>
       </c>
       <c r="H45">
-        <v>361319.25</v>
+        <v>2758.62</v>
       </c>
       <c r="I45">
-        <v>361319.25</v>
+        <v>2758.62</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2290,10 +2284,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -2302,22 +2296,22 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F46">
-        <v>1624</v>
+        <v>23</v>
       </c>
       <c r="G46">
-        <v>22.49</v>
+        <v>269.87</v>
       </c>
       <c r="H46">
-        <v>36523.76</v>
+        <v>6207.01</v>
       </c>
       <c r="I46">
-        <v>36343.84</v>
+        <v>6207.01</v>
       </c>
       <c r="J46">
-        <v>179.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2337,16 +2331,16 @@
         <v>131</v>
       </c>
       <c r="F47">
-        <v>25</v>
+        <v>370</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>6746.75</v>
+        <v>99851.89999999999</v>
       </c>
       <c r="I47">
-        <v>6746.75</v>
+        <v>99851.89999999999</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2354,10 +2348,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -2366,19 +2360,19 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F48">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="G48">
-        <v>269.87</v>
+        <v>299.85</v>
       </c>
       <c r="H48">
-        <v>95264.11</v>
+        <v>21589.2</v>
       </c>
       <c r="I48">
-        <v>95264.11</v>
+        <v>21589.2</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2386,10 +2380,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -2398,22 +2392,22 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F49">
-        <v>111</v>
+        <v>1537</v>
       </c>
       <c r="G49">
-        <v>299.85</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H49">
-        <v>33283.35</v>
+        <v>115213.52</v>
       </c>
       <c r="I49">
-        <v>33283.35</v>
+        <v>103369.84</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>11843.68</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2430,19 +2424,19 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50">
         <v>191.15</v>
       </c>
       <c r="H50">
-        <v>2867.25</v>
+        <v>2676.1</v>
       </c>
       <c r="I50">
-        <v>2867.25</v>
+        <v>2676.1</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2462,22 +2456,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F51">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>224.89</v>
       </c>
       <c r="H51">
-        <v>11019.61</v>
+        <v>7421.37</v>
       </c>
       <c r="I51">
-        <v>2248.9</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>8770.709999999999</v>
+        <v>7421.37</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2494,22 +2488,22 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="G52">
         <v>449.78</v>
       </c>
       <c r="H52">
-        <v>118741.92</v>
+        <v>141680.7</v>
       </c>
       <c r="I52">
-        <v>113794.34</v>
+        <v>132685.1</v>
       </c>
       <c r="J52">
-        <v>4947.58</v>
+        <v>8995.6</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2526,19 +2520,19 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G53">
-        <v>74.95999999999999</v>
+        <v>134.93</v>
       </c>
       <c r="H53">
-        <v>149.92</v>
+        <v>944.51</v>
       </c>
       <c r="I53">
-        <v>149.92</v>
+        <v>944.51</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2558,22 +2552,22 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F54">
-        <v>950</v>
+        <v>48</v>
       </c>
       <c r="G54">
         <v>74.95999999999999</v>
       </c>
       <c r="H54">
-        <v>71212</v>
+        <v>3598.08</v>
       </c>
       <c r="I54">
-        <v>63940.88</v>
+        <v>3598.08</v>
       </c>
       <c r="J54">
-        <v>7271.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2593,16 +2587,16 @@
         <v>131</v>
       </c>
       <c r="F55">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G55">
         <v>224.89</v>
       </c>
       <c r="H55">
-        <v>27886.36</v>
+        <v>30809.93</v>
       </c>
       <c r="I55">
-        <v>27886.36</v>
+        <v>30809.93</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2625,16 +2619,16 @@
         <v>130</v>
       </c>
       <c r="F56">
-        <v>26</v>
+        <v>803</v>
       </c>
       <c r="G56">
-        <v>51.12</v>
+        <v>228.26</v>
       </c>
       <c r="H56">
-        <v>1329.12</v>
+        <v>183292.78</v>
       </c>
       <c r="I56">
-        <v>1329.12</v>
+        <v>183292.78</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2654,19 +2648,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F57">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="G57">
-        <v>22.64</v>
+        <v>51.12</v>
       </c>
       <c r="H57">
-        <v>3011.12</v>
+        <v>4089.6</v>
       </c>
       <c r="I57">
-        <v>3011.12</v>
+        <v>4089.6</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2686,19 +2680,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G58">
-        <v>219.13</v>
+        <v>22.64</v>
       </c>
       <c r="H58">
-        <v>219.13</v>
+        <v>1584.8</v>
       </c>
       <c r="I58">
-        <v>219.13</v>
+        <v>1584.8</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2718,19 +2712,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F59">
-        <v>1058</v>
+        <v>711</v>
       </c>
       <c r="G59">
         <v>35.68</v>
       </c>
       <c r="H59">
-        <v>37749.44</v>
+        <v>25368.48</v>
       </c>
       <c r="I59">
-        <v>37749.44</v>
+        <v>25368.48</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2750,19 +2744,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G60">
         <v>266.12</v>
       </c>
       <c r="H60">
-        <v>13039.88</v>
+        <v>14902.72</v>
       </c>
       <c r="I60">
-        <v>13039.88</v>
+        <v>14902.72</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2770,10 +2764,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2782,19 +2776,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61">
-        <v>1006</v>
+        <v>178</v>
       </c>
       <c r="G61">
-        <v>228.26</v>
+        <v>179.91</v>
       </c>
       <c r="H61">
-        <v>229629.56</v>
+        <v>32023.98</v>
       </c>
       <c r="I61">
-        <v>229629.56</v>
+        <v>32023.98</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2814,19 +2808,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F62">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G62">
         <v>44.98</v>
       </c>
       <c r="H62">
-        <v>3103.62</v>
+        <v>2788.76</v>
       </c>
       <c r="I62">
-        <v>3103.62</v>
+        <v>2788.76</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2834,10 +2828,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2846,19 +2840,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F63">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="G63">
-        <v>179.91</v>
+        <v>187.41</v>
       </c>
       <c r="H63">
-        <v>27526.23</v>
+        <v>14805.39</v>
       </c>
       <c r="I63">
-        <v>27526.23</v>
+        <v>14805.39</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2878,19 +2872,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="G64">
         <v>142.43</v>
       </c>
       <c r="H64">
-        <v>39737.97</v>
+        <v>36034.79</v>
       </c>
       <c r="I64">
-        <v>39737.97</v>
+        <v>36034.79</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2898,10 +2892,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2910,19 +2904,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F65">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G65">
-        <v>187.41</v>
+        <v>179.91</v>
       </c>
       <c r="H65">
-        <v>18553.59</v>
+        <v>16551.72</v>
       </c>
       <c r="I65">
-        <v>18553.59</v>
+        <v>16551.72</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2930,10 +2924,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2942,19 +2936,19 @@
         <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F66">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="G66">
-        <v>179.91</v>
+        <v>149.93</v>
       </c>
       <c r="H66">
-        <v>8275.860000000001</v>
+        <v>49626.83</v>
       </c>
       <c r="I66">
-        <v>8275.860000000001</v>
+        <v>49626.83</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2974,19 +2968,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F67">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="G67">
         <v>56.22</v>
       </c>
       <c r="H67">
-        <v>6127.98</v>
+        <v>8433</v>
       </c>
       <c r="I67">
-        <v>6127.98</v>
+        <v>8433</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2994,10 +2988,10 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -3006,19 +3000,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F68">
         <v>301</v>
       </c>
       <c r="G68">
-        <v>149.93</v>
+        <v>359.82</v>
       </c>
       <c r="H68">
-        <v>45128.93</v>
+        <v>108305.82</v>
       </c>
       <c r="I68">
-        <v>45128.93</v>
+        <v>108305.82</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3026,10 +3020,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3038,19 +3032,19 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F69">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="G69">
-        <v>359.82</v>
+        <v>134.93</v>
       </c>
       <c r="H69">
-        <v>85996.98</v>
+        <v>2293.81</v>
       </c>
       <c r="I69">
-        <v>85996.98</v>
+        <v>2293.81</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3058,10 +3052,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3070,22 +3064,22 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F70">
-        <v>40</v>
+        <v>6429</v>
       </c>
       <c r="G70">
-        <v>134.93</v>
+        <v>41.23</v>
       </c>
       <c r="H70">
-        <v>5397.2</v>
+        <v>265067.67</v>
       </c>
       <c r="I70">
-        <v>5397.2</v>
+        <v>242762.24</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>22305.43</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3102,30 +3096,30 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F71">
-        <v>6285</v>
+        <v>168</v>
       </c>
       <c r="G71">
-        <v>41.23</v>
+        <v>187.41</v>
       </c>
       <c r="H71">
-        <v>259130.55</v>
+        <v>31484.88</v>
       </c>
       <c r="I71">
-        <v>237154.96</v>
+        <v>31484.88</v>
       </c>
       <c r="J71">
-        <v>21975.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -3134,19 +3128,19 @@
         <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F72">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="G72">
-        <v>187.41</v>
+        <v>299.85</v>
       </c>
       <c r="H72">
-        <v>28298.91</v>
+        <v>31484.25</v>
       </c>
       <c r="I72">
-        <v>28298.91</v>
+        <v>31484.25</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3154,10 +3148,10 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3166,19 +3160,19 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F73">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="G73">
-        <v>299.85</v>
+        <v>134.93</v>
       </c>
       <c r="H73">
-        <v>20089.95</v>
+        <v>674.65</v>
       </c>
       <c r="I73">
-        <v>20089.95</v>
+        <v>674.65</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3186,10 +3180,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3201,16 +3195,16 @@
         <v>150</v>
       </c>
       <c r="F74">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="G74">
-        <v>134.93</v>
+        <v>29.99</v>
       </c>
       <c r="H74">
-        <v>1484.23</v>
+        <v>2639.12</v>
       </c>
       <c r="I74">
-        <v>1484.23</v>
+        <v>2639.12</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3218,10 +3212,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3230,19 +3224,19 @@
         <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F75">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="G75">
-        <v>29.99</v>
+        <v>143.93</v>
       </c>
       <c r="H75">
-        <v>5368.21</v>
+        <v>13529.42</v>
       </c>
       <c r="I75">
-        <v>5368.21</v>
+        <v>13529.42</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3262,22 +3256,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F76">
-        <v>267</v>
+        <v>770</v>
       </c>
       <c r="G76">
-        <v>143.93</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H76">
-        <v>38429.31</v>
+        <v>54831.7</v>
       </c>
       <c r="I76">
-        <v>38429.31</v>
+        <v>52837.82</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1993.88</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3294,22 +3288,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F77">
-        <v>1107</v>
+        <v>1592</v>
       </c>
       <c r="G77">
-        <v>314.84</v>
+        <v>104.95</v>
       </c>
       <c r="H77">
-        <v>348527.88</v>
+        <v>167080.4</v>
       </c>
       <c r="I77">
-        <v>334045.24</v>
+        <v>158894.3</v>
       </c>
       <c r="J77">
-        <v>14482.64</v>
+        <v>8186.1</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3326,19 +3320,19 @@
         <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F78">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G78">
         <v>224.89</v>
       </c>
       <c r="H78">
-        <v>43628.66</v>
+        <v>43178.88</v>
       </c>
       <c r="I78">
-        <v>43628.66</v>
+        <v>43178.88</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3358,54 +3352,22 @@
         <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F79">
-        <v>1481</v>
+        <v>1223</v>
       </c>
       <c r="G79">
-        <v>104.95</v>
+        <v>314.84</v>
       </c>
       <c r="H79">
-        <v>155430.95</v>
+        <v>385049.32</v>
       </c>
       <c r="I79">
-        <v>148294.35</v>
+        <v>367733.12</v>
       </c>
       <c r="J79">
-        <v>7136.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80">
-        <v>35</v>
-      </c>
-      <c r="B80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C80">
-        <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" t="s">
-        <v>156</v>
-      </c>
-      <c r="F80">
-        <v>580</v>
-      </c>
-      <c r="G80">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="H80">
-        <v>41301.8</v>
-      </c>
-      <c r="I80">
-        <v>40233.65</v>
-      </c>
-      <c r="J80">
-        <v>1068.15</v>
+        <v>17316.2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -154,12 +154,12 @@
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -169,72 +169,72 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet 40's</t>
-  </si>
-  <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
+    <t>Fenobac 10mg Tablet</t>
+  </si>
+  <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 10mg Tablet</t>
+    <t>Flucloxin 500mg IM/IV Injection</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
-  </si>
-  <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -244,24 +244,24 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -289,51 +289,51 @@
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
+    <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
+    <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
-    <t>Sulidac 200 Tablet 20's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti Tablet</t>
+  </si>
+  <si>
     <t>Toti 100ml Syrup</t>
   </si>
   <si>
-    <t>Toti Tablet</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -364,21 +364,21 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -433,15 +433,15 @@
     <t>24's</t>
   </si>
   <si>
+    <t>15 gm</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
     <t xml:space="preserve"> 50 's</t>
   </si>
   <si>
-    <t>15 gm</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -469,16 +469,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>50ml</t>
   </si>
   <si>
     <t>20ml</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
   </si>
 </sst>
 </file>
@@ -891,16 +891,16 @@
         <v>121</v>
       </c>
       <c r="F2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G2">
         <v>269.87</v>
       </c>
       <c r="H2">
-        <v>21049.86</v>
+        <v>24558.17</v>
       </c>
       <c r="I2">
-        <v>21049.86</v>
+        <v>24558.17</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -923,16 +923,16 @@
         <v>122</v>
       </c>
       <c r="F3">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G3">
         <v>206.15</v>
       </c>
       <c r="H3">
-        <v>62051.15</v>
+        <v>64112.65</v>
       </c>
       <c r="I3">
-        <v>62051.15</v>
+        <v>64112.65</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>123</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>269.87</v>
       </c>
       <c r="H4">
-        <v>16192.2</v>
+        <v>19430.64</v>
       </c>
       <c r="I4">
-        <v>16192.2</v>
+        <v>19430.64</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5">
-        <v>326</v>
+        <v>186</v>
       </c>
       <c r="G5">
-        <v>337.33</v>
+        <v>131.18</v>
       </c>
       <c r="H5">
-        <v>109969.58</v>
+        <v>24399.48</v>
       </c>
       <c r="I5">
-        <v>109969.58</v>
+        <v>24399.48</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6">
-        <v>180</v>
+        <v>345</v>
       </c>
       <c r="G6">
-        <v>131.18</v>
+        <v>337.33</v>
       </c>
       <c r="H6">
-        <v>23612.4</v>
+        <v>116378.85</v>
       </c>
       <c r="I6">
-        <v>23612.4</v>
+        <v>116378.85</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         <v>124</v>
       </c>
       <c r="F7">
-        <v>2016</v>
+        <v>2079</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>453378.24</v>
+        <v>467546.31</v>
       </c>
       <c r="I7">
-        <v>453378.24</v>
+        <v>467546.31</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1115,16 +1115,16 @@
         <v>126</v>
       </c>
       <c r="F9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>4835.35</v>
+        <v>4947.8</v>
       </c>
       <c r="I9">
-        <v>4835.35</v>
+        <v>4947.8</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>127</v>
       </c>
       <c r="F10">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="G10">
-        <v>104.95</v>
+        <v>299.85</v>
       </c>
       <c r="H10">
-        <v>10285.1</v>
+        <v>23388.3</v>
       </c>
       <c r="I10">
-        <v>10285.1</v>
+        <v>23388.3</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1179,16 +1179,16 @@
         <v>127</v>
       </c>
       <c r="F11">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G11">
         <v>239.88</v>
       </c>
       <c r="H11">
-        <v>111544.2</v>
+        <v>113463.24</v>
       </c>
       <c r="I11">
-        <v>111544.2</v>
+        <v>113463.24</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1208,19 +1208,19 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12">
-        <v>1470</v>
+        <v>99</v>
       </c>
       <c r="G12">
-        <v>35.98</v>
+        <v>104.95</v>
       </c>
       <c r="H12">
-        <v>52890.6</v>
+        <v>10390.05</v>
       </c>
       <c r="I12">
-        <v>52890.6</v>
+        <v>10390.05</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1240,19 +1240,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13">
-        <v>77</v>
+        <v>1502</v>
       </c>
       <c r="G13">
-        <v>299.85</v>
+        <v>35.98</v>
       </c>
       <c r="H13">
-        <v>23088.45</v>
+        <v>54041.96</v>
       </c>
       <c r="I13">
-        <v>23088.45</v>
+        <v>54041.96</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1275,16 +1275,16 @@
         <v>129</v>
       </c>
       <c r="F14">
-        <v>1241</v>
+        <v>1250</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>37217.59</v>
+        <v>37487.5</v>
       </c>
       <c r="I14">
-        <v>37217.59</v>
+        <v>37487.5</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F15">
-        <v>1177</v>
+        <v>2400</v>
       </c>
       <c r="G15">
-        <v>262.37</v>
+        <v>359.82</v>
       </c>
       <c r="H15">
-        <v>308809.49</v>
+        <v>863568</v>
       </c>
       <c r="I15">
-        <v>308809.49</v>
+        <v>863568</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F16">
-        <v>2353</v>
+        <v>1191</v>
       </c>
       <c r="G16">
-        <v>359.82</v>
+        <v>262.37</v>
       </c>
       <c r="H16">
-        <v>846656.46</v>
+        <v>312482.67</v>
       </c>
       <c r="I16">
-        <v>846656.46</v>
+        <v>312482.67</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1371,16 +1371,16 @@
         <v>131</v>
       </c>
       <c r="F17">
-        <v>2544</v>
+        <v>2595</v>
       </c>
       <c r="G17">
         <v>314.84</v>
       </c>
       <c r="H17">
-        <v>800952.96</v>
+        <v>817009.8</v>
       </c>
       <c r="I17">
-        <v>800952.96</v>
+        <v>817009.8</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1400,19 +1400,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F18">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="G18">
-        <v>168.67</v>
+        <v>179.91</v>
       </c>
       <c r="H18">
-        <v>8602.17</v>
+        <v>19250.37</v>
       </c>
       <c r="I18">
-        <v>8602.17</v>
+        <v>19250.37</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F19">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="G19">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="H19">
-        <v>19250.37</v>
+        <v>8939.51</v>
       </c>
       <c r="I19">
-        <v>19250.37</v>
+        <v>8939.51</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1464,19 +1464,19 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F20">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="G20">
-        <v>432.53</v>
+        <v>33.94</v>
       </c>
       <c r="H20">
-        <v>132786.71</v>
+        <v>11811.12</v>
       </c>
       <c r="I20">
-        <v>132786.71</v>
+        <v>11811.12</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>127</v>
       </c>
       <c r="F21">
-        <v>2836</v>
+        <v>2858</v>
       </c>
       <c r="G21">
         <v>314.84</v>
       </c>
       <c r="H21">
-        <v>892886.24</v>
+        <v>899812.72</v>
       </c>
       <c r="I21">
-        <v>839363.4399999999</v>
+        <v>845975.08</v>
       </c>
       <c r="J21">
-        <v>53522.8</v>
+        <v>53837.64</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1528,19 +1528,19 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F22">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="G22">
-        <v>33.94</v>
+        <v>432.53</v>
       </c>
       <c r="H22">
-        <v>11811.12</v>
+        <v>133219.24</v>
       </c>
       <c r="I22">
-        <v>11811.12</v>
+        <v>133219.24</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1563,19 +1563,19 @@
         <v>129</v>
       </c>
       <c r="F23">
-        <v>5249</v>
+        <v>5469</v>
       </c>
       <c r="G23">
         <v>45.73</v>
       </c>
       <c r="H23">
-        <v>240036.77</v>
+        <v>250097.37</v>
       </c>
       <c r="I23">
-        <v>206059.38</v>
+        <v>215113.92</v>
       </c>
       <c r="J23">
-        <v>33977.39</v>
+        <v>34983.45</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1624,22 +1624,22 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F25">
-        <v>1500</v>
+        <v>146</v>
       </c>
       <c r="G25">
-        <v>37.61</v>
+        <v>224.89</v>
       </c>
       <c r="H25">
-        <v>56415</v>
+        <v>32833.94</v>
       </c>
       <c r="I25">
-        <v>56515.8</v>
+        <v>32833.94</v>
       </c>
       <c r="J25">
-        <v>-100.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1656,22 +1656,22 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F26">
-        <v>145</v>
+        <v>1500</v>
       </c>
       <c r="G26">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H26">
-        <v>32609.05</v>
+        <v>56415</v>
       </c>
       <c r="I26">
-        <v>32609.05</v>
+        <v>56515.8</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-100.8</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1723,16 +1723,16 @@
         <v>131</v>
       </c>
       <c r="F28">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>337.33</v>
+        <v>179.91</v>
       </c>
       <c r="H28">
-        <v>15517.18</v>
+        <v>899.55</v>
       </c>
       <c r="I28">
-        <v>15517.18</v>
+        <v>899.55</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1752,19 +1752,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="G29">
-        <v>179.91</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H29">
-        <v>899.55</v>
+        <v>7916.48</v>
       </c>
       <c r="I29">
-        <v>899.55</v>
+        <v>7916.48</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1787,16 +1787,16 @@
         <v>122</v>
       </c>
       <c r="F30">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>93.7</v>
       </c>
       <c r="H30">
-        <v>3373.2</v>
+        <v>3560.6</v>
       </c>
       <c r="I30">
-        <v>3373.2</v>
+        <v>3560.6</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F31">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G31">
-        <v>89.95999999999999</v>
+        <v>337.33</v>
       </c>
       <c r="H31">
-        <v>7646.6</v>
+        <v>18890.48</v>
       </c>
       <c r="I31">
-        <v>7646.6</v>
+        <v>18890.48</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1851,16 +1851,16 @@
         <v>137</v>
       </c>
       <c r="F32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G32">
         <v>449.78</v>
       </c>
       <c r="H32">
-        <v>10344.94</v>
+        <v>11244.5</v>
       </c>
       <c r="I32">
-        <v>10344.94</v>
+        <v>11244.5</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1883,16 +1883,16 @@
         <v>138</v>
       </c>
       <c r="F33">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G33">
         <v>395.8</v>
       </c>
       <c r="H33">
-        <v>36413.6</v>
+        <v>37601</v>
       </c>
       <c r="I33">
-        <v>36413.6</v>
+        <v>37601</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1915,16 +1915,16 @@
         <v>131</v>
       </c>
       <c r="F34">
-        <v>1013</v>
+        <v>1044</v>
       </c>
       <c r="G34">
         <v>337.33</v>
       </c>
       <c r="H34">
-        <v>341715.29</v>
+        <v>352172.52</v>
       </c>
       <c r="I34">
-        <v>341715.29</v>
+        <v>352172.52</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1947,16 +1947,16 @@
         <v>139</v>
       </c>
       <c r="F35">
-        <v>634</v>
+        <v>73</v>
       </c>
       <c r="G35">
-        <v>350.82</v>
+        <v>52.47</v>
       </c>
       <c r="H35">
-        <v>222419.88</v>
+        <v>3830.31</v>
       </c>
       <c r="I35">
-        <v>222419.88</v>
+        <v>3830.31</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F36">
-        <v>621</v>
+        <v>662</v>
       </c>
       <c r="G36">
-        <v>412.3</v>
+        <v>350.82</v>
       </c>
       <c r="H36">
-        <v>256038.3</v>
+        <v>232242.84</v>
       </c>
       <c r="I36">
-        <v>255213.7</v>
+        <v>232242.84</v>
       </c>
       <c r="J36">
-        <v>824.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2008,19 +2008,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F37">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="G37">
-        <v>52.47</v>
+        <v>262.37</v>
       </c>
       <c r="H37">
-        <v>15373.71</v>
+        <v>54835.33</v>
       </c>
       <c r="I37">
-        <v>15373.71</v>
+        <v>54835.33</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2040,22 +2040,22 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F38">
-        <v>198</v>
+        <v>641</v>
       </c>
       <c r="G38">
-        <v>262.37</v>
+        <v>412.3</v>
       </c>
       <c r="H38">
-        <v>51949.26</v>
+        <v>264284.3</v>
       </c>
       <c r="I38">
-        <v>51949.26</v>
+        <v>263459.7</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>824.6</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2072,19 +2072,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F39">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="G39">
-        <v>52.47</v>
+        <v>247.38</v>
       </c>
       <c r="H39">
-        <v>3515.49</v>
+        <v>62092.38</v>
       </c>
       <c r="I39">
-        <v>3515.49</v>
+        <v>62092.38</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F40">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="G40">
-        <v>247.38</v>
+        <v>52.47</v>
       </c>
       <c r="H40">
-        <v>61350.24</v>
+        <v>15950.88</v>
       </c>
       <c r="I40">
-        <v>61350.24</v>
+        <v>15950.88</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2203,16 +2203,16 @@
         <v>133</v>
       </c>
       <c r="F43">
-        <v>1146</v>
+        <v>1161</v>
       </c>
       <c r="G43">
         <v>299.85</v>
       </c>
       <c r="H43">
-        <v>343628.1</v>
+        <v>348125.85</v>
       </c>
       <c r="I43">
-        <v>343628.1</v>
+        <v>348125.85</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2232,22 +2232,22 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F44">
-        <v>1817</v>
+        <v>23</v>
       </c>
       <c r="G44">
-        <v>22.49</v>
+        <v>119.94</v>
       </c>
       <c r="H44">
-        <v>40864.33</v>
+        <v>2758.62</v>
       </c>
       <c r="I44">
-        <v>40616.94</v>
+        <v>2758.62</v>
       </c>
       <c r="J44">
-        <v>247.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2264,22 +2264,22 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F45">
-        <v>23</v>
+        <v>1829</v>
       </c>
       <c r="G45">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="H45">
-        <v>2758.62</v>
+        <v>41134.21</v>
       </c>
       <c r="I45">
-        <v>2758.62</v>
+        <v>40886.82</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>247.39</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2331,16 +2331,16 @@
         <v>131</v>
       </c>
       <c r="F47">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>99851.89999999999</v>
+        <v>100121.77</v>
       </c>
       <c r="I47">
-        <v>99851.89999999999</v>
+        <v>100121.77</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2395,19 +2395,19 @@
         <v>142</v>
       </c>
       <c r="F49">
-        <v>1537</v>
+        <v>1546</v>
       </c>
       <c r="G49">
         <v>74.95999999999999</v>
       </c>
       <c r="H49">
-        <v>115213.52</v>
+        <v>115888.16</v>
       </c>
       <c r="I49">
-        <v>103369.84</v>
+        <v>103969.52</v>
       </c>
       <c r="J49">
-        <v>11843.68</v>
+        <v>11918.64</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2424,19 +2424,19 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F50">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>191.15</v>
+        <v>134.93</v>
       </c>
       <c r="H50">
-        <v>2676.1</v>
+        <v>944.51</v>
       </c>
       <c r="I50">
-        <v>2676.1</v>
+        <v>944.51</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2456,22 +2456,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F51">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>224.89</v>
+        <v>191.15</v>
       </c>
       <c r="H51">
-        <v>7421.37</v>
+        <v>2676.1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2676.1</v>
       </c>
       <c r="J51">
-        <v>7421.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2491,16 +2491,16 @@
         <v>125</v>
       </c>
       <c r="F52">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G52">
         <v>449.78</v>
       </c>
       <c r="H52">
-        <v>141680.7</v>
+        <v>143479.82</v>
       </c>
       <c r="I52">
-        <v>132685.1</v>
+        <v>134484.22</v>
       </c>
       <c r="J52">
         <v>8995.6</v>
@@ -2520,19 +2520,19 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G53">
-        <v>134.93</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H53">
-        <v>944.51</v>
+        <v>3598.08</v>
       </c>
       <c r="I53">
-        <v>944.51</v>
+        <v>3598.08</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F54">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G54">
-        <v>74.95999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="H54">
-        <v>3598.08</v>
+        <v>7421.37</v>
       </c>
       <c r="I54">
-        <v>3598.08</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>7421.37</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2616,19 +2616,19 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F56">
-        <v>803</v>
+        <v>70</v>
       </c>
       <c r="G56">
-        <v>228.26</v>
+        <v>22.64</v>
       </c>
       <c r="H56">
-        <v>183292.78</v>
+        <v>1584.8</v>
       </c>
       <c r="I56">
-        <v>183292.78</v>
+        <v>1584.8</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2648,19 +2648,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F57">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G57">
-        <v>51.12</v>
+        <v>266.12</v>
       </c>
       <c r="H57">
-        <v>4089.6</v>
+        <v>14902.72</v>
       </c>
       <c r="I57">
-        <v>4089.6</v>
+        <v>14902.72</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2680,19 +2680,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F58">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="G58">
-        <v>22.64</v>
+        <v>35.68</v>
       </c>
       <c r="H58">
-        <v>1584.8</v>
+        <v>25903.68</v>
       </c>
       <c r="I58">
-        <v>1584.8</v>
+        <v>25903.68</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>129</v>
       </c>
       <c r="F59">
-        <v>711</v>
+        <v>93</v>
       </c>
       <c r="G59">
-        <v>35.68</v>
+        <v>51.12</v>
       </c>
       <c r="H59">
-        <v>25368.48</v>
+        <v>4754.16</v>
       </c>
       <c r="I59">
-        <v>25368.48</v>
+        <v>4754.16</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2744,19 +2744,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F60">
-        <v>56</v>
+        <v>809</v>
       </c>
       <c r="G60">
-        <v>266.12</v>
+        <v>228.26</v>
       </c>
       <c r="H60">
-        <v>14902.72</v>
+        <v>184662.34</v>
       </c>
       <c r="I60">
-        <v>14902.72</v>
+        <v>184662.34</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F61">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="G61">
-        <v>179.91</v>
+        <v>44.98</v>
       </c>
       <c r="H61">
-        <v>32023.98</v>
+        <v>2788.76</v>
       </c>
       <c r="I61">
-        <v>32023.98</v>
+        <v>2788.76</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2808,19 +2808,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F62">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="G62">
-        <v>44.98</v>
+        <v>179.91</v>
       </c>
       <c r="H62">
-        <v>2788.76</v>
+        <v>32203.89</v>
       </c>
       <c r="I62">
-        <v>2788.76</v>
+        <v>32203.89</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F63">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="G63">
-        <v>187.41</v>
+        <v>142.43</v>
       </c>
       <c r="H63">
-        <v>14805.39</v>
+        <v>36177.22</v>
       </c>
       <c r="I63">
-        <v>14805.39</v>
+        <v>36177.22</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2872,19 +2872,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F64">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="G64">
-        <v>142.43</v>
+        <v>187.41</v>
       </c>
       <c r="H64">
-        <v>36034.79</v>
+        <v>15555.03</v>
       </c>
       <c r="I64">
-        <v>36034.79</v>
+        <v>15555.03</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2907,16 +2907,16 @@
         <v>131</v>
       </c>
       <c r="F65">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G65">
         <v>179.91</v>
       </c>
       <c r="H65">
-        <v>16551.72</v>
+        <v>17271.36</v>
       </c>
       <c r="I65">
-        <v>16551.72</v>
+        <v>17271.36</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>147</v>
       </c>
       <c r="F68">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G68">
         <v>359.82</v>
       </c>
       <c r="H68">
-        <v>108305.82</v>
+        <v>110464.74</v>
       </c>
       <c r="I68">
-        <v>108305.82</v>
+        <v>110464.74</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3064,22 +3064,22 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F70">
-        <v>6429</v>
+        <v>171</v>
       </c>
       <c r="G70">
-        <v>41.23</v>
+        <v>187.41</v>
       </c>
       <c r="H70">
-        <v>265067.67</v>
+        <v>32047.11</v>
       </c>
       <c r="I70">
-        <v>242762.24</v>
+        <v>32047.11</v>
       </c>
       <c r="J70">
-        <v>22305.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3096,22 +3096,22 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F71">
-        <v>168</v>
+        <v>6500</v>
       </c>
       <c r="G71">
-        <v>187.41</v>
+        <v>41.23</v>
       </c>
       <c r="H71">
-        <v>31484.88</v>
+        <v>267995</v>
       </c>
       <c r="I71">
-        <v>31484.88</v>
+        <v>245442.19</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>22552.81</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3131,16 +3131,16 @@
         <v>149</v>
       </c>
       <c r="F72">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G72">
         <v>299.85</v>
       </c>
       <c r="H72">
-        <v>31484.25</v>
+        <v>32083.95</v>
       </c>
       <c r="I72">
-        <v>31484.25</v>
+        <v>32083.95</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="F75">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="G75">
-        <v>143.93</v>
+        <v>224.89</v>
       </c>
       <c r="H75">
-        <v>13529.42</v>
+        <v>43178.88</v>
       </c>
       <c r="I75">
-        <v>13529.42</v>
+        <v>43178.88</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3256,22 +3256,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F76">
-        <v>770</v>
+        <v>1254</v>
       </c>
       <c r="G76">
-        <v>71.20999999999999</v>
+        <v>314.84</v>
       </c>
       <c r="H76">
-        <v>54831.7</v>
+        <v>394809.36</v>
       </c>
       <c r="I76">
-        <v>52837.82</v>
+        <v>376863.48</v>
       </c>
       <c r="J76">
-        <v>1993.88</v>
+        <v>17945.88</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3288,22 +3288,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F77">
-        <v>1592</v>
+        <v>1607</v>
       </c>
       <c r="G77">
         <v>104.95</v>
       </c>
       <c r="H77">
-        <v>167080.4</v>
+        <v>168654.65</v>
       </c>
       <c r="I77">
-        <v>158894.3</v>
+        <v>160363.6</v>
       </c>
       <c r="J77">
-        <v>8186.1</v>
+        <v>8291.049999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3320,19 +3320,19 @@
         <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F78">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="G78">
-        <v>224.89</v>
+        <v>143.93</v>
       </c>
       <c r="H78">
-        <v>43178.88</v>
+        <v>13529.42</v>
       </c>
       <c r="I78">
-        <v>43178.88</v>
+        <v>13529.42</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3355,19 +3355,19 @@
         <v>154</v>
       </c>
       <c r="F79">
-        <v>1223</v>
+        <v>774</v>
       </c>
       <c r="G79">
-        <v>314.84</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H79">
-        <v>385049.32</v>
+        <v>55116.54</v>
       </c>
       <c r="I79">
-        <v>367733.12</v>
+        <v>53122.66</v>
       </c>
       <c r="J79">
-        <v>17316.2</v>
+        <v>1993.88</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
   <si>
     <t>BSL NO</t>
   </si>
@@ -145,21 +145,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -184,54 +184,57 @@
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 250mg Capsule</t>
-  </si>
-  <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
+    <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
@@ -247,36 +250,36 @@
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 50ml Suspension</t>
+    <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
-    <t>Ontin 10mg Tablet</t>
-  </si>
-  <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
+    <t>Oradin 60ml Suspension</t>
+  </si>
+  <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -286,75 +289,75 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
+    <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
-    <t>Stiba 10mg Tablet - 30's</t>
+    <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 5mg IM/IV</t>
+  </si>
+  <si>
     <t>Timothy 50mg Tablet</t>
   </si>
   <si>
-    <t>Timothy 5mg IM/IV</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti 100ml Syrup</t>
+  </si>
+  <si>
     <t>Toti Tablet</t>
   </si>
   <si>
-    <t>Toti 100ml Syrup</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -364,30 +367,30 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>1's</t>
   </si>
   <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -406,12 +409,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>50's</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -421,6 +424,9 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>20 's</t>
   </si>
   <si>
@@ -436,18 +442,15 @@
     <t>15 gm</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>15 ml</t>
   </si>
   <si>
@@ -469,16 +472,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>35ml</t>
+  </si>
+  <si>
+    <t>20ml</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
     <t>12 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>20ml</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,19 +891,19 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="G2">
-        <v>269.87</v>
+        <v>337.33</v>
       </c>
       <c r="H2">
-        <v>24558.17</v>
+        <v>107945.6</v>
       </c>
       <c r="I2">
-        <v>24558.17</v>
+        <v>107945.6</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -920,19 +923,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3">
-        <v>311</v>
+        <v>84</v>
       </c>
       <c r="G3">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="H3">
-        <v>64112.65</v>
+        <v>22669.08</v>
       </c>
       <c r="I3">
-        <v>64112.65</v>
+        <v>22669.08</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -952,19 +955,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="G4">
-        <v>269.87</v>
+        <v>131.18</v>
       </c>
       <c r="H4">
-        <v>19430.64</v>
+        <v>22694.14</v>
       </c>
       <c r="I4">
-        <v>19430.64</v>
+        <v>22694.14</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -984,19 +987,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="G5">
-        <v>131.18</v>
+        <v>206.15</v>
       </c>
       <c r="H5">
-        <v>24399.48</v>
+        <v>26181.05</v>
       </c>
       <c r="I5">
-        <v>24399.48</v>
+        <v>26181.05</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1016,19 +1019,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6">
-        <v>345</v>
+        <v>91</v>
       </c>
       <c r="G6">
-        <v>337.33</v>
+        <v>269.87</v>
       </c>
       <c r="H6">
-        <v>116378.85</v>
+        <v>24558.17</v>
       </c>
       <c r="I6">
-        <v>116378.85</v>
+        <v>24558.17</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1048,19 +1051,19 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>2079</v>
+        <v>1880</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>467546.31</v>
+        <v>422793.2</v>
       </c>
       <c r="I7">
-        <v>467546.31</v>
+        <v>422793.2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1080,19 +1083,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>239.88</v>
       </c>
       <c r="H8">
-        <v>4317.84</v>
+        <v>959.52</v>
       </c>
       <c r="I8">
-        <v>4317.84</v>
+        <v>959.52</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1112,19 +1115,19 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>4947.8</v>
+        <v>3036.15</v>
       </c>
       <c r="I9">
-        <v>4947.8</v>
+        <v>3036.15</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1144,19 +1147,19 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="G10">
         <v>299.85</v>
       </c>
       <c r="H10">
-        <v>23388.3</v>
+        <v>33583.2</v>
       </c>
       <c r="I10">
-        <v>23388.3</v>
+        <v>33583.2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1176,19 +1179,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11">
-        <v>473</v>
+        <v>746</v>
       </c>
       <c r="G11">
         <v>239.88</v>
       </c>
       <c r="H11">
-        <v>113463.24</v>
+        <v>178950.48</v>
       </c>
       <c r="I11">
-        <v>113463.24</v>
+        <v>178950.48</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1208,19 +1211,19 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G12">
         <v>104.95</v>
       </c>
       <c r="H12">
-        <v>10390.05</v>
+        <v>9025.700000000001</v>
       </c>
       <c r="I12">
-        <v>10390.05</v>
+        <v>9025.700000000001</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1240,19 +1243,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13">
-        <v>1502</v>
+        <v>1482</v>
       </c>
       <c r="G13">
         <v>35.98</v>
       </c>
       <c r="H13">
-        <v>54041.96</v>
+        <v>53322.36</v>
       </c>
       <c r="I13">
-        <v>54041.96</v>
+        <v>53322.36</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1272,19 +1275,19 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14">
-        <v>1250</v>
+        <v>1146</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>37487.5</v>
+        <v>34368.54</v>
       </c>
       <c r="I14">
-        <v>37487.5</v>
+        <v>34368.54</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1304,19 +1307,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F15">
-        <v>2400</v>
+        <v>2481</v>
       </c>
       <c r="G15">
-        <v>359.82</v>
+        <v>314.84</v>
       </c>
       <c r="H15">
-        <v>863568</v>
+        <v>781118.04</v>
       </c>
       <c r="I15">
-        <v>863568</v>
+        <v>781118.04</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1336,19 +1339,19 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>1191</v>
+        <v>1151</v>
       </c>
       <c r="G16">
         <v>262.37</v>
       </c>
       <c r="H16">
-        <v>312482.67</v>
+        <v>301987.87</v>
       </c>
       <c r="I16">
-        <v>312482.67</v>
+        <v>301987.87</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1368,19 +1371,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>2595</v>
+        <v>2467</v>
       </c>
       <c r="G17">
-        <v>314.84</v>
+        <v>359.82</v>
       </c>
       <c r="H17">
-        <v>817009.8</v>
+        <v>887675.9399999999</v>
       </c>
       <c r="I17">
-        <v>817009.8</v>
+        <v>887675.9399999999</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1400,19 +1403,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G18">
         <v>179.91</v>
       </c>
       <c r="H18">
-        <v>19250.37</v>
+        <v>17811.09</v>
       </c>
       <c r="I18">
-        <v>19250.37</v>
+        <v>17811.09</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1432,19 +1435,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <v>168.67</v>
       </c>
       <c r="H19">
-        <v>8939.51</v>
+        <v>4722.76</v>
       </c>
       <c r="I19">
-        <v>8939.51</v>
+        <v>4722.76</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1464,19 +1467,19 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F20">
-        <v>348</v>
+        <v>244</v>
       </c>
       <c r="G20">
-        <v>33.94</v>
+        <v>432.53</v>
       </c>
       <c r="H20">
-        <v>11811.12</v>
+        <v>105537.32</v>
       </c>
       <c r="I20">
-        <v>11811.12</v>
+        <v>105537.32</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1496,22 +1499,22 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F21">
-        <v>2858</v>
+        <v>134</v>
       </c>
       <c r="G21">
-        <v>314.84</v>
+        <v>33.94</v>
       </c>
       <c r="H21">
-        <v>899812.72</v>
+        <v>4547.96</v>
       </c>
       <c r="I21">
-        <v>845975.08</v>
+        <v>4547.96</v>
       </c>
       <c r="J21">
-        <v>53837.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1528,22 +1531,22 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F22">
-        <v>308</v>
+        <v>2717</v>
       </c>
       <c r="G22">
-        <v>432.53</v>
+        <v>314.84</v>
       </c>
       <c r="H22">
-        <v>133219.24</v>
+        <v>855420.28</v>
       </c>
       <c r="I22">
-        <v>133219.24</v>
+        <v>805990.4</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>49429.88</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1560,22 +1563,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>5469</v>
+        <v>4804</v>
       </c>
       <c r="G23">
         <v>45.73</v>
       </c>
       <c r="H23">
-        <v>250097.37</v>
+        <v>219686.92</v>
       </c>
       <c r="I23">
-        <v>215113.92</v>
+        <v>187035.7</v>
       </c>
       <c r="J23">
-        <v>34983.45</v>
+        <v>32651.22</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1592,22 +1595,22 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F24">
-        <v>1847</v>
+        <v>1574</v>
       </c>
       <c r="G24">
         <v>22.83</v>
       </c>
       <c r="H24">
-        <v>42167.01</v>
+        <v>35934.42</v>
       </c>
       <c r="I24">
-        <v>42185.41</v>
+        <v>35934.42</v>
       </c>
       <c r="J24">
-        <v>-18.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1624,19 +1627,19 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F25">
-        <v>146</v>
+        <v>679</v>
       </c>
       <c r="G25">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H25">
-        <v>32833.94</v>
+        <v>25537.19</v>
       </c>
       <c r="I25">
-        <v>32833.94</v>
+        <v>25537.19</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1656,22 +1659,22 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26">
-        <v>1500</v>
+        <v>213</v>
       </c>
       <c r="G26">
-        <v>37.61</v>
+        <v>224.89</v>
       </c>
       <c r="H26">
-        <v>56415</v>
+        <v>47901.57</v>
       </c>
       <c r="I26">
-        <v>56515.8</v>
+        <v>47901.57</v>
       </c>
       <c r="J26">
-        <v>-100.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1688,19 +1691,19 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F27">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="H27">
-        <v>10794.72</v>
+        <v>299.86</v>
       </c>
       <c r="I27">
-        <v>10794.72</v>
+        <v>299.86</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1708,10 +1711,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1720,19 +1723,19 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="G28">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="H28">
-        <v>899.55</v>
+        <v>42279.32</v>
       </c>
       <c r="I28">
-        <v>899.55</v>
+        <v>42279.32</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1752,19 +1755,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G29">
         <v>89.95999999999999</v>
       </c>
       <c r="H29">
-        <v>7916.48</v>
+        <v>8546.200000000001</v>
       </c>
       <c r="I29">
-        <v>7916.48</v>
+        <v>8546.200000000001</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1784,19 +1787,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G30">
         <v>93.7</v>
       </c>
       <c r="H30">
-        <v>3560.6</v>
+        <v>6559</v>
       </c>
       <c r="I30">
-        <v>3560.6</v>
+        <v>6559</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1819,16 +1822,16 @@
         <v>131</v>
       </c>
       <c r="F31">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>337.33</v>
+        <v>179.91</v>
       </c>
       <c r="H31">
-        <v>18890.48</v>
+        <v>2158.92</v>
       </c>
       <c r="I31">
-        <v>18890.48</v>
+        <v>2158.92</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1836,10 +1839,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1848,19 +1851,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G32">
-        <v>449.78</v>
+        <v>337.33</v>
       </c>
       <c r="H32">
-        <v>11244.5</v>
+        <v>16529.17</v>
       </c>
       <c r="I32">
-        <v>11244.5</v>
+        <v>16529.17</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1868,10 +1871,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1880,19 +1883,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="G33">
-        <v>395.8</v>
+        <v>449.78</v>
       </c>
       <c r="H33">
-        <v>37601</v>
+        <v>8995.6</v>
       </c>
       <c r="I33">
-        <v>37601</v>
+        <v>8995.6</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1912,19 +1915,19 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F34">
-        <v>1044</v>
+        <v>121</v>
       </c>
       <c r="G34">
-        <v>337.33</v>
+        <v>395.8</v>
       </c>
       <c r="H34">
-        <v>352172.52</v>
+        <v>47891.8</v>
       </c>
       <c r="I34">
-        <v>352172.52</v>
+        <v>47891.8</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1932,10 +1935,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1944,19 +1947,19 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F35">
-        <v>73</v>
+        <v>971</v>
       </c>
       <c r="G35">
-        <v>52.47</v>
+        <v>337.33</v>
       </c>
       <c r="H35">
-        <v>3830.31</v>
+        <v>327547.43</v>
       </c>
       <c r="I35">
-        <v>3830.31</v>
+        <v>327547.43</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1976,19 +1979,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36">
-        <v>662</v>
+        <v>56</v>
       </c>
       <c r="G36">
-        <v>350.82</v>
+        <v>52.47</v>
       </c>
       <c r="H36">
-        <v>232242.84</v>
+        <v>2938.32</v>
       </c>
       <c r="I36">
-        <v>232242.84</v>
+        <v>2938.32</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2008,22 +2011,22 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F37">
-        <v>209</v>
+        <v>558</v>
       </c>
       <c r="G37">
-        <v>262.37</v>
+        <v>412.3</v>
       </c>
       <c r="H37">
-        <v>54835.33</v>
+        <v>230063.4</v>
       </c>
       <c r="I37">
-        <v>54835.33</v>
+        <v>229651.1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>412.3</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2040,22 +2043,22 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F38">
-        <v>641</v>
+        <v>222</v>
       </c>
       <c r="G38">
-        <v>412.3</v>
+        <v>262.37</v>
       </c>
       <c r="H38">
-        <v>264284.3</v>
+        <v>58246.14</v>
       </c>
       <c r="I38">
-        <v>263459.7</v>
+        <v>58246.14</v>
       </c>
       <c r="J38">
-        <v>824.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2072,19 +2075,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F39">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="G39">
-        <v>247.38</v>
+        <v>52.47</v>
       </c>
       <c r="H39">
-        <v>62092.38</v>
+        <v>16160.76</v>
       </c>
       <c r="I39">
-        <v>62092.38</v>
+        <v>16160.76</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2104,19 +2107,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F40">
-        <v>304</v>
+        <v>630</v>
       </c>
       <c r="G40">
-        <v>52.47</v>
+        <v>350.82</v>
       </c>
       <c r="H40">
-        <v>15950.88</v>
+        <v>221016.6</v>
       </c>
       <c r="I40">
-        <v>15950.88</v>
+        <v>221016.6</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2124,10 +2127,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -2136,19 +2139,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F41">
-        <v>463</v>
+        <v>242</v>
       </c>
       <c r="G41">
-        <v>22.49</v>
+        <v>247.38</v>
       </c>
       <c r="H41">
-        <v>10412.87</v>
+        <v>59865.96</v>
       </c>
       <c r="I41">
-        <v>10412.87</v>
+        <v>59865.96</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2168,19 +2171,19 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F42">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>224.89</v>
       </c>
       <c r="H42">
-        <v>9670.27</v>
+        <v>7196.48</v>
       </c>
       <c r="I42">
-        <v>9670.27</v>
+        <v>7196.48</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2188,10 +2191,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -2200,19 +2203,19 @@
         <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F43">
-        <v>1161</v>
+        <v>346</v>
       </c>
       <c r="G43">
-        <v>299.85</v>
+        <v>22.49</v>
       </c>
       <c r="H43">
-        <v>348125.85</v>
+        <v>7781.54</v>
       </c>
       <c r="I43">
-        <v>348125.85</v>
+        <v>7781.54</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2232,19 +2235,19 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F44">
-        <v>23</v>
+        <v>1223</v>
       </c>
       <c r="G44">
-        <v>119.94</v>
+        <v>299.85</v>
       </c>
       <c r="H44">
-        <v>2758.62</v>
+        <v>366716.55</v>
       </c>
       <c r="I44">
-        <v>2758.62</v>
+        <v>366716.55</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2264,30 +2267,30 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F45">
-        <v>1829</v>
+        <v>1446</v>
       </c>
       <c r="G45">
         <v>22.49</v>
       </c>
       <c r="H45">
-        <v>41134.21</v>
+        <v>32520.54</v>
       </c>
       <c r="I45">
-        <v>40886.82</v>
+        <v>32340.62</v>
       </c>
       <c r="J45">
-        <v>247.39</v>
+        <v>179.92</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -2296,19 +2299,19 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F46">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G46">
-        <v>269.87</v>
+        <v>119.94</v>
       </c>
       <c r="H46">
-        <v>6207.01</v>
+        <v>4917.54</v>
       </c>
       <c r="I46">
-        <v>6207.01</v>
+        <v>4917.54</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2331,16 +2334,16 @@
         <v>131</v>
       </c>
       <c r="F47">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>100121.77</v>
+        <v>3238.44</v>
       </c>
       <c r="I47">
-        <v>100121.77</v>
+        <v>3238.44</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2348,10 +2351,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -2360,19 +2363,19 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F48">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="G48">
-        <v>299.85</v>
+        <v>269.87</v>
       </c>
       <c r="H48">
-        <v>21589.2</v>
+        <v>77452.69</v>
       </c>
       <c r="I48">
-        <v>21589.2</v>
+        <v>77452.69</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2380,10 +2383,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -2392,22 +2395,22 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F49">
-        <v>1546</v>
+        <v>84</v>
       </c>
       <c r="G49">
-        <v>74.95999999999999</v>
+        <v>299.85</v>
       </c>
       <c r="H49">
-        <v>115888.16</v>
+        <v>25187.4</v>
       </c>
       <c r="I49">
-        <v>103969.52</v>
+        <v>25187.4</v>
       </c>
       <c r="J49">
-        <v>11918.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2424,22 +2427,22 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="G50">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="H50">
-        <v>944.51</v>
+        <v>19565.43</v>
       </c>
       <c r="I50">
-        <v>944.51</v>
+        <v>13268.51</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>6296.92</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2456,22 +2459,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="G51">
-        <v>191.15</v>
+        <v>449.78</v>
       </c>
       <c r="H51">
-        <v>2676.1</v>
+        <v>112894.78</v>
       </c>
       <c r="I51">
-        <v>2676.1</v>
+        <v>107497.42</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>5397.36</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2488,22 +2491,22 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="F52">
-        <v>319</v>
+        <v>1351</v>
       </c>
       <c r="G52">
-        <v>449.78</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H52">
-        <v>143479.82</v>
+        <v>101270.96</v>
       </c>
       <c r="I52">
-        <v>134484.22</v>
+        <v>90701.60000000001</v>
       </c>
       <c r="J52">
-        <v>8995.6</v>
+        <v>10569.36</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2520,19 +2523,19 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F53">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G53">
-        <v>74.95999999999999</v>
+        <v>191.15</v>
       </c>
       <c r="H53">
-        <v>3598.08</v>
+        <v>3440.7</v>
       </c>
       <c r="I53">
-        <v>3598.08</v>
+        <v>3440.7</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2552,30 +2555,30 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F54">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="H54">
-        <v>7421.37</v>
+        <v>1079.44</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1079.44</v>
       </c>
       <c r="J54">
-        <v>7421.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2584,19 +2587,19 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F55">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H55">
-        <v>30809.93</v>
+        <v>749.6</v>
       </c>
       <c r="I55">
-        <v>30809.93</v>
+        <v>749.6</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2604,10 +2607,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2616,19 +2619,19 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F56">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="G56">
-        <v>22.64</v>
+        <v>224.89</v>
       </c>
       <c r="H56">
-        <v>1584.8</v>
+        <v>26087.24</v>
       </c>
       <c r="I56">
-        <v>1584.8</v>
+        <v>26087.24</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2648,19 +2651,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F57">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>266.12</v>
+        <v>51.12</v>
       </c>
       <c r="H57">
-        <v>14902.72</v>
+        <v>2556</v>
       </c>
       <c r="I57">
-        <v>14902.72</v>
+        <v>2556</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2680,19 +2683,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F58">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="G58">
         <v>35.68</v>
       </c>
       <c r="H58">
-        <v>25903.68</v>
+        <v>26367.52</v>
       </c>
       <c r="I58">
-        <v>25903.68</v>
+        <v>26367.52</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2712,19 +2715,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F59">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="G59">
-        <v>51.12</v>
+        <v>266.12</v>
       </c>
       <c r="H59">
-        <v>4754.16</v>
+        <v>9846.440000000001</v>
       </c>
       <c r="I59">
-        <v>4754.16</v>
+        <v>9846.440000000001</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2744,19 +2747,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F60">
-        <v>809</v>
+        <v>957</v>
       </c>
       <c r="G60">
         <v>228.26</v>
       </c>
       <c r="H60">
-        <v>184662.34</v>
+        <v>218444.82</v>
       </c>
       <c r="I60">
-        <v>184662.34</v>
+        <v>218444.82</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2764,10 +2767,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2779,16 +2782,16 @@
         <v>145</v>
       </c>
       <c r="F61">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="G61">
-        <v>44.98</v>
+        <v>22.64</v>
       </c>
       <c r="H61">
-        <v>2788.76</v>
+        <v>3916.72</v>
       </c>
       <c r="I61">
-        <v>2788.76</v>
+        <v>3916.72</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2811,16 +2814,16 @@
         <v>131</v>
       </c>
       <c r="F62">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="G62">
         <v>179.91</v>
       </c>
       <c r="H62">
-        <v>32203.89</v>
+        <v>39400.29</v>
       </c>
       <c r="I62">
-        <v>32203.89</v>
+        <v>39400.29</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2828,10 +2831,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2840,19 +2843,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F63">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>142.43</v>
+        <v>44.98</v>
       </c>
       <c r="H63">
-        <v>36177.22</v>
+        <v>1349.4</v>
       </c>
       <c r="I63">
-        <v>36177.22</v>
+        <v>1349.4</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2872,19 +2875,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F64">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G64">
         <v>187.41</v>
       </c>
       <c r="H64">
-        <v>15555.03</v>
+        <v>15367.62</v>
       </c>
       <c r="I64">
-        <v>15555.03</v>
+        <v>15367.62</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2892,10 +2895,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2904,19 +2907,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F65">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="G65">
-        <v>179.91</v>
+        <v>142.43</v>
       </c>
       <c r="H65">
-        <v>17271.36</v>
+        <v>37886.38</v>
       </c>
       <c r="I65">
-        <v>17271.36</v>
+        <v>37886.38</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2924,10 +2927,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2936,19 +2939,19 @@
         <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F66">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="G66">
-        <v>149.93</v>
+        <v>179.91</v>
       </c>
       <c r="H66">
-        <v>49626.83</v>
+        <v>13673.16</v>
       </c>
       <c r="I66">
-        <v>49626.83</v>
+        <v>13673.16</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2968,19 +2971,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F67">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="G67">
         <v>56.22</v>
       </c>
       <c r="H67">
-        <v>8433</v>
+        <v>5397.12</v>
       </c>
       <c r="I67">
-        <v>8433</v>
+        <v>5397.12</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2988,10 +2991,10 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -3000,19 +3003,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F68">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="G68">
-        <v>359.82</v>
+        <v>149.93</v>
       </c>
       <c r="H68">
-        <v>110464.74</v>
+        <v>40031.31</v>
       </c>
       <c r="I68">
-        <v>110464.74</v>
+        <v>40031.31</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3020,10 +3023,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3035,16 +3038,16 @@
         <v>148</v>
       </c>
       <c r="F69">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="G69">
-        <v>134.93</v>
+        <v>359.82</v>
       </c>
       <c r="H69">
-        <v>2293.81</v>
+        <v>105787.08</v>
       </c>
       <c r="I69">
-        <v>2293.81</v>
+        <v>105787.08</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3052,10 +3055,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3064,19 +3067,19 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F70">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="G70">
-        <v>187.41</v>
+        <v>134.93</v>
       </c>
       <c r="H70">
-        <v>32047.11</v>
+        <v>5667.06</v>
       </c>
       <c r="I70">
-        <v>32047.11</v>
+        <v>5667.06</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3096,30 +3099,30 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F71">
-        <v>6500</v>
+        <v>5336</v>
       </c>
       <c r="G71">
         <v>41.23</v>
       </c>
       <c r="H71">
-        <v>267995</v>
+        <v>220003.28</v>
       </c>
       <c r="I71">
-        <v>245442.19</v>
+        <v>201326.09</v>
       </c>
       <c r="J71">
-        <v>22552.81</v>
+        <v>18677.19</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -3128,19 +3131,19 @@
         <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F72">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="G72">
-        <v>299.85</v>
+        <v>187.41</v>
       </c>
       <c r="H72">
-        <v>32083.95</v>
+        <v>32609.34</v>
       </c>
       <c r="I72">
-        <v>32083.95</v>
+        <v>32609.34</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3148,10 +3151,10 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3160,19 +3163,19 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="G73">
-        <v>134.93</v>
+        <v>299.85</v>
       </c>
       <c r="H73">
-        <v>674.65</v>
+        <v>34182.9</v>
       </c>
       <c r="I73">
-        <v>674.65</v>
+        <v>34182.9</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3180,10 +3183,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3192,19 +3195,19 @@
         <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F74">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>29.99</v>
+        <v>134.93</v>
       </c>
       <c r="H74">
-        <v>2639.12</v>
+        <v>1349.3</v>
       </c>
       <c r="I74">
-        <v>2639.12</v>
+        <v>1349.3</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3212,10 +3215,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3224,19 +3227,19 @@
         <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F75">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="G75">
-        <v>224.89</v>
+        <v>29.99</v>
       </c>
       <c r="H75">
-        <v>43178.88</v>
+        <v>2459.18</v>
       </c>
       <c r="I75">
-        <v>43178.88</v>
+        <v>2459.18</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3256,22 +3259,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F76">
-        <v>1254</v>
+        <v>1616</v>
       </c>
       <c r="G76">
-        <v>314.84</v>
+        <v>104.95</v>
       </c>
       <c r="H76">
-        <v>394809.36</v>
+        <v>169599.2</v>
       </c>
       <c r="I76">
-        <v>376863.48</v>
+        <v>162672.5</v>
       </c>
       <c r="J76">
-        <v>17945.88</v>
+        <v>6926.7</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3288,22 +3291,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="F77">
-        <v>1607</v>
+        <v>123</v>
       </c>
       <c r="G77">
-        <v>104.95</v>
+        <v>224.89</v>
       </c>
       <c r="H77">
-        <v>168654.65</v>
+        <v>27661.47</v>
       </c>
       <c r="I77">
-        <v>160363.6</v>
+        <v>27661.47</v>
       </c>
       <c r="J77">
-        <v>8291.049999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3323,19 +3326,19 @@
         <v>153</v>
       </c>
       <c r="F78">
-        <v>94</v>
+        <v>922</v>
       </c>
       <c r="G78">
-        <v>143.93</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H78">
-        <v>13529.42</v>
+        <v>65655.62</v>
       </c>
       <c r="I78">
-        <v>13529.42</v>
+        <v>62949.64</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>2705.98</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3355,19 +3358,51 @@
         <v>154</v>
       </c>
       <c r="F79">
-        <v>774</v>
+        <v>188</v>
       </c>
       <c r="G79">
-        <v>71.20999999999999</v>
+        <v>143.93</v>
       </c>
       <c r="H79">
-        <v>55116.54</v>
+        <v>27058.84</v>
       </c>
       <c r="I79">
-        <v>53122.66</v>
+        <v>27058.84</v>
       </c>
       <c r="J79">
-        <v>1993.88</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80">
+        <v>1562</v>
+      </c>
+      <c r="G80">
+        <v>314.84</v>
+      </c>
+      <c r="H80">
+        <v>491780.08</v>
+      </c>
+      <c r="I80">
+        <v>465963.2</v>
+      </c>
+      <c r="J80">
+        <v>25816.88</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -145,21 +145,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 375 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 375 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -169,48 +169,48 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet 40's</t>
+    <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 5mg Tablet</t>
-  </si>
-  <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
@@ -226,18 +226,18 @@
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -247,90 +247,90 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin 60ml Suspension</t>
+  </si>
+  <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
+    <t>Osticare Tablet 30's</t>
+  </si>
+  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
-    <t>Osticare Tablet 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
+    <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
-  </si>
-  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 50mg Tablet</t>
+  </si>
+  <si>
     <t>Timothy 5mg IM/IV</t>
   </si>
   <si>
-    <t>Timothy 50mg Tablet</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -367,30 +367,30 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
+    <t>1's</t>
+  </si>
+  <si>
     <t>12's</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -400,12 +400,12 @@
     <t>50 's</t>
   </si>
   <si>
+    <t>50 ml</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>50 ml</t>
-  </si>
-  <si>
     <t>100 ml</t>
   </si>
   <si>
@@ -439,12 +439,12 @@
     <t>24's</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>15 gm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>36's</t>
   </si>
   <si>
@@ -472,16 +472,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
     <t>35ml</t>
   </si>
   <si>
     <t>20ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
   </si>
 </sst>
 </file>
@@ -894,16 +894,16 @@
         <v>122</v>
       </c>
       <c r="F2">
-        <v>320</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>337.33</v>
+        <v>269.87</v>
       </c>
       <c r="H2">
-        <v>107945.6</v>
+        <v>24558.17</v>
       </c>
       <c r="I2">
-        <v>107945.6</v>
+        <v>24558.17</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -926,16 +926,16 @@
         <v>123</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="G3">
-        <v>269.87</v>
+        <v>206.15</v>
       </c>
       <c r="H3">
-        <v>22669.08</v>
+        <v>26181.05</v>
       </c>
       <c r="I3">
-        <v>22669.08</v>
+        <v>26181.05</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -955,19 +955,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="G4">
-        <v>131.18</v>
+        <v>337.33</v>
       </c>
       <c r="H4">
-        <v>22694.14</v>
+        <v>107945.6</v>
       </c>
       <c r="I4">
-        <v>22694.14</v>
+        <v>107945.6</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -987,19 +987,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="G5">
-        <v>206.15</v>
+        <v>131.18</v>
       </c>
       <c r="H5">
-        <v>26181.05</v>
+        <v>22694.14</v>
       </c>
       <c r="I5">
-        <v>26181.05</v>
+        <v>22694.14</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F6">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G6">
         <v>269.87</v>
       </c>
       <c r="H6">
-        <v>24558.17</v>
+        <v>22669.08</v>
       </c>
       <c r="I6">
-        <v>24558.17</v>
+        <v>22669.08</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>128</v>
       </c>
       <c r="F10">
-        <v>112</v>
+        <v>1482</v>
       </c>
       <c r="G10">
-        <v>299.85</v>
+        <v>35.98</v>
       </c>
       <c r="H10">
-        <v>33583.2</v>
+        <v>53322.36</v>
       </c>
       <c r="I10">
-        <v>33583.2</v>
+        <v>53322.36</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11">
         <v>746</v>
@@ -1211,7 +1211,7 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12">
         <v>86</v>
@@ -1246,16 +1246,16 @@
         <v>129</v>
       </c>
       <c r="F13">
-        <v>1482</v>
+        <v>112</v>
       </c>
       <c r="G13">
-        <v>35.98</v>
+        <v>299.85</v>
       </c>
       <c r="H13">
-        <v>53322.36</v>
+        <v>33583.2</v>
       </c>
       <c r="I13">
-        <v>53322.36</v>
+        <v>33583.2</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1307,19 +1307,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15">
-        <v>2481</v>
+        <v>2467</v>
       </c>
       <c r="G15">
-        <v>314.84</v>
+        <v>359.82</v>
       </c>
       <c r="H15">
-        <v>781118.04</v>
+        <v>887675.9399999999</v>
       </c>
       <c r="I15">
-        <v>781118.04</v>
+        <v>887675.9399999999</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16">
-        <v>1151</v>
+        <v>2481</v>
       </c>
       <c r="G16">
-        <v>262.37</v>
+        <v>314.84</v>
       </c>
       <c r="H16">
-        <v>301987.87</v>
+        <v>781118.04</v>
       </c>
       <c r="I16">
-        <v>301987.87</v>
+        <v>781118.04</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1371,19 +1371,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F17">
-        <v>2467</v>
+        <v>1151</v>
       </c>
       <c r="G17">
-        <v>359.82</v>
+        <v>262.37</v>
       </c>
       <c r="H17">
-        <v>887675.9399999999</v>
+        <v>301987.87</v>
       </c>
       <c r="I17">
-        <v>887675.9399999999</v>
+        <v>301987.87</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1403,19 +1403,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F18">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="H18">
-        <v>17811.09</v>
+        <v>4722.76</v>
       </c>
       <c r="I18">
-        <v>17811.09</v>
+        <v>4722.76</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="G19">
-        <v>168.67</v>
+        <v>179.91</v>
       </c>
       <c r="H19">
-        <v>4722.76</v>
+        <v>17811.09</v>
       </c>
       <c r="I19">
-        <v>4722.76</v>
+        <v>17811.09</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F21">
-        <v>134</v>
+        <v>4804</v>
       </c>
       <c r="G21">
-        <v>33.94</v>
+        <v>45.73</v>
       </c>
       <c r="H21">
-        <v>4547.96</v>
+        <v>219686.92</v>
       </c>
       <c r="I21">
-        <v>4547.96</v>
+        <v>187035.7</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>32651.22</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1531,22 +1531,22 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F22">
-        <v>2717</v>
+        <v>134</v>
       </c>
       <c r="G22">
-        <v>314.84</v>
+        <v>33.94</v>
       </c>
       <c r="H22">
-        <v>855420.28</v>
+        <v>4547.96</v>
       </c>
       <c r="I22">
-        <v>805990.4</v>
+        <v>4547.96</v>
       </c>
       <c r="J22">
-        <v>49429.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1563,22 +1563,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23">
-        <v>4804</v>
+        <v>2717</v>
       </c>
       <c r="G23">
-        <v>45.73</v>
+        <v>314.84</v>
       </c>
       <c r="H23">
-        <v>219686.92</v>
+        <v>855420.28</v>
       </c>
       <c r="I23">
-        <v>187035.7</v>
+        <v>805990.4</v>
       </c>
       <c r="J23">
-        <v>32651.22</v>
+        <v>49429.88</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1755,19 +1755,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F29">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="G29">
-        <v>89.95999999999999</v>
+        <v>337.33</v>
       </c>
       <c r="H29">
-        <v>8546.200000000001</v>
+        <v>16529.17</v>
       </c>
       <c r="I29">
-        <v>8546.200000000001</v>
+        <v>16529.17</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1787,19 +1787,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F30">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>93.7</v>
+        <v>179.91</v>
       </c>
       <c r="H30">
-        <v>6559</v>
+        <v>2158.92</v>
       </c>
       <c r="I30">
-        <v>6559</v>
+        <v>2158.92</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="G31">
-        <v>179.91</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H31">
-        <v>2158.92</v>
+        <v>8546.200000000001</v>
       </c>
       <c r="I31">
-        <v>2158.92</v>
+        <v>8546.200000000001</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1851,19 +1851,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F32">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G32">
-        <v>337.33</v>
+        <v>93.7</v>
       </c>
       <c r="H32">
-        <v>16529.17</v>
+        <v>6559</v>
       </c>
       <c r="I32">
-        <v>16529.17</v>
+        <v>6559</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F36">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="G36">
         <v>52.47</v>
       </c>
       <c r="H36">
-        <v>2938.32</v>
+        <v>16160.76</v>
       </c>
       <c r="I36">
-        <v>2938.32</v>
+        <v>16160.76</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2011,22 +2011,22 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F37">
-        <v>558</v>
+        <v>242</v>
       </c>
       <c r="G37">
-        <v>412.3</v>
+        <v>247.38</v>
       </c>
       <c r="H37">
-        <v>230063.4</v>
+        <v>59865.96</v>
       </c>
       <c r="I37">
-        <v>229651.1</v>
+        <v>59865.96</v>
       </c>
       <c r="J37">
-        <v>412.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2043,22 +2043,22 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F38">
-        <v>222</v>
+        <v>558</v>
       </c>
       <c r="G38">
-        <v>262.37</v>
+        <v>412.3</v>
       </c>
       <c r="H38">
-        <v>58246.14</v>
+        <v>230063.4</v>
       </c>
       <c r="I38">
-        <v>58246.14</v>
+        <v>229651.1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>412.3</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2075,19 +2075,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F39">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="G39">
-        <v>52.47</v>
+        <v>262.37</v>
       </c>
       <c r="H39">
-        <v>16160.76</v>
+        <v>58246.14</v>
       </c>
       <c r="I39">
-        <v>16160.76</v>
+        <v>58246.14</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40">
-        <v>630</v>
+        <v>56</v>
       </c>
       <c r="G40">
-        <v>350.82</v>
+        <v>52.47</v>
       </c>
       <c r="H40">
-        <v>221016.6</v>
+        <v>2938.32</v>
       </c>
       <c r="I40">
-        <v>221016.6</v>
+        <v>2938.32</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2139,19 +2139,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F41">
-        <v>242</v>
+        <v>630</v>
       </c>
       <c r="G41">
-        <v>247.38</v>
+        <v>350.82</v>
       </c>
       <c r="H41">
-        <v>59865.96</v>
+        <v>221016.6</v>
       </c>
       <c r="I41">
-        <v>59865.96</v>
+        <v>221016.6</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2235,22 +2235,22 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F44">
-        <v>1223</v>
+        <v>1446</v>
       </c>
       <c r="G44">
-        <v>299.85</v>
+        <v>22.49</v>
       </c>
       <c r="H44">
-        <v>366716.55</v>
+        <v>32520.54</v>
       </c>
       <c r="I44">
-        <v>366716.55</v>
+        <v>32340.62</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>179.92</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2267,22 +2267,22 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F45">
-        <v>1446</v>
+        <v>1223</v>
       </c>
       <c r="G45">
-        <v>22.49</v>
+        <v>299.85</v>
       </c>
       <c r="H45">
-        <v>32520.54</v>
+        <v>366716.55</v>
       </c>
       <c r="I45">
-        <v>32340.62</v>
+        <v>366716.55</v>
       </c>
       <c r="J45">
-        <v>179.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2334,16 +2334,16 @@
         <v>131</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>3238.44</v>
+        <v>77452.69</v>
       </c>
       <c r="I47">
-        <v>3238.44</v>
+        <v>77452.69</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>131</v>
       </c>
       <c r="F48">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <v>269.87</v>
       </c>
       <c r="H48">
-        <v>77452.69</v>
+        <v>3238.44</v>
       </c>
       <c r="I48">
-        <v>77452.69</v>
+        <v>3238.44</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2427,22 +2427,22 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="G50">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="H50">
-        <v>19565.43</v>
+        <v>1079.44</v>
       </c>
       <c r="I50">
-        <v>13268.51</v>
+        <v>1079.44</v>
       </c>
       <c r="J50">
-        <v>6296.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2459,22 +2459,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F51">
-        <v>251</v>
+        <v>87</v>
       </c>
       <c r="G51">
-        <v>449.78</v>
+        <v>224.89</v>
       </c>
       <c r="H51">
-        <v>112894.78</v>
+        <v>19565.43</v>
       </c>
       <c r="I51">
-        <v>107497.42</v>
+        <v>13268.51</v>
       </c>
       <c r="J51">
-        <v>5397.36</v>
+        <v>6296.92</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2491,22 +2491,22 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F52">
-        <v>1351</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>74.95999999999999</v>
       </c>
       <c r="H52">
-        <v>101270.96</v>
+        <v>749.6</v>
       </c>
       <c r="I52">
-        <v>90701.60000000001</v>
+        <v>749.6</v>
       </c>
       <c r="J52">
-        <v>10569.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2523,22 +2523,22 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F53">
-        <v>18</v>
+        <v>1351</v>
       </c>
       <c r="G53">
-        <v>191.15</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H53">
-        <v>3440.7</v>
+        <v>101270.96</v>
       </c>
       <c r="I53">
-        <v>3440.7</v>
+        <v>90701.60000000001</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>10569.36</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2555,19 +2555,19 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G54">
-        <v>134.93</v>
+        <v>191.15</v>
       </c>
       <c r="H54">
-        <v>1079.44</v>
+        <v>3440.7</v>
       </c>
       <c r="I54">
-        <v>1079.44</v>
+        <v>3440.7</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2587,22 +2587,22 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G55">
-        <v>74.95999999999999</v>
+        <v>449.78</v>
       </c>
       <c r="H55">
-        <v>749.6</v>
+        <v>112894.78</v>
       </c>
       <c r="I55">
-        <v>749.6</v>
+        <v>107497.42</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>5397.36</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2651,19 +2651,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>957</v>
       </c>
       <c r="G57">
-        <v>51.12</v>
+        <v>228.26</v>
       </c>
       <c r="H57">
-        <v>2556</v>
+        <v>218444.82</v>
       </c>
       <c r="I57">
-        <v>2556</v>
+        <v>218444.82</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2683,19 +2683,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F58">
-        <v>739</v>
+        <v>173</v>
       </c>
       <c r="G58">
-        <v>35.68</v>
+        <v>22.64</v>
       </c>
       <c r="H58">
-        <v>26367.52</v>
+        <v>3916.72</v>
       </c>
       <c r="I58">
-        <v>26367.52</v>
+        <v>3916.72</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F59">
-        <v>37</v>
+        <v>739</v>
       </c>
       <c r="G59">
-        <v>266.12</v>
+        <v>35.68</v>
       </c>
       <c r="H59">
-        <v>9846.440000000001</v>
+        <v>26367.52</v>
       </c>
       <c r="I59">
-        <v>9846.440000000001</v>
+        <v>26367.52</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2747,19 +2747,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F60">
-        <v>957</v>
+        <v>37</v>
       </c>
       <c r="G60">
-        <v>228.26</v>
+        <v>266.12</v>
       </c>
       <c r="H60">
-        <v>218444.82</v>
+        <v>9846.440000000001</v>
       </c>
       <c r="I60">
-        <v>218444.82</v>
+        <v>9846.440000000001</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2779,19 +2779,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F61">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>22.64</v>
+        <v>51.12</v>
       </c>
       <c r="H61">
-        <v>3916.72</v>
+        <v>2556</v>
       </c>
       <c r="I61">
-        <v>3916.72</v>
+        <v>2556</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2811,19 +2811,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F62">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="G62">
-        <v>179.91</v>
+        <v>44.98</v>
       </c>
       <c r="H62">
-        <v>39400.29</v>
+        <v>1349.4</v>
       </c>
       <c r="I62">
-        <v>39400.29</v>
+        <v>1349.4</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F63">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="G63">
-        <v>44.98</v>
+        <v>179.91</v>
       </c>
       <c r="H63">
-        <v>1349.4</v>
+        <v>39400.29</v>
       </c>
       <c r="I63">
-        <v>1349.4</v>
+        <v>39400.29</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2971,19 +2971,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F67">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="G67">
-        <v>56.22</v>
+        <v>149.93</v>
       </c>
       <c r="H67">
-        <v>5397.12</v>
+        <v>40031.31</v>
       </c>
       <c r="I67">
-        <v>5397.12</v>
+        <v>40031.31</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F68">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="G68">
-        <v>149.93</v>
+        <v>56.22</v>
       </c>
       <c r="H68">
-        <v>40031.31</v>
+        <v>5397.12</v>
       </c>
       <c r="I68">
-        <v>40031.31</v>
+        <v>5397.12</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3259,22 +3259,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F76">
-        <v>1616</v>
+        <v>123</v>
       </c>
       <c r="G76">
-        <v>104.95</v>
+        <v>224.89</v>
       </c>
       <c r="H76">
-        <v>169599.2</v>
+        <v>27661.47</v>
       </c>
       <c r="I76">
-        <v>162672.5</v>
+        <v>27661.47</v>
       </c>
       <c r="J76">
-        <v>6926.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3291,22 +3291,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F77">
-        <v>123</v>
+        <v>1562</v>
       </c>
       <c r="G77">
-        <v>224.89</v>
+        <v>314.84</v>
       </c>
       <c r="H77">
-        <v>27661.47</v>
+        <v>491780.08</v>
       </c>
       <c r="I77">
-        <v>27661.47</v>
+        <v>465963.2</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>25816.88</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3326,19 +3326,19 @@
         <v>153</v>
       </c>
       <c r="F78">
-        <v>922</v>
+        <v>188</v>
       </c>
       <c r="G78">
-        <v>71.20999999999999</v>
+        <v>143.93</v>
       </c>
       <c r="H78">
-        <v>65655.62</v>
+        <v>27058.84</v>
       </c>
       <c r="I78">
-        <v>62949.64</v>
+        <v>27058.84</v>
       </c>
       <c r="J78">
-        <v>2705.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3358,19 +3358,19 @@
         <v>154</v>
       </c>
       <c r="F79">
-        <v>188</v>
+        <v>1616</v>
       </c>
       <c r="G79">
-        <v>143.93</v>
+        <v>104.95</v>
       </c>
       <c r="H79">
-        <v>27058.84</v>
+        <v>169599.2</v>
       </c>
       <c r="I79">
-        <v>27058.84</v>
+        <v>162672.5</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>6926.7</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3390,19 +3390,19 @@
         <v>155</v>
       </c>
       <c r="F80">
-        <v>1562</v>
+        <v>922</v>
       </c>
       <c r="G80">
-        <v>314.84</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H80">
-        <v>491780.08</v>
+        <v>65655.62</v>
       </c>
       <c r="I80">
-        <v>465963.2</v>
+        <v>62949.64</v>
       </c>
       <c r="J80">
-        <v>25816.88</v>
+        <v>2705.98</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -148,12 +148,12 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
@@ -169,18 +169,18 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
@@ -199,45 +199,45 @@
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
+    <t>Ketonic 10mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -247,24 +247,24 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox 250mg Tablet</t>
   </si>
   <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
@@ -274,78 +274,78 @@
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
+    <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
     <t>Osticare Tablet 30's</t>
   </si>
   <si>
-    <t>Osticare FC Tab Container 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
+    <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
-    <t>Stiba 10mg Tablet - 30's</t>
+    <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
-    <t>Sulidac 200 Tablet 20's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 5mg IM/IV</t>
+  </si>
+  <si>
     <t>Timothy 50mg Tablet</t>
   </si>
   <si>
-    <t>Timothy 5mg IM/IV</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -367,10 +367,13 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
+    <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
     <t>Zithrox 50ml Powder for Suspension</t>
@@ -379,9 +382,6 @@
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -400,12 +400,12 @@
     <t>50 's</t>
   </si>
   <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>50 ml</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
     <t>100 ml</t>
   </si>
   <si>
@@ -439,15 +439,15 @@
     <t>24's</t>
   </si>
   <si>
+    <t>15 gm</t>
+  </si>
+  <si>
+    <t>36's</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 50 's</t>
   </si>
   <si>
-    <t>15 gm</t>
-  </si>
-  <si>
-    <t>36's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -475,13 +475,13 @@
     <t>12 's</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
     <t>50ml</t>
   </si>
   <si>
     <t>35ml</t>
-  </si>
-  <si>
-    <t>20ml</t>
   </si>
 </sst>
 </file>
@@ -923,19 +923,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="G3">
-        <v>206.15</v>
+        <v>337.33</v>
       </c>
       <c r="H3">
-        <v>26181.05</v>
+        <v>107945.6</v>
       </c>
       <c r="I3">
-        <v>26181.05</v>
+        <v>107945.6</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -955,19 +955,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F4">
-        <v>320</v>
+        <v>127</v>
       </c>
       <c r="G4">
-        <v>337.33</v>
+        <v>206.15</v>
       </c>
       <c r="H4">
-        <v>107945.6</v>
+        <v>26181.05</v>
       </c>
       <c r="I4">
-        <v>107945.6</v>
+        <v>26181.05</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>128</v>
       </c>
       <c r="F10">
-        <v>1482</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>35.98</v>
+        <v>104.95</v>
       </c>
       <c r="H10">
-        <v>53322.36</v>
+        <v>9025.700000000001</v>
       </c>
       <c r="I10">
-        <v>53322.36</v>
+        <v>9025.700000000001</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1179,19 +1179,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11">
-        <v>746</v>
+        <v>112</v>
       </c>
       <c r="G11">
-        <v>239.88</v>
+        <v>299.85</v>
       </c>
       <c r="H11">
-        <v>178950.48</v>
+        <v>33583.2</v>
       </c>
       <c r="I11">
-        <v>178950.48</v>
+        <v>33583.2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>129</v>
       </c>
       <c r="F12">
-        <v>86</v>
+        <v>1482</v>
       </c>
       <c r="G12">
-        <v>104.95</v>
+        <v>35.98</v>
       </c>
       <c r="H12">
-        <v>9025.700000000001</v>
+        <v>53322.36</v>
       </c>
       <c r="I12">
-        <v>9025.700000000001</v>
+        <v>53322.36</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1243,19 +1243,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13">
-        <v>112</v>
+        <v>746</v>
       </c>
       <c r="G13">
-        <v>299.85</v>
+        <v>239.88</v>
       </c>
       <c r="H13">
-        <v>33583.2</v>
+        <v>178950.48</v>
       </c>
       <c r="I13">
-        <v>33583.2</v>
+        <v>178950.48</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15">
         <v>2467</v>
@@ -1467,22 +1467,22 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>244</v>
+        <v>4804</v>
       </c>
       <c r="G20">
-        <v>432.53</v>
+        <v>45.73</v>
       </c>
       <c r="H20">
-        <v>105537.32</v>
+        <v>219686.92</v>
       </c>
       <c r="I20">
-        <v>105537.32</v>
+        <v>187035.7</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>32651.22</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1499,22 +1499,22 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F21">
-        <v>4804</v>
+        <v>2717</v>
       </c>
       <c r="G21">
-        <v>45.73</v>
+        <v>314.84</v>
       </c>
       <c r="H21">
-        <v>219686.92</v>
+        <v>855420.28</v>
       </c>
       <c r="I21">
-        <v>187035.7</v>
+        <v>805990.4</v>
       </c>
       <c r="J21">
-        <v>32651.22</v>
+        <v>49429.88</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1531,19 +1531,19 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F22">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="G22">
-        <v>33.94</v>
+        <v>432.53</v>
       </c>
       <c r="H22">
-        <v>4547.96</v>
+        <v>105537.32</v>
       </c>
       <c r="I22">
-        <v>4547.96</v>
+        <v>105537.32</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1563,22 +1563,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F23">
-        <v>2717</v>
+        <v>134</v>
       </c>
       <c r="G23">
-        <v>314.84</v>
+        <v>33.94</v>
       </c>
       <c r="H23">
-        <v>855420.28</v>
+        <v>4547.96</v>
       </c>
       <c r="I23">
-        <v>805990.4</v>
+        <v>4547.96</v>
       </c>
       <c r="J23">
-        <v>49429.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1595,19 +1595,19 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F24">
-        <v>1574</v>
+        <v>213</v>
       </c>
       <c r="G24">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="H24">
-        <v>35934.42</v>
+        <v>47901.57</v>
       </c>
       <c r="I24">
-        <v>35934.42</v>
+        <v>47901.57</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1659,19 +1659,19 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F26">
-        <v>213</v>
+        <v>1574</v>
       </c>
       <c r="G26">
-        <v>224.89</v>
+        <v>22.83</v>
       </c>
       <c r="H26">
-        <v>47901.57</v>
+        <v>35934.42</v>
       </c>
       <c r="I26">
-        <v>47901.57</v>
+        <v>35934.42</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1758,16 +1758,16 @@
         <v>131</v>
       </c>
       <c r="F29">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G29">
-        <v>337.33</v>
+        <v>179.91</v>
       </c>
       <c r="H29">
-        <v>16529.17</v>
+        <v>2158.92</v>
       </c>
       <c r="I29">
-        <v>16529.17</v>
+        <v>2158.92</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1787,19 +1787,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="G30">
-        <v>179.91</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H30">
-        <v>2158.92</v>
+        <v>8546.200000000001</v>
       </c>
       <c r="I30">
-        <v>2158.92</v>
+        <v>8546.200000000001</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F31">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G31">
-        <v>89.95999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H31">
-        <v>8546.200000000001</v>
+        <v>6559</v>
       </c>
       <c r="I31">
-        <v>8546.200000000001</v>
+        <v>6559</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1851,19 +1851,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F32">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G32">
-        <v>93.7</v>
+        <v>337.33</v>
       </c>
       <c r="H32">
-        <v>6559</v>
+        <v>16529.17</v>
       </c>
       <c r="I32">
-        <v>6559</v>
+        <v>16529.17</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F36">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="G36">
-        <v>52.47</v>
+        <v>247.38</v>
       </c>
       <c r="H36">
-        <v>16160.76</v>
+        <v>59865.96</v>
       </c>
       <c r="I36">
-        <v>16160.76</v>
+        <v>59865.96</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F37">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="G37">
-        <v>247.38</v>
+        <v>52.47</v>
       </c>
       <c r="H37">
-        <v>59865.96</v>
+        <v>2938.32</v>
       </c>
       <c r="I37">
-        <v>59865.96</v>
+        <v>2938.32</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2075,19 +2075,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F39">
-        <v>222</v>
+        <v>630</v>
       </c>
       <c r="G39">
-        <v>262.37</v>
+        <v>350.82</v>
       </c>
       <c r="H39">
-        <v>58246.14</v>
+        <v>221016.6</v>
       </c>
       <c r="I39">
-        <v>58246.14</v>
+        <v>221016.6</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F40">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="G40">
         <v>52.47</v>
       </c>
       <c r="H40">
-        <v>2938.32</v>
+        <v>16160.76</v>
       </c>
       <c r="I40">
-        <v>2938.32</v>
+        <v>16160.76</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2142,16 +2142,16 @@
         <v>143</v>
       </c>
       <c r="F41">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="G41">
-        <v>350.82</v>
+        <v>262.37</v>
       </c>
       <c r="H41">
-        <v>221016.6</v>
+        <v>58246.14</v>
       </c>
       <c r="I41">
-        <v>221016.6</v>
+        <v>58246.14</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2267,19 +2267,19 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F45">
-        <v>1223</v>
+        <v>41</v>
       </c>
       <c r="G45">
-        <v>299.85</v>
+        <v>119.94</v>
       </c>
       <c r="H45">
-        <v>366716.55</v>
+        <v>4917.54</v>
       </c>
       <c r="I45">
-        <v>366716.55</v>
+        <v>4917.54</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F46">
-        <v>41</v>
+        <v>1223</v>
       </c>
       <c r="G46">
-        <v>119.94</v>
+        <v>299.85</v>
       </c>
       <c r="H46">
-        <v>4917.54</v>
+        <v>366716.55</v>
       </c>
       <c r="I46">
-        <v>4917.54</v>
+        <v>366716.55</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>131</v>
       </c>
       <c r="F47">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>77452.69</v>
+        <v>3238.44</v>
       </c>
       <c r="I47">
-        <v>77452.69</v>
+        <v>3238.44</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>131</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="G48">
         <v>269.87</v>
       </c>
       <c r="H48">
-        <v>3238.44</v>
+        <v>77452.69</v>
       </c>
       <c r="I48">
-        <v>3238.44</v>
+        <v>77452.69</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2427,22 +2427,22 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>1351</v>
       </c>
       <c r="G50">
-        <v>134.93</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H50">
-        <v>1079.44</v>
+        <v>101270.96</v>
       </c>
       <c r="I50">
-        <v>1079.44</v>
+        <v>90701.60000000001</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>10569.36</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2459,22 +2459,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="G51">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="H51">
-        <v>19565.43</v>
+        <v>1079.44</v>
       </c>
       <c r="I51">
-        <v>13268.51</v>
+        <v>1079.44</v>
       </c>
       <c r="J51">
-        <v>6296.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2491,19 +2491,19 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52">
-        <v>74.95999999999999</v>
+        <v>191.15</v>
       </c>
       <c r="H52">
-        <v>749.6</v>
+        <v>3440.7</v>
       </c>
       <c r="I52">
-        <v>749.6</v>
+        <v>3440.7</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F53">
-        <v>1351</v>
+        <v>87</v>
       </c>
       <c r="G53">
-        <v>74.95999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="H53">
-        <v>101270.96</v>
+        <v>19565.43</v>
       </c>
       <c r="I53">
-        <v>90701.60000000001</v>
+        <v>13268.51</v>
       </c>
       <c r="J53">
-        <v>10569.36</v>
+        <v>6296.92</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2555,22 +2555,22 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F54">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="G54">
-        <v>191.15</v>
+        <v>449.78</v>
       </c>
       <c r="H54">
-        <v>3440.7</v>
+        <v>112894.78</v>
       </c>
       <c r="I54">
-        <v>3440.7</v>
+        <v>107497.42</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>5397.36</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2587,22 +2587,22 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F55">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="G55">
-        <v>449.78</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H55">
-        <v>112894.78</v>
+        <v>749.6</v>
       </c>
       <c r="I55">
-        <v>107497.42</v>
+        <v>749.6</v>
       </c>
       <c r="J55">
-        <v>5397.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2683,19 +2683,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F58">
-        <v>173</v>
+        <v>50</v>
       </c>
       <c r="G58">
-        <v>22.64</v>
+        <v>51.12</v>
       </c>
       <c r="H58">
-        <v>3916.72</v>
+        <v>2556</v>
       </c>
       <c r="I58">
-        <v>3916.72</v>
+        <v>2556</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F59">
-        <v>739</v>
+        <v>37</v>
       </c>
       <c r="G59">
-        <v>35.68</v>
+        <v>266.12</v>
       </c>
       <c r="H59">
-        <v>26367.52</v>
+        <v>9846.440000000001</v>
       </c>
       <c r="I59">
-        <v>26367.52</v>
+        <v>9846.440000000001</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2747,19 +2747,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F60">
-        <v>37</v>
+        <v>739</v>
       </c>
       <c r="G60">
-        <v>266.12</v>
+        <v>35.68</v>
       </c>
       <c r="H60">
-        <v>9846.440000000001</v>
+        <v>26367.52</v>
       </c>
       <c r="I60">
-        <v>9846.440000000001</v>
+        <v>26367.52</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2779,19 +2779,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F61">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="G61">
-        <v>51.12</v>
+        <v>22.64</v>
       </c>
       <c r="H61">
-        <v>2556</v>
+        <v>3916.72</v>
       </c>
       <c r="I61">
-        <v>2556</v>
+        <v>3916.72</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2811,19 +2811,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F62">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="G62">
-        <v>44.98</v>
+        <v>179.91</v>
       </c>
       <c r="H62">
-        <v>1349.4</v>
+        <v>39400.29</v>
       </c>
       <c r="I62">
-        <v>1349.4</v>
+        <v>39400.29</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F63">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>179.91</v>
+        <v>44.98</v>
       </c>
       <c r="H63">
-        <v>39400.29</v>
+        <v>1349.4</v>
       </c>
       <c r="I63">
-        <v>39400.29</v>
+        <v>1349.4</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2875,19 +2875,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F64">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="G64">
-        <v>187.41</v>
+        <v>142.43</v>
       </c>
       <c r="H64">
-        <v>15367.62</v>
+        <v>37886.38</v>
       </c>
       <c r="I64">
-        <v>15367.62</v>
+        <v>37886.38</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2907,19 +2907,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F65">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="G65">
-        <v>142.43</v>
+        <v>187.41</v>
       </c>
       <c r="H65">
-        <v>37886.38</v>
+        <v>15367.62</v>
       </c>
       <c r="I65">
-        <v>37886.38</v>
+        <v>15367.62</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2971,19 +2971,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F67">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="G67">
-        <v>149.93</v>
+        <v>56.22</v>
       </c>
       <c r="H67">
-        <v>40031.31</v>
+        <v>5397.12</v>
       </c>
       <c r="I67">
-        <v>40031.31</v>
+        <v>5397.12</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F68">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="G68">
-        <v>56.22</v>
+        <v>149.93</v>
       </c>
       <c r="H68">
-        <v>5397.12</v>
+        <v>40031.31</v>
       </c>
       <c r="I68">
-        <v>5397.12</v>
+        <v>40031.31</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3259,22 +3259,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F76">
-        <v>123</v>
+        <v>1562</v>
       </c>
       <c r="G76">
-        <v>224.89</v>
+        <v>314.84</v>
       </c>
       <c r="H76">
-        <v>27661.47</v>
+        <v>491780.08</v>
       </c>
       <c r="I76">
-        <v>27661.47</v>
+        <v>465963.2</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>25816.88</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3291,22 +3291,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F77">
-        <v>1562</v>
+        <v>123</v>
       </c>
       <c r="G77">
-        <v>314.84</v>
+        <v>224.89</v>
       </c>
       <c r="H77">
-        <v>491780.08</v>
+        <v>27661.47</v>
       </c>
       <c r="I77">
-        <v>465963.2</v>
+        <v>27661.47</v>
       </c>
       <c r="J77">
-        <v>25816.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3326,19 +3326,19 @@
         <v>153</v>
       </c>
       <c r="F78">
-        <v>188</v>
+        <v>922</v>
       </c>
       <c r="G78">
-        <v>143.93</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H78">
-        <v>27058.84</v>
+        <v>65655.62</v>
       </c>
       <c r="I78">
-        <v>27058.84</v>
+        <v>62949.64</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>2705.98</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3358,19 +3358,19 @@
         <v>154</v>
       </c>
       <c r="F79">
-        <v>1616</v>
+        <v>188</v>
       </c>
       <c r="G79">
-        <v>104.95</v>
+        <v>143.93</v>
       </c>
       <c r="H79">
-        <v>169599.2</v>
+        <v>27058.84</v>
       </c>
       <c r="I79">
-        <v>162672.5</v>
+        <v>27058.84</v>
       </c>
       <c r="J79">
-        <v>6926.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3390,19 +3390,19 @@
         <v>155</v>
       </c>
       <c r="F80">
-        <v>922</v>
+        <v>1616</v>
       </c>
       <c r="G80">
-        <v>71.20999999999999</v>
+        <v>104.95</v>
       </c>
       <c r="H80">
-        <v>65655.62</v>
+        <v>169599.2</v>
       </c>
       <c r="I80">
-        <v>62949.64</v>
+        <v>162672.5</v>
       </c>
       <c r="J80">
-        <v>2705.98</v>
+        <v>6926.7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
   <si>
     <t>BSL NO</t>
   </si>
@@ -148,18 +148,18 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -175,21 +175,21 @@
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
@@ -199,31 +199,37 @@
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg IM/IV Injection</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
-    <t>Flucloxin 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
+    <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Levomax 500mg Tablet - 20's</t>
+  </si>
+  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
-    <t>Levomax 500mg Tablet - 20's</t>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
+    <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
     <t>Lindamax 150mg Capsule</t>
@@ -232,12 +238,6 @@
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -247,21 +247,21 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
     <t>Naprox 250mg Tablet</t>
   </si>
   <si>
@@ -271,15 +271,15 @@
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -289,54 +289,57 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
+    <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 500mg Tablet - 20's</t>
+    <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
+    <t>Sulidac 100mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
@@ -352,12 +355,12 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti Tablet</t>
+  </si>
+  <si>
     <t>Toti 100ml Syrup</t>
   </si>
   <si>
-    <t>Toti Tablet</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -367,30 +370,30 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
     <t>18's</t>
   </si>
   <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>1's</t>
   </si>
   <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -424,12 +427,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -454,6 +457,9 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -472,13 +478,13 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
+    <t>50ml</t>
+  </si>
+  <si>
     <t>12 's</t>
-  </si>
-  <si>
-    <t>20ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
   </si>
   <si>
     <t>35ml</t>
@@ -839,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,19 +897,19 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>269.87</v>
       </c>
       <c r="H2">
-        <v>24558.17</v>
+        <v>21859.47</v>
       </c>
       <c r="I2">
-        <v>24558.17</v>
+        <v>21859.47</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -923,19 +929,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F3">
-        <v>320</v>
+        <v>66</v>
       </c>
       <c r="G3">
-        <v>337.33</v>
+        <v>269.87</v>
       </c>
       <c r="H3">
-        <v>107945.6</v>
+        <v>17811.42</v>
       </c>
       <c r="I3">
-        <v>107945.6</v>
+        <v>17811.42</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -955,19 +961,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="G4">
         <v>206.15</v>
       </c>
       <c r="H4">
-        <v>26181.05</v>
+        <v>39786.95</v>
       </c>
       <c r="I4">
-        <v>26181.05</v>
+        <v>39786.95</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -987,19 +993,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="G5">
         <v>131.18</v>
       </c>
       <c r="H5">
-        <v>22694.14</v>
+        <v>30958.48</v>
       </c>
       <c r="I5">
-        <v>22694.14</v>
+        <v>30958.48</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1019,19 +1025,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6">
-        <v>84</v>
+        <v>358</v>
       </c>
       <c r="G6">
-        <v>269.87</v>
+        <v>337.33</v>
       </c>
       <c r="H6">
-        <v>22669.08</v>
+        <v>120764.14</v>
       </c>
       <c r="I6">
-        <v>22669.08</v>
+        <v>120764.14</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1051,19 +1057,19 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F7">
-        <v>1880</v>
+        <v>1971</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>422793.2</v>
+        <v>443258.19</v>
       </c>
       <c r="I7">
-        <v>422793.2</v>
+        <v>443258.19</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1083,19 +1089,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>239.88</v>
       </c>
       <c r="H8">
-        <v>959.52</v>
+        <v>2158.92</v>
       </c>
       <c r="I8">
-        <v>959.52</v>
+        <v>2158.92</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1115,19 +1121,19 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>3036.15</v>
+        <v>2024.1</v>
       </c>
       <c r="I9">
-        <v>3036.15</v>
+        <v>2024.1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1147,19 +1153,19 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F10">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G10">
         <v>104.95</v>
       </c>
       <c r="H10">
-        <v>9025.700000000001</v>
+        <v>10599.95</v>
       </c>
       <c r="I10">
-        <v>9025.700000000001</v>
+        <v>10599.95</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1179,19 +1185,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G11">
         <v>299.85</v>
       </c>
       <c r="H11">
-        <v>33583.2</v>
+        <v>29385.3</v>
       </c>
       <c r="I11">
-        <v>33583.2</v>
+        <v>29385.3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1214,16 +1220,16 @@
         <v>129</v>
       </c>
       <c r="F12">
-        <v>1482</v>
+        <v>541</v>
       </c>
       <c r="G12">
-        <v>35.98</v>
+        <v>239.88</v>
       </c>
       <c r="H12">
-        <v>53322.36</v>
+        <v>129775.08</v>
       </c>
       <c r="I12">
-        <v>53322.36</v>
+        <v>129775.08</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1243,19 +1249,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F13">
-        <v>746</v>
+        <v>1378</v>
       </c>
       <c r="G13">
-        <v>239.88</v>
+        <v>35.98</v>
       </c>
       <c r="H13">
-        <v>178950.48</v>
+        <v>49580.44</v>
       </c>
       <c r="I13">
-        <v>178950.48</v>
+        <v>49580.44</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1275,19 +1281,19 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F14">
-        <v>1146</v>
+        <v>1173</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>34368.54</v>
+        <v>35178.27</v>
       </c>
       <c r="I14">
-        <v>34368.54</v>
+        <v>35178.27</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1307,19 +1313,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F15">
-        <v>2467</v>
+        <v>2331</v>
       </c>
       <c r="G15">
-        <v>359.82</v>
+        <v>314.84</v>
       </c>
       <c r="H15">
-        <v>887675.9399999999</v>
+        <v>733892.04</v>
       </c>
       <c r="I15">
-        <v>887675.9399999999</v>
+        <v>733892.04</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1339,19 +1345,19 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16">
-        <v>2481</v>
+        <v>2289</v>
       </c>
       <c r="G16">
-        <v>314.84</v>
+        <v>359.82</v>
       </c>
       <c r="H16">
-        <v>781118.04</v>
+        <v>823627.98</v>
       </c>
       <c r="I16">
-        <v>781118.04</v>
+        <v>823627.98</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1371,19 +1377,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17">
-        <v>1151</v>
+        <v>1040</v>
       </c>
       <c r="G17">
         <v>262.37</v>
       </c>
       <c r="H17">
-        <v>301987.87</v>
+        <v>272864.8</v>
       </c>
       <c r="I17">
-        <v>301987.87</v>
+        <v>272864.8</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1403,19 +1409,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>168.67</v>
       </c>
       <c r="H18">
-        <v>4722.76</v>
+        <v>6072.12</v>
       </c>
       <c r="I18">
-        <v>4722.76</v>
+        <v>6072.12</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1435,19 +1441,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G19">
         <v>179.91</v>
       </c>
       <c r="H19">
-        <v>17811.09</v>
+        <v>15472.26</v>
       </c>
       <c r="I19">
-        <v>17811.09</v>
+        <v>15472.26</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1467,22 +1473,22 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F20">
-        <v>4804</v>
+        <v>326</v>
       </c>
       <c r="G20">
-        <v>45.73</v>
+        <v>432.53</v>
       </c>
       <c r="H20">
-        <v>219686.92</v>
+        <v>141004.78</v>
       </c>
       <c r="I20">
-        <v>187035.7</v>
+        <v>141004.78</v>
       </c>
       <c r="J20">
-        <v>32651.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1499,22 +1505,22 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F21">
-        <v>2717</v>
+        <v>822</v>
       </c>
       <c r="G21">
-        <v>314.84</v>
+        <v>33.94</v>
       </c>
       <c r="H21">
-        <v>855420.28</v>
+        <v>27898.68</v>
       </c>
       <c r="I21">
-        <v>805990.4</v>
+        <v>27898.68</v>
       </c>
       <c r="J21">
-        <v>49429.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1531,22 +1537,22 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F22">
-        <v>244</v>
+        <v>2831</v>
       </c>
       <c r="G22">
-        <v>432.53</v>
+        <v>314.84</v>
       </c>
       <c r="H22">
-        <v>105537.32</v>
+        <v>891312.04</v>
       </c>
       <c r="I22">
-        <v>105537.32</v>
+        <v>836529.88</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>54782.16</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1563,22 +1569,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F23">
-        <v>134</v>
+        <v>5107</v>
       </c>
       <c r="G23">
-        <v>33.94</v>
+        <v>45.73</v>
       </c>
       <c r="H23">
-        <v>4547.96</v>
+        <v>233543.11</v>
       </c>
       <c r="I23">
-        <v>4547.96</v>
+        <v>200663.24</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>32879.87</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1595,19 +1601,19 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F24">
-        <v>213</v>
+        <v>673</v>
       </c>
       <c r="G24">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H24">
-        <v>47901.57</v>
+        <v>25311.53</v>
       </c>
       <c r="I24">
-        <v>47901.57</v>
+        <v>25311.53</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1627,19 +1633,19 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F25">
-        <v>679</v>
+        <v>122</v>
       </c>
       <c r="G25">
-        <v>37.61</v>
+        <v>224.89</v>
       </c>
       <c r="H25">
-        <v>25537.19</v>
+        <v>27436.58</v>
       </c>
       <c r="I25">
-        <v>25537.19</v>
+        <v>27436.58</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1659,19 +1665,19 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26">
-        <v>1574</v>
+        <v>1269</v>
       </c>
       <c r="G26">
         <v>22.83</v>
       </c>
       <c r="H26">
-        <v>35934.42</v>
+        <v>28971.27</v>
       </c>
       <c r="I26">
-        <v>35934.42</v>
+        <v>28971.27</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1691,19 +1697,19 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G27">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="H27">
-        <v>299.86</v>
+        <v>14392.96</v>
       </c>
       <c r="I27">
-        <v>299.86</v>
+        <v>14392.96</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1723,19 +1729,19 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F28">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="H28">
-        <v>42279.32</v>
+        <v>749.65</v>
       </c>
       <c r="I28">
-        <v>42279.32</v>
+        <v>749.65</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1755,19 +1761,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G29">
-        <v>179.91</v>
+        <v>93.7</v>
       </c>
       <c r="H29">
-        <v>2158.92</v>
+        <v>4122.8</v>
       </c>
       <c r="I29">
-        <v>2158.92</v>
+        <v>4122.8</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1787,19 +1793,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F30">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G30">
-        <v>89.95999999999999</v>
+        <v>337.33</v>
       </c>
       <c r="H30">
-        <v>8546.200000000001</v>
+        <v>15854.51</v>
       </c>
       <c r="I30">
-        <v>8546.200000000001</v>
+        <v>15854.51</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1819,19 +1825,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F31">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>93.7</v>
+        <v>179.91</v>
       </c>
       <c r="H31">
-        <v>6559</v>
+        <v>1079.46</v>
       </c>
       <c r="I31">
-        <v>6559</v>
+        <v>1079.46</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1851,19 +1857,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F32">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G32">
-        <v>337.33</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H32">
-        <v>16529.17</v>
+        <v>6207.24</v>
       </c>
       <c r="I32">
-        <v>16529.17</v>
+        <v>6207.24</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1883,19 +1889,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G33">
         <v>449.78</v>
       </c>
       <c r="H33">
-        <v>8995.6</v>
+        <v>11244.5</v>
       </c>
       <c r="I33">
-        <v>8995.6</v>
+        <v>11244.5</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1915,19 +1921,19 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F34">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G34">
         <v>395.8</v>
       </c>
       <c r="H34">
-        <v>47891.8</v>
+        <v>54620.4</v>
       </c>
       <c r="I34">
-        <v>47891.8</v>
+        <v>54620.4</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1947,19 +1953,19 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F35">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="G35">
         <v>337.33</v>
       </c>
       <c r="H35">
-        <v>327547.43</v>
+        <v>321475.49</v>
       </c>
       <c r="I35">
-        <v>327547.43</v>
+        <v>321475.49</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1979,19 +1985,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F36">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="G36">
-        <v>247.38</v>
+        <v>52.47</v>
       </c>
       <c r="H36">
-        <v>59865.96</v>
+        <v>1311.75</v>
       </c>
       <c r="I36">
-        <v>59865.96</v>
+        <v>1311.75</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2011,19 +2017,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F37">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="G37">
         <v>52.47</v>
       </c>
       <c r="H37">
-        <v>2938.32</v>
+        <v>16790.4</v>
       </c>
       <c r="I37">
-        <v>2938.32</v>
+        <v>16790.4</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2043,22 +2049,22 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F38">
-        <v>558</v>
+        <v>270</v>
       </c>
       <c r="G38">
-        <v>412.3</v>
+        <v>247.38</v>
       </c>
       <c r="H38">
-        <v>230063.4</v>
+        <v>66792.60000000001</v>
       </c>
       <c r="I38">
-        <v>229651.1</v>
+        <v>66792.60000000001</v>
       </c>
       <c r="J38">
-        <v>412.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2075,22 +2081,22 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F39">
-        <v>630</v>
+        <v>539</v>
       </c>
       <c r="G39">
-        <v>350.82</v>
+        <v>412.3</v>
       </c>
       <c r="H39">
-        <v>221016.6</v>
+        <v>222229.7</v>
       </c>
       <c r="I39">
-        <v>221016.6</v>
+        <v>221817.4</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>412.3</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2107,19 +2113,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F40">
-        <v>308</v>
+        <v>591</v>
       </c>
       <c r="G40">
-        <v>52.47</v>
+        <v>350.82</v>
       </c>
       <c r="H40">
-        <v>16160.76</v>
+        <v>207334.62</v>
       </c>
       <c r="I40">
-        <v>16160.76</v>
+        <v>207334.62</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2139,19 +2145,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G41">
         <v>262.37</v>
       </c>
       <c r="H41">
-        <v>58246.14</v>
+        <v>57721.4</v>
       </c>
       <c r="I41">
-        <v>58246.14</v>
+        <v>57721.4</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2171,19 +2177,19 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F42">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G42">
         <v>224.89</v>
       </c>
       <c r="H42">
-        <v>7196.48</v>
+        <v>5397.36</v>
       </c>
       <c r="I42">
-        <v>7196.48</v>
+        <v>5397.36</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2203,19 +2209,19 @@
         <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F43">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="G43">
         <v>22.49</v>
       </c>
       <c r="H43">
-        <v>7781.54</v>
+        <v>9378.33</v>
       </c>
       <c r="I43">
-        <v>7781.54</v>
+        <v>9378.33</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2235,22 +2241,22 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F44">
-        <v>1446</v>
+        <v>1150</v>
       </c>
       <c r="G44">
-        <v>22.49</v>
+        <v>299.85</v>
       </c>
       <c r="H44">
-        <v>32520.54</v>
+        <v>344827.5</v>
       </c>
       <c r="I44">
-        <v>32340.62</v>
+        <v>344827.5</v>
       </c>
       <c r="J44">
-        <v>179.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2267,22 +2273,22 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F45">
-        <v>41</v>
+        <v>1578</v>
       </c>
       <c r="G45">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="H45">
-        <v>4917.54</v>
+        <v>35489.22</v>
       </c>
       <c r="I45">
-        <v>4917.54</v>
+        <v>35286.81</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>202.41</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2299,19 +2305,19 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F46">
-        <v>1223</v>
+        <v>47</v>
       </c>
       <c r="G46">
-        <v>299.85</v>
+        <v>119.94</v>
       </c>
       <c r="H46">
-        <v>366716.55</v>
+        <v>5637.18</v>
       </c>
       <c r="I46">
-        <v>366716.55</v>
+        <v>5637.18</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2331,19 +2337,19 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>3238.44</v>
+        <v>5397.4</v>
       </c>
       <c r="I47">
-        <v>3238.44</v>
+        <v>5397.4</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2363,19 +2369,19 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F48">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="G48">
         <v>269.87</v>
       </c>
       <c r="H48">
-        <v>77452.69</v>
+        <v>84739.17999999999</v>
       </c>
       <c r="I48">
-        <v>77452.69</v>
+        <v>84739.17999999999</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2395,19 +2401,19 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F49">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G49">
         <v>299.85</v>
       </c>
       <c r="H49">
-        <v>25187.4</v>
+        <v>27286.35</v>
       </c>
       <c r="I49">
-        <v>25187.4</v>
+        <v>27286.35</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2427,22 +2433,22 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F50">
-        <v>1351</v>
+        <v>9</v>
       </c>
       <c r="G50">
-        <v>74.95999999999999</v>
+        <v>134.93</v>
       </c>
       <c r="H50">
-        <v>101270.96</v>
+        <v>1214.37</v>
       </c>
       <c r="I50">
-        <v>90701.60000000001</v>
+        <v>1214.37</v>
       </c>
       <c r="J50">
-        <v>10569.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2459,22 +2465,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>1173</v>
       </c>
       <c r="G51">
-        <v>134.93</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H51">
-        <v>1079.44</v>
+        <v>87928.08</v>
       </c>
       <c r="I51">
-        <v>1079.44</v>
+        <v>78708</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>9220.08</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2491,22 +2497,22 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G52">
-        <v>191.15</v>
+        <v>224.89</v>
       </c>
       <c r="H52">
-        <v>3440.7</v>
+        <v>4497.8</v>
       </c>
       <c r="I52">
-        <v>3440.7</v>
+        <v>449.78</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>4048.02</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2523,22 +2529,22 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F53">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="G53">
-        <v>224.89</v>
+        <v>191.15</v>
       </c>
       <c r="H53">
-        <v>19565.43</v>
+        <v>1529.2</v>
       </c>
       <c r="I53">
-        <v>13268.51</v>
+        <v>1529.2</v>
       </c>
       <c r="J53">
-        <v>6296.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2555,22 +2561,22 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F54">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>449.78</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H54">
-        <v>112894.78</v>
+        <v>224.88</v>
       </c>
       <c r="I54">
-        <v>107497.42</v>
+        <v>224.88</v>
       </c>
       <c r="J54">
-        <v>5397.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2587,22 +2593,22 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G55">
-        <v>74.95999999999999</v>
+        <v>449.78</v>
       </c>
       <c r="H55">
-        <v>749.6</v>
+        <v>88156.88</v>
       </c>
       <c r="I55">
-        <v>749.6</v>
+        <v>83659.08</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>4497.8</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2619,19 +2625,19 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F56">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56">
         <v>224.89</v>
       </c>
       <c r="H56">
-        <v>26087.24</v>
+        <v>25862.35</v>
       </c>
       <c r="I56">
-        <v>26087.24</v>
+        <v>25862.35</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2651,19 +2657,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57">
-        <v>957</v>
+        <v>671</v>
       </c>
       <c r="G57">
-        <v>228.26</v>
+        <v>35.68</v>
       </c>
       <c r="H57">
-        <v>218444.82</v>
+        <v>23941.28</v>
       </c>
       <c r="I57">
-        <v>218444.82</v>
+        <v>23941.28</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2683,19 +2689,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G58">
         <v>51.12</v>
       </c>
       <c r="H58">
-        <v>2556</v>
+        <v>1380.24</v>
       </c>
       <c r="I58">
-        <v>2556</v>
+        <v>1380.24</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2715,19 +2721,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F59">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="G59">
-        <v>266.12</v>
+        <v>22.64</v>
       </c>
       <c r="H59">
-        <v>9846.440000000001</v>
+        <v>2128.16</v>
       </c>
       <c r="I59">
-        <v>9846.440000000001</v>
+        <v>2128.16</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2747,19 +2753,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F60">
-        <v>739</v>
+        <v>46</v>
       </c>
       <c r="G60">
-        <v>35.68</v>
+        <v>266.12</v>
       </c>
       <c r="H60">
-        <v>26367.52</v>
+        <v>12241.52</v>
       </c>
       <c r="I60">
-        <v>26367.52</v>
+        <v>12241.52</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2779,19 +2785,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F61">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>22.64</v>
+        <v>219.13</v>
       </c>
       <c r="H61">
-        <v>3916.72</v>
+        <v>219.13</v>
       </c>
       <c r="I61">
-        <v>3916.72</v>
+        <v>219.13</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2799,10 +2805,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2811,19 +2817,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F62">
-        <v>219</v>
+        <v>882</v>
       </c>
       <c r="G62">
-        <v>179.91</v>
+        <v>228.26</v>
       </c>
       <c r="H62">
-        <v>39400.29</v>
+        <v>201325.32</v>
       </c>
       <c r="I62">
-        <v>39400.29</v>
+        <v>201325.32</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2843,19 +2849,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F63">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="G63">
-        <v>44.98</v>
+        <v>179.91</v>
       </c>
       <c r="H63">
-        <v>1349.4</v>
+        <v>23568.21</v>
       </c>
       <c r="I63">
-        <v>1349.4</v>
+        <v>23568.21</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2863,10 +2869,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2875,19 +2881,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="F64">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="G64">
-        <v>142.43</v>
+        <v>44.98</v>
       </c>
       <c r="H64">
-        <v>37886.38</v>
+        <v>1169.48</v>
       </c>
       <c r="I64">
-        <v>37886.38</v>
+        <v>1169.48</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2907,19 +2913,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F65">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G65">
         <v>187.41</v>
       </c>
       <c r="H65">
-        <v>15367.62</v>
+        <v>14805.39</v>
       </c>
       <c r="I65">
-        <v>15367.62</v>
+        <v>14805.39</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2927,10 +2933,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2939,19 +2945,19 @@
         <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F66">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="G66">
-        <v>179.91</v>
+        <v>142.43</v>
       </c>
       <c r="H66">
-        <v>13673.16</v>
+        <v>33471.05</v>
       </c>
       <c r="I66">
-        <v>13673.16</v>
+        <v>33471.05</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2959,10 +2965,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2971,19 +2977,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F67">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G67">
-        <v>56.22</v>
+        <v>179.91</v>
       </c>
       <c r="H67">
-        <v>5397.12</v>
+        <v>11874.06</v>
       </c>
       <c r="I67">
-        <v>5397.12</v>
+        <v>11874.06</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3003,19 +3009,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F68">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="G68">
-        <v>149.93</v>
+        <v>56.22</v>
       </c>
       <c r="H68">
-        <v>40031.31</v>
+        <v>6240.42</v>
       </c>
       <c r="I68">
-        <v>40031.31</v>
+        <v>6240.42</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3023,10 +3029,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3035,19 +3041,19 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F69">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="G69">
-        <v>359.82</v>
+        <v>149.93</v>
       </c>
       <c r="H69">
-        <v>105787.08</v>
+        <v>38532.01</v>
       </c>
       <c r="I69">
-        <v>105787.08</v>
+        <v>38532.01</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3055,10 +3061,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3067,19 +3073,19 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F70">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="G70">
-        <v>134.93</v>
+        <v>359.82</v>
       </c>
       <c r="H70">
-        <v>5667.06</v>
+        <v>100749.6</v>
       </c>
       <c r="I70">
-        <v>5667.06</v>
+        <v>100749.6</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3087,10 +3093,10 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -3099,22 +3105,22 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F71">
-        <v>5336</v>
+        <v>37</v>
       </c>
       <c r="G71">
-        <v>41.23</v>
+        <v>134.93</v>
       </c>
       <c r="H71">
-        <v>220003.28</v>
+        <v>4992.41</v>
       </c>
       <c r="I71">
-        <v>201326.09</v>
+        <v>4992.41</v>
       </c>
       <c r="J71">
-        <v>18677.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3131,19 +3137,19 @@
         <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F72">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G72">
         <v>187.41</v>
       </c>
       <c r="H72">
-        <v>32609.34</v>
+        <v>33171.57</v>
       </c>
       <c r="I72">
-        <v>32609.34</v>
+        <v>33171.57</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3151,10 +3157,10 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3163,30 +3169,30 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F73">
-        <v>114</v>
+        <v>5516</v>
       </c>
       <c r="G73">
-        <v>299.85</v>
+        <v>41.23</v>
       </c>
       <c r="H73">
-        <v>34182.9</v>
+        <v>227424.68</v>
       </c>
       <c r="I73">
-        <v>34182.9</v>
+        <v>208293.96</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>19130.72</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3195,19 +3201,19 @@
         <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="G74">
-        <v>134.93</v>
+        <v>299.85</v>
       </c>
       <c r="H74">
-        <v>1349.3</v>
+        <v>36581.7</v>
       </c>
       <c r="I74">
-        <v>1349.3</v>
+        <v>36581.7</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3215,10 +3221,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3230,16 +3236,16 @@
         <v>151</v>
       </c>
       <c r="F75">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>29.99</v>
+        <v>134.93</v>
       </c>
       <c r="H75">
-        <v>2459.18</v>
+        <v>134.93</v>
       </c>
       <c r="I75">
-        <v>2459.18</v>
+        <v>134.93</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3247,10 +3253,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -3259,22 +3265,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F76">
-        <v>1562</v>
+        <v>105</v>
       </c>
       <c r="G76">
-        <v>314.84</v>
+        <v>29.99</v>
       </c>
       <c r="H76">
-        <v>491780.08</v>
+        <v>3148.95</v>
       </c>
       <c r="I76">
-        <v>465963.2</v>
+        <v>3148.95</v>
       </c>
       <c r="J76">
-        <v>25816.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3291,22 +3297,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="F77">
-        <v>123</v>
+        <v>743</v>
       </c>
       <c r="G77">
-        <v>224.89</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H77">
-        <v>27661.47</v>
+        <v>52909.03</v>
       </c>
       <c r="I77">
-        <v>27661.47</v>
+        <v>50559.1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>2349.93</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3323,22 +3329,22 @@
         <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F78">
-        <v>922</v>
+        <v>169</v>
       </c>
       <c r="G78">
-        <v>71.20999999999999</v>
+        <v>143.93</v>
       </c>
       <c r="H78">
-        <v>65655.62</v>
+        <v>24324.17</v>
       </c>
       <c r="I78">
-        <v>62949.64</v>
+        <v>24324.17</v>
       </c>
       <c r="J78">
-        <v>2705.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3355,19 +3361,19 @@
         <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F79">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G79">
-        <v>143.93</v>
+        <v>224.89</v>
       </c>
       <c r="H79">
-        <v>27058.84</v>
+        <v>37781.52</v>
       </c>
       <c r="I79">
-        <v>27058.84</v>
+        <v>37781.52</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3387,22 +3393,54 @@
         <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F80">
-        <v>1616</v>
+        <v>1407</v>
       </c>
       <c r="G80">
+        <v>314.84</v>
+      </c>
+      <c r="H80">
+        <v>442979.88</v>
+      </c>
+      <c r="I80">
+        <v>423774.64</v>
+      </c>
+      <c r="J80">
+        <v>19205.24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81">
+        <v>1481</v>
+      </c>
+      <c r="G81">
         <v>104.95</v>
       </c>
-      <c r="H80">
-        <v>169599.2</v>
-      </c>
-      <c r="I80">
-        <v>162672.5</v>
-      </c>
-      <c r="J80">
-        <v>6926.7</v>
+      <c r="H81">
+        <v>155430.95</v>
+      </c>
+      <c r="I81">
+        <v>149133.95</v>
+      </c>
+      <c r="J81">
+        <v>6297</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
   <si>
     <t>BSL NO</t>
   </si>
@@ -145,12 +145,12 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
@@ -172,27 +172,27 @@
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
@@ -205,39 +205,36 @@
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
+    <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Levomax 750mg Tablet - 10's</t>
+  </si>
+  <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Levomax 750mg Tablet - 10's</t>
-  </si>
-  <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -247,15 +244,15 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
@@ -271,15 +268,15 @@
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -289,66 +286,60 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
+    <t>Sulidac 200 Tablet 20's</t>
+  </si>
+  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
-    <t>Sulidac 200 Tablet 20's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 50mg Tablet</t>
+  </si>
+  <si>
     <t>Timothy 5mg IM/IV</t>
   </si>
   <si>
-    <t>Timothy 50mg Tablet</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -373,24 +364,24 @@
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>18's</t>
   </si>
   <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>1's</t>
   </si>
   <si>
@@ -412,12 +403,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -427,12 +418,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>20 's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -455,9 +446,6 @@
   </si>
   <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>48 's</t>
   </si>
   <si>
     <t>30ml</t>
@@ -845,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,19 +885,19 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F2">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>269.87</v>
       </c>
       <c r="H2">
-        <v>21859.47</v>
+        <v>4857.66</v>
       </c>
       <c r="I2">
-        <v>21859.47</v>
+        <v>4857.66</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -929,19 +917,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F3">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>269.87</v>
       </c>
       <c r="H3">
-        <v>17811.42</v>
+        <v>5667.27</v>
       </c>
       <c r="I3">
-        <v>17811.42</v>
+        <v>5667.27</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -961,19 +949,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F4">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="G4">
         <v>206.15</v>
       </c>
       <c r="H4">
-        <v>39786.95</v>
+        <v>9070.6</v>
       </c>
       <c r="I4">
-        <v>39786.95</v>
+        <v>9070.6</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -993,19 +981,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F5">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <v>131.18</v>
       </c>
       <c r="H5">
-        <v>30958.48</v>
+        <v>9576.139999999999</v>
       </c>
       <c r="I5">
-        <v>30958.48</v>
+        <v>9576.139999999999</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1025,19 +1013,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F6">
-        <v>358</v>
+        <v>114</v>
       </c>
       <c r="G6">
         <v>337.33</v>
       </c>
       <c r="H6">
-        <v>120764.14</v>
+        <v>38455.62</v>
       </c>
       <c r="I6">
-        <v>120764.14</v>
+        <v>38455.62</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1057,19 +1045,19 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F7">
-        <v>1971</v>
+        <v>852</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>443258.19</v>
+        <v>191606.28</v>
       </c>
       <c r="I7">
-        <v>443258.19</v>
+        <v>191606.28</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1089,19 +1077,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>239.88</v>
       </c>
       <c r="H8">
-        <v>2158.92</v>
+        <v>719.64</v>
       </c>
       <c r="I8">
-        <v>2158.92</v>
+        <v>719.64</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1121,19 +1109,19 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>2024.1</v>
+        <v>2136.55</v>
       </c>
       <c r="I9">
-        <v>2024.1</v>
+        <v>2136.55</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1153,19 +1141,19 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F10">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="G10">
         <v>104.95</v>
       </c>
       <c r="H10">
-        <v>10599.95</v>
+        <v>4932.65</v>
       </c>
       <c r="I10">
-        <v>10599.95</v>
+        <v>4932.65</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1185,19 +1173,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F11">
-        <v>98</v>
+        <v>918</v>
       </c>
       <c r="G11">
-        <v>299.85</v>
+        <v>35.98</v>
       </c>
       <c r="H11">
-        <v>29385.3</v>
+        <v>33029.64</v>
       </c>
       <c r="I11">
-        <v>29385.3</v>
+        <v>33029.64</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1217,19 +1205,19 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F12">
-        <v>541</v>
+        <v>43</v>
       </c>
       <c r="G12">
-        <v>239.88</v>
+        <v>299.85</v>
       </c>
       <c r="H12">
-        <v>129775.08</v>
+        <v>12893.55</v>
       </c>
       <c r="I12">
-        <v>129775.08</v>
+        <v>12893.55</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1249,19 +1237,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F13">
-        <v>1378</v>
+        <v>355</v>
       </c>
       <c r="G13">
-        <v>35.98</v>
+        <v>239.88</v>
       </c>
       <c r="H13">
-        <v>49580.44</v>
+        <v>85157.39999999999</v>
       </c>
       <c r="I13">
-        <v>49580.44</v>
+        <v>85157.39999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1281,19 +1269,19 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F14">
-        <v>1173</v>
+        <v>569</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>35178.27</v>
+        <v>17064.31</v>
       </c>
       <c r="I14">
-        <v>35178.27</v>
+        <v>17064.31</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1313,19 +1301,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F15">
-        <v>2331</v>
+        <v>527</v>
       </c>
       <c r="G15">
-        <v>314.84</v>
+        <v>262.37</v>
       </c>
       <c r="H15">
-        <v>733892.04</v>
+        <v>138268.99</v>
       </c>
       <c r="I15">
-        <v>733892.04</v>
+        <v>138268.99</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1345,19 +1333,19 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16">
-        <v>2289</v>
+        <v>1233</v>
       </c>
       <c r="G16">
-        <v>359.82</v>
+        <v>314.84</v>
       </c>
       <c r="H16">
-        <v>823627.98</v>
+        <v>388197.72</v>
       </c>
       <c r="I16">
-        <v>823627.98</v>
+        <v>388197.72</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1377,19 +1365,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F17">
-        <v>1040</v>
+        <v>1162</v>
       </c>
       <c r="G17">
-        <v>262.37</v>
+        <v>359.82</v>
       </c>
       <c r="H17">
-        <v>272864.8</v>
+        <v>418110.84</v>
       </c>
       <c r="I17">
-        <v>272864.8</v>
+        <v>418110.84</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1409,19 +1397,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F18">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G18">
         <v>168.67</v>
       </c>
       <c r="H18">
-        <v>6072.12</v>
+        <v>3204.73</v>
       </c>
       <c r="I18">
-        <v>6072.12</v>
+        <v>3204.73</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1441,19 +1429,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>179.91</v>
       </c>
       <c r="H19">
-        <v>15472.26</v>
+        <v>7016.49</v>
       </c>
       <c r="I19">
-        <v>15472.26</v>
+        <v>7016.49</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1473,19 +1461,19 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F20">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="G20">
         <v>432.53</v>
       </c>
       <c r="H20">
-        <v>141004.78</v>
+        <v>57093.96</v>
       </c>
       <c r="I20">
-        <v>141004.78</v>
+        <v>57093.96</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1505,19 +1493,19 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21">
-        <v>822</v>
+        <v>254</v>
       </c>
       <c r="G21">
         <v>33.94</v>
       </c>
       <c r="H21">
-        <v>27898.68</v>
+        <v>8620.76</v>
       </c>
       <c r="I21">
-        <v>27898.68</v>
+        <v>8620.76</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1537,22 +1525,22 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22">
-        <v>2831</v>
+        <v>2112</v>
       </c>
       <c r="G22">
-        <v>314.84</v>
+        <v>45.73</v>
       </c>
       <c r="H22">
-        <v>891312.04</v>
+        <v>96581.75999999999</v>
       </c>
       <c r="I22">
-        <v>836529.88</v>
+        <v>82634.11</v>
       </c>
       <c r="J22">
-        <v>54782.16</v>
+        <v>13947.65</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1569,22 +1557,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F23">
-        <v>5107</v>
+        <v>1143</v>
       </c>
       <c r="G23">
-        <v>45.73</v>
+        <v>314.84</v>
       </c>
       <c r="H23">
-        <v>233543.11</v>
+        <v>359862.12</v>
       </c>
       <c r="I23">
-        <v>200663.24</v>
+        <v>339712.36</v>
       </c>
       <c r="J23">
-        <v>32879.87</v>
+        <v>20149.76</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1601,19 +1589,19 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F24">
-        <v>673</v>
+        <v>80</v>
       </c>
       <c r="G24">
-        <v>37.61</v>
+        <v>224.89</v>
       </c>
       <c r="H24">
-        <v>25311.53</v>
+        <v>17991.2</v>
       </c>
       <c r="I24">
-        <v>25311.53</v>
+        <v>17991.2</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1633,19 +1621,19 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25">
-        <v>122</v>
+        <v>433</v>
       </c>
       <c r="G25">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H25">
-        <v>27436.58</v>
+        <v>16285.13</v>
       </c>
       <c r="I25">
-        <v>27436.58</v>
+        <v>16285.13</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1665,19 +1653,19 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F26">
-        <v>1269</v>
+        <v>1238</v>
       </c>
       <c r="G26">
         <v>22.83</v>
       </c>
       <c r="H26">
-        <v>28971.27</v>
+        <v>28263.54</v>
       </c>
       <c r="I26">
-        <v>28971.27</v>
+        <v>28263.54</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1697,19 +1685,19 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F27">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="H27">
-        <v>14392.96</v>
+        <v>149.93</v>
       </c>
       <c r="I27">
-        <v>14392.96</v>
+        <v>149.93</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1729,19 +1717,19 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G28">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="H28">
-        <v>749.65</v>
+        <v>10794.72</v>
       </c>
       <c r="I28">
-        <v>749.65</v>
+        <v>10794.72</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1761,19 +1749,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F29">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G29">
         <v>93.7</v>
       </c>
       <c r="H29">
-        <v>4122.8</v>
+        <v>1311.8</v>
       </c>
       <c r="I29">
-        <v>4122.8</v>
+        <v>1311.8</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1793,19 +1781,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F30">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G30">
-        <v>337.33</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H30">
-        <v>15854.51</v>
+        <v>2338.96</v>
       </c>
       <c r="I30">
-        <v>15854.51</v>
+        <v>2338.96</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1825,19 +1813,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>179.91</v>
+        <v>337.33</v>
       </c>
       <c r="H31">
-        <v>1079.46</v>
+        <v>5397.28</v>
       </c>
       <c r="I31">
-        <v>1079.46</v>
+        <v>5397.28</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1845,10 +1833,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1857,19 +1845,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F32">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>89.95999999999999</v>
+        <v>449.78</v>
       </c>
       <c r="H32">
-        <v>6207.24</v>
+        <v>1349.34</v>
       </c>
       <c r="I32">
-        <v>6207.24</v>
+        <v>1349.34</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1877,10 +1865,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1889,19 +1877,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G33">
-        <v>449.78</v>
+        <v>395.8</v>
       </c>
       <c r="H33">
-        <v>11244.5</v>
+        <v>29289.2</v>
       </c>
       <c r="I33">
-        <v>11244.5</v>
+        <v>29289.2</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1921,19 +1909,19 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F34">
-        <v>138</v>
+        <v>462</v>
       </c>
       <c r="G34">
-        <v>395.8</v>
+        <v>337.33</v>
       </c>
       <c r="H34">
-        <v>54620.4</v>
+        <v>155846.46</v>
       </c>
       <c r="I34">
-        <v>54620.4</v>
+        <v>155846.46</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1941,10 +1929,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1953,19 +1941,19 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35">
-        <v>953</v>
+        <v>122</v>
       </c>
       <c r="G35">
-        <v>337.33</v>
+        <v>247.38</v>
       </c>
       <c r="H35">
-        <v>321475.49</v>
+        <v>30180.36</v>
       </c>
       <c r="I35">
-        <v>321475.49</v>
+        <v>30180.36</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1985,19 +1973,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>52.47</v>
       </c>
       <c r="H36">
-        <v>1311.75</v>
+        <v>1783.98</v>
       </c>
       <c r="I36">
-        <v>1311.75</v>
+        <v>1783.98</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2017,19 +2005,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F37">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="G37">
         <v>52.47</v>
       </c>
       <c r="H37">
-        <v>16790.4</v>
+        <v>7135.92</v>
       </c>
       <c r="I37">
-        <v>16790.4</v>
+        <v>7135.92</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2049,19 +2037,19 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F38">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G38">
-        <v>247.38</v>
+        <v>412.3</v>
       </c>
       <c r="H38">
-        <v>66792.60000000001</v>
+        <v>113794.8</v>
       </c>
       <c r="I38">
-        <v>66792.60000000001</v>
+        <v>113794.8</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2081,22 +2069,22 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F39">
-        <v>539</v>
+        <v>309</v>
       </c>
       <c r="G39">
-        <v>412.3</v>
+        <v>350.82</v>
       </c>
       <c r="H39">
-        <v>222229.7</v>
+        <v>108403.38</v>
       </c>
       <c r="I39">
-        <v>221817.4</v>
+        <v>108403.38</v>
       </c>
       <c r="J39">
-        <v>412.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2113,19 +2101,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F40">
-        <v>591</v>
+        <v>98</v>
       </c>
       <c r="G40">
-        <v>350.82</v>
+        <v>262.37</v>
       </c>
       <c r="H40">
-        <v>207334.62</v>
+        <v>25712.26</v>
       </c>
       <c r="I40">
-        <v>207334.62</v>
+        <v>25712.26</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2133,10 +2121,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -2145,19 +2133,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F41">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>262.37</v>
+        <v>224.89</v>
       </c>
       <c r="H41">
-        <v>57721.4</v>
+        <v>3148.46</v>
       </c>
       <c r="I41">
-        <v>57721.4</v>
+        <v>3148.46</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2177,19 +2165,19 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F42">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="G42">
-        <v>224.89</v>
+        <v>22.49</v>
       </c>
       <c r="H42">
-        <v>5397.36</v>
+        <v>2451.41</v>
       </c>
       <c r="I42">
-        <v>5397.36</v>
+        <v>2451.41</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2197,10 +2185,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -2209,19 +2197,19 @@
         <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F43">
-        <v>417</v>
+        <v>23</v>
       </c>
       <c r="G43">
-        <v>22.49</v>
+        <v>119.94</v>
       </c>
       <c r="H43">
-        <v>9378.33</v>
+        <v>2758.62</v>
       </c>
       <c r="I43">
-        <v>9378.33</v>
+        <v>2758.62</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2241,19 +2229,19 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F44">
-        <v>1150</v>
+        <v>504</v>
       </c>
       <c r="G44">
         <v>299.85</v>
       </c>
       <c r="H44">
-        <v>344827.5</v>
+        <v>151124.4</v>
       </c>
       <c r="I44">
-        <v>344827.5</v>
+        <v>151124.4</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2273,30 +2261,30 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F45">
-        <v>1578</v>
+        <v>662</v>
       </c>
       <c r="G45">
         <v>22.49</v>
       </c>
       <c r="H45">
-        <v>35489.22</v>
+        <v>14888.38</v>
       </c>
       <c r="I45">
-        <v>35286.81</v>
+        <v>14888.38</v>
       </c>
       <c r="J45">
-        <v>202.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -2305,19 +2293,19 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F46">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G46">
-        <v>119.94</v>
+        <v>269.87</v>
       </c>
       <c r="H46">
-        <v>5637.18</v>
+        <v>6207.01</v>
       </c>
       <c r="I46">
-        <v>5637.18</v>
+        <v>6207.01</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2337,19 +2325,19 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>5397.4</v>
+        <v>40210.63</v>
       </c>
       <c r="I47">
-        <v>5397.4</v>
+        <v>40210.63</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2357,10 +2345,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -2372,16 +2360,16 @@
         <v>132</v>
       </c>
       <c r="F48">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="G48">
-        <v>269.87</v>
+        <v>299.85</v>
       </c>
       <c r="H48">
-        <v>84739.17999999999</v>
+        <v>16491.75</v>
       </c>
       <c r="I48">
-        <v>84739.17999999999</v>
+        <v>16491.75</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2389,10 +2377,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -2401,22 +2389,22 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F49">
-        <v>91</v>
+        <v>845</v>
       </c>
       <c r="G49">
-        <v>299.85</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H49">
-        <v>27286.35</v>
+        <v>63341.2</v>
       </c>
       <c r="I49">
-        <v>27286.35</v>
+        <v>56744.72</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>6596.48</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2433,19 +2421,19 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>134.93</v>
+        <v>191.15</v>
       </c>
       <c r="H50">
-        <v>1214.37</v>
+        <v>764.6</v>
       </c>
       <c r="I50">
-        <v>1214.37</v>
+        <v>764.6</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2465,22 +2453,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F51">
-        <v>1173</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>74.95999999999999</v>
+        <v>134.93</v>
       </c>
       <c r="H51">
-        <v>87928.08</v>
+        <v>674.65</v>
       </c>
       <c r="I51">
-        <v>78708</v>
+        <v>674.65</v>
       </c>
       <c r="J51">
-        <v>9220.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2497,22 +2485,22 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>224.89</v>
       </c>
       <c r="H52">
-        <v>4497.8</v>
+        <v>2248.9</v>
       </c>
       <c r="I52">
         <v>449.78</v>
       </c>
       <c r="J52">
-        <v>4048.02</v>
+        <v>1799.12</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2529,30 +2517,30 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="G53">
-        <v>191.15</v>
+        <v>449.78</v>
       </c>
       <c r="H53">
-        <v>1529.2</v>
+        <v>38231.3</v>
       </c>
       <c r="I53">
-        <v>1529.2</v>
+        <v>35982.4</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>2248.9</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2561,19 +2549,19 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="G54">
-        <v>74.95999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="H54">
-        <v>224.88</v>
+        <v>11469.39</v>
       </c>
       <c r="I54">
-        <v>224.88</v>
+        <v>11469.39</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2581,10 +2569,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2593,30 +2581,30 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F55">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="G55">
-        <v>449.78</v>
+        <v>22.64</v>
       </c>
       <c r="H55">
-        <v>88156.88</v>
+        <v>1426.32</v>
       </c>
       <c r="I55">
-        <v>83659.08</v>
+        <v>1426.32</v>
       </c>
       <c r="J55">
-        <v>4497.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2625,19 +2613,19 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F56">
-        <v>115</v>
+        <v>423</v>
       </c>
       <c r="G56">
-        <v>224.89</v>
+        <v>35.68</v>
       </c>
       <c r="H56">
-        <v>25862.35</v>
+        <v>15092.64</v>
       </c>
       <c r="I56">
-        <v>25862.35</v>
+        <v>15092.64</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2657,19 +2645,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F57">
-        <v>671</v>
+        <v>371</v>
       </c>
       <c r="G57">
-        <v>35.68</v>
+        <v>228.26</v>
       </c>
       <c r="H57">
-        <v>23941.28</v>
+        <v>84684.46000000001</v>
       </c>
       <c r="I57">
-        <v>23941.28</v>
+        <v>84684.46000000001</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2689,19 +2677,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F58">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G58">
-        <v>51.12</v>
+        <v>266.12</v>
       </c>
       <c r="H58">
-        <v>1380.24</v>
+        <v>5322.4</v>
       </c>
       <c r="I58">
-        <v>1380.24</v>
+        <v>5322.4</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2721,19 +2709,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F59">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G59">
-        <v>22.64</v>
+        <v>51.12</v>
       </c>
       <c r="H59">
-        <v>2128.16</v>
+        <v>817.92</v>
       </c>
       <c r="I59">
-        <v>2128.16</v>
+        <v>817.92</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2741,10 +2729,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2753,19 +2741,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F60">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G60">
-        <v>266.12</v>
+        <v>179.91</v>
       </c>
       <c r="H60">
-        <v>12241.52</v>
+        <v>13133.43</v>
       </c>
       <c r="I60">
-        <v>12241.52</v>
+        <v>13133.43</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2773,10 +2761,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2785,19 +2773,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G61">
-        <v>219.13</v>
+        <v>44.98</v>
       </c>
       <c r="H61">
-        <v>219.13</v>
+        <v>674.7</v>
       </c>
       <c r="I61">
-        <v>219.13</v>
+        <v>674.7</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2805,10 +2793,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2817,19 +2805,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F62">
-        <v>882</v>
+        <v>115</v>
       </c>
       <c r="G62">
-        <v>228.26</v>
+        <v>142.43</v>
       </c>
       <c r="H62">
-        <v>201325.32</v>
+        <v>16379.45</v>
       </c>
       <c r="I62">
-        <v>201325.32</v>
+        <v>16379.45</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2837,10 +2825,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2849,19 +2837,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F63">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="G63">
-        <v>179.91</v>
+        <v>187.41</v>
       </c>
       <c r="H63">
-        <v>23568.21</v>
+        <v>6371.94</v>
       </c>
       <c r="I63">
-        <v>23568.21</v>
+        <v>6371.94</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2869,10 +2857,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2881,19 +2869,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F64">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G64">
-        <v>44.98</v>
+        <v>179.91</v>
       </c>
       <c r="H64">
-        <v>1169.48</v>
+        <v>4317.84</v>
       </c>
       <c r="I64">
-        <v>1169.48</v>
+        <v>4317.84</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2901,10 +2889,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2913,19 +2901,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F65">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G65">
-        <v>187.41</v>
+        <v>149.93</v>
       </c>
       <c r="H65">
-        <v>14805.39</v>
+        <v>20990.2</v>
       </c>
       <c r="I65">
-        <v>14805.39</v>
+        <v>20990.2</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2933,10 +2921,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2945,19 +2933,19 @@
         <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="F66">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="G66">
-        <v>142.43</v>
+        <v>56.22</v>
       </c>
       <c r="H66">
-        <v>33471.05</v>
+        <v>3429.42</v>
       </c>
       <c r="I66">
-        <v>33471.05</v>
+        <v>3429.42</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2965,10 +2953,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2977,19 +2965,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F67">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="G67">
-        <v>179.91</v>
+        <v>359.82</v>
       </c>
       <c r="H67">
-        <v>11874.06</v>
+        <v>52893.54</v>
       </c>
       <c r="I67">
-        <v>11874.06</v>
+        <v>52893.54</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2997,10 +2985,10 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -3009,19 +2997,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F68">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="G68">
-        <v>56.22</v>
+        <v>134.93</v>
       </c>
       <c r="H68">
-        <v>6240.42</v>
+        <v>1889.02</v>
       </c>
       <c r="I68">
-        <v>6240.42</v>
+        <v>1889.02</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3029,10 +3017,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3041,19 +3029,19 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F69">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="G69">
-        <v>149.93</v>
+        <v>187.41</v>
       </c>
       <c r="H69">
-        <v>38532.01</v>
+        <v>6934.17</v>
       </c>
       <c r="I69">
-        <v>38532.01</v>
+        <v>6934.17</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3061,10 +3049,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3073,30 +3061,30 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F70">
-        <v>280</v>
+        <v>682</v>
       </c>
       <c r="G70">
-        <v>359.82</v>
+        <v>41.23</v>
       </c>
       <c r="H70">
-        <v>100749.6</v>
+        <v>28118.86</v>
       </c>
       <c r="I70">
-        <v>100749.6</v>
+        <v>25851.21</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2267.65</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -3105,19 +3093,19 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F71">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G71">
-        <v>134.93</v>
+        <v>299.85</v>
       </c>
       <c r="H71">
-        <v>4992.41</v>
+        <v>22188.9</v>
       </c>
       <c r="I71">
-        <v>4992.41</v>
+        <v>22188.9</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3125,10 +3113,10 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -3137,19 +3125,19 @@
         <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F72">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>187.41</v>
+        <v>134.93</v>
       </c>
       <c r="H72">
-        <v>33171.57</v>
+        <v>269.86</v>
       </c>
       <c r="I72">
-        <v>33171.57</v>
+        <v>269.86</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3157,10 +3145,10 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3169,30 +3157,30 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F73">
-        <v>5516</v>
+        <v>51</v>
       </c>
       <c r="G73">
-        <v>41.23</v>
+        <v>29.99</v>
       </c>
       <c r="H73">
-        <v>227424.68</v>
+        <v>1529.49</v>
       </c>
       <c r="I73">
-        <v>208293.96</v>
+        <v>1529.49</v>
       </c>
       <c r="J73">
-        <v>19130.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3201,30 +3189,30 @@
         <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F74">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="G74">
-        <v>299.85</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H74">
-        <v>36581.7</v>
+        <v>20650.9</v>
       </c>
       <c r="I74">
-        <v>36581.7</v>
+        <v>20081.22</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>569.6799999999999</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3233,19 +3221,19 @@
         <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="G75">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="H75">
-        <v>134.93</v>
+        <v>20015.21</v>
       </c>
       <c r="I75">
-        <v>134.93</v>
+        <v>20015.21</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3253,10 +3241,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -3265,19 +3253,19 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F76">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G76">
-        <v>29.99</v>
+        <v>143.93</v>
       </c>
       <c r="H76">
-        <v>3148.95</v>
+        <v>16551.95</v>
       </c>
       <c r="I76">
-        <v>3148.95</v>
+        <v>16551.95</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3297,22 +3285,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F77">
-        <v>743</v>
+        <v>798</v>
       </c>
       <c r="G77">
-        <v>71.20999999999999</v>
+        <v>314.84</v>
       </c>
       <c r="H77">
-        <v>52909.03</v>
+        <v>251242.32</v>
       </c>
       <c r="I77">
-        <v>50559.1</v>
+        <v>238333.88</v>
       </c>
       <c r="J77">
-        <v>2349.93</v>
+        <v>12908.44</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3329,118 +3317,22 @@
         <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78">
-        <v>169</v>
+        <v>534</v>
       </c>
       <c r="G78">
-        <v>143.93</v>
+        <v>104.95</v>
       </c>
       <c r="H78">
-        <v>24324.17</v>
+        <v>56043.3</v>
       </c>
       <c r="I78">
-        <v>24324.17</v>
+        <v>54259.15</v>
       </c>
       <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79">
-        <v>78</v>
-      </c>
-      <c r="D79" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" t="s">
-        <v>124</v>
-      </c>
-      <c r="F79">
-        <v>168</v>
-      </c>
-      <c r="G79">
-        <v>224.89</v>
-      </c>
-      <c r="H79">
-        <v>37781.52</v>
-      </c>
-      <c r="I79">
-        <v>37781.52</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80">
-        <v>35</v>
-      </c>
-      <c r="B80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C80">
-        <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>121</v>
-      </c>
-      <c r="E80" t="s">
-        <v>156</v>
-      </c>
-      <c r="F80">
-        <v>1407</v>
-      </c>
-      <c r="G80">
-        <v>314.84</v>
-      </c>
-      <c r="H80">
-        <v>442979.88</v>
-      </c>
-      <c r="I80">
-        <v>423774.64</v>
-      </c>
-      <c r="J80">
-        <v>19205.24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81">
-        <v>80</v>
-      </c>
-      <c r="D81" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" t="s">
-        <v>157</v>
-      </c>
-      <c r="F81">
-        <v>1481</v>
-      </c>
-      <c r="G81">
-        <v>104.95</v>
-      </c>
-      <c r="H81">
-        <v>155430.95</v>
-      </c>
-      <c r="I81">
-        <v>149133.95</v>
-      </c>
-      <c r="J81">
-        <v>6297</v>
+        <v>1784.15</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
   <si>
     <t>BSL NO</t>
   </si>
@@ -145,21 +145,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -169,114 +169,117 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet 40's</t>
+    <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 10mg Tablet</t>
+    <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 300mg Capsule</t>
+    <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
+    <t>Nabumet 500mg FC Tab 30's</t>
+  </si>
+  <si>
     <t>Nabumet 750mg FC Tab 24's</t>
   </si>
   <si>
-    <t>Nabumet 500mg FC Tab 30's</t>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
   </si>
   <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
+    <t>Oradin 60ml Suspension</t>
+  </si>
+  <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -286,37 +289,43 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
+    <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
@@ -346,12 +355,12 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti 100ml Syrup</t>
+  </si>
+  <si>
     <t>Toti Tablet</t>
   </si>
   <si>
-    <t>Toti 100ml Syrup</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -361,19 +370,22 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 35ml Dry Suspension</t>
+    <t>1's</t>
   </si>
   <si>
     <t>12's</t>
@@ -382,9 +394,6 @@
     <t>18's</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -448,6 +457,9 @@
     <t>15 ml</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -466,16 +478,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>20ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
   </si>
 </sst>
 </file>
@@ -833,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,19 +897,19 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>654</v>
       </c>
       <c r="G2">
-        <v>269.87</v>
+        <v>206.15</v>
       </c>
       <c r="H2">
-        <v>4857.66</v>
+        <v>134822.1</v>
       </c>
       <c r="I2">
-        <v>4857.66</v>
+        <v>134822.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -917,19 +929,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G3">
         <v>269.87</v>
       </c>
       <c r="H3">
-        <v>5667.27</v>
+        <v>31574.79</v>
       </c>
       <c r="I3">
-        <v>5667.27</v>
+        <v>31574.79</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -949,19 +961,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F4">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="G4">
-        <v>206.15</v>
+        <v>337.33</v>
       </c>
       <c r="H4">
-        <v>9070.6</v>
+        <v>147413.21</v>
       </c>
       <c r="I4">
-        <v>9070.6</v>
+        <v>147413.21</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -981,19 +993,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>131.18</v>
       </c>
       <c r="H5">
-        <v>9576.139999999999</v>
+        <v>38042.2</v>
       </c>
       <c r="I5">
-        <v>9576.139999999999</v>
+        <v>38042.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1013,19 +1025,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F6">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="G6">
-        <v>337.33</v>
+        <v>269.87</v>
       </c>
       <c r="H6">
-        <v>38455.62</v>
+        <v>21319.73</v>
       </c>
       <c r="I6">
-        <v>38455.62</v>
+        <v>21319.73</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1045,19 +1057,19 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F7">
-        <v>852</v>
+        <v>2236</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>191606.28</v>
+        <v>502854.04</v>
       </c>
       <c r="I7">
-        <v>191606.28</v>
+        <v>502854.04</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1077,19 +1089,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>239.88</v>
       </c>
       <c r="H8">
-        <v>719.64</v>
+        <v>1439.28</v>
       </c>
       <c r="I8">
-        <v>719.64</v>
+        <v>1439.28</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1109,19 +1121,19 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>2136.55</v>
+        <v>3710.85</v>
       </c>
       <c r="I9">
-        <v>2136.55</v>
+        <v>3710.85</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1141,19 +1153,19 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F10">
-        <v>47</v>
+        <v>731</v>
       </c>
       <c r="G10">
-        <v>104.95</v>
+        <v>239.88</v>
       </c>
       <c r="H10">
-        <v>4932.65</v>
+        <v>175352.28</v>
       </c>
       <c r="I10">
-        <v>4932.65</v>
+        <v>175352.28</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1173,19 +1185,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F11">
-        <v>918</v>
+        <v>2109</v>
       </c>
       <c r="G11">
         <v>35.98</v>
       </c>
       <c r="H11">
-        <v>33029.64</v>
+        <v>75881.82000000001</v>
       </c>
       <c r="I11">
-        <v>33029.64</v>
+        <v>75881.82000000001</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1205,19 +1217,19 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F12">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="G12">
         <v>299.85</v>
       </c>
       <c r="H12">
-        <v>12893.55</v>
+        <v>32083.95</v>
       </c>
       <c r="I12">
-        <v>12893.55</v>
+        <v>32083.95</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1237,19 +1249,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F13">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="G13">
-        <v>239.88</v>
+        <v>104.95</v>
       </c>
       <c r="H13">
-        <v>85157.39999999999</v>
+        <v>14797.95</v>
       </c>
       <c r="I13">
-        <v>85157.39999999999</v>
+        <v>14797.95</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1269,19 +1281,19 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F14">
-        <v>569</v>
+        <v>1519</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>17064.31</v>
+        <v>45554.81</v>
       </c>
       <c r="I14">
-        <v>17064.31</v>
+        <v>45554.81</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1304,16 +1316,16 @@
         <v>129</v>
       </c>
       <c r="F15">
-        <v>527</v>
+        <v>2527</v>
       </c>
       <c r="G15">
-        <v>262.37</v>
+        <v>359.82</v>
       </c>
       <c r="H15">
-        <v>138268.99</v>
+        <v>909265.14</v>
       </c>
       <c r="I15">
-        <v>138268.99</v>
+        <v>909265.14</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1333,19 +1345,19 @@
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>1233</v>
+        <v>1098</v>
       </c>
       <c r="G16">
-        <v>314.84</v>
+        <v>262.37</v>
       </c>
       <c r="H16">
-        <v>388197.72</v>
+        <v>288082.26</v>
       </c>
       <c r="I16">
-        <v>388197.72</v>
+        <v>288082.26</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1365,19 +1377,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F17">
-        <v>1162</v>
+        <v>2684</v>
       </c>
       <c r="G17">
-        <v>359.82</v>
+        <v>314.84</v>
       </c>
       <c r="H17">
-        <v>418110.84</v>
+        <v>845030.5600000001</v>
       </c>
       <c r="I17">
-        <v>418110.84</v>
+        <v>845030.5600000001</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1397,19 +1409,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G18">
-        <v>168.67</v>
+        <v>179.91</v>
       </c>
       <c r="H18">
-        <v>3204.73</v>
+        <v>21769.11</v>
       </c>
       <c r="I18">
-        <v>3204.73</v>
+        <v>21769.11</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1429,19 +1441,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F19">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G19">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="H19">
-        <v>7016.49</v>
+        <v>11132.22</v>
       </c>
       <c r="I19">
-        <v>7016.49</v>
+        <v>11132.22</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1461,22 +1473,22 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20">
-        <v>132</v>
+        <v>3077</v>
       </c>
       <c r="G20">
-        <v>432.53</v>
+        <v>314.84</v>
       </c>
       <c r="H20">
-        <v>57093.96</v>
+        <v>968762.6800000001</v>
       </c>
       <c r="I20">
-        <v>57093.96</v>
+        <v>912091.48</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>56671.2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1493,19 +1505,19 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F21">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="G21">
-        <v>33.94</v>
+        <v>432.53</v>
       </c>
       <c r="H21">
-        <v>8620.76</v>
+        <v>150952.97</v>
       </c>
       <c r="I21">
-        <v>8620.76</v>
+        <v>150952.97</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1525,22 +1537,22 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F22">
-        <v>2112</v>
+        <v>5183</v>
       </c>
       <c r="G22">
         <v>45.73</v>
       </c>
       <c r="H22">
-        <v>96581.75999999999</v>
+        <v>237018.59</v>
       </c>
       <c r="I22">
-        <v>82634.11</v>
+        <v>201806.49</v>
       </c>
       <c r="J22">
-        <v>13947.65</v>
+        <v>35212.1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1557,22 +1569,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F23">
-        <v>1143</v>
+        <v>377</v>
       </c>
       <c r="G23">
-        <v>314.84</v>
+        <v>33.94</v>
       </c>
       <c r="H23">
-        <v>359862.12</v>
+        <v>12795.38</v>
       </c>
       <c r="I23">
-        <v>339712.36</v>
+        <v>12795.38</v>
       </c>
       <c r="J23">
-        <v>20149.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1589,19 +1601,19 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F24">
-        <v>80</v>
+        <v>1369</v>
       </c>
       <c r="G24">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H24">
-        <v>17991.2</v>
+        <v>51488.09</v>
       </c>
       <c r="I24">
-        <v>17991.2</v>
+        <v>51488.09</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1621,19 +1633,19 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F25">
-        <v>433</v>
+        <v>1678</v>
       </c>
       <c r="G25">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="H25">
-        <v>16285.13</v>
+        <v>38308.74</v>
       </c>
       <c r="I25">
-        <v>16285.13</v>
+        <v>38308.74</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1656,16 +1668,16 @@
         <v>133</v>
       </c>
       <c r="F26">
-        <v>1238</v>
+        <v>164</v>
       </c>
       <c r="G26">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="H26">
-        <v>28263.54</v>
+        <v>36881.96</v>
       </c>
       <c r="I26">
-        <v>28263.54</v>
+        <v>36881.96</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1685,19 +1697,19 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>149.93</v>
       </c>
       <c r="H27">
-        <v>149.93</v>
+        <v>599.72</v>
       </c>
       <c r="I27">
-        <v>149.93</v>
+        <v>599.72</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1717,19 +1729,19 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F28">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G28">
         <v>224.89</v>
       </c>
       <c r="H28">
-        <v>10794.72</v>
+        <v>11919.17</v>
       </c>
       <c r="I28">
-        <v>10794.72</v>
+        <v>11919.17</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1749,19 +1761,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G29">
-        <v>93.7</v>
+        <v>337.33</v>
       </c>
       <c r="H29">
-        <v>1311.8</v>
+        <v>24962.42</v>
       </c>
       <c r="I29">
-        <v>1311.8</v>
+        <v>24962.42</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1781,19 +1793,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F30">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G30">
         <v>89.95999999999999</v>
       </c>
       <c r="H30">
-        <v>2338.96</v>
+        <v>6027.32</v>
       </c>
       <c r="I30">
-        <v>2338.96</v>
+        <v>6027.32</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1813,19 +1825,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G31">
-        <v>337.33</v>
+        <v>93.7</v>
       </c>
       <c r="H31">
-        <v>5397.28</v>
+        <v>4591.3</v>
       </c>
       <c r="I31">
-        <v>5397.28</v>
+        <v>4591.3</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1833,10 +1845,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1845,19 +1857,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G32">
-        <v>449.78</v>
+        <v>179.91</v>
       </c>
       <c r="H32">
-        <v>1349.34</v>
+        <v>1979.01</v>
       </c>
       <c r="I32">
-        <v>1349.34</v>
+        <v>1979.01</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1865,10 +1877,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1877,19 +1889,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G33">
-        <v>395.8</v>
+        <v>449.78</v>
       </c>
       <c r="H33">
-        <v>29289.2</v>
+        <v>10344.94</v>
       </c>
       <c r="I33">
-        <v>29289.2</v>
+        <v>10344.94</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1909,19 +1921,19 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F34">
-        <v>462</v>
+        <v>935</v>
       </c>
       <c r="G34">
         <v>337.33</v>
       </c>
       <c r="H34">
-        <v>155846.46</v>
+        <v>315403.55</v>
       </c>
       <c r="I34">
-        <v>155846.46</v>
+        <v>315403.55</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1929,10 +1941,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1941,19 +1953,19 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F35">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G35">
-        <v>247.38</v>
+        <v>395.8</v>
       </c>
       <c r="H35">
-        <v>30180.36</v>
+        <v>54224.6</v>
       </c>
       <c r="I35">
-        <v>30180.36</v>
+        <v>54224.6</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1973,19 +1985,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F36">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>52.47</v>
       </c>
       <c r="H36">
-        <v>1783.98</v>
+        <v>2780.91</v>
       </c>
       <c r="I36">
-        <v>1783.98</v>
+        <v>2780.91</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2005,19 +2017,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F37">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="G37">
         <v>52.47</v>
       </c>
       <c r="H37">
-        <v>7135.92</v>
+        <v>22037.4</v>
       </c>
       <c r="I37">
-        <v>7135.92</v>
+        <v>22037.4</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2037,19 +2049,19 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F38">
-        <v>276</v>
+        <v>650</v>
       </c>
       <c r="G38">
         <v>412.3</v>
       </c>
       <c r="H38">
-        <v>113794.8</v>
+        <v>267995</v>
       </c>
       <c r="I38">
-        <v>113794.8</v>
+        <v>267995</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2069,19 +2081,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F39">
-        <v>309</v>
+        <v>732</v>
       </c>
       <c r="G39">
         <v>350.82</v>
       </c>
       <c r="H39">
-        <v>108403.38</v>
+        <v>256800.24</v>
       </c>
       <c r="I39">
-        <v>108403.38</v>
+        <v>256800.24</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2101,19 +2113,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F40">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="G40">
         <v>262.37</v>
       </c>
       <c r="H40">
-        <v>25712.26</v>
+        <v>70052.78999999999</v>
       </c>
       <c r="I40">
-        <v>25712.26</v>
+        <v>70052.78999999999</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2121,10 +2133,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -2133,19 +2145,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>336</v>
       </c>
       <c r="G41">
-        <v>224.89</v>
+        <v>247.38</v>
       </c>
       <c r="H41">
-        <v>3148.46</v>
+        <v>83119.67999999999</v>
       </c>
       <c r="I41">
-        <v>3148.46</v>
+        <v>83119.67999999999</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2165,19 +2177,19 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F42">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G42">
-        <v>22.49</v>
+        <v>224.89</v>
       </c>
       <c r="H42">
-        <v>2451.41</v>
+        <v>8096.04</v>
       </c>
       <c r="I42">
-        <v>2451.41</v>
+        <v>8096.04</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2185,10 +2197,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -2197,19 +2209,19 @@
         <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F43">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="G43">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="H43">
-        <v>2758.62</v>
+        <v>7759.05</v>
       </c>
       <c r="I43">
-        <v>2758.62</v>
+        <v>7759.05</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2229,22 +2241,22 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F44">
-        <v>504</v>
+        <v>1731</v>
       </c>
       <c r="G44">
-        <v>299.85</v>
+        <v>22.49</v>
       </c>
       <c r="H44">
-        <v>151124.4</v>
+        <v>38930.19</v>
       </c>
       <c r="I44">
-        <v>151124.4</v>
+        <v>38660.31</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>269.88</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2261,19 +2273,19 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F45">
-        <v>662</v>
+        <v>1296</v>
       </c>
       <c r="G45">
-        <v>22.49</v>
+        <v>299.85</v>
       </c>
       <c r="H45">
-        <v>14888.38</v>
+        <v>388605.6</v>
       </c>
       <c r="I45">
-        <v>14888.38</v>
+        <v>388605.6</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2281,10 +2293,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -2293,19 +2305,19 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F46">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G46">
-        <v>269.87</v>
+        <v>119.94</v>
       </c>
       <c r="H46">
-        <v>6207.01</v>
+        <v>7076.46</v>
       </c>
       <c r="I46">
-        <v>6207.01</v>
+        <v>7076.46</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2325,19 +2337,19 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F47">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>40210.63</v>
+        <v>11334.54</v>
       </c>
       <c r="I47">
-        <v>40210.63</v>
+        <v>11334.54</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2345,10 +2357,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -2357,19 +2369,19 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F48">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="G48">
-        <v>299.85</v>
+        <v>269.87</v>
       </c>
       <c r="H48">
-        <v>16491.75</v>
+        <v>84739.17999999999</v>
       </c>
       <c r="I48">
-        <v>16491.75</v>
+        <v>84739.17999999999</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2377,10 +2389,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -2389,22 +2401,22 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F49">
-        <v>845</v>
+        <v>117</v>
       </c>
       <c r="G49">
-        <v>74.95999999999999</v>
+        <v>299.85</v>
       </c>
       <c r="H49">
-        <v>63341.2</v>
+        <v>35082.45</v>
       </c>
       <c r="I49">
-        <v>56744.72</v>
+        <v>35082.45</v>
       </c>
       <c r="J49">
-        <v>6596.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2421,19 +2433,19 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>191.15</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H50">
-        <v>764.6</v>
+        <v>224.88</v>
       </c>
       <c r="I50">
-        <v>764.6</v>
+        <v>224.88</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2453,22 +2465,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G51">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="H51">
-        <v>674.65</v>
+        <v>2024.01</v>
       </c>
       <c r="I51">
-        <v>674.65</v>
+        <v>224.89</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1799.12</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2485,22 +2497,22 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="G52">
-        <v>224.89</v>
+        <v>449.78</v>
       </c>
       <c r="H52">
-        <v>2248.9</v>
+        <v>101650.28</v>
       </c>
       <c r="I52">
-        <v>449.78</v>
+        <v>94903.58</v>
       </c>
       <c r="J52">
-        <v>1799.12</v>
+        <v>6746.7</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2517,30 +2529,30 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F53">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="G53">
-        <v>449.78</v>
+        <v>134.93</v>
       </c>
       <c r="H53">
-        <v>38231.3</v>
+        <v>944.51</v>
       </c>
       <c r="I53">
-        <v>35982.4</v>
+        <v>944.51</v>
       </c>
       <c r="J53">
-        <v>2248.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2549,30 +2561,30 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F54">
-        <v>51</v>
+        <v>1567</v>
       </c>
       <c r="G54">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H54">
-        <v>11469.39</v>
+        <v>117462.32</v>
       </c>
       <c r="I54">
-        <v>11469.39</v>
+        <v>105093.92</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>12368.4</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2581,19 +2593,19 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F55">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>22.64</v>
+        <v>191.15</v>
       </c>
       <c r="H55">
-        <v>1426.32</v>
+        <v>1338.05</v>
       </c>
       <c r="I55">
-        <v>1426.32</v>
+        <v>1338.05</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2601,10 +2613,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2613,19 +2625,19 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F56">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="G56">
-        <v>35.68</v>
+        <v>224.89</v>
       </c>
       <c r="H56">
-        <v>15092.64</v>
+        <v>30360.15</v>
       </c>
       <c r="I56">
-        <v>15092.64</v>
+        <v>30360.15</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2645,19 +2657,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F57">
-        <v>371</v>
+        <v>1050</v>
       </c>
       <c r="G57">
-        <v>228.26</v>
+        <v>35.68</v>
       </c>
       <c r="H57">
-        <v>84684.46000000001</v>
+        <v>37464</v>
       </c>
       <c r="I57">
-        <v>84684.46000000001</v>
+        <v>37464</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2677,19 +2689,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F58">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="G58">
-        <v>266.12</v>
+        <v>51.12</v>
       </c>
       <c r="H58">
-        <v>5322.4</v>
+        <v>3936.24</v>
       </c>
       <c r="I58">
-        <v>5322.4</v>
+        <v>3936.24</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2709,19 +2721,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G59">
-        <v>51.12</v>
+        <v>266.12</v>
       </c>
       <c r="H59">
-        <v>817.92</v>
+        <v>14370.48</v>
       </c>
       <c r="I59">
-        <v>817.92</v>
+        <v>14370.48</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2729,10 +2741,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2741,19 +2753,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F60">
-        <v>73</v>
+        <v>1370</v>
       </c>
       <c r="G60">
-        <v>179.91</v>
+        <v>228.26</v>
       </c>
       <c r="H60">
-        <v>13133.43</v>
+        <v>312716.2</v>
       </c>
       <c r="I60">
-        <v>13133.43</v>
+        <v>312716.2</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2761,10 +2773,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2773,19 +2785,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F61">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="G61">
-        <v>44.98</v>
+        <v>22.64</v>
       </c>
       <c r="H61">
-        <v>674.7</v>
+        <v>3033.76</v>
       </c>
       <c r="I61">
-        <v>674.7</v>
+        <v>3033.76</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2793,10 +2805,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2805,19 +2817,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="F62">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="G62">
-        <v>142.43</v>
+        <v>219.13</v>
       </c>
       <c r="H62">
-        <v>16379.45</v>
+        <v>438.26</v>
       </c>
       <c r="I62">
-        <v>16379.45</v>
+        <v>438.26</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2825,10 +2837,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2837,19 +2849,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F63">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="G63">
-        <v>187.41</v>
+        <v>179.91</v>
       </c>
       <c r="H63">
-        <v>6371.94</v>
+        <v>35982</v>
       </c>
       <c r="I63">
-        <v>6371.94</v>
+        <v>35982</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2857,10 +2869,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2869,19 +2881,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F64">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G64">
-        <v>179.91</v>
+        <v>44.98</v>
       </c>
       <c r="H64">
-        <v>4317.84</v>
+        <v>629.72</v>
       </c>
       <c r="I64">
-        <v>4317.84</v>
+        <v>629.72</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2889,10 +2901,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2901,19 +2913,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F65">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="G65">
-        <v>149.93</v>
+        <v>142.43</v>
       </c>
       <c r="H65">
-        <v>20990.2</v>
+        <v>34040.77</v>
       </c>
       <c r="I65">
-        <v>20990.2</v>
+        <v>34040.77</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2921,10 +2933,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2933,19 +2945,19 @@
         <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F66">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G66">
-        <v>56.22</v>
+        <v>187.41</v>
       </c>
       <c r="H66">
-        <v>3429.42</v>
+        <v>9745.32</v>
       </c>
       <c r="I66">
-        <v>3429.42</v>
+        <v>9745.32</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2953,10 +2965,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2965,19 +2977,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F67">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="G67">
-        <v>359.82</v>
+        <v>179.91</v>
       </c>
       <c r="H67">
-        <v>52893.54</v>
+        <v>15652.17</v>
       </c>
       <c r="I67">
-        <v>52893.54</v>
+        <v>15652.17</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2985,10 +2997,10 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -2997,19 +3009,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F68">
-        <v>14</v>
+        <v>420</v>
       </c>
       <c r="G68">
-        <v>134.93</v>
+        <v>149.93</v>
       </c>
       <c r="H68">
-        <v>1889.02</v>
+        <v>62970.6</v>
       </c>
       <c r="I68">
-        <v>1889.02</v>
+        <v>62970.6</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3017,10 +3029,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3029,19 +3041,19 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F69">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G69">
-        <v>187.41</v>
+        <v>56.22</v>
       </c>
       <c r="H69">
-        <v>6934.17</v>
+        <v>4385.16</v>
       </c>
       <c r="I69">
-        <v>6934.17</v>
+        <v>4385.16</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3049,10 +3061,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3061,30 +3073,30 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F70">
-        <v>682</v>
+        <v>247</v>
       </c>
       <c r="G70">
-        <v>41.23</v>
+        <v>359.82</v>
       </c>
       <c r="H70">
-        <v>28118.86</v>
+        <v>88875.53999999999</v>
       </c>
       <c r="I70">
-        <v>25851.21</v>
+        <v>88875.53999999999</v>
       </c>
       <c r="J70">
-        <v>2267.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -3093,19 +3105,19 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F71">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G71">
-        <v>299.85</v>
+        <v>134.93</v>
       </c>
       <c r="H71">
-        <v>22188.9</v>
+        <v>6071.85</v>
       </c>
       <c r="I71">
-        <v>22188.9</v>
+        <v>6071.85</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3113,10 +3125,10 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -3125,30 +3137,30 @@
         <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>2771</v>
       </c>
       <c r="G72">
-        <v>134.93</v>
+        <v>41.23</v>
       </c>
       <c r="H72">
-        <v>269.86</v>
+        <v>114248.33</v>
       </c>
       <c r="I72">
-        <v>269.86</v>
+        <v>104641.74</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>9606.59</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3157,19 +3169,19 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F73">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="G73">
-        <v>29.99</v>
+        <v>187.41</v>
       </c>
       <c r="H73">
-        <v>1529.49</v>
+        <v>34483.44</v>
       </c>
       <c r="I73">
-        <v>1529.49</v>
+        <v>34483.44</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3177,10 +3189,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3189,30 +3201,30 @@
         <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F74">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="G74">
-        <v>71.20999999999999</v>
+        <v>299.85</v>
       </c>
       <c r="H74">
-        <v>20650.9</v>
+        <v>40479.75</v>
       </c>
       <c r="I74">
-        <v>20081.22</v>
+        <v>40479.75</v>
       </c>
       <c r="J74">
-        <v>569.6799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3221,19 +3233,19 @@
         <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F75">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G75">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="H75">
-        <v>20015.21</v>
+        <v>2023.95</v>
       </c>
       <c r="I75">
-        <v>20015.21</v>
+        <v>2023.95</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3241,10 +3253,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -3253,19 +3265,19 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F76">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G76">
-        <v>143.93</v>
+        <v>29.99</v>
       </c>
       <c r="H76">
-        <v>16551.95</v>
+        <v>4618.46</v>
       </c>
       <c r="I76">
-        <v>16551.95</v>
+        <v>4618.46</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3285,22 +3297,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F77">
-        <v>798</v>
+        <v>132</v>
       </c>
       <c r="G77">
-        <v>314.84</v>
+        <v>143.93</v>
       </c>
       <c r="H77">
-        <v>251242.32</v>
+        <v>18998.76</v>
       </c>
       <c r="I77">
-        <v>238333.88</v>
+        <v>18998.76</v>
       </c>
       <c r="J77">
-        <v>12908.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3317,22 +3329,118 @@
         <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F78">
-        <v>534</v>
+        <v>1657</v>
       </c>
       <c r="G78">
         <v>104.95</v>
       </c>
       <c r="H78">
-        <v>56043.3</v>
+        <v>173902.15</v>
       </c>
       <c r="I78">
-        <v>54259.15</v>
+        <v>167185.35</v>
       </c>
       <c r="J78">
-        <v>1784.15</v>
+        <v>6716.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79">
+        <v>1662</v>
+      </c>
+      <c r="G79">
+        <v>314.84</v>
+      </c>
+      <c r="H79">
+        <v>523264.08</v>
+      </c>
+      <c r="I79">
+        <v>499021.4</v>
+      </c>
+      <c r="J79">
+        <v>24242.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80">
+        <v>239</v>
+      </c>
+      <c r="G80">
+        <v>224.89</v>
+      </c>
+      <c r="H80">
+        <v>53748.71</v>
+      </c>
+      <c r="I80">
+        <v>53748.71</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81">
+        <v>599</v>
+      </c>
+      <c r="G81">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="H81">
+        <v>42654.79</v>
+      </c>
+      <c r="I81">
+        <v>40874.54</v>
+      </c>
+      <c r="J81">
+        <v>1780.25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
   <si>
     <t>BSL NO</t>
   </si>
@@ -145,21 +145,21 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 375 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
-    <t>Augment 375 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -175,51 +175,51 @@
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 250mg Capsule</t>
+    <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
+    <t>Ketonic 30mg IM/IV Injection</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
@@ -229,48 +229,48 @@
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
+    <t>Nabumet 750mg FC Tab 24's</t>
+  </si>
+  <si>
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
-    <t>Nabumet 750mg FC Tab 24's</t>
-  </si>
-  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
+    <t>Ontin 60ml Syrup</t>
   </si>
   <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
-    <t>Ontin 60ml Syrup</t>
-  </si>
-  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
@@ -292,48 +292,45 @@
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule</t>
+    <t>Stiba 30ml Syrup</t>
   </si>
   <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
-  </si>
-  <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
@@ -343,12 +340,12 @@
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 5mg IM/IV</t>
+  </si>
+  <si>
     <t>Timothy 50mg Tablet</t>
   </si>
   <si>
-    <t>Timothy 5mg IM/IV</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
@@ -382,7 +382,7 @@
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
+    <t>18's</t>
   </si>
   <si>
     <t>1's</t>
@@ -391,9 +391,6 @@
     <t>12's</t>
   </si>
   <si>
-    <t>18's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -445,21 +442,18 @@
     <t>15 gm</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
     <t>15 ml</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -478,6 +472,9 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
     <t>50ml</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
   </si>
   <si>
     <t>12 's</t>
-  </si>
-  <si>
-    <t>20ml</t>
   </si>
 </sst>
 </file>
@@ -845,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,19 +891,19 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2">
-        <v>654</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="H2">
-        <v>134822.1</v>
+        <v>24558.17</v>
       </c>
       <c r="I2">
-        <v>134822.1</v>
+        <v>24558.17</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -929,19 +923,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="G3">
-        <v>269.87</v>
+        <v>337.33</v>
       </c>
       <c r="H3">
-        <v>31574.79</v>
+        <v>118402.83</v>
       </c>
       <c r="I3">
-        <v>31574.79</v>
+        <v>118402.83</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -961,19 +955,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="G4">
-        <v>337.33</v>
+        <v>206.15</v>
       </c>
       <c r="H4">
-        <v>147413.21</v>
+        <v>69678.7</v>
       </c>
       <c r="I4">
-        <v>147413.21</v>
+        <v>69678.7</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -993,19 +987,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>131.18</v>
+        <v>269.87</v>
       </c>
       <c r="H5">
-        <v>38042.2</v>
+        <v>20240.25</v>
       </c>
       <c r="I5">
-        <v>38042.2</v>
+        <v>20240.25</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1025,19 +1019,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="G6">
-        <v>269.87</v>
+        <v>131.18</v>
       </c>
       <c r="H6">
-        <v>21319.73</v>
+        <v>27941.34</v>
       </c>
       <c r="I6">
-        <v>21319.73</v>
+        <v>27941.34</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1057,19 +1051,19 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>2236</v>
+        <v>1800</v>
       </c>
       <c r="G7">
         <v>224.89</v>
       </c>
       <c r="H7">
-        <v>502854.04</v>
+        <v>404802</v>
       </c>
       <c r="I7">
-        <v>502854.04</v>
+        <v>404802</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1089,19 +1083,19 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>239.88</v>
       </c>
       <c r="H8">
-        <v>1439.28</v>
+        <v>1679.16</v>
       </c>
       <c r="I8">
-        <v>1439.28</v>
+        <v>1679.16</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1121,19 +1115,19 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>112.45</v>
       </c>
       <c r="H9">
-        <v>3710.85</v>
+        <v>899.6</v>
       </c>
       <c r="I9">
-        <v>3710.85</v>
+        <v>899.6</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1153,19 +1147,19 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10">
-        <v>731</v>
+        <v>606</v>
       </c>
       <c r="G10">
         <v>239.88</v>
       </c>
       <c r="H10">
-        <v>175352.28</v>
+        <v>145367.28</v>
       </c>
       <c r="I10">
-        <v>175352.28</v>
+        <v>145367.28</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1185,19 +1179,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11">
-        <v>2109</v>
+        <v>1562</v>
       </c>
       <c r="G11">
         <v>35.98</v>
       </c>
       <c r="H11">
-        <v>75881.82000000001</v>
+        <v>56200.76</v>
       </c>
       <c r="I11">
-        <v>75881.82000000001</v>
+        <v>56200.76</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1217,19 +1211,19 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G12">
-        <v>299.85</v>
+        <v>104.95</v>
       </c>
       <c r="H12">
-        <v>32083.95</v>
+        <v>8710.85</v>
       </c>
       <c r="I12">
-        <v>32083.95</v>
+        <v>8710.85</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1249,19 +1243,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="G13">
-        <v>104.95</v>
+        <v>299.85</v>
       </c>
       <c r="H13">
-        <v>14797.95</v>
+        <v>29685.15</v>
       </c>
       <c r="I13">
-        <v>14797.95</v>
+        <v>29685.15</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1281,19 +1275,19 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14">
-        <v>1519</v>
+        <v>1064</v>
       </c>
       <c r="G14">
         <v>29.99</v>
       </c>
       <c r="H14">
-        <v>45554.81</v>
+        <v>31909.36</v>
       </c>
       <c r="I14">
-        <v>45554.81</v>
+        <v>31909.36</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1313,19 +1307,19 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F15">
-        <v>2527</v>
+        <v>873</v>
       </c>
       <c r="G15">
-        <v>359.82</v>
+        <v>262.37</v>
       </c>
       <c r="H15">
-        <v>909265.14</v>
+        <v>229049.01</v>
       </c>
       <c r="I15">
-        <v>909265.14</v>
+        <v>229049.01</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1348,16 +1342,16 @@
         <v>132</v>
       </c>
       <c r="F16">
-        <v>1098</v>
+        <v>1911</v>
       </c>
       <c r="G16">
-        <v>262.37</v>
+        <v>314.84</v>
       </c>
       <c r="H16">
-        <v>288082.26</v>
+        <v>601659.24</v>
       </c>
       <c r="I16">
-        <v>288082.26</v>
+        <v>601659.24</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1377,19 +1371,19 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>2684</v>
+        <v>1889</v>
       </c>
       <c r="G17">
-        <v>314.84</v>
+        <v>359.82</v>
       </c>
       <c r="H17">
-        <v>845030.5600000001</v>
+        <v>679699.98</v>
       </c>
       <c r="I17">
-        <v>845030.5600000001</v>
+        <v>679699.98</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1409,19 +1403,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="G18">
         <v>179.91</v>
       </c>
       <c r="H18">
-        <v>21769.11</v>
+        <v>14212.89</v>
       </c>
       <c r="I18">
-        <v>21769.11</v>
+        <v>14212.89</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1441,19 +1435,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>168.67</v>
       </c>
       <c r="H19">
-        <v>11132.22</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="I19">
-        <v>11132.22</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1473,22 +1467,22 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F20">
-        <v>3077</v>
+        <v>254</v>
       </c>
       <c r="G20">
-        <v>314.84</v>
+        <v>432.53</v>
       </c>
       <c r="H20">
-        <v>968762.6800000001</v>
+        <v>109862.62</v>
       </c>
       <c r="I20">
-        <v>912091.48</v>
+        <v>109862.62</v>
       </c>
       <c r="J20">
-        <v>56671.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1505,22 +1499,22 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F21">
-        <v>349</v>
+        <v>2487</v>
       </c>
       <c r="G21">
-        <v>432.53</v>
+        <v>314.84</v>
       </c>
       <c r="H21">
-        <v>150952.97</v>
+        <v>783007.08</v>
       </c>
       <c r="I21">
-        <v>150952.97</v>
+        <v>734836.5600000001</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>48170.52</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1537,22 +1531,22 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F22">
-        <v>5183</v>
+        <v>335</v>
       </c>
       <c r="G22">
-        <v>45.73</v>
+        <v>33.94</v>
       </c>
       <c r="H22">
-        <v>237018.59</v>
+        <v>11369.9</v>
       </c>
       <c r="I22">
-        <v>201806.49</v>
+        <v>11369.9</v>
       </c>
       <c r="J22">
-        <v>35212.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1569,22 +1563,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>377</v>
+        <v>4133</v>
       </c>
       <c r="G23">
-        <v>33.94</v>
+        <v>45.73</v>
       </c>
       <c r="H23">
-        <v>12795.38</v>
+        <v>189002.09</v>
       </c>
       <c r="I23">
-        <v>12795.38</v>
+        <v>162250.04</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>26752.05</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1601,19 +1595,19 @@
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24">
-        <v>1369</v>
+        <v>1134</v>
       </c>
       <c r="G24">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="H24">
-        <v>51488.09</v>
+        <v>25889.22</v>
       </c>
       <c r="I24">
-        <v>51488.09</v>
+        <v>25889.22</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1633,19 +1627,19 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F25">
-        <v>1678</v>
+        <v>159</v>
       </c>
       <c r="G25">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="H25">
-        <v>38308.74</v>
+        <v>35757.51</v>
       </c>
       <c r="I25">
-        <v>38308.74</v>
+        <v>35757.51</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1665,19 +1659,19 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F26">
-        <v>164</v>
+        <v>391</v>
       </c>
       <c r="G26">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H26">
-        <v>36881.96</v>
+        <v>14705.51</v>
       </c>
       <c r="I26">
-        <v>36881.96</v>
+        <v>14705.51</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1697,19 +1691,19 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>149.93</v>
       </c>
       <c r="H27">
-        <v>599.72</v>
+        <v>299.86</v>
       </c>
       <c r="I27">
-        <v>599.72</v>
+        <v>299.86</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1729,7 +1723,7 @@
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28">
         <v>53</v>
@@ -1761,19 +1755,19 @@
         <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G29">
         <v>337.33</v>
       </c>
       <c r="H29">
-        <v>24962.42</v>
+        <v>17878.49</v>
       </c>
       <c r="I29">
-        <v>24962.42</v>
+        <v>17878.49</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1793,19 +1787,19 @@
         <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F30">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>89.95999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="H30">
-        <v>6027.32</v>
+        <v>1079.46</v>
       </c>
       <c r="I30">
-        <v>6027.32</v>
+        <v>1079.46</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1828,16 +1822,16 @@
         <v>123</v>
       </c>
       <c r="F31">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G31">
         <v>93.7</v>
       </c>
       <c r="H31">
-        <v>4591.3</v>
+        <v>3373.2</v>
       </c>
       <c r="I31">
-        <v>4591.3</v>
+        <v>3373.2</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1857,19 +1851,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>179.91</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H32">
-        <v>1979.01</v>
+        <v>5397.6</v>
       </c>
       <c r="I32">
-        <v>1979.01</v>
+        <v>5397.6</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1889,19 +1883,19 @@
         <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G33">
         <v>449.78</v>
       </c>
       <c r="H33">
-        <v>10344.94</v>
+        <v>5397.36</v>
       </c>
       <c r="I33">
-        <v>10344.94</v>
+        <v>5397.36</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1921,19 +1915,19 @@
         <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F34">
-        <v>935</v>
+        <v>119</v>
       </c>
       <c r="G34">
-        <v>337.33</v>
+        <v>395.8</v>
       </c>
       <c r="H34">
-        <v>315403.55</v>
+        <v>47100.2</v>
       </c>
       <c r="I34">
-        <v>315403.55</v>
+        <v>47100.2</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1953,19 +1947,19 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F35">
-        <v>137</v>
+        <v>823</v>
       </c>
       <c r="G35">
-        <v>395.8</v>
+        <v>337.33</v>
       </c>
       <c r="H35">
-        <v>54224.6</v>
+        <v>277622.59</v>
       </c>
       <c r="I35">
-        <v>54224.6</v>
+        <v>277622.59</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1985,19 +1979,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G36">
         <v>52.47</v>
       </c>
       <c r="H36">
-        <v>2780.91</v>
+        <v>3253.14</v>
       </c>
       <c r="I36">
-        <v>2780.91</v>
+        <v>3253.14</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2017,19 +2011,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37">
-        <v>420</v>
+        <v>259</v>
       </c>
       <c r="G37">
         <v>52.47</v>
       </c>
       <c r="H37">
-        <v>22037.4</v>
+        <v>13589.73</v>
       </c>
       <c r="I37">
-        <v>22037.4</v>
+        <v>13589.73</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2049,19 +2043,19 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F38">
-        <v>650</v>
+        <v>202</v>
       </c>
       <c r="G38">
-        <v>412.3</v>
+        <v>262.37</v>
       </c>
       <c r="H38">
-        <v>267995</v>
+        <v>52998.74</v>
       </c>
       <c r="I38">
-        <v>267995</v>
+        <v>52998.74</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2081,19 +2075,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F39">
-        <v>732</v>
+        <v>266</v>
       </c>
       <c r="G39">
-        <v>350.82</v>
+        <v>247.38</v>
       </c>
       <c r="H39">
-        <v>256800.24</v>
+        <v>65803.08</v>
       </c>
       <c r="I39">
-        <v>256800.24</v>
+        <v>65803.08</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2113,19 +2107,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40">
-        <v>267</v>
+        <v>610</v>
       </c>
       <c r="G40">
-        <v>262.37</v>
+        <v>350.82</v>
       </c>
       <c r="H40">
-        <v>70052.78999999999</v>
+        <v>214000.2</v>
       </c>
       <c r="I40">
-        <v>70052.78999999999</v>
+        <v>214000.2</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2145,19 +2139,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F41">
-        <v>336</v>
+        <v>543</v>
       </c>
       <c r="G41">
-        <v>247.38</v>
+        <v>412.3</v>
       </c>
       <c r="H41">
-        <v>83119.67999999999</v>
+        <v>223878.9</v>
       </c>
       <c r="I41">
-        <v>83119.67999999999</v>
+        <v>223878.9</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2177,19 +2171,19 @@
         <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F42">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="G42">
-        <v>224.89</v>
+        <v>22.49</v>
       </c>
       <c r="H42">
-        <v>8096.04</v>
+        <v>5217.68</v>
       </c>
       <c r="I42">
-        <v>8096.04</v>
+        <v>5217.68</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2209,19 +2203,19 @@
         <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F43">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="G43">
-        <v>22.49</v>
+        <v>224.89</v>
       </c>
       <c r="H43">
-        <v>7759.05</v>
+        <v>4722.69</v>
       </c>
       <c r="I43">
-        <v>7759.05</v>
+        <v>4722.69</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2241,22 +2235,22 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F44">
-        <v>1731</v>
+        <v>1699</v>
       </c>
       <c r="G44">
         <v>22.49</v>
       </c>
       <c r="H44">
-        <v>38930.19</v>
+        <v>38210.51</v>
       </c>
       <c r="I44">
-        <v>38660.31</v>
+        <v>38120.55</v>
       </c>
       <c r="J44">
-        <v>269.88</v>
+        <v>89.95999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2273,19 +2267,19 @@
         <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45">
-        <v>1296</v>
+        <v>985</v>
       </c>
       <c r="G45">
         <v>299.85</v>
       </c>
       <c r="H45">
-        <v>388605.6</v>
+        <v>295352.25</v>
       </c>
       <c r="I45">
-        <v>388605.6</v>
+        <v>295352.25</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2305,19 +2299,19 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>119.94</v>
       </c>
       <c r="H46">
-        <v>7076.46</v>
+        <v>4077.96</v>
       </c>
       <c r="I46">
-        <v>7076.46</v>
+        <v>4077.96</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2337,19 +2331,19 @@
         <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G47">
         <v>269.87</v>
       </c>
       <c r="H47">
-        <v>11334.54</v>
+        <v>6476.88</v>
       </c>
       <c r="I47">
-        <v>11334.54</v>
+        <v>6476.88</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2369,19 +2363,19 @@
         <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="G48">
         <v>269.87</v>
       </c>
       <c r="H48">
-        <v>84739.17999999999</v>
+        <v>75293.73</v>
       </c>
       <c r="I48">
-        <v>84739.17999999999</v>
+        <v>75293.73</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2401,19 +2395,19 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F49">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G49">
         <v>299.85</v>
       </c>
       <c r="H49">
-        <v>35082.45</v>
+        <v>24287.85</v>
       </c>
       <c r="I49">
-        <v>35082.45</v>
+        <v>24287.85</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2436,16 +2430,16 @@
         <v>123</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>74.95999999999999</v>
       </c>
       <c r="H50">
-        <v>224.88</v>
+        <v>374.8</v>
       </c>
       <c r="I50">
-        <v>224.88</v>
+        <v>374.8</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2465,22 +2459,22 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="H51">
-        <v>2024.01</v>
+        <v>674.65</v>
       </c>
       <c r="I51">
-        <v>224.89</v>
+        <v>674.65</v>
       </c>
       <c r="J51">
-        <v>1799.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2497,22 +2491,22 @@
         <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F52">
-        <v>226</v>
+        <v>1336</v>
       </c>
       <c r="G52">
-        <v>449.78</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H52">
-        <v>101650.28</v>
+        <v>100146.56</v>
       </c>
       <c r="I52">
-        <v>94903.58</v>
+        <v>89502.24000000001</v>
       </c>
       <c r="J52">
-        <v>6746.7</v>
+        <v>10644.32</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2532,19 +2526,19 @@
         <v>137</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="H53">
-        <v>944.51</v>
+        <v>1124.45</v>
       </c>
       <c r="I53">
-        <v>944.51</v>
+        <v>224.89</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>899.5599999999999</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2561,22 +2555,22 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F54">
-        <v>1567</v>
+        <v>11</v>
       </c>
       <c r="G54">
-        <v>74.95999999999999</v>
+        <v>191.15</v>
       </c>
       <c r="H54">
-        <v>117462.32</v>
+        <v>2102.65</v>
       </c>
       <c r="I54">
-        <v>105093.92</v>
+        <v>2102.65</v>
       </c>
       <c r="J54">
-        <v>12368.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2593,22 +2587,22 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>214</v>
       </c>
       <c r="G55">
-        <v>191.15</v>
+        <v>449.78</v>
       </c>
       <c r="H55">
-        <v>1338.05</v>
+        <v>96252.92</v>
       </c>
       <c r="I55">
-        <v>1338.05</v>
+        <v>88156.88</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>8096.04</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2625,19 +2619,19 @@
         <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F56">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G56">
         <v>224.89</v>
       </c>
       <c r="H56">
-        <v>30360.15</v>
+        <v>22264.11</v>
       </c>
       <c r="I56">
-        <v>30360.15</v>
+        <v>22264.11</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2657,19 +2651,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F57">
-        <v>1050</v>
+        <v>119</v>
       </c>
       <c r="G57">
-        <v>35.68</v>
+        <v>22.64</v>
       </c>
       <c r="H57">
-        <v>37464</v>
+        <v>2694.16</v>
       </c>
       <c r="I57">
-        <v>37464</v>
+        <v>2694.16</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2692,16 +2686,16 @@
         <v>131</v>
       </c>
       <c r="F58">
-        <v>77</v>
+        <v>813</v>
       </c>
       <c r="G58">
-        <v>51.12</v>
+        <v>228.26</v>
       </c>
       <c r="H58">
-        <v>3936.24</v>
+        <v>185575.38</v>
       </c>
       <c r="I58">
-        <v>3936.24</v>
+        <v>185575.38</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2721,19 +2715,19 @@
         <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F59">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G59">
-        <v>266.12</v>
+        <v>51.12</v>
       </c>
       <c r="H59">
-        <v>14370.48</v>
+        <v>3425.04</v>
       </c>
       <c r="I59">
-        <v>14370.48</v>
+        <v>3425.04</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2753,19 +2747,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F60">
-        <v>1370</v>
+        <v>41</v>
       </c>
       <c r="G60">
-        <v>228.26</v>
+        <v>266.12</v>
       </c>
       <c r="H60">
-        <v>312716.2</v>
+        <v>10910.92</v>
       </c>
       <c r="I60">
-        <v>312716.2</v>
+        <v>10910.92</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2785,19 +2779,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F61">
-        <v>134</v>
+        <v>1145</v>
       </c>
       <c r="G61">
-        <v>22.64</v>
+        <v>35.68</v>
       </c>
       <c r="H61">
-        <v>3033.76</v>
+        <v>40853.6</v>
       </c>
       <c r="I61">
-        <v>3033.76</v>
+        <v>40853.6</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2805,10 +2799,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2817,19 +2811,19 @@
         <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G62">
-        <v>219.13</v>
+        <v>44.98</v>
       </c>
       <c r="H62">
-        <v>438.26</v>
+        <v>764.66</v>
       </c>
       <c r="I62">
-        <v>438.26</v>
+        <v>764.66</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2849,19 +2843,19 @@
         <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F63">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="G63">
         <v>179.91</v>
       </c>
       <c r="H63">
-        <v>35982</v>
+        <v>24467.76</v>
       </c>
       <c r="I63">
-        <v>35982</v>
+        <v>24467.76</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2869,10 +2863,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2881,19 +2875,19 @@
         <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F64">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="G64">
-        <v>44.98</v>
+        <v>142.43</v>
       </c>
       <c r="H64">
-        <v>629.72</v>
+        <v>30622.45</v>
       </c>
       <c r="I64">
-        <v>629.72</v>
+        <v>30622.45</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2913,19 +2907,19 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F65">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="G65">
-        <v>142.43</v>
+        <v>187.41</v>
       </c>
       <c r="H65">
-        <v>34040.77</v>
+        <v>14430.57</v>
       </c>
       <c r="I65">
-        <v>34040.77</v>
+        <v>14430.57</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2933,10 +2927,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2948,16 +2942,16 @@
         <v>132</v>
       </c>
       <c r="F66">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G66">
-        <v>187.41</v>
+        <v>179.91</v>
       </c>
       <c r="H66">
-        <v>9745.32</v>
+        <v>11154.42</v>
       </c>
       <c r="I66">
-        <v>9745.32</v>
+        <v>11154.42</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2965,10 +2959,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2977,19 +2971,19 @@
         <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F67">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G67">
-        <v>179.91</v>
+        <v>56.22</v>
       </c>
       <c r="H67">
-        <v>15652.17</v>
+        <v>6015.54</v>
       </c>
       <c r="I67">
-        <v>15652.17</v>
+        <v>6015.54</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3009,19 +3003,19 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68">
-        <v>420</v>
+        <v>243</v>
       </c>
       <c r="G68">
         <v>149.93</v>
       </c>
       <c r="H68">
-        <v>62970.6</v>
+        <v>36432.99</v>
       </c>
       <c r="I68">
-        <v>62970.6</v>
+        <v>36432.99</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3029,10 +3023,10 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -3041,19 +3035,19 @@
         <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F69">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="G69">
-        <v>56.22</v>
+        <v>359.82</v>
       </c>
       <c r="H69">
-        <v>4385.16</v>
+        <v>102908.52</v>
       </c>
       <c r="I69">
-        <v>4385.16</v>
+        <v>102908.52</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3061,10 +3055,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -3073,19 +3067,19 @@
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F70">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="G70">
-        <v>359.82</v>
+        <v>134.93</v>
       </c>
       <c r="H70">
-        <v>88875.53999999999</v>
+        <v>3643.11</v>
       </c>
       <c r="I70">
-        <v>88875.53999999999</v>
+        <v>3643.11</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3093,10 +3087,10 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -3105,22 +3099,22 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F71">
-        <v>45</v>
+        <v>1620</v>
       </c>
       <c r="G71">
-        <v>134.93</v>
+        <v>41.23</v>
       </c>
       <c r="H71">
-        <v>6071.85</v>
+        <v>66792.60000000001</v>
       </c>
       <c r="I71">
-        <v>6071.85</v>
+        <v>61185.32</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>5607.28</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3137,30 +3131,30 @@
         <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F72">
-        <v>2771</v>
+        <v>92</v>
       </c>
       <c r="G72">
-        <v>41.23</v>
+        <v>187.41</v>
       </c>
       <c r="H72">
-        <v>114248.33</v>
+        <v>17241.72</v>
       </c>
       <c r="I72">
-        <v>104641.74</v>
+        <v>17241.72</v>
       </c>
       <c r="J72">
-        <v>9606.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -3169,19 +3163,19 @@
         <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F73">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="G73">
-        <v>187.41</v>
+        <v>299.85</v>
       </c>
       <c r="H73">
-        <v>34483.44</v>
+        <v>29685.15</v>
       </c>
       <c r="I73">
-        <v>34483.44</v>
+        <v>29685.15</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3189,10 +3183,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -3201,19 +3195,19 @@
         <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F74">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="G74">
-        <v>299.85</v>
+        <v>134.93</v>
       </c>
       <c r="H74">
-        <v>40479.75</v>
+        <v>809.58</v>
       </c>
       <c r="I74">
-        <v>40479.75</v>
+        <v>809.58</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3221,10 +3215,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -3236,16 +3230,16 @@
         <v>151</v>
       </c>
       <c r="F75">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="G75">
-        <v>134.93</v>
+        <v>29.99</v>
       </c>
       <c r="H75">
-        <v>2023.95</v>
+        <v>3628.79</v>
       </c>
       <c r="I75">
-        <v>2023.95</v>
+        <v>3628.79</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3253,10 +3247,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -3265,22 +3259,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F76">
-        <v>154</v>
+        <v>708</v>
       </c>
       <c r="G76">
-        <v>29.99</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H76">
-        <v>4618.46</v>
+        <v>50416.68</v>
       </c>
       <c r="I76">
-        <v>4618.46</v>
+        <v>47853.12</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2563.56</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3297,19 +3291,19 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F77">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G77">
         <v>143.93</v>
       </c>
       <c r="H77">
-        <v>18998.76</v>
+        <v>23028.8</v>
       </c>
       <c r="I77">
-        <v>18998.76</v>
+        <v>23028.8</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3329,22 +3323,22 @@
         <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F78">
-        <v>1657</v>
+        <v>1253</v>
       </c>
       <c r="G78">
         <v>104.95</v>
       </c>
       <c r="H78">
-        <v>173902.15</v>
+        <v>131502.35</v>
       </c>
       <c r="I78">
-        <v>167185.35</v>
+        <v>126464.75</v>
       </c>
       <c r="J78">
-        <v>6716.8</v>
+        <v>5037.6</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3361,22 +3355,22 @@
         <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F79">
-        <v>1662</v>
+        <v>1396</v>
       </c>
       <c r="G79">
         <v>314.84</v>
       </c>
       <c r="H79">
-        <v>523264.08</v>
+        <v>439516.64</v>
       </c>
       <c r="I79">
-        <v>499021.4</v>
+        <v>419052.04</v>
       </c>
       <c r="J79">
-        <v>24242.68</v>
+        <v>20464.6</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3396,51 +3390,19 @@
         <v>124</v>
       </c>
       <c r="F80">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="G80">
         <v>224.89</v>
       </c>
       <c r="H80">
-        <v>53748.71</v>
+        <v>35307.73</v>
       </c>
       <c r="I80">
-        <v>53748.71</v>
+        <v>35307.73</v>
       </c>
       <c r="J80">
         <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81">
-        <v>35</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81">
-        <v>80</v>
-      </c>
-      <c r="D81" t="s">
-        <v>122</v>
-      </c>
-      <c r="E81" t="s">
-        <v>157</v>
-      </c>
-      <c r="F81">
-        <v>599</v>
-      </c>
-      <c r="G81">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="H81">
-        <v>42654.79</v>
-      </c>
-      <c r="I81">
-        <v>40874.54</v>
-      </c>
-      <c r="J81">
-        <v>1780.25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -148,18 +148,18 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -169,18 +169,18 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
@@ -193,51 +193,51 @@
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
+    <t>Fenobac 5mg Tablet</t>
+  </si>
+  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 5mg Tablet</t>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
+    <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
-    <t>Levomax 500mg Tablet - 20's</t>
+    <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
+    <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -247,39 +247,39 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -289,42 +289,42 @@
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox 15ml P/D</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
@@ -367,21 +367,21 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 50ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -439,15 +439,15 @@
     <t>24's</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
+    <t>36's</t>
+  </si>
+  <si>
     <t>15 gm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
-    <t>36's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -472,16 +472,16 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>20ml</t>
   </si>
   <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>50ml</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>12 's</t>
   </si>
 </sst>
 </file>
@@ -923,19 +923,19 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="G3">
-        <v>337.33</v>
+        <v>206.15</v>
       </c>
       <c r="H3">
-        <v>118402.83</v>
+        <v>69678.7</v>
       </c>
       <c r="I3">
-        <v>118402.83</v>
+        <v>69678.7</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -955,19 +955,19 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="H4">
-        <v>69678.7</v>
+        <v>20240.25</v>
       </c>
       <c r="I4">
-        <v>69678.7</v>
+        <v>20240.25</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -987,19 +987,19 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="G5">
-        <v>269.87</v>
+        <v>131.18</v>
       </c>
       <c r="H5">
-        <v>20240.25</v>
+        <v>27941.34</v>
       </c>
       <c r="I5">
-        <v>20240.25</v>
+        <v>27941.34</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="G6">
-        <v>131.18</v>
+        <v>337.33</v>
       </c>
       <c r="H6">
-        <v>27941.34</v>
+        <v>118402.83</v>
       </c>
       <c r="I6">
-        <v>27941.34</v>
+        <v>118402.83</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>128</v>
       </c>
       <c r="F10">
-        <v>606</v>
+        <v>83</v>
       </c>
       <c r="G10">
-        <v>239.88</v>
+        <v>104.95</v>
       </c>
       <c r="H10">
-        <v>145367.28</v>
+        <v>8710.85</v>
       </c>
       <c r="I10">
-        <v>145367.28</v>
+        <v>8710.85</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1179,19 +1179,19 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11">
-        <v>1562</v>
+        <v>99</v>
       </c>
       <c r="G11">
-        <v>35.98</v>
+        <v>299.85</v>
       </c>
       <c r="H11">
-        <v>56200.76</v>
+        <v>29685.15</v>
       </c>
       <c r="I11">
-        <v>56200.76</v>
+        <v>29685.15</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>128</v>
       </c>
       <c r="F12">
-        <v>83</v>
+        <v>606</v>
       </c>
       <c r="G12">
-        <v>104.95</v>
+        <v>239.88</v>
       </c>
       <c r="H12">
-        <v>8710.85</v>
+        <v>145367.28</v>
       </c>
       <c r="I12">
-        <v>8710.85</v>
+        <v>145367.28</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1243,19 +1243,19 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13">
-        <v>99</v>
+        <v>1562</v>
       </c>
       <c r="G13">
-        <v>299.85</v>
+        <v>35.98</v>
       </c>
       <c r="H13">
-        <v>29685.15</v>
+        <v>56200.76</v>
       </c>
       <c r="I13">
-        <v>29685.15</v>
+        <v>56200.76</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1403,19 +1403,19 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F18">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G18">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="H18">
-        <v>14212.89</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="I18">
-        <v>14212.89</v>
+        <v>9614.190000000001</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F19">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G19">
-        <v>168.67</v>
+        <v>179.91</v>
       </c>
       <c r="H19">
-        <v>9614.190000000001</v>
+        <v>14212.89</v>
       </c>
       <c r="I19">
-        <v>9614.190000000001</v>
+        <v>14212.89</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1467,22 +1467,22 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>254</v>
+        <v>4133</v>
       </c>
       <c r="G20">
-        <v>432.53</v>
+        <v>45.73</v>
       </c>
       <c r="H20">
-        <v>109862.62</v>
+        <v>189002.09</v>
       </c>
       <c r="I20">
-        <v>109862.62</v>
+        <v>162250.04</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>26752.05</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1531,19 +1531,19 @@
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F22">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="G22">
-        <v>33.94</v>
+        <v>432.53</v>
       </c>
       <c r="H22">
-        <v>11369.9</v>
+        <v>109862.62</v>
       </c>
       <c r="I22">
-        <v>11369.9</v>
+        <v>109862.62</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1563,22 +1563,22 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F23">
-        <v>4133</v>
+        <v>335</v>
       </c>
       <c r="G23">
-        <v>45.73</v>
+        <v>33.94</v>
       </c>
       <c r="H23">
-        <v>189002.09</v>
+        <v>11369.9</v>
       </c>
       <c r="I23">
-        <v>162250.04</v>
+        <v>11369.9</v>
       </c>
       <c r="J23">
-        <v>26752.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1627,19 +1627,19 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F25">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="G25">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="H25">
-        <v>35757.51</v>
+        <v>14705.51</v>
       </c>
       <c r="I25">
-        <v>35757.51</v>
+        <v>14705.51</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1659,19 +1659,19 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F26">
-        <v>391</v>
+        <v>159</v>
       </c>
       <c r="G26">
-        <v>37.61</v>
+        <v>224.89</v>
       </c>
       <c r="H26">
-        <v>14705.51</v>
+        <v>35757.51</v>
       </c>
       <c r="I26">
-        <v>14705.51</v>
+        <v>35757.51</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>136</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G27">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="H27">
-        <v>299.86</v>
+        <v>11919.17</v>
       </c>
       <c r="I27">
-        <v>299.86</v>
+        <v>11919.17</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1726,16 +1726,16 @@
         <v>137</v>
       </c>
       <c r="F28">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="H28">
-        <v>11919.17</v>
+        <v>299.86</v>
       </c>
       <c r="I28">
-        <v>11919.17</v>
+        <v>299.86</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1758,16 +1758,16 @@
         <v>132</v>
       </c>
       <c r="F29">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>337.33</v>
+        <v>179.91</v>
       </c>
       <c r="H29">
-        <v>17878.49</v>
+        <v>1079.46</v>
       </c>
       <c r="I29">
-        <v>17878.49</v>
+        <v>1079.46</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1790,16 +1790,16 @@
         <v>132</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G30">
-        <v>179.91</v>
+        <v>337.33</v>
       </c>
       <c r="H30">
-        <v>1079.46</v>
+        <v>17878.49</v>
       </c>
       <c r="I30">
-        <v>1079.46</v>
+        <v>17878.49</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F31">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>93.7</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="H31">
-        <v>3373.2</v>
+        <v>5397.6</v>
       </c>
       <c r="I31">
-        <v>3373.2</v>
+        <v>5397.6</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1851,19 +1851,19 @@
         <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>89.95999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H32">
-        <v>5397.6</v>
+        <v>3373.2</v>
       </c>
       <c r="I32">
-        <v>5397.6</v>
+        <v>3373.2</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F36">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="G36">
         <v>52.47</v>
       </c>
       <c r="H36">
-        <v>3253.14</v>
+        <v>13589.73</v>
       </c>
       <c r="I36">
-        <v>3253.14</v>
+        <v>13589.73</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F37">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="G37">
-        <v>52.47</v>
+        <v>262.37</v>
       </c>
       <c r="H37">
-        <v>13589.73</v>
+        <v>52998.74</v>
       </c>
       <c r="I37">
-        <v>13589.73</v>
+        <v>52998.74</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>142</v>
       </c>
       <c r="F38">
-        <v>202</v>
+        <v>610</v>
       </c>
       <c r="G38">
-        <v>262.37</v>
+        <v>350.82</v>
       </c>
       <c r="H38">
-        <v>52998.74</v>
+        <v>214000.2</v>
       </c>
       <c r="I38">
-        <v>52998.74</v>
+        <v>214000.2</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2075,19 +2075,19 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F39">
-        <v>266</v>
+        <v>543</v>
       </c>
       <c r="G39">
-        <v>247.38</v>
+        <v>412.3</v>
       </c>
       <c r="H39">
-        <v>65803.08</v>
+        <v>223878.9</v>
       </c>
       <c r="I39">
-        <v>65803.08</v>
+        <v>223878.9</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F40">
-        <v>610</v>
+        <v>266</v>
       </c>
       <c r="G40">
-        <v>350.82</v>
+        <v>247.38</v>
       </c>
       <c r="H40">
-        <v>214000.2</v>
+        <v>65803.08</v>
       </c>
       <c r="I40">
-        <v>214000.2</v>
+        <v>65803.08</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2139,19 +2139,19 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F41">
-        <v>543</v>
+        <v>62</v>
       </c>
       <c r="G41">
-        <v>412.3</v>
+        <v>52.47</v>
       </c>
       <c r="H41">
-        <v>223878.9</v>
+        <v>3253.14</v>
       </c>
       <c r="I41">
-        <v>223878.9</v>
+        <v>3253.14</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2235,22 +2235,22 @@
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F44">
-        <v>1699</v>
+        <v>34</v>
       </c>
       <c r="G44">
-        <v>22.49</v>
+        <v>119.94</v>
       </c>
       <c r="H44">
-        <v>38210.51</v>
+        <v>4077.96</v>
       </c>
       <c r="I44">
-        <v>38120.55</v>
+        <v>4077.96</v>
       </c>
       <c r="J44">
-        <v>89.95999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2299,22 +2299,22 @@
         <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F46">
-        <v>34</v>
+        <v>1699</v>
       </c>
       <c r="G46">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="H46">
-        <v>4077.96</v>
+        <v>38210.51</v>
       </c>
       <c r="I46">
-        <v>4077.96</v>
+        <v>38120.55</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>89.95999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2427,19 +2427,19 @@
         <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>74.95999999999999</v>
+        <v>191.15</v>
       </c>
       <c r="H50">
-        <v>374.8</v>
+        <v>2102.65</v>
       </c>
       <c r="I50">
-        <v>374.8</v>
+        <v>2102.65</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -2523,22 +2523,22 @@
         <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="G53">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="H53">
-        <v>1124.45</v>
+        <v>374.8</v>
       </c>
       <c r="I53">
-        <v>224.89</v>
+        <v>374.8</v>
       </c>
       <c r="J53">
-        <v>899.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2555,22 +2555,22 @@
         <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F54">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>191.15</v>
+        <v>224.89</v>
       </c>
       <c r="H54">
-        <v>2102.65</v>
+        <v>1124.45</v>
       </c>
       <c r="I54">
-        <v>2102.65</v>
+        <v>224.89</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>899.5599999999999</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2651,19 +2651,19 @@
         <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F57">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="G57">
-        <v>22.64</v>
+        <v>266.12</v>
       </c>
       <c r="H57">
-        <v>2694.16</v>
+        <v>10910.92</v>
       </c>
       <c r="I57">
-        <v>2694.16</v>
+        <v>10910.92</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2683,19 +2683,19 @@
         <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F58">
-        <v>813</v>
+        <v>119</v>
       </c>
       <c r="G58">
-        <v>228.26</v>
+        <v>22.64</v>
       </c>
       <c r="H58">
-        <v>185575.38</v>
+        <v>2694.16</v>
       </c>
       <c r="I58">
-        <v>185575.38</v>
+        <v>2694.16</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>130</v>
       </c>
       <c r="F59">
-        <v>67</v>
+        <v>1145</v>
       </c>
       <c r="G59">
-        <v>51.12</v>
+        <v>35.68</v>
       </c>
       <c r="H59">
-        <v>3425.04</v>
+        <v>40853.6</v>
       </c>
       <c r="I59">
-        <v>3425.04</v>
+        <v>40853.6</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2747,19 +2747,19 @@
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F60">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G60">
-        <v>266.12</v>
+        <v>51.12</v>
       </c>
       <c r="H60">
-        <v>10910.92</v>
+        <v>3425.04</v>
       </c>
       <c r="I60">
-        <v>10910.92</v>
+        <v>3425.04</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2779,19 +2779,19 @@
         <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F61">
-        <v>1145</v>
+        <v>813</v>
       </c>
       <c r="G61">
-        <v>35.68</v>
+        <v>228.26</v>
       </c>
       <c r="H61">
-        <v>40853.6</v>
+        <v>185575.38</v>
       </c>
       <c r="I61">
-        <v>40853.6</v>
+        <v>185575.38</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3259,22 +3259,22 @@
         <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="F76">
-        <v>708</v>
+        <v>157</v>
       </c>
       <c r="G76">
-        <v>71.20999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="H76">
-        <v>50416.68</v>
+        <v>35307.73</v>
       </c>
       <c r="I76">
-        <v>47853.12</v>
+        <v>35307.73</v>
       </c>
       <c r="J76">
-        <v>2563.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3291,22 +3291,22 @@
         <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F77">
-        <v>160</v>
+        <v>1396</v>
       </c>
       <c r="G77">
-        <v>143.93</v>
+        <v>314.84</v>
       </c>
       <c r="H77">
-        <v>23028.8</v>
+        <v>439516.64</v>
       </c>
       <c r="I77">
-        <v>23028.8</v>
+        <v>419052.04</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>20464.6</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3323,22 +3323,22 @@
         <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F78">
-        <v>1253</v>
+        <v>708</v>
       </c>
       <c r="G78">
-        <v>104.95</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="H78">
-        <v>131502.35</v>
+        <v>50416.68</v>
       </c>
       <c r="I78">
-        <v>126464.75</v>
+        <v>47853.12</v>
       </c>
       <c r="J78">
-        <v>5037.6</v>
+        <v>2563.56</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3355,22 +3355,22 @@
         <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F79">
-        <v>1396</v>
+        <v>1253</v>
       </c>
       <c r="G79">
-        <v>314.84</v>
+        <v>104.95</v>
       </c>
       <c r="H79">
-        <v>439516.64</v>
+        <v>131502.35</v>
       </c>
       <c r="I79">
-        <v>419052.04</v>
+        <v>126464.75</v>
       </c>
       <c r="J79">
-        <v>20464.6</v>
+        <v>5037.6</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3387,19 +3387,19 @@
         <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="F80">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G80">
-        <v>224.89</v>
+        <v>143.93</v>
       </c>
       <c r="H80">
-        <v>35307.73</v>
+        <v>23028.8</v>
       </c>
       <c r="I80">
-        <v>35307.73</v>
+        <v>23028.8</v>
       </c>
       <c r="J80">
         <v>0</v>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,7 +31,16 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>YesterdaySalesQty</t>
+    <t>Sales Quantity</t>
+  </si>
+  <si>
+    <t>Sales Quantity %</t>
+  </si>
+  <si>
+    <t>Monthly Target</t>
+  </si>
+  <si>
+    <t>MTD Sales Target</t>
   </si>
   <si>
     <t>TP</t>
@@ -43,9 +52,15 @@
     <t>Net Sales Value</t>
   </si>
   <si>
+    <t>Net Sakes %</t>
+  </si>
+  <si>
     <t>Discount</t>
   </si>
   <si>
+    <t>LD Target Qty/Day</t>
+  </si>
+  <si>
     <t>Augment</t>
   </si>
   <si>
@@ -148,15 +163,15 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Augment 625 Tablet 18's</t>
   </si>
   <si>
@@ -169,75 +184,75 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 180mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 60mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 180mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet 40's</t>
-  </si>
-  <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
+    <t>Flucloxin 500mg IM/IV Injection</t>
+  </si>
+  <si>
+    <t>Flucloxin 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
-    <t>Flucloxin 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg IM/IV Injection</t>
+    <t>Ketonic 10mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet - 30's</t>
+    <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Levomax 750mg Tablet - 10's</t>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
     <t>Lindamax Plus 10gm Gel</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -247,28 +262,31 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox Plus 500mg Tablet - 36's</t>
+  </si>
+  <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
     <t>Naprox 250mg Tablet</t>
   </si>
   <si>
-    <t>Naprox Plus 500mg Tablet - 36's</t>
-  </si>
-  <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Naprox 15gm Gel</t>
+    <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
-    <t>Ontin 10mg Tablet</t>
+    <t>Oradin 60ml Suspension</t>
   </si>
   <si>
     <t>Oradin FT 10mg Tablet</t>
@@ -277,54 +295,51 @@
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
+    <t>Osticare Tablet 30's</t>
   </si>
   <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
-    <t>Osticare Tablet 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
     <t>Quinox 250mg Tablet</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
@@ -352,12 +367,12 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti Tablet</t>
+  </si>
+  <si>
     <t>Toti 100ml Syrup</t>
   </si>
   <si>
-    <t>Toti Tablet</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -367,15 +382,15 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 20ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 250mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 20ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
@@ -385,12 +400,12 @@
     <t>18's</t>
   </si>
   <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>1's</t>
   </si>
   <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -409,12 +424,12 @@
     <t>100 ml</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>50's</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
@@ -424,12 +439,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>20 's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -439,15 +454,15 @@
     <t>24's</t>
   </si>
   <si>
+    <t>36's</t>
+  </si>
+  <si>
+    <t>15 gm</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 50 's</t>
   </si>
   <si>
-    <t>36's</t>
-  </si>
-  <si>
-    <t>15 gm</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -472,16 +487,184 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>20ml</t>
+  </si>
+  <si>
     <t>12 's</t>
   </si>
   <si>
-    <t>20ml</t>
-  </si>
-  <si>
     <t>35ml</t>
   </si>
   <si>
     <t>50ml</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>10.29</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>11.62</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>2.03</t>
   </si>
 </sst>
 </file>
@@ -839,13 +1022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,2533 +1059,3733 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F2">
-        <v>91</v>
-      </c>
-      <c r="G2">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2">
+        <v>2133</v>
+      </c>
+      <c r="I2">
+        <v>1634</v>
+      </c>
+      <c r="J2">
         <v>269.87</v>
       </c>
-      <c r="H2">
-        <v>24558.17</v>
-      </c>
-      <c r="I2">
-        <v>24558.17</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>15382.59</v>
+      </c>
+      <c r="L2">
+        <v>15382.59</v>
+      </c>
+      <c r="M2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F3">
-        <v>338</v>
-      </c>
-      <c r="G3">
-        <v>206.15</v>
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
       </c>
       <c r="H3">
-        <v>69678.7</v>
+        <v>2133</v>
       </c>
       <c r="I3">
-        <v>69678.7</v>
+        <v>1632</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>269.87</v>
+      </c>
+      <c r="K3">
+        <v>22938.95</v>
+      </c>
+      <c r="L3">
+        <v>22938.95</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F4">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <v>269.87</v>
+        <v>217</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
       </c>
       <c r="H4">
-        <v>20240.25</v>
+        <v>10665</v>
       </c>
       <c r="I4">
-        <v>20240.25</v>
+        <v>4716</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>131.18</v>
+      </c>
+      <c r="K4">
+        <v>28466.06</v>
+      </c>
+      <c r="L4">
+        <v>28466.06</v>
+      </c>
+      <c r="M4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F5">
-        <v>213</v>
-      </c>
-      <c r="G5">
-        <v>131.18</v>
+        <v>306</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
       </c>
       <c r="H5">
-        <v>27941.34</v>
+        <v>2126</v>
       </c>
       <c r="I5">
-        <v>27941.34</v>
+        <v>5590</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>206.15</v>
+      </c>
+      <c r="K5">
+        <v>63081.9</v>
+      </c>
+      <c r="L5">
+        <v>63081.9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F6">
-        <v>351</v>
-      </c>
-      <c r="G6">
+        <v>362</v>
+      </c>
+      <c r="G6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6">
+        <v>13331</v>
+      </c>
+      <c r="I6">
+        <v>7232</v>
+      </c>
+      <c r="J6">
         <v>337.33</v>
       </c>
-      <c r="H6">
-        <v>118402.83</v>
-      </c>
-      <c r="I6">
-        <v>118402.83</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>122113.46</v>
+      </c>
+      <c r="L6">
+        <v>122113.46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F7">
-        <v>1800</v>
-      </c>
-      <c r="G7">
+        <v>1826</v>
+      </c>
+      <c r="G7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7">
+        <v>58000</v>
+      </c>
+      <c r="I7">
+        <v>41293</v>
+      </c>
+      <c r="J7">
         <v>224.89</v>
       </c>
-      <c r="H7">
-        <v>404802</v>
-      </c>
-      <c r="I7">
-        <v>404802</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>410649.14</v>
+      </c>
+      <c r="L7">
+        <v>410649.14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>136</v>
+      </c>
+      <c r="J8">
         <v>239.88</v>
       </c>
-      <c r="H8">
-        <v>1679.16</v>
-      </c>
-      <c r="I8">
-        <v>1679.16</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>239.88</v>
+      </c>
+      <c r="L8">
+        <v>239.88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>684</v>
+      </c>
+      <c r="J9">
         <v>112.45</v>
       </c>
-      <c r="H9">
-        <v>899.6</v>
-      </c>
-      <c r="I9">
-        <v>899.6</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>6409.65</v>
+      </c>
+      <c r="L9">
+        <v>6409.65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F10">
-        <v>83</v>
-      </c>
-      <c r="G10">
-        <v>104.95</v>
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>169</v>
       </c>
       <c r="H10">
-        <v>8710.85</v>
+        <v>2269</v>
       </c>
       <c r="I10">
-        <v>8710.85</v>
+        <v>2072</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>299.85</v>
+      </c>
+      <c r="K10">
+        <v>32983.5</v>
+      </c>
+      <c r="L10">
+        <v>32983.5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F11">
-        <v>99</v>
-      </c>
-      <c r="G11">
-        <v>299.85</v>
+        <v>612</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
       </c>
       <c r="H11">
-        <v>29685.15</v>
+        <v>15462</v>
       </c>
       <c r="I11">
-        <v>29685.15</v>
+        <v>13321</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>239.88</v>
+      </c>
+      <c r="K11">
+        <v>146806.56</v>
+      </c>
+      <c r="L11">
+        <v>146806.56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F12">
-        <v>606</v>
-      </c>
-      <c r="G12">
-        <v>239.88</v>
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
       </c>
       <c r="H12">
-        <v>145367.28</v>
+        <v>1808</v>
       </c>
       <c r="I12">
-        <v>145367.28</v>
+        <v>1832</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>104.95</v>
+      </c>
+      <c r="K12">
+        <v>6926.7</v>
+      </c>
+      <c r="L12">
+        <v>6926.7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>1562</v>
-      </c>
-      <c r="G13">
+        <v>1559</v>
+      </c>
+      <c r="G13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13">
+        <v>53320</v>
+      </c>
+      <c r="I13">
+        <v>32040</v>
+      </c>
+      <c r="J13">
         <v>35.98</v>
       </c>
-      <c r="H13">
-        <v>56200.76</v>
-      </c>
-      <c r="I13">
-        <v>56200.76</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>56092.82</v>
+      </c>
+      <c r="L13">
+        <v>56092.82</v>
+      </c>
+      <c r="M13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F14">
-        <v>1064</v>
-      </c>
-      <c r="G14">
+        <v>1199</v>
+      </c>
+      <c r="G14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14">
+        <v>31991</v>
+      </c>
+      <c r="I14">
+        <v>25209</v>
+      </c>
+      <c r="J14">
         <v>29.99</v>
       </c>
-      <c r="H14">
-        <v>31909.36</v>
-      </c>
-      <c r="I14">
-        <v>31909.36</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>35958.01</v>
+      </c>
+      <c r="L14">
+        <v>35958.01</v>
+      </c>
+      <c r="M14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F15">
-        <v>873</v>
-      </c>
-      <c r="G15">
-        <v>262.37</v>
+        <v>2313</v>
+      </c>
+      <c r="G15" t="s">
+        <v>174</v>
       </c>
       <c r="H15">
-        <v>229049.01</v>
+        <v>85749</v>
       </c>
       <c r="I15">
-        <v>229049.01</v>
+        <v>52662</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>314.84</v>
+      </c>
+      <c r="K15">
+        <v>728224.92</v>
+      </c>
+      <c r="L15">
+        <v>728224.92</v>
+      </c>
+      <c r="M15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16">
-        <v>1911</v>
-      </c>
-      <c r="G16">
-        <v>314.84</v>
+        <v>2033</v>
+      </c>
+      <c r="G16" t="s">
+        <v>175</v>
       </c>
       <c r="H16">
-        <v>601659.24</v>
+        <v>85502</v>
       </c>
       <c r="I16">
-        <v>601659.24</v>
+        <v>49987</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>359.82</v>
+      </c>
+      <c r="K16">
+        <v>731514.0600000001</v>
+      </c>
+      <c r="L16">
+        <v>731514.0600000001</v>
+      </c>
+      <c r="M16" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F17">
-        <v>1889</v>
-      </c>
-      <c r="G17">
-        <v>359.82</v>
+        <v>936</v>
+      </c>
+      <c r="G17" t="s">
+        <v>176</v>
       </c>
       <c r="H17">
-        <v>679699.98</v>
+        <v>43180</v>
       </c>
       <c r="I17">
-        <v>679699.98</v>
+        <v>23025</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>262.37</v>
+      </c>
+      <c r="K17">
+        <v>245578.32</v>
+      </c>
+      <c r="L17">
+        <v>245578.32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>176</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F18">
         <v>57</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18">
+        <v>1662</v>
+      </c>
+      <c r="I18">
+        <v>931</v>
+      </c>
+      <c r="J18">
         <v>168.67</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>9614.190000000001</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>9614.190000000001</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="M18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F19">
-        <v>79</v>
-      </c>
-      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19">
+        <v>4266</v>
+      </c>
+      <c r="I19">
+        <v>2295</v>
+      </c>
+      <c r="J19">
         <v>179.91</v>
       </c>
-      <c r="H19">
-        <v>14212.89</v>
-      </c>
-      <c r="I19">
-        <v>14212.89</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>17991</v>
+      </c>
+      <c r="L19">
+        <v>17991</v>
+      </c>
+      <c r="M19" t="s">
+        <v>178</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20">
-        <v>4133</v>
-      </c>
-      <c r="G20">
-        <v>45.73</v>
+        <v>867</v>
+      </c>
+      <c r="G20" t="s">
+        <v>163</v>
       </c>
       <c r="H20">
-        <v>189002.09</v>
+        <v>15997</v>
       </c>
       <c r="I20">
-        <v>162250.04</v>
+        <v>10576</v>
       </c>
       <c r="J20">
-        <v>26752.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>33.94</v>
+      </c>
+      <c r="K20">
+        <v>29425.98</v>
+      </c>
+      <c r="L20">
+        <v>29425.98</v>
+      </c>
+      <c r="M20" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F21">
-        <v>2487</v>
-      </c>
-      <c r="G21">
-        <v>314.84</v>
+        <v>283</v>
+      </c>
+      <c r="G21" t="s">
+        <v>179</v>
       </c>
       <c r="H21">
-        <v>783007.08</v>
+        <v>10131</v>
       </c>
       <c r="I21">
-        <v>734836.5600000001</v>
+        <v>6609</v>
       </c>
       <c r="J21">
-        <v>48170.52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>432.53</v>
+      </c>
+      <c r="K21">
+        <v>122405.99</v>
+      </c>
+      <c r="L21">
+        <v>122405.99</v>
+      </c>
+      <c r="M21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22">
-        <v>254</v>
-      </c>
-      <c r="G22">
-        <v>432.53</v>
+        <v>2778</v>
+      </c>
+      <c r="G22" t="s">
+        <v>180</v>
       </c>
       <c r="H22">
-        <v>109862.62</v>
+        <v>95981</v>
       </c>
       <c r="I22">
-        <v>109862.62</v>
+        <v>61757</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>314.84</v>
+      </c>
+      <c r="K22">
+        <v>874625.52</v>
+      </c>
+      <c r="L22">
+        <v>825825.3199999999</v>
+      </c>
+      <c r="M22" t="s">
+        <v>180</v>
+      </c>
+      <c r="N22">
+        <v>48800.2</v>
+      </c>
+      <c r="O22">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F23">
-        <v>335</v>
-      </c>
-      <c r="G23">
-        <v>33.94</v>
+        <v>4678</v>
+      </c>
+      <c r="G23" t="s">
+        <v>181</v>
       </c>
       <c r="H23">
-        <v>11369.9</v>
+        <v>143972</v>
       </c>
       <c r="I23">
-        <v>11369.9</v>
+        <v>108882</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>45.73</v>
+      </c>
+      <c r="K23">
+        <v>213924.94</v>
+      </c>
+      <c r="L23">
+        <v>184520.55</v>
+      </c>
+      <c r="M23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23">
+        <v>29404.39</v>
+      </c>
+      <c r="O23">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F24">
-        <v>1134</v>
-      </c>
-      <c r="G24">
-        <v>22.83</v>
+        <v>250</v>
+      </c>
+      <c r="G24" t="s">
+        <v>182</v>
       </c>
       <c r="H24">
-        <v>25889.22</v>
+        <v>4266</v>
       </c>
       <c r="I24">
-        <v>25889.22</v>
+        <v>3510</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>224.89</v>
+      </c>
+      <c r="K24">
+        <v>56222.5</v>
+      </c>
+      <c r="L24">
+        <v>56222.5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>182</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F25">
-        <v>391</v>
-      </c>
-      <c r="G25">
+        <v>1393</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25">
+        <v>34775</v>
+      </c>
+      <c r="I25">
+        <v>20943</v>
+      </c>
+      <c r="J25">
         <v>37.61</v>
       </c>
-      <c r="H25">
-        <v>14705.51</v>
-      </c>
-      <c r="I25">
-        <v>14705.51</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>52390.73</v>
+      </c>
+      <c r="L25">
+        <v>52390.73</v>
+      </c>
+      <c r="M25" t="s">
+        <v>170</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F26">
-        <v>159</v>
-      </c>
-      <c r="G26">
-        <v>224.89</v>
+        <v>1664</v>
+      </c>
+      <c r="G26" t="s">
+        <v>183</v>
       </c>
       <c r="H26">
-        <v>35757.51</v>
+        <v>55456</v>
       </c>
       <c r="I26">
-        <v>35757.51</v>
+        <v>33082</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>22.83</v>
+      </c>
+      <c r="K26">
+        <v>37989.12</v>
+      </c>
+      <c r="L26">
+        <v>37989.12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>183</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F27">
-        <v>53</v>
-      </c>
-      <c r="G27">
-        <v>224.89</v>
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
       </c>
       <c r="H27">
-        <v>11919.17</v>
+        <v>128</v>
       </c>
       <c r="I27">
-        <v>11919.17</v>
+        <v>73</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>149.93</v>
+      </c>
+      <c r="K27">
+        <v>599.72</v>
+      </c>
+      <c r="L27">
+        <v>599.72</v>
+      </c>
+      <c r="M27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>149.93</v>
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>185</v>
       </c>
       <c r="H28">
-        <v>299.86</v>
+        <v>2686</v>
       </c>
       <c r="I28">
-        <v>299.86</v>
+        <v>1440</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>224.89</v>
+      </c>
+      <c r="K28">
+        <v>10344.94</v>
+      </c>
+      <c r="L28">
+        <v>10344.94</v>
+      </c>
+      <c r="M28" t="s">
+        <v>185</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F29">
-        <v>6</v>
-      </c>
-      <c r="G29">
-        <v>179.91</v>
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>184</v>
       </c>
       <c r="H29">
-        <v>1079.46</v>
+        <v>1815</v>
       </c>
       <c r="I29">
-        <v>1079.46</v>
+        <v>1201</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>337.33</v>
+      </c>
+      <c r="K29">
+        <v>19902.47</v>
+      </c>
+      <c r="L29">
+        <v>19902.47</v>
+      </c>
+      <c r="M29" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F30">
-        <v>53</v>
-      </c>
-      <c r="G30">
-        <v>337.33</v>
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>186</v>
       </c>
       <c r="H30">
-        <v>17878.49</v>
+        <v>1632</v>
       </c>
       <c r="I30">
-        <v>17878.49</v>
+        <v>1032</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>93.7</v>
+      </c>
+      <c r="K30">
+        <v>5247.2</v>
+      </c>
+      <c r="L30">
+        <v>5247.2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31">
-        <v>60</v>
-      </c>
-      <c r="G31">
-        <v>89.95999999999999</v>
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>186</v>
       </c>
       <c r="H31">
-        <v>5397.6</v>
+        <v>380</v>
       </c>
       <c r="I31">
-        <v>5397.6</v>
+        <v>163</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>179.91</v>
+      </c>
+      <c r="K31">
+        <v>719.64</v>
+      </c>
+      <c r="L31">
+        <v>719.64</v>
+      </c>
+      <c r="M31" t="s">
+        <v>186</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F32">
-        <v>36</v>
-      </c>
-      <c r="G32">
-        <v>93.7</v>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>187</v>
       </c>
       <c r="H32">
-        <v>3373.2</v>
+        <v>1972</v>
       </c>
       <c r="I32">
-        <v>3373.2</v>
+        <v>1539</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="K32">
+        <v>4677.92</v>
+      </c>
+      <c r="L32">
+        <v>4677.92</v>
+      </c>
+      <c r="M32" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F33">
-        <v>12</v>
-      </c>
-      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33">
+        <v>537</v>
+      </c>
+      <c r="I33">
+        <v>432</v>
+      </c>
+      <c r="J33">
         <v>449.78</v>
       </c>
-      <c r="H33">
-        <v>5397.36</v>
-      </c>
-      <c r="I33">
-        <v>5397.36</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>4947.58</v>
+      </c>
+      <c r="L33">
+        <v>4947.58</v>
+      </c>
+      <c r="M33" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F34">
-        <v>119</v>
-      </c>
-      <c r="G34">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34">
+        <v>5858</v>
+      </c>
+      <c r="I34">
+        <v>2753</v>
+      </c>
+      <c r="J34">
         <v>395.8</v>
       </c>
-      <c r="H34">
-        <v>47100.2</v>
-      </c>
-      <c r="I34">
-        <v>47100.2</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>43142.2</v>
+      </c>
+      <c r="L34">
+        <v>43142.2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F35">
-        <v>823</v>
-      </c>
-      <c r="G35">
+        <v>838</v>
+      </c>
+      <c r="G35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35">
+        <v>33060</v>
+      </c>
+      <c r="I35">
+        <v>21119</v>
+      </c>
+      <c r="J35">
         <v>337.33</v>
       </c>
-      <c r="H35">
-        <v>277622.59</v>
-      </c>
-      <c r="I35">
-        <v>277622.59</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>282682.54</v>
+      </c>
+      <c r="L35">
+        <v>282682.54</v>
+      </c>
+      <c r="M35" t="s">
+        <v>189</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F36">
-        <v>259</v>
-      </c>
-      <c r="G36">
-        <v>52.47</v>
+        <v>652</v>
+      </c>
+      <c r="G36" t="s">
+        <v>190</v>
       </c>
       <c r="H36">
-        <v>13589.73</v>
+        <v>27728</v>
       </c>
       <c r="I36">
-        <v>13589.73</v>
+        <v>14796</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>350.82</v>
+      </c>
+      <c r="K36">
+        <v>228734.64</v>
+      </c>
+      <c r="L36">
+        <v>228734.64</v>
+      </c>
+      <c r="M36" t="s">
+        <v>190</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F37">
-        <v>202</v>
-      </c>
-      <c r="G37">
-        <v>262.37</v>
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>191</v>
       </c>
       <c r="H37">
-        <v>52998.74</v>
+        <v>1065</v>
       </c>
       <c r="I37">
-        <v>52998.74</v>
+        <v>1223</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>52.47</v>
+      </c>
+      <c r="K37">
+        <v>3672.9</v>
+      </c>
+      <c r="L37">
+        <v>3672.9</v>
+      </c>
+      <c r="M37" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F38">
-        <v>610</v>
-      </c>
-      <c r="G38">
-        <v>350.82</v>
+        <v>668</v>
+      </c>
+      <c r="G38" t="s">
+        <v>192</v>
       </c>
       <c r="H38">
-        <v>214000.2</v>
+        <v>20263</v>
       </c>
       <c r="I38">
-        <v>214000.2</v>
+        <v>13222</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>412.3</v>
+      </c>
+      <c r="K38">
+        <v>275416.4</v>
+      </c>
+      <c r="L38">
+        <v>275416.4</v>
+      </c>
+      <c r="M38" t="s">
+        <v>192</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F39">
-        <v>543</v>
-      </c>
-      <c r="G39">
-        <v>412.3</v>
+        <v>276</v>
+      </c>
+      <c r="G39" t="s">
+        <v>193</v>
       </c>
       <c r="H39">
-        <v>223878.9</v>
+        <v>10665</v>
       </c>
       <c r="I39">
-        <v>223878.9</v>
+        <v>6130</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>247.38</v>
+      </c>
+      <c r="K39">
+        <v>68276.88</v>
+      </c>
+      <c r="L39">
+        <v>68276.88</v>
+      </c>
+      <c r="M39" t="s">
+        <v>193</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F40">
-        <v>266</v>
-      </c>
-      <c r="G40">
-        <v>247.38</v>
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>194</v>
       </c>
       <c r="H40">
-        <v>65803.08</v>
+        <v>8531</v>
       </c>
       <c r="I40">
-        <v>65803.08</v>
+        <v>6539</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>52.47</v>
+      </c>
+      <c r="K40">
+        <v>16947.81</v>
+      </c>
+      <c r="L40">
+        <v>16947.81</v>
+      </c>
+      <c r="M40" t="s">
+        <v>194</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F41">
-        <v>62</v>
-      </c>
-      <c r="G41">
-        <v>52.47</v>
+        <v>189</v>
+      </c>
+      <c r="G41" t="s">
+        <v>195</v>
       </c>
       <c r="H41">
-        <v>3253.14</v>
+        <v>7464</v>
       </c>
       <c r="I41">
-        <v>3253.14</v>
+        <v>5042</v>
       </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>262.37</v>
+      </c>
+      <c r="K41">
+        <v>49587.93</v>
+      </c>
+      <c r="L41">
+        <v>49587.93</v>
+      </c>
+      <c r="M41" t="s">
+        <v>195</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F42">
-        <v>232</v>
-      </c>
-      <c r="G42">
-        <v>22.49</v>
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>196</v>
       </c>
       <c r="H42">
-        <v>5217.68</v>
+        <v>1288</v>
       </c>
       <c r="I42">
-        <v>5217.68</v>
+        <v>1027</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>224.89</v>
+      </c>
+      <c r="K42">
+        <v>16866.75</v>
+      </c>
+      <c r="L42">
+        <v>16866.75</v>
+      </c>
+      <c r="M42" t="s">
+        <v>196</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F43">
-        <v>21</v>
-      </c>
-      <c r="G43">
-        <v>224.89</v>
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>195</v>
       </c>
       <c r="H43">
-        <v>4722.69</v>
+        <v>14596</v>
       </c>
       <c r="I43">
-        <v>4722.69</v>
+        <v>7642</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>22.49</v>
+      </c>
+      <c r="K43">
+        <v>7826.52</v>
+      </c>
+      <c r="L43">
+        <v>7826.52</v>
+      </c>
+      <c r="M43" t="s">
+        <v>195</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F44">
-        <v>34</v>
-      </c>
-      <c r="G44">
-        <v>119.94</v>
+        <v>1248</v>
+      </c>
+      <c r="G44" t="s">
+        <v>197</v>
       </c>
       <c r="H44">
-        <v>4077.96</v>
+        <v>58654</v>
       </c>
       <c r="I44">
-        <v>4077.96</v>
+        <v>34095</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>22.49</v>
+      </c>
+      <c r="K44">
+        <v>28067.52</v>
+      </c>
+      <c r="L44">
+        <v>27977.56</v>
+      </c>
+      <c r="M44" t="s">
+        <v>197</v>
+      </c>
+      <c r="N44">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="O44">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F45">
-        <v>985</v>
-      </c>
-      <c r="G45">
-        <v>299.85</v>
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>198</v>
       </c>
       <c r="H45">
-        <v>295352.25</v>
+        <v>825</v>
       </c>
       <c r="I45">
-        <v>295352.25</v>
+        <v>800</v>
       </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>119.94</v>
+      </c>
+      <c r="K45">
+        <v>3118.44</v>
+      </c>
+      <c r="L45">
+        <v>3118.44</v>
+      </c>
+      <c r="M45" t="s">
+        <v>198</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F46">
-        <v>1699</v>
-      </c>
-      <c r="G46">
-        <v>22.49</v>
+        <v>944</v>
+      </c>
+      <c r="G46" t="s">
+        <v>188</v>
       </c>
       <c r="H46">
-        <v>38210.51</v>
+        <v>36473</v>
       </c>
       <c r="I46">
-        <v>38120.55</v>
+        <v>24968</v>
       </c>
       <c r="J46">
-        <v>89.95999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>299.85</v>
+      </c>
+      <c r="K46">
+        <v>283058.4</v>
+      </c>
+      <c r="L46">
+        <v>283058.4</v>
+      </c>
+      <c r="M46" t="s">
+        <v>188</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F47">
-        <v>24</v>
-      </c>
-      <c r="G47">
+        <v>361</v>
+      </c>
+      <c r="G47" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47">
+        <v>14930</v>
+      </c>
+      <c r="I47">
+        <v>6963</v>
+      </c>
+      <c r="J47">
         <v>269.87</v>
       </c>
-      <c r="H47">
-        <v>6476.88</v>
-      </c>
-      <c r="I47">
-        <v>6476.88</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>97423.07000000001</v>
+      </c>
+      <c r="L47">
+        <v>97423.07000000001</v>
+      </c>
+      <c r="M47" t="s">
+        <v>199</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F48">
-        <v>279</v>
-      </c>
-      <c r="G48">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>177</v>
+      </c>
+      <c r="H48">
+        <v>2262</v>
+      </c>
+      <c r="I48">
+        <v>749</v>
+      </c>
+      <c r="J48">
         <v>269.87</v>
       </c>
-      <c r="H48">
-        <v>75293.73</v>
-      </c>
-      <c r="I48">
-        <v>75293.73</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>9715.32</v>
+      </c>
+      <c r="L48">
+        <v>9715.32</v>
+      </c>
+      <c r="M48" t="s">
+        <v>177</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F49">
-        <v>81</v>
-      </c>
-      <c r="G49">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>200</v>
+      </c>
+      <c r="H49">
+        <v>2713</v>
+      </c>
+      <c r="I49">
+        <v>2181</v>
+      </c>
+      <c r="J49">
         <v>299.85</v>
       </c>
-      <c r="H49">
-        <v>24287.85</v>
-      </c>
-      <c r="I49">
-        <v>24287.85</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>38680.65</v>
+      </c>
+      <c r="L49">
+        <v>38680.65</v>
+      </c>
+      <c r="M49" t="s">
+        <v>200</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F50">
-        <v>11</v>
-      </c>
-      <c r="G50">
-        <v>191.15</v>
+        <v>1585</v>
+      </c>
+      <c r="G50" t="s">
+        <v>198</v>
       </c>
       <c r="H50">
-        <v>2102.65</v>
+        <v>41591</v>
       </c>
       <c r="I50">
-        <v>2102.65</v>
+        <v>29569</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>74.95999999999999</v>
+      </c>
+      <c r="K50">
+        <v>118811.6</v>
+      </c>
+      <c r="L50">
+        <v>106218.32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>198</v>
+      </c>
+      <c r="N50">
+        <v>12593.28</v>
+      </c>
+      <c r="O50">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F51">
-        <v>5</v>
-      </c>
-      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H51">
+        <v>424</v>
+      </c>
+      <c r="I51">
+        <v>163</v>
+      </c>
+      <c r="J51">
         <v>134.93</v>
       </c>
-      <c r="H51">
-        <v>674.65</v>
-      </c>
-      <c r="I51">
-        <v>674.65</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>404.79</v>
+      </c>
+      <c r="L51">
+        <v>404.79</v>
+      </c>
+      <c r="M51" t="s">
+        <v>167</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F52">
-        <v>1336</v>
-      </c>
-      <c r="G52">
-        <v>74.95999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>184</v>
       </c>
       <c r="H52">
-        <v>100146.56</v>
+        <v>957</v>
       </c>
       <c r="I52">
-        <v>89502.24000000001</v>
+        <v>679</v>
       </c>
       <c r="J52">
-        <v>10644.32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>224.89</v>
+      </c>
+      <c r="K52">
+        <v>2248.9</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>184</v>
+      </c>
+      <c r="N52">
+        <v>2248.9</v>
+      </c>
+      <c r="O52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F53">
-        <v>5</v>
-      </c>
-      <c r="G53">
-        <v>74.95999999999999</v>
+        <v>212</v>
+      </c>
+      <c r="G53" t="s">
+        <v>184</v>
       </c>
       <c r="H53">
-        <v>374.8</v>
+        <v>13059</v>
       </c>
       <c r="I53">
-        <v>374.8</v>
+        <v>5474</v>
       </c>
       <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>449.78</v>
+      </c>
+      <c r="K53">
+        <v>95353.36</v>
+      </c>
+      <c r="L53">
+        <v>89056.44</v>
+      </c>
+      <c r="M53" t="s">
+        <v>184</v>
+      </c>
+      <c r="N53">
+        <v>6296.92</v>
+      </c>
+      <c r="O53">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F54">
-        <v>5</v>
-      </c>
-      <c r="G54">
-        <v>224.89</v>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>201</v>
       </c>
       <c r="H54">
-        <v>1124.45</v>
+        <v>536</v>
       </c>
       <c r="I54">
-        <v>224.89</v>
+        <v>196</v>
       </c>
       <c r="J54">
-        <v>899.5599999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>74.95999999999999</v>
+      </c>
+      <c r="K54">
+        <v>1049.44</v>
+      </c>
+      <c r="L54">
+        <v>1049.44</v>
+      </c>
+      <c r="M54" t="s">
+        <v>201</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F55">
-        <v>214</v>
-      </c>
-      <c r="G55">
-        <v>449.78</v>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>202</v>
       </c>
       <c r="H55">
-        <v>96252.92</v>
+        <v>536</v>
       </c>
       <c r="I55">
-        <v>88156.88</v>
+        <v>296</v>
       </c>
       <c r="J55">
-        <v>8096.04</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>191.15</v>
+      </c>
+      <c r="K55">
+        <v>2676.1</v>
+      </c>
+      <c r="L55">
+        <v>2676.1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>202</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F56">
-        <v>99</v>
-      </c>
-      <c r="G56">
+        <v>110</v>
+      </c>
+      <c r="G56" t="s">
+        <v>203</v>
+      </c>
+      <c r="H56">
+        <v>5332</v>
+      </c>
+      <c r="I56">
+        <v>2533</v>
+      </c>
+      <c r="J56">
         <v>224.89</v>
       </c>
-      <c r="H56">
-        <v>22264.11</v>
-      </c>
-      <c r="I56">
-        <v>22264.11</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>24737.9</v>
+      </c>
+      <c r="L56">
+        <v>24737.9</v>
+      </c>
+      <c r="M56" t="s">
+        <v>203</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F57">
-        <v>41</v>
-      </c>
-      <c r="G57">
-        <v>266.12</v>
+        <v>791</v>
+      </c>
+      <c r="G57" t="s">
+        <v>204</v>
       </c>
       <c r="H57">
-        <v>10910.92</v>
+        <v>34128</v>
       </c>
       <c r="I57">
-        <v>10910.92</v>
+        <v>19796</v>
       </c>
       <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>35.68</v>
+      </c>
+      <c r="K57">
+        <v>28222.88</v>
+      </c>
+      <c r="L57">
+        <v>28222.88</v>
+      </c>
+      <c r="M57" t="s">
+        <v>204</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F58">
-        <v>119</v>
-      </c>
-      <c r="G58">
-        <v>22.64</v>
+        <v>1041</v>
+      </c>
+      <c r="G58" t="s">
+        <v>184</v>
       </c>
       <c r="H58">
-        <v>2694.16</v>
+        <v>35193</v>
       </c>
       <c r="I58">
-        <v>2694.16</v>
+        <v>20743</v>
       </c>
       <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>228.26</v>
+      </c>
+      <c r="K58">
+        <v>237618.66</v>
+      </c>
+      <c r="L58">
+        <v>237618.66</v>
+      </c>
+      <c r="M58" t="s">
+        <v>184</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F59">
-        <v>1145</v>
-      </c>
-      <c r="G59">
-        <v>35.68</v>
+        <v>113</v>
+      </c>
+      <c r="G59" t="s">
+        <v>161</v>
       </c>
       <c r="H59">
-        <v>40853.6</v>
+        <v>1921</v>
       </c>
       <c r="I59">
-        <v>40853.6</v>
+        <v>3107</v>
       </c>
       <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>22.64</v>
+      </c>
+      <c r="K59">
+        <v>2558.32</v>
+      </c>
+      <c r="L59">
+        <v>2558.32</v>
+      </c>
+      <c r="M59" t="s">
+        <v>161</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F60">
-        <v>67</v>
-      </c>
-      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60">
+        <v>2104</v>
+      </c>
+      <c r="I60">
+        <v>1147</v>
+      </c>
+      <c r="J60">
         <v>51.12</v>
       </c>
-      <c r="H60">
-        <v>3425.04</v>
-      </c>
-      <c r="I60">
-        <v>3425.04</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>357.84</v>
+      </c>
+      <c r="L60">
+        <v>357.84</v>
+      </c>
+      <c r="M60" t="s">
+        <v>198</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F61">
-        <v>813</v>
-      </c>
-      <c r="G61">
-        <v>228.26</v>
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
+        <v>205</v>
       </c>
       <c r="H61">
-        <v>185575.38</v>
+        <v>1289</v>
       </c>
       <c r="I61">
-        <v>185575.38</v>
+        <v>1098</v>
       </c>
       <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>266.12</v>
+      </c>
+      <c r="K61">
+        <v>14104.36</v>
+      </c>
+      <c r="L61">
+        <v>14104.36</v>
+      </c>
+      <c r="M61" t="s">
+        <v>205</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F62">
-        <v>17</v>
-      </c>
-      <c r="G62">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62">
+        <v>1906</v>
+      </c>
+      <c r="I62">
+        <v>814</v>
+      </c>
+      <c r="J62">
         <v>44.98</v>
       </c>
-      <c r="H62">
-        <v>764.66</v>
-      </c>
-      <c r="I62">
-        <v>764.66</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>1484.34</v>
+      </c>
+      <c r="L62">
+        <v>1484.34</v>
+      </c>
+      <c r="M62" t="s">
+        <v>206</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F63">
-        <v>136</v>
-      </c>
-      <c r="G63">
+        <v>134</v>
+      </c>
+      <c r="G63" t="s">
+        <v>207</v>
+      </c>
+      <c r="H63">
+        <v>7560</v>
+      </c>
+      <c r="I63">
+        <v>3582</v>
+      </c>
+      <c r="J63">
         <v>179.91</v>
       </c>
-      <c r="H63">
-        <v>24467.76</v>
-      </c>
-      <c r="I63">
-        <v>24467.76</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>24107.94</v>
+      </c>
+      <c r="L63">
+        <v>24107.94</v>
+      </c>
+      <c r="M63" t="s">
+        <v>207</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F64">
-        <v>215</v>
-      </c>
-      <c r="G64">
+        <v>202</v>
+      </c>
+      <c r="G64" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64">
+        <v>8534</v>
+      </c>
+      <c r="I64">
+        <v>5011</v>
+      </c>
+      <c r="J64">
         <v>142.43</v>
       </c>
-      <c r="H64">
-        <v>30622.45</v>
-      </c>
-      <c r="I64">
-        <v>30622.45</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>28770.86</v>
+      </c>
+      <c r="L64">
+        <v>28770.86</v>
+      </c>
+      <c r="M64" t="s">
+        <v>161</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F65">
-        <v>77</v>
-      </c>
-      <c r="G65">
+        <v>47</v>
+      </c>
+      <c r="G65" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65">
+        <v>1830</v>
+      </c>
+      <c r="I65">
+        <v>1419</v>
+      </c>
+      <c r="J65">
         <v>187.41</v>
       </c>
-      <c r="H65">
-        <v>14430.57</v>
-      </c>
-      <c r="I65">
-        <v>14430.57</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>8808.27</v>
+      </c>
+      <c r="L65">
+        <v>8808.27</v>
+      </c>
+      <c r="M65" t="s">
+        <v>208</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F66">
-        <v>62</v>
-      </c>
-      <c r="G66">
+        <v>95</v>
+      </c>
+      <c r="G66" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66">
+        <v>3564</v>
+      </c>
+      <c r="I66">
+        <v>1640</v>
+      </c>
+      <c r="J66">
         <v>179.91</v>
       </c>
-      <c r="H66">
-        <v>11154.42</v>
-      </c>
-      <c r="I66">
-        <v>11154.42</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>17091.45</v>
+      </c>
+      <c r="L66">
+        <v>17091.45</v>
+      </c>
+      <c r="M66" t="s">
+        <v>195</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F67">
-        <v>107</v>
-      </c>
-      <c r="G67">
+        <v>106</v>
+      </c>
+      <c r="G67" t="s">
+        <v>189</v>
+      </c>
+      <c r="H67">
+        <v>2285</v>
+      </c>
+      <c r="I67">
+        <v>2585</v>
+      </c>
+      <c r="J67">
         <v>56.22</v>
       </c>
-      <c r="H67">
-        <v>6015.54</v>
-      </c>
-      <c r="I67">
-        <v>6015.54</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>5959.32</v>
+      </c>
+      <c r="L67">
+        <v>5959.32</v>
+      </c>
+      <c r="M67" t="s">
+        <v>189</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F68">
-        <v>243</v>
-      </c>
-      <c r="G68">
+        <v>287</v>
+      </c>
+      <c r="G68" t="s">
+        <v>209</v>
+      </c>
+      <c r="H68">
+        <v>9595</v>
+      </c>
+      <c r="I68">
+        <v>6733</v>
+      </c>
+      <c r="J68">
         <v>149.93</v>
       </c>
-      <c r="H68">
-        <v>36432.99</v>
-      </c>
-      <c r="I68">
-        <v>36432.99</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>43029.91</v>
+      </c>
+      <c r="L68">
+        <v>43029.91</v>
+      </c>
+      <c r="M68" t="s">
+        <v>209</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F69">
         <v>286</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69">
+        <v>11731</v>
+      </c>
+      <c r="I69">
+        <v>6375</v>
+      </c>
+      <c r="J69">
         <v>359.82</v>
       </c>
-      <c r="H69">
+      <c r="K69">
         <v>102908.52</v>
       </c>
-      <c r="I69">
+      <c r="L69">
         <v>102908.52</v>
       </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="M69" t="s">
+        <v>210</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F70">
-        <v>27</v>
-      </c>
-      <c r="G70">
+        <v>63</v>
+      </c>
+      <c r="G70" t="s">
+        <v>208</v>
+      </c>
+      <c r="H70">
+        <v>521</v>
+      </c>
+      <c r="I70">
+        <v>693</v>
+      </c>
+      <c r="J70">
         <v>134.93</v>
       </c>
-      <c r="H70">
-        <v>3643.11</v>
-      </c>
-      <c r="I70">
-        <v>3643.11</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>8500.59</v>
+      </c>
+      <c r="L70">
+        <v>8500.59</v>
+      </c>
+      <c r="M70" t="s">
+        <v>208</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F71">
-        <v>1620</v>
-      </c>
-      <c r="G71">
-        <v>41.23</v>
+        <v>158</v>
+      </c>
+      <c r="G71" t="s">
+        <v>211</v>
       </c>
       <c r="H71">
-        <v>66792.60000000001</v>
+        <v>4555</v>
       </c>
       <c r="I71">
-        <v>61185.32</v>
+        <v>3231</v>
       </c>
       <c r="J71">
-        <v>5607.28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>187.41</v>
+      </c>
+      <c r="K71">
+        <v>29610.78</v>
+      </c>
+      <c r="L71">
+        <v>29610.78</v>
+      </c>
+      <c r="M71" t="s">
+        <v>211</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F72">
-        <v>92</v>
-      </c>
-      <c r="G72">
-        <v>187.41</v>
+        <v>1345</v>
+      </c>
+      <c r="G72" t="s">
+        <v>212</v>
       </c>
       <c r="H72">
-        <v>17241.72</v>
+        <v>197285</v>
       </c>
       <c r="I72">
-        <v>17241.72</v>
+        <v>93449</v>
       </c>
       <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>41.23</v>
+      </c>
+      <c r="K72">
+        <v>55454.35</v>
+      </c>
+      <c r="L72">
+        <v>50795.36</v>
+      </c>
+      <c r="M72" t="s">
+        <v>212</v>
+      </c>
+      <c r="N72">
+        <v>4658.99</v>
+      </c>
+      <c r="O72">
+        <v>17306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F73">
-        <v>99</v>
-      </c>
-      <c r="G73">
+        <v>101</v>
+      </c>
+      <c r="G73" t="s">
+        <v>213</v>
+      </c>
+      <c r="H73">
+        <v>6190</v>
+      </c>
+      <c r="I73">
+        <v>2525</v>
+      </c>
+      <c r="J73">
         <v>299.85</v>
       </c>
-      <c r="H73">
-        <v>29685.15</v>
-      </c>
-      <c r="I73">
-        <v>29685.15</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>30284.85</v>
+      </c>
+      <c r="L73">
+        <v>30284.85</v>
+      </c>
+      <c r="M73" t="s">
+        <v>213</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F74">
-        <v>6</v>
-      </c>
-      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>134</v>
+      </c>
+      <c r="J74">
         <v>134.93</v>
       </c>
-      <c r="H74">
-        <v>809.58</v>
-      </c>
-      <c r="I74">
-        <v>809.58</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>269.86</v>
+      </c>
+      <c r="L74">
+        <v>269.86</v>
+      </c>
+      <c r="M74" t="s">
+        <v>167</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F75">
-        <v>121</v>
-      </c>
-      <c r="G75">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>2459</v>
+      </c>
+      <c r="J75">
         <v>29.99</v>
       </c>
-      <c r="H75">
-        <v>3628.79</v>
-      </c>
-      <c r="I75">
-        <v>3628.79</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>2639.12</v>
+      </c>
+      <c r="L75">
+        <v>2639.12</v>
+      </c>
+      <c r="M75" t="s">
+        <v>198</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F76">
-        <v>157</v>
-      </c>
-      <c r="G76">
-        <v>224.89</v>
+        <v>543</v>
+      </c>
+      <c r="G76" t="s">
+        <v>214</v>
       </c>
       <c r="H76">
-        <v>35307.73</v>
+        <v>37000</v>
       </c>
       <c r="I76">
-        <v>35307.73</v>
+        <v>13668</v>
       </c>
       <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="K76">
+        <v>38667.03</v>
+      </c>
+      <c r="L76">
+        <v>37385.25</v>
+      </c>
+      <c r="M76" t="s">
+        <v>214</v>
+      </c>
+      <c r="N76">
+        <v>1281.78</v>
+      </c>
+      <c r="O76">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C77">
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F77">
-        <v>1396</v>
-      </c>
-      <c r="G77">
+        <v>1636</v>
+      </c>
+      <c r="G77" t="s">
+        <v>215</v>
+      </c>
+      <c r="H77">
+        <v>60000</v>
+      </c>
+      <c r="I77">
+        <v>30854</v>
+      </c>
+      <c r="J77">
         <v>314.84</v>
       </c>
-      <c r="H77">
-        <v>439516.64</v>
-      </c>
-      <c r="I77">
-        <v>419052.04</v>
-      </c>
-      <c r="J77">
-        <v>20464.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>515078.24</v>
+      </c>
+      <c r="L77">
+        <v>497447.2</v>
+      </c>
+      <c r="M77" t="s">
+        <v>215</v>
+      </c>
+      <c r="N77">
+        <v>17631.04</v>
+      </c>
+      <c r="O77">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C78">
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F78">
-        <v>708</v>
-      </c>
-      <c r="G78">
-        <v>71.20999999999999</v>
+        <v>181</v>
+      </c>
+      <c r="G78" t="s">
+        <v>173</v>
       </c>
       <c r="H78">
-        <v>50416.68</v>
+        <v>8200</v>
       </c>
       <c r="I78">
-        <v>47853.12</v>
+        <v>3752</v>
       </c>
       <c r="J78">
-        <v>2563.56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>224.89</v>
+      </c>
+      <c r="K78">
+        <v>40705.09</v>
+      </c>
+      <c r="L78">
+        <v>40705.09</v>
+      </c>
+      <c r="M78" t="s">
+        <v>173</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C79">
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F79">
-        <v>1253</v>
-      </c>
-      <c r="G79">
+        <v>1440</v>
+      </c>
+      <c r="G79" t="s">
+        <v>216</v>
+      </c>
+      <c r="H79">
+        <v>58000</v>
+      </c>
+      <c r="I79">
+        <v>31878</v>
+      </c>
+      <c r="J79">
         <v>104.95</v>
       </c>
-      <c r="H79">
-        <v>131502.35</v>
-      </c>
-      <c r="I79">
-        <v>126464.75</v>
-      </c>
-      <c r="J79">
-        <v>5037.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>151128</v>
+      </c>
+      <c r="L79">
+        <v>144096.35</v>
+      </c>
+      <c r="M79" t="s">
+        <v>216</v>
+      </c>
+      <c r="N79">
+        <v>7031.65</v>
+      </c>
+      <c r="O79">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C80">
         <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F80">
-        <v>160</v>
-      </c>
-      <c r="G80">
+        <v>251</v>
+      </c>
+      <c r="G80" t="s">
+        <v>182</v>
+      </c>
+      <c r="H80">
+        <v>8999</v>
+      </c>
+      <c r="I80">
+        <v>3974</v>
+      </c>
+      <c r="J80">
         <v>143.93</v>
       </c>
-      <c r="H80">
-        <v>23028.8</v>
-      </c>
-      <c r="I80">
-        <v>23028.8</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
+      <c r="K80">
+        <v>36126.43</v>
+      </c>
+      <c r="L80">
+        <v>36126.43</v>
+      </c>
+      <c r="M80" t="s">
+        <v>182</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>837</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="218">
   <si>
     <t>BSL NO</t>
   </si>
@@ -163,16 +163,19 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 625 Tablet 18's</t>
+    <t>Biltin 20mg Tablet 30's</t>
   </si>
   <si>
     <t>Biltin 20mg Tablet 20's</t>
@@ -184,174 +187,168 @@
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 120mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 120mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Etorix 90mg Tablet 40's</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet 30's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet 40's</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet 50's</t>
+    <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
     <t>Fenobac 5mg Tablet</t>
   </si>
   <si>
-    <t>Fenobac 10mg Tablet</t>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
+    <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Ketonic 60mg IM Injection</t>
+  </si>
+  <si>
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 60mg IM Injection</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Levomax 750mg Tablet - 10's</t>
-  </si>
-  <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 25ml Lotion</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax 25ml Lotion</t>
-  </si>
-  <si>
     <t>Lindamax 150mg Capsule</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
+    <t>Nabumet 500mg FC Tab 30's</t>
+  </si>
+  <si>
     <t>Nabumet 750mg FC Tab 24's</t>
   </si>
   <si>
-    <t>Nabumet 500mg FC Tab 30's</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
     <t>Naprox 250mg Tablet</t>
   </si>
   <si>
+    <t>Ontin 60ml Syrup</t>
+  </si>
+  <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
-    <t>Ontin 60ml Syrup</t>
+    <t>Oradin FT 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin 10mg Tablet</t>
   </si>
   <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin 10mg Tablet</t>
+    <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
     <t>Osticare Tablet 30's</t>
   </si>
   <si>
-    <t>Osticare FC Tab Container 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
+    <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
-    <t>Stiba 10mg Tablet - 30's</t>
+    <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
@@ -382,28 +379,31 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
+    <t>1's</t>
+  </si>
+  <si>
     <t>12's</t>
   </si>
   <si>
-    <t>1's</t>
+    <t>30's</t>
   </si>
   <si>
     <t>20's</t>
@@ -424,9 +424,6 @@
     <t>100 ml</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
@@ -439,33 +436,33 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
+    <t>10gm</t>
+  </si>
+  <si>
+    <t>200 's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>36's</t>
+  </si>
+  <si>
+    <t>15 gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
+    <t>60 ml</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
-    <t>10gm</t>
-  </si>
-  <si>
-    <t>200 's</t>
-  </si>
-  <si>
-    <t>24's</t>
-  </si>
-  <si>
-    <t>36's</t>
-  </si>
-  <si>
-    <t>15 gm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
-    <t>60 ml</t>
-  </si>
-  <si>
     <t>15 ml</t>
   </si>
   <si>
@@ -487,184 +484,190 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>20ml</t>
   </si>
   <si>
     <t>12 's</t>
   </si>
   <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>10.38</t>
+  </si>
+  <si>
+    <t>10.18</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>9.46</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.03</t>
   </si>
   <si>
     <t>0.4</t>
   </si>
   <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>5.78</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>10.29</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>11.62</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>2.03</t>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>6.65</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1089,37 +1092,37 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2">
         <v>2133</v>
       </c>
       <c r="I2">
-        <v>1634</v>
+        <v>1768</v>
       </c>
       <c r="J2">
         <v>269.87</v>
       </c>
       <c r="K2">
-        <v>15382.59</v>
+        <v>4587.79</v>
       </c>
       <c r="L2">
-        <v>15382.59</v>
+        <v>4587.79</v>
       </c>
       <c r="M2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1136,37 +1139,37 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H3">
-        <v>2133</v>
+        <v>13331</v>
       </c>
       <c r="I3">
-        <v>1632</v>
+        <v>8009</v>
       </c>
       <c r="J3">
-        <v>269.87</v>
+        <v>337.33</v>
       </c>
       <c r="K3">
-        <v>22938.95</v>
+        <v>51611.49</v>
       </c>
       <c r="L3">
-        <v>22938.95</v>
+        <v>51611.49</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>83</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1183,37 +1186,37 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H4">
-        <v>10665</v>
+        <v>2126</v>
       </c>
       <c r="I4">
-        <v>4716</v>
+        <v>6420</v>
       </c>
       <c r="J4">
-        <v>131.18</v>
+        <v>206.15</v>
       </c>
       <c r="K4">
-        <v>28466.06</v>
+        <v>47414.5</v>
       </c>
       <c r="L4">
-        <v>28466.06</v>
+        <v>47414.5</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1230,37 +1233,37 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H5">
-        <v>2126</v>
+        <v>2133</v>
       </c>
       <c r="I5">
-        <v>5590</v>
+        <v>1793</v>
       </c>
       <c r="J5">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="K5">
-        <v>63081.9</v>
+        <v>8635.84</v>
       </c>
       <c r="L5">
-        <v>63081.9</v>
+        <v>8635.84</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1280,34 +1283,34 @@
         <v>127</v>
       </c>
       <c r="F6">
-        <v>362</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6">
-        <v>13331</v>
+        <v>10665</v>
       </c>
       <c r="I6">
-        <v>7232</v>
+        <v>5322</v>
       </c>
       <c r="J6">
-        <v>337.33</v>
+        <v>131.18</v>
       </c>
       <c r="K6">
-        <v>122113.46</v>
+        <v>27154.26</v>
       </c>
       <c r="L6">
-        <v>122113.46</v>
+        <v>27154.26</v>
       </c>
       <c r="M6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1016</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1324,45 +1327,45 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7">
-        <v>1826</v>
+        <v>308</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H7">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>41293</v>
+        <v>711</v>
       </c>
       <c r="J7">
-        <v>224.89</v>
+        <v>337.33</v>
       </c>
       <c r="K7">
-        <v>410649.14</v>
+        <v>103897.64</v>
       </c>
       <c r="L7">
-        <v>410649.14</v>
+        <v>103897.64</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1371,45 +1374,45 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>562</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="I8">
-        <v>136</v>
+        <v>44553</v>
       </c>
       <c r="J8">
-        <v>239.88</v>
+        <v>224.89</v>
       </c>
       <c r="K8">
-        <v>239.88</v>
+        <v>126388.18</v>
       </c>
       <c r="L8">
-        <v>239.88</v>
+        <v>126388.18</v>
       </c>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1418,31 +1421,31 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>684</v>
+        <v>139</v>
       </c>
       <c r="J9">
-        <v>112.45</v>
+        <v>239.88</v>
       </c>
       <c r="K9">
-        <v>6409.65</v>
+        <v>239.88</v>
       </c>
       <c r="L9">
-        <v>6409.65</v>
+        <v>239.88</v>
       </c>
       <c r="M9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1453,10 +1456,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1465,37 +1468,37 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10">
-        <v>2269</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2072</v>
+        <v>754</v>
       </c>
       <c r="J10">
-        <v>299.85</v>
+        <v>112.45</v>
       </c>
       <c r="K10">
-        <v>32983.5</v>
+        <v>1349.4</v>
       </c>
       <c r="L10">
-        <v>32983.5</v>
+        <v>1349.4</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1515,34 +1518,34 @@
         <v>133</v>
       </c>
       <c r="F11">
-        <v>612</v>
+        <v>347</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11">
-        <v>15462</v>
+        <v>15463</v>
       </c>
       <c r="I11">
-        <v>13321</v>
+        <v>14683</v>
       </c>
       <c r="J11">
         <v>239.88</v>
       </c>
       <c r="K11">
-        <v>146806.56</v>
+        <v>83238.36</v>
       </c>
       <c r="L11">
-        <v>146806.56</v>
+        <v>83238.36</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>356</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1562,28 +1565,28 @@
         <v>133</v>
       </c>
       <c r="F12">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12">
         <v>1808</v>
       </c>
       <c r="I12">
-        <v>1832</v>
+        <v>2027</v>
       </c>
       <c r="J12">
         <v>104.95</v>
       </c>
       <c r="K12">
-        <v>6926.7</v>
+        <v>3253.45</v>
       </c>
       <c r="L12">
-        <v>6926.7</v>
+        <v>3253.45</v>
       </c>
       <c r="M12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1609,42 +1612,42 @@
         <v>134</v>
       </c>
       <c r="F13">
-        <v>1559</v>
+        <v>962</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H13">
         <v>53320</v>
       </c>
       <c r="I13">
-        <v>32040</v>
+        <v>35644</v>
       </c>
       <c r="J13">
         <v>35.98</v>
       </c>
       <c r="K13">
-        <v>56092.82</v>
+        <v>34612.76</v>
       </c>
       <c r="L13">
-        <v>56092.82</v>
+        <v>34612.76</v>
       </c>
       <c r="M13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3546</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1653,45 +1656,45 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F14">
-        <v>1199</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14">
-        <v>31991</v>
+        <v>2269</v>
       </c>
       <c r="I14">
-        <v>25209</v>
+        <v>2295</v>
       </c>
       <c r="J14">
-        <v>29.99</v>
+        <v>299.85</v>
       </c>
       <c r="K14">
-        <v>35958.01</v>
+        <v>17391.3</v>
       </c>
       <c r="L14">
-        <v>35958.01</v>
+        <v>17391.3</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1700,37 +1703,37 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15">
-        <v>2313</v>
+        <v>420</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15">
-        <v>85749</v>
+        <v>31991</v>
       </c>
       <c r="I15">
-        <v>52662</v>
+        <v>27330</v>
       </c>
       <c r="J15">
-        <v>314.84</v>
+        <v>29.99</v>
       </c>
       <c r="K15">
-        <v>728224.92</v>
+        <v>12595.8</v>
       </c>
       <c r="L15">
-        <v>728224.92</v>
+        <v>12595.8</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5514</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1747,37 +1750,37 @@
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F16">
-        <v>2033</v>
+        <v>413</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16">
-        <v>85502</v>
+        <v>43180</v>
       </c>
       <c r="I16">
-        <v>49987</v>
+        <v>25185</v>
       </c>
       <c r="J16">
-        <v>359.82</v>
+        <v>262.37</v>
       </c>
       <c r="K16">
-        <v>731514.0600000001</v>
+        <v>108358.81</v>
       </c>
       <c r="L16">
-        <v>731514.0600000001</v>
+        <v>108358.81</v>
       </c>
       <c r="M16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5919</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1794,45 +1797,45 @@
         <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F17">
-        <v>936</v>
+        <v>1072</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H17">
-        <v>43180</v>
+        <v>85502</v>
       </c>
       <c r="I17">
-        <v>23025</v>
+        <v>54929</v>
       </c>
       <c r="J17">
-        <v>262.37</v>
+        <v>359.82</v>
       </c>
       <c r="K17">
-        <v>245578.32</v>
+        <v>385727.04</v>
       </c>
       <c r="L17">
-        <v>245578.32</v>
+        <v>385727.04</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3359</v>
+        <v>10191</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1841,37 +1844,37 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>1202</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18">
-        <v>1662</v>
+        <v>85749</v>
       </c>
       <c r="I18">
-        <v>931</v>
+        <v>57967</v>
       </c>
       <c r="J18">
-        <v>168.67</v>
+        <v>314.84</v>
       </c>
       <c r="K18">
-        <v>9614.190000000001</v>
+        <v>378437.68</v>
       </c>
       <c r="L18">
-        <v>9614.190000000001</v>
+        <v>378437.68</v>
       </c>
       <c r="M18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>121</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1888,45 +1891,45 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19">
         <v>4266</v>
       </c>
       <c r="I19">
-        <v>2295</v>
+        <v>2510</v>
       </c>
       <c r="J19">
         <v>179.91</v>
       </c>
       <c r="K19">
-        <v>17991</v>
+        <v>7376.31</v>
       </c>
       <c r="L19">
-        <v>17991</v>
+        <v>7376.31</v>
       </c>
       <c r="M19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>328</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1935,37 +1938,37 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20">
-        <v>867</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H20">
-        <v>15997</v>
+        <v>1662</v>
       </c>
       <c r="I20">
-        <v>10576</v>
+        <v>1007</v>
       </c>
       <c r="J20">
-        <v>33.94</v>
+        <v>168.67</v>
       </c>
       <c r="K20">
-        <v>29425.98</v>
+        <v>3036.06</v>
       </c>
       <c r="L20">
-        <v>29425.98</v>
+        <v>3036.06</v>
       </c>
       <c r="M20" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>903</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1982,37 +1985,37 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F21">
-        <v>283</v>
+        <v>1185</v>
       </c>
       <c r="G21" t="s">
         <v>179</v>
       </c>
       <c r="H21">
-        <v>10131</v>
+        <v>95981</v>
       </c>
       <c r="I21">
-        <v>6609</v>
+        <v>68210</v>
       </c>
       <c r="J21">
-        <v>432.53</v>
+        <v>314.84</v>
       </c>
       <c r="K21">
-        <v>122405.99</v>
+        <v>373085.4</v>
       </c>
       <c r="L21">
-        <v>122405.99</v>
+        <v>351676.28</v>
       </c>
       <c r="M21" t="s">
         <v>179</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>21409.12</v>
       </c>
       <c r="O21">
-        <v>587</v>
+        <v>9257</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2029,37 +2032,37 @@
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F22">
-        <v>2778</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
         <v>180</v>
       </c>
       <c r="H22">
-        <v>95981</v>
+        <v>10131</v>
       </c>
       <c r="I22">
-        <v>61757</v>
+        <v>7264</v>
       </c>
       <c r="J22">
-        <v>314.84</v>
+        <v>432.53</v>
       </c>
       <c r="K22">
-        <v>874625.52</v>
+        <v>64014.44</v>
       </c>
       <c r="L22">
-        <v>825825.3199999999</v>
+        <v>64014.44</v>
       </c>
       <c r="M22" t="s">
         <v>180</v>
       </c>
       <c r="N22">
-        <v>48800.2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>5704</v>
+        <v>955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2076,45 +2079,45 @@
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F23">
-        <v>4678</v>
+        <v>328</v>
       </c>
       <c r="G23" t="s">
         <v>181</v>
       </c>
       <c r="H23">
-        <v>143972</v>
+        <v>15997</v>
       </c>
       <c r="I23">
-        <v>108882</v>
+        <v>11860</v>
       </c>
       <c r="J23">
-        <v>45.73</v>
+        <v>33.94</v>
       </c>
       <c r="K23">
-        <v>213924.94</v>
+        <v>11132.32</v>
       </c>
       <c r="L23">
-        <v>184520.55</v>
+        <v>11132.32</v>
       </c>
       <c r="M23" t="s">
         <v>181</v>
       </c>
       <c r="N23">
-        <v>29404.39</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>5848</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -2123,37 +2126,37 @@
         <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24">
-        <v>250</v>
+        <v>2514</v>
       </c>
       <c r="G24" t="s">
         <v>182</v>
       </c>
       <c r="H24">
-        <v>4266</v>
+        <v>143972</v>
       </c>
       <c r="I24">
-        <v>3510</v>
+        <v>118862</v>
       </c>
       <c r="J24">
-        <v>224.89</v>
+        <v>45.73</v>
       </c>
       <c r="K24">
-        <v>56222.5</v>
+        <v>114965.22</v>
       </c>
       <c r="L24">
-        <v>56222.5</v>
+        <v>99599.94</v>
       </c>
       <c r="M24" t="s">
         <v>182</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15365.28</v>
       </c>
       <c r="O24">
-        <v>126</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2170,37 +2173,37 @@
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25">
-        <v>1393</v>
+        <v>649</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H25">
         <v>34775</v>
       </c>
       <c r="I25">
-        <v>20943</v>
+        <v>23157</v>
       </c>
       <c r="J25">
         <v>37.61</v>
       </c>
       <c r="K25">
-        <v>52390.73</v>
+        <v>24408.89</v>
       </c>
       <c r="L25">
-        <v>52390.73</v>
+        <v>24408.89</v>
       </c>
       <c r="M25" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2305</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2217,45 +2220,45 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F26">
-        <v>1664</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26">
-        <v>55456</v>
+        <v>4266</v>
       </c>
       <c r="I26">
-        <v>33082</v>
+        <v>3847</v>
       </c>
       <c r="J26">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="K26">
-        <v>37989.12</v>
+        <v>13718.29</v>
       </c>
       <c r="L26">
-        <v>37989.12</v>
+        <v>13718.29</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>3729</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -2264,37 +2267,37 @@
         <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>702</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H27">
-        <v>128</v>
+        <v>55456</v>
       </c>
       <c r="I27">
-        <v>73</v>
+        <v>36537</v>
       </c>
       <c r="J27">
-        <v>149.93</v>
+        <v>22.83</v>
       </c>
       <c r="K27">
-        <v>599.72</v>
+        <v>16026.66</v>
       </c>
       <c r="L27">
-        <v>599.72</v>
+        <v>16026.66</v>
       </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>9</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2311,37 +2314,37 @@
         <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F28">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H28">
         <v>2686</v>
       </c>
       <c r="I28">
-        <v>1440</v>
+        <v>1662</v>
       </c>
       <c r="J28">
         <v>224.89</v>
       </c>
       <c r="K28">
-        <v>10344.94</v>
+        <v>7871.15</v>
       </c>
       <c r="L28">
-        <v>10344.94</v>
+        <v>7871.15</v>
       </c>
       <c r="M28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>207</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2358,37 +2361,37 @@
         <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F29">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H29">
-        <v>1815</v>
+        <v>1632</v>
       </c>
       <c r="I29">
-        <v>1201</v>
+        <v>1149</v>
       </c>
       <c r="J29">
-        <v>337.33</v>
+        <v>93.7</v>
       </c>
       <c r="K29">
-        <v>19902.47</v>
+        <v>2248.8</v>
       </c>
       <c r="L29">
-        <v>19902.47</v>
+        <v>2248.8</v>
       </c>
       <c r="M29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2405,37 +2408,37 @@
         <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F30">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H30">
-        <v>1632</v>
+        <v>1972</v>
       </c>
       <c r="I30">
-        <v>1032</v>
+        <v>1689</v>
       </c>
       <c r="J30">
-        <v>93.7</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="K30">
-        <v>5247.2</v>
+        <v>2069.08</v>
       </c>
       <c r="L30">
-        <v>5247.2</v>
+        <v>2069.08</v>
       </c>
       <c r="M30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2452,37 +2455,37 @@
         <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H31">
-        <v>380</v>
+        <v>1815</v>
       </c>
       <c r="I31">
-        <v>163</v>
+        <v>1328</v>
       </c>
       <c r="J31">
-        <v>179.91</v>
+        <v>337.33</v>
       </c>
       <c r="K31">
-        <v>719.64</v>
+        <v>6071.94</v>
       </c>
       <c r="L31">
-        <v>719.64</v>
+        <v>6071.94</v>
       </c>
       <c r="M31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>36</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2499,37 +2502,37 @@
         <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F32">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="G32" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32">
+        <v>380</v>
+      </c>
+      <c r="I32">
         <v>187</v>
       </c>
-      <c r="H32">
-        <v>1972</v>
-      </c>
-      <c r="I32">
-        <v>1539</v>
-      </c>
       <c r="J32">
-        <v>89.95999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="K32">
-        <v>4677.92</v>
+        <v>179.91</v>
       </c>
       <c r="L32">
-        <v>4677.92</v>
+        <v>179.91</v>
       </c>
       <c r="M32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2546,37 +2549,37 @@
         <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H33">
         <v>537</v>
       </c>
       <c r="I33">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="J33">
         <v>449.78</v>
       </c>
       <c r="K33">
-        <v>4947.58</v>
+        <v>1349.34</v>
       </c>
       <c r="L33">
-        <v>4947.58</v>
+        <v>1349.34</v>
       </c>
       <c r="M33" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2593,37 +2596,37 @@
         <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F34">
-        <v>109</v>
+        <v>414</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H34">
-        <v>5858</v>
+        <v>33060</v>
       </c>
       <c r="I34">
-        <v>2753</v>
+        <v>23214</v>
       </c>
       <c r="J34">
-        <v>395.8</v>
+        <v>337.33</v>
       </c>
       <c r="K34">
-        <v>43142.2</v>
+        <v>139654.62</v>
       </c>
       <c r="L34">
-        <v>43142.2</v>
+        <v>139654.62</v>
       </c>
       <c r="M34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>517</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2640,37 +2643,37 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F35">
-        <v>838</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H35">
-        <v>33060</v>
+        <v>5858</v>
       </c>
       <c r="I35">
-        <v>21119</v>
+        <v>3025</v>
       </c>
       <c r="J35">
-        <v>337.33</v>
+        <v>395.8</v>
       </c>
       <c r="K35">
-        <v>282682.54</v>
+        <v>16227.8</v>
       </c>
       <c r="L35">
-        <v>282682.54</v>
+        <v>16227.8</v>
       </c>
       <c r="M35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>1990</v>
+        <v>944</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2687,10 +2690,10 @@
         <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F36">
-        <v>652</v>
+        <v>398</v>
       </c>
       <c r="G36" t="s">
         <v>190</v>
@@ -2699,16 +2702,16 @@
         <v>27728</v>
       </c>
       <c r="I36">
-        <v>14796</v>
+        <v>16395</v>
       </c>
       <c r="J36">
         <v>350.82</v>
       </c>
       <c r="K36">
-        <v>228734.64</v>
+        <v>139626.36</v>
       </c>
       <c r="L36">
-        <v>228734.64</v>
+        <v>139626.36</v>
       </c>
       <c r="M36" t="s">
         <v>190</v>
@@ -2717,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>2155</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2734,31 +2737,31 @@
         <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H37">
         <v>1065</v>
       </c>
       <c r="I37">
-        <v>1223</v>
+        <v>1355</v>
       </c>
       <c r="J37">
         <v>52.47</v>
       </c>
       <c r="K37">
-        <v>3672.9</v>
+        <v>1888.92</v>
       </c>
       <c r="L37">
-        <v>3672.9</v>
+        <v>1888.92</v>
       </c>
       <c r="M37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2781,37 +2784,37 @@
         <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F38">
-        <v>668</v>
+        <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H38">
-        <v>20263</v>
+        <v>8531</v>
       </c>
       <c r="I38">
-        <v>13222</v>
+        <v>7196</v>
       </c>
       <c r="J38">
-        <v>412.3</v>
+        <v>52.47</v>
       </c>
       <c r="K38">
-        <v>275416.4</v>
+        <v>7503.21</v>
       </c>
       <c r="L38">
-        <v>275416.4</v>
+        <v>7503.21</v>
       </c>
       <c r="M38" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1173</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2828,28 +2831,28 @@
         <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F39">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G39" t="s">
         <v>193</v>
       </c>
       <c r="H39">
-        <v>10665</v>
+        <v>20263</v>
       </c>
       <c r="I39">
-        <v>6130</v>
+        <v>14489</v>
       </c>
       <c r="J39">
-        <v>247.38</v>
+        <v>412.3</v>
       </c>
       <c r="K39">
-        <v>68276.88</v>
+        <v>112970.2</v>
       </c>
       <c r="L39">
-        <v>68276.88</v>
+        <v>112970.2</v>
       </c>
       <c r="M39" t="s">
         <v>193</v>
@@ -2858,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>755</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2875,28 +2878,28 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F40">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
         <v>194</v>
       </c>
       <c r="H40">
-        <v>8531</v>
+        <v>10665</v>
       </c>
       <c r="I40">
-        <v>6539</v>
+        <v>6723</v>
       </c>
       <c r="J40">
-        <v>52.47</v>
+        <v>247.38</v>
       </c>
       <c r="K40">
-        <v>16947.81</v>
+        <v>30922.5</v>
       </c>
       <c r="L40">
-        <v>16947.81</v>
+        <v>30922.5</v>
       </c>
       <c r="M40" t="s">
         <v>194</v>
@@ -2905,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>332</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2922,10 +2925,10 @@
         <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F41">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
         <v>195</v>
@@ -2934,16 +2937,16 @@
         <v>7464</v>
       </c>
       <c r="I41">
-        <v>5042</v>
+        <v>5497</v>
       </c>
       <c r="J41">
         <v>262.37</v>
       </c>
       <c r="K41">
-        <v>49587.93</v>
+        <v>28860.7</v>
       </c>
       <c r="L41">
-        <v>49587.93</v>
+        <v>28860.7</v>
       </c>
       <c r="M41" t="s">
         <v>195</v>
@@ -2952,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>403</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2969,28 +2972,28 @@
         <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F42">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="G42" t="s">
         <v>196</v>
       </c>
       <c r="H42">
-        <v>1288</v>
+        <v>14596</v>
       </c>
       <c r="I42">
-        <v>1027</v>
+        <v>8239</v>
       </c>
       <c r="J42">
-        <v>224.89</v>
+        <v>22.49</v>
       </c>
       <c r="K42">
-        <v>16866.75</v>
+        <v>2743.78</v>
       </c>
       <c r="L42">
-        <v>16866.75</v>
+        <v>2743.78</v>
       </c>
       <c r="M42" t="s">
         <v>196</v>
@@ -2999,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>43</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3016,37 +3019,37 @@
         <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F43">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="H43">
-        <v>14596</v>
+        <v>1288</v>
       </c>
       <c r="I43">
-        <v>7642</v>
+        <v>1113</v>
       </c>
       <c r="J43">
-        <v>22.49</v>
+        <v>224.89</v>
       </c>
       <c r="K43">
-        <v>7826.52</v>
+        <v>4497.8</v>
       </c>
       <c r="L43">
-        <v>7826.52</v>
+        <v>4497.8</v>
       </c>
       <c r="M43" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1159</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3063,37 +3066,37 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F44">
-        <v>1248</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="H44">
-        <v>58654</v>
+        <v>825</v>
       </c>
       <c r="I44">
-        <v>34095</v>
+        <v>872</v>
       </c>
       <c r="J44">
-        <v>22.49</v>
+        <v>119.94</v>
       </c>
       <c r="K44">
-        <v>28067.52</v>
+        <v>1319.34</v>
       </c>
       <c r="L44">
-        <v>27977.56</v>
+        <v>1319.34</v>
       </c>
       <c r="M44" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="N44">
-        <v>89.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>4093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3110,37 +3113,37 @@
         <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F45">
-        <v>26</v>
+        <v>529</v>
       </c>
       <c r="G45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H45">
-        <v>825</v>
+        <v>36473</v>
       </c>
       <c r="I45">
-        <v>800</v>
+        <v>27698</v>
       </c>
       <c r="J45">
-        <v>119.94</v>
+        <v>299.85</v>
       </c>
       <c r="K45">
-        <v>3118.44</v>
+        <v>158620.65</v>
       </c>
       <c r="L45">
-        <v>3118.44</v>
+        <v>158620.65</v>
       </c>
       <c r="M45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3157,37 +3160,37 @@
         <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F46">
-        <v>944</v>
+        <v>594</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H46">
-        <v>36473</v>
+        <v>58654</v>
       </c>
       <c r="I46">
-        <v>24968</v>
+        <v>37263</v>
       </c>
       <c r="J46">
-        <v>299.85</v>
+        <v>22.49</v>
       </c>
       <c r="K46">
-        <v>283058.4</v>
+        <v>13359.06</v>
       </c>
       <c r="L46">
-        <v>283058.4</v>
+        <v>13359.06</v>
       </c>
       <c r="M46" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1917</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3204,37 +3207,37 @@
         <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F47">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="H47">
-        <v>14930</v>
+        <v>2262</v>
       </c>
       <c r="I47">
-        <v>6963</v>
+        <v>833</v>
       </c>
       <c r="J47">
         <v>269.87</v>
       </c>
       <c r="K47">
-        <v>97423.07000000001</v>
+        <v>3238.44</v>
       </c>
       <c r="L47">
-        <v>97423.07000000001</v>
+        <v>3238.44</v>
       </c>
       <c r="M47" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>1327</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3251,37 +3254,37 @@
         <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F48">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="H48">
-        <v>2262</v>
+        <v>14930</v>
       </c>
       <c r="I48">
-        <v>749</v>
+        <v>7738</v>
       </c>
       <c r="J48">
         <v>269.87</v>
       </c>
       <c r="K48">
-        <v>9715.32</v>
+        <v>47497.12</v>
       </c>
       <c r="L48">
-        <v>9715.32</v>
+        <v>47497.12</v>
       </c>
       <c r="M48" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>252</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3298,37 +3301,37 @@
         <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F49">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H49">
         <v>2713</v>
       </c>
       <c r="I49">
-        <v>2181</v>
+        <v>2367</v>
       </c>
       <c r="J49">
         <v>299.85</v>
       </c>
       <c r="K49">
-        <v>38680.65</v>
+        <v>9295.35</v>
       </c>
       <c r="L49">
-        <v>38680.65</v>
+        <v>9295.35</v>
       </c>
       <c r="M49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3345,37 +3348,37 @@
         <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F50">
-        <v>1585</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H50">
-        <v>41591</v>
+        <v>957</v>
       </c>
       <c r="I50">
-        <v>29569</v>
+        <v>711</v>
       </c>
       <c r="J50">
-        <v>74.95999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="K50">
-        <v>118811.6</v>
+        <v>1349.34</v>
       </c>
       <c r="L50">
-        <v>106218.32</v>
+        <v>674.67</v>
       </c>
       <c r="M50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N50">
-        <v>12593.28</v>
+        <v>674.67</v>
       </c>
       <c r="O50">
-        <v>2003</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3392,37 +3395,37 @@
         <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H51">
         <v>424</v>
       </c>
       <c r="I51">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J51">
         <v>134.93</v>
       </c>
       <c r="K51">
-        <v>404.79</v>
+        <v>134.93</v>
       </c>
       <c r="L51">
-        <v>404.79</v>
+        <v>134.93</v>
       </c>
       <c r="M51" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3439,37 +3442,37 @@
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G52" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H52">
-        <v>957</v>
+        <v>13059</v>
       </c>
       <c r="I52">
-        <v>679</v>
+        <v>6119</v>
       </c>
       <c r="J52">
-        <v>224.89</v>
+        <v>449.78</v>
       </c>
       <c r="K52">
-        <v>2248.9</v>
+        <v>55772.72</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>51274.92</v>
       </c>
       <c r="M52" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="N52">
-        <v>2248.9</v>
+        <v>4497.8</v>
       </c>
       <c r="O52">
-        <v>46</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3486,37 +3489,37 @@
         <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F53">
-        <v>212</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="H53">
-        <v>13059</v>
+        <v>535</v>
       </c>
       <c r="I53">
-        <v>5474</v>
+        <v>323</v>
       </c>
       <c r="J53">
-        <v>449.78</v>
+        <v>191.15</v>
       </c>
       <c r="K53">
-        <v>95353.36</v>
+        <v>764.6</v>
       </c>
       <c r="L53">
-        <v>89056.44</v>
+        <v>764.6</v>
       </c>
       <c r="M53" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="N53">
-        <v>6296.92</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>1264</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3533,45 +3536,45 @@
         <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>661</v>
       </c>
       <c r="G54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H54">
-        <v>536</v>
+        <v>41591</v>
       </c>
       <c r="I54">
-        <v>196</v>
+        <v>32943</v>
       </c>
       <c r="J54">
         <v>74.95999999999999</v>
       </c>
       <c r="K54">
-        <v>1049.44</v>
+        <v>49548.56</v>
       </c>
       <c r="L54">
-        <v>1049.44</v>
+        <v>44301.36</v>
       </c>
       <c r="M54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>5247.2</v>
       </c>
       <c r="O54">
-        <v>56</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -3580,45 +3583,45 @@
         <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="H55">
-        <v>536</v>
+        <v>5332</v>
       </c>
       <c r="I55">
-        <v>296</v>
+        <v>2745</v>
       </c>
       <c r="J55">
-        <v>191.15</v>
+        <v>224.89</v>
       </c>
       <c r="K55">
-        <v>2676.1</v>
+        <v>4497.8</v>
       </c>
       <c r="L55">
-        <v>2676.1</v>
+        <v>4497.8</v>
       </c>
       <c r="M55" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>40</v>
+        <v>862</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -3627,37 +3630,37 @@
         <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F56">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="H56">
-        <v>5332</v>
+        <v>2104</v>
       </c>
       <c r="I56">
-        <v>2533</v>
+        <v>1268</v>
       </c>
       <c r="J56">
-        <v>224.89</v>
+        <v>51.12</v>
       </c>
       <c r="K56">
-        <v>24737.9</v>
+        <v>1329.12</v>
       </c>
       <c r="L56">
-        <v>24737.9</v>
+        <v>1329.12</v>
       </c>
       <c r="M56" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>466</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3677,34 +3680,34 @@
         <v>135</v>
       </c>
       <c r="F57">
-        <v>791</v>
+        <v>408</v>
       </c>
       <c r="G57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H57">
         <v>34128</v>
       </c>
       <c r="I57">
-        <v>19796</v>
+        <v>21455</v>
       </c>
       <c r="J57">
         <v>35.68</v>
       </c>
       <c r="K57">
-        <v>28222.88</v>
+        <v>14557.44</v>
       </c>
       <c r="L57">
-        <v>28222.88</v>
+        <v>14557.44</v>
       </c>
       <c r="M57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>2388</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3721,37 +3724,37 @@
         <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F58">
-        <v>1041</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="H58">
-        <v>35193</v>
+        <v>1289</v>
       </c>
       <c r="I58">
-        <v>20743</v>
+        <v>1197</v>
       </c>
       <c r="J58">
-        <v>228.26</v>
+        <v>266.12</v>
       </c>
       <c r="K58">
-        <v>237618.66</v>
+        <v>5056.28</v>
       </c>
       <c r="L58">
-        <v>237618.66</v>
+        <v>5056.28</v>
       </c>
       <c r="M58" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>2408</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3768,31 +3771,31 @@
         <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F59">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G59" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H59">
         <v>1921</v>
       </c>
       <c r="I59">
-        <v>3107</v>
+        <v>3397</v>
       </c>
       <c r="J59">
         <v>22.64</v>
       </c>
       <c r="K59">
-        <v>2558.32</v>
+        <v>2399.84</v>
       </c>
       <c r="L59">
-        <v>2558.32</v>
+        <v>2399.84</v>
       </c>
       <c r="M59" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3815,45 +3818,45 @@
         <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>509</v>
       </c>
       <c r="G60" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H60">
-        <v>2104</v>
+        <v>35193</v>
       </c>
       <c r="I60">
-        <v>1147</v>
+        <v>23032</v>
       </c>
       <c r="J60">
-        <v>51.12</v>
+        <v>228.26</v>
       </c>
       <c r="K60">
-        <v>357.84</v>
+        <v>116184.34</v>
       </c>
       <c r="L60">
-        <v>357.84</v>
+        <v>116184.34</v>
       </c>
       <c r="M60" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>159</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -3862,37 +3865,37 @@
         <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F61">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H61">
-        <v>1289</v>
+        <v>7561</v>
       </c>
       <c r="I61">
-        <v>1098</v>
+        <v>3934</v>
       </c>
       <c r="J61">
-        <v>266.12</v>
+        <v>179.91</v>
       </c>
       <c r="K61">
-        <v>14104.36</v>
+        <v>12233.88</v>
       </c>
       <c r="L61">
-        <v>14104.36</v>
+        <v>12233.88</v>
       </c>
       <c r="M61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>31</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3909,45 +3912,45 @@
         <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F62">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="H62">
         <v>1906</v>
       </c>
       <c r="I62">
-        <v>814</v>
+        <v>933</v>
       </c>
       <c r="J62">
         <v>44.98</v>
       </c>
       <c r="K62">
-        <v>1484.34</v>
+        <v>1304.42</v>
       </c>
       <c r="L62">
-        <v>1484.34</v>
+        <v>1304.42</v>
       </c>
       <c r="M62" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>182</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -3959,25 +3962,25 @@
         <v>136</v>
       </c>
       <c r="F63">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
         <v>207</v>
       </c>
       <c r="H63">
-        <v>7560</v>
+        <v>1830</v>
       </c>
       <c r="I63">
-        <v>3582</v>
+        <v>1577</v>
       </c>
       <c r="J63">
-        <v>179.91</v>
+        <v>187.41</v>
       </c>
       <c r="K63">
-        <v>24107.94</v>
+        <v>6184.53</v>
       </c>
       <c r="L63">
-        <v>24107.94</v>
+        <v>6184.53</v>
       </c>
       <c r="M63" t="s">
         <v>207</v>
@@ -3986,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>663</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4006,42 +4009,42 @@
         <v>130</v>
       </c>
       <c r="F64">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="H64">
         <v>8534</v>
       </c>
       <c r="I64">
-        <v>5011</v>
+        <v>5530</v>
       </c>
       <c r="J64">
         <v>142.43</v>
       </c>
       <c r="K64">
-        <v>28770.86</v>
+        <v>14385.43</v>
       </c>
       <c r="L64">
-        <v>28770.86</v>
+        <v>14385.43</v>
       </c>
       <c r="M64" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>587</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -4050,28 +4053,28 @@
         <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F65">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
         <v>208</v>
       </c>
       <c r="H65">
-        <v>1830</v>
+        <v>3564</v>
       </c>
       <c r="I65">
-        <v>1419</v>
+        <v>1770</v>
       </c>
       <c r="J65">
-        <v>187.41</v>
+        <v>179.91</v>
       </c>
       <c r="K65">
-        <v>8808.27</v>
+        <v>4137.93</v>
       </c>
       <c r="L65">
-        <v>8808.27</v>
+        <v>4137.93</v>
       </c>
       <c r="M65" t="s">
         <v>208</v>
@@ -4080,15 +4083,15 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>68</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -4097,37 +4100,37 @@
         <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F66">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H66">
-        <v>3564</v>
+        <v>2285</v>
       </c>
       <c r="I66">
-        <v>1640</v>
+        <v>2945</v>
       </c>
       <c r="J66">
-        <v>179.91</v>
+        <v>56.22</v>
       </c>
       <c r="K66">
-        <v>17091.45</v>
+        <v>3429.42</v>
       </c>
       <c r="L66">
-        <v>17091.45</v>
+        <v>3429.42</v>
       </c>
       <c r="M66" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4144,45 +4147,45 @@
         <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F67">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="G67" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="H67">
-        <v>2285</v>
+        <v>9595</v>
       </c>
       <c r="I67">
-        <v>2585</v>
+        <v>7283</v>
       </c>
       <c r="J67">
-        <v>56.22</v>
+        <v>149.93</v>
       </c>
       <c r="K67">
-        <v>5959.32</v>
+        <v>23089.22</v>
       </c>
       <c r="L67">
-        <v>5959.32</v>
+        <v>23089.22</v>
       </c>
       <c r="M67" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>770</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -4191,45 +4194,45 @@
         <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F68">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H68">
-        <v>9595</v>
+        <v>11731</v>
       </c>
       <c r="I68">
-        <v>6733</v>
+        <v>7020</v>
       </c>
       <c r="J68">
-        <v>149.93</v>
+        <v>359.82</v>
       </c>
       <c r="K68">
-        <v>43029.91</v>
+        <v>37061.46</v>
       </c>
       <c r="L68">
-        <v>43029.91</v>
+        <v>37061.46</v>
       </c>
       <c r="M68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>477</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -4241,42 +4244,42 @@
         <v>153</v>
       </c>
       <c r="F69">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="H69">
-        <v>11731</v>
+        <v>521</v>
       </c>
       <c r="I69">
-        <v>6375</v>
+        <v>748</v>
       </c>
       <c r="J69">
-        <v>359.82</v>
+        <v>134.93</v>
       </c>
       <c r="K69">
-        <v>102908.52</v>
+        <v>1754.09</v>
       </c>
       <c r="L69">
-        <v>102908.52</v>
+        <v>1754.09</v>
       </c>
       <c r="M69" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -4285,37 +4288,37 @@
         <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F70">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H70">
-        <v>521</v>
+        <v>4555</v>
       </c>
       <c r="I70">
-        <v>693</v>
+        <v>3496</v>
       </c>
       <c r="J70">
-        <v>134.93</v>
+        <v>187.41</v>
       </c>
       <c r="K70">
-        <v>8500.59</v>
+        <v>12369.06</v>
       </c>
       <c r="L70">
-        <v>8500.59</v>
+        <v>12369.06</v>
       </c>
       <c r="M70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4332,45 +4335,45 @@
         <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71">
-        <v>158</v>
+        <v>6144</v>
       </c>
       <c r="G71" t="s">
         <v>211</v>
       </c>
       <c r="H71">
-        <v>4555</v>
+        <v>197285</v>
       </c>
       <c r="I71">
-        <v>3231</v>
+        <v>118886</v>
       </c>
       <c r="J71">
-        <v>187.41</v>
+        <v>41.23</v>
       </c>
       <c r="K71">
-        <v>29610.78</v>
+        <v>253317.12</v>
       </c>
       <c r="L71">
-        <v>29610.78</v>
+        <v>231176.61</v>
       </c>
       <c r="M71" t="s">
         <v>211</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>22140.51</v>
       </c>
       <c r="O71">
-        <v>220</v>
+        <v>26133</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -4379,45 +4382,45 @@
         <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="F72">
-        <v>1345</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>212</v>
       </c>
       <c r="H72">
-        <v>197285</v>
+        <v>6190</v>
       </c>
       <c r="I72">
-        <v>93449</v>
+        <v>2810</v>
       </c>
       <c r="J72">
-        <v>41.23</v>
+        <v>299.85</v>
       </c>
       <c r="K72">
-        <v>55454.35</v>
+        <v>11394.3</v>
       </c>
       <c r="L72">
-        <v>50795.36</v>
+        <v>11394.3</v>
       </c>
       <c r="M72" t="s">
         <v>212</v>
       </c>
       <c r="N72">
-        <v>4658.99</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>17306</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -4426,45 +4429,45 @@
         <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F73">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="H73">
-        <v>6190</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2525</v>
+        <v>144</v>
       </c>
       <c r="J73">
-        <v>299.85</v>
+        <v>134.93</v>
       </c>
       <c r="K73">
-        <v>30284.85</v>
+        <v>269.86</v>
       </c>
       <c r="L73">
-        <v>30284.85</v>
+        <v>269.86</v>
       </c>
       <c r="M73" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -4473,31 +4476,31 @@
         <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>134</v>
+        <v>2653</v>
       </c>
       <c r="J74">
-        <v>134.93</v>
+        <v>29.99</v>
       </c>
       <c r="K74">
-        <v>269.86</v>
+        <v>1019.66</v>
       </c>
       <c r="L74">
-        <v>269.86</v>
+        <v>1019.66</v>
       </c>
       <c r="M74" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4508,10 +4511,10 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -4523,34 +4526,34 @@
         <v>156</v>
       </c>
       <c r="F75">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I75">
-        <v>2459</v>
+        <v>4332</v>
       </c>
       <c r="J75">
-        <v>29.99</v>
+        <v>143.93</v>
       </c>
       <c r="K75">
-        <v>2639.12</v>
+        <v>14968.72</v>
       </c>
       <c r="L75">
-        <v>2639.12</v>
+        <v>14968.72</v>
       </c>
       <c r="M75" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4570,34 +4573,34 @@
         <v>157</v>
       </c>
       <c r="F76">
-        <v>543</v>
+        <v>943</v>
       </c>
       <c r="G76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H76">
-        <v>37000</v>
+        <v>58000</v>
       </c>
       <c r="I76">
-        <v>13668</v>
+        <v>35137</v>
       </c>
       <c r="J76">
-        <v>71.20999999999999</v>
+        <v>104.95</v>
       </c>
       <c r="K76">
-        <v>38667.03</v>
+        <v>98967.85000000001</v>
       </c>
       <c r="L76">
-        <v>37385.25</v>
+        <v>93615.39999999999</v>
       </c>
       <c r="M76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N76">
-        <v>1281.78</v>
+        <v>5352.45</v>
       </c>
       <c r="O76">
-        <v>3888</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4617,34 +4620,34 @@
         <v>158</v>
       </c>
       <c r="F77">
-        <v>1636</v>
+        <v>232</v>
       </c>
       <c r="G77" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="H77">
-        <v>60000</v>
+        <v>37000</v>
       </c>
       <c r="I77">
-        <v>30854</v>
+        <v>15190</v>
       </c>
       <c r="J77">
-        <v>314.84</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="K77">
-        <v>515078.24</v>
+        <v>16520.72</v>
       </c>
       <c r="L77">
-        <v>497447.2</v>
+        <v>16022.25</v>
       </c>
       <c r="M77" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="N77">
-        <v>17631.04</v>
+        <v>498.47</v>
       </c>
       <c r="O77">
-        <v>4857</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4664,34 +4667,34 @@
         <v>128</v>
       </c>
       <c r="F78">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="H78">
         <v>8200</v>
       </c>
       <c r="I78">
-        <v>3752</v>
+        <v>4101</v>
       </c>
       <c r="J78">
         <v>224.89</v>
       </c>
       <c r="K78">
-        <v>40705.09</v>
+        <v>19340.54</v>
       </c>
       <c r="L78">
-        <v>40705.09</v>
+        <v>19340.54</v>
       </c>
       <c r="M78" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>741</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4711,81 +4714,34 @@
         <v>159</v>
       </c>
       <c r="F79">
-        <v>1440</v>
+        <v>829</v>
       </c>
       <c r="G79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H79">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="I79">
-        <v>31878</v>
+        <v>34553</v>
       </c>
       <c r="J79">
-        <v>104.95</v>
+        <v>314.84</v>
       </c>
       <c r="K79">
-        <v>151128</v>
+        <v>261002.36</v>
       </c>
       <c r="L79">
-        <v>144096.35</v>
+        <v>247149.4</v>
       </c>
       <c r="M79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N79">
-        <v>7031.65</v>
+        <v>13852.96</v>
       </c>
       <c r="O79">
-        <v>4353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80">
-        <v>35</v>
-      </c>
-      <c r="B80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80">
-        <v>79</v>
-      </c>
-      <c r="D80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80">
-        <v>251</v>
-      </c>
-      <c r="G80" t="s">
-        <v>182</v>
-      </c>
-      <c r="H80">
-        <v>8999</v>
-      </c>
-      <c r="I80">
-        <v>3974</v>
-      </c>
-      <c r="J80">
-        <v>143.93</v>
-      </c>
-      <c r="K80">
-        <v>36126.43</v>
-      </c>
-      <c r="L80">
-        <v>36126.43</v>
-      </c>
-      <c r="M80" t="s">
-        <v>182</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>837</v>
+        <v>8482</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="222">
   <si>
     <t>BSL NO</t>
   </si>
@@ -160,10 +160,13 @@
     <t>Zithrox</t>
   </si>
   <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
-    <t>Augment 625 Tablet 18's</t>
+    <t>Augment 100ml PFS</t>
   </si>
   <si>
     <t>Augment 1.2g IV Injection 1's</t>
@@ -172,15 +175,12 @@
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
-    <t>Augment 100ml PFS</t>
+    <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
     <t>Biltin 20mg Tablet 30's</t>
   </si>
   <si>
-    <t>Biltin 20mg Tablet 20's</t>
-  </si>
-  <si>
     <t>Bonflex FC Tablet</t>
   </si>
   <si>
@@ -202,15 +202,15 @@
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
+    <t>Etorix 120mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Etorix 60mg Tablet 50's</t>
   </si>
   <si>
     <t>Etorix 90mg Tablet 40's</t>
   </si>
   <si>
-    <t>Etorix 120mg Tablet 30's</t>
-  </si>
-  <si>
     <t>Fenobac 10mg Tablet</t>
   </si>
   <si>
@@ -223,10 +223,13 @@
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
+    <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
     <t>Ketonic 60mg IM Injection</t>
@@ -235,24 +238,24 @@
     <t>Ketonic 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
+    <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
     <t>Levomax 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax 300mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
-    <t>Lindamax 300mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -262,6 +265,15 @@
     <t>Nabumet 750mg FC Tab 24's</t>
   </si>
   <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
@@ -271,78 +283,72 @@
     <t>Naprox 50ml Suspension</t>
   </si>
   <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
+    <t>Ontin 10mg Tablet</t>
   </si>
   <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
-    <t>Ontin 10mg Tablet</t>
-  </si>
-  <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
+    <t>Oradin 60ml Suspension</t>
+  </si>
+  <si>
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
+    <t>Osticare Tablet 30's</t>
   </si>
   <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
-    <t>Osticare Tablet 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
+    <t>Quinox 100ml IV Infusion</t>
+  </si>
+  <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
     <t>Sk-Mox DS 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
+    <t>Stiba 30ml Syrup</t>
+  </si>
+  <si>
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Stiba 30ml Syrup</t>
-  </si>
-  <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
@@ -352,24 +358,24 @@
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 50mg Tablet</t>
+  </si>
+  <si>
     <t>Timothy 5mg IM/IV</t>
   </si>
   <si>
-    <t>Timothy 50mg Tablet</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti 100ml Syrup</t>
+  </si>
+  <si>
     <t>Toti Tablet</t>
   </si>
   <si>
-    <t>Toti 100ml Syrup</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -385,15 +391,15 @@
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
@@ -403,12 +409,12 @@
     <t>12's</t>
   </si>
   <si>
+    <t>20's</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -436,6 +442,9 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>10 's</t>
+  </si>
+  <si>
     <t>20 's</t>
   </si>
   <si>
@@ -448,21 +457,18 @@
     <t>24's</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
     <t>15 gm</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>15 ml</t>
   </si>
   <si>
@@ -490,184 +496,190 @@
     <t>35ml</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>20ml</t>
   </si>
   <si>
-    <t>12 's</t>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>9.19</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>10.74</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>0.95</t>
   </si>
   <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>10.38</t>
-  </si>
-  <si>
-    <t>10.18</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>9.46</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>0.66</t>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>6.84</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.44</t>
   </si>
   <si>
     <t>0.37</t>
   </si>
   <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>4.27</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>1.38</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>6.22</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>6.65</t>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>6.37</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1092,37 +1104,37 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H2">
-        <v>2133</v>
+        <v>13331</v>
       </c>
       <c r="I2">
-        <v>1768</v>
+        <v>8362</v>
       </c>
       <c r="J2">
-        <v>269.87</v>
+        <v>337.33</v>
       </c>
       <c r="K2">
-        <v>4587.79</v>
+        <v>119077.49</v>
       </c>
       <c r="L2">
-        <v>4587.79</v>
+        <v>119077.49</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>121</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1139,37 +1151,37 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F3">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H3">
-        <v>13331</v>
+        <v>2133</v>
       </c>
       <c r="I3">
-        <v>8009</v>
+        <v>1833</v>
       </c>
       <c r="J3">
-        <v>337.33</v>
+        <v>269.87</v>
       </c>
       <c r="K3">
-        <v>51611.49</v>
+        <v>17541.55</v>
       </c>
       <c r="L3">
-        <v>51611.49</v>
+        <v>17541.55</v>
       </c>
       <c r="M3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1774</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1186,37 +1198,37 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4">
-        <v>2126</v>
+        <v>10665</v>
       </c>
       <c r="I4">
-        <v>6420</v>
+        <v>5537</v>
       </c>
       <c r="J4">
-        <v>206.15</v>
+        <v>131.18</v>
       </c>
       <c r="K4">
-        <v>47414.5</v>
+        <v>28203.7</v>
       </c>
       <c r="L4">
-        <v>47414.5</v>
+        <v>28203.7</v>
       </c>
       <c r="M4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1233,37 +1245,37 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>377</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H5">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="I5">
-        <v>1793</v>
+        <v>6797</v>
       </c>
       <c r="J5">
-        <v>269.87</v>
+        <v>206.15</v>
       </c>
       <c r="K5">
-        <v>8635.84</v>
+        <v>77718.55</v>
       </c>
       <c r="L5">
-        <v>8635.84</v>
+        <v>77718.55</v>
       </c>
       <c r="M5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1280,37 +1292,37 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H6">
-        <v>10665</v>
+        <v>2133</v>
       </c>
       <c r="I6">
-        <v>5322</v>
+        <v>1840</v>
       </c>
       <c r="J6">
-        <v>131.18</v>
+        <v>269.87</v>
       </c>
       <c r="K6">
-        <v>27154.26</v>
+        <v>12683.89</v>
       </c>
       <c r="L6">
-        <v>27154.26</v>
+        <v>12683.89</v>
       </c>
       <c r="M6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1781</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1327,37 +1339,37 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F7">
-        <v>308</v>
+        <v>881</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="I7">
-        <v>711</v>
+        <v>45434</v>
       </c>
       <c r="J7">
-        <v>337.33</v>
+        <v>224.89</v>
       </c>
       <c r="K7">
-        <v>103897.64</v>
+        <v>198128.09</v>
       </c>
       <c r="L7">
-        <v>103897.64</v>
+        <v>198128.09</v>
       </c>
       <c r="M7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>6283</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1374,37 +1386,37 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8">
-        <v>562</v>
+        <v>1096</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H8">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>44553</v>
+        <v>1807</v>
       </c>
       <c r="J8">
-        <v>224.89</v>
+        <v>337.33</v>
       </c>
       <c r="K8">
-        <v>126388.18</v>
+        <v>369713.68</v>
       </c>
       <c r="L8">
-        <v>126388.18</v>
+        <v>369713.68</v>
       </c>
       <c r="M8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1421,31 +1433,31 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J9">
         <v>239.88</v>
       </c>
       <c r="K9">
-        <v>239.88</v>
+        <v>1199.4</v>
       </c>
       <c r="L9">
-        <v>239.88</v>
+        <v>1199.4</v>
       </c>
       <c r="M9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1468,31 +1480,31 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="J10">
         <v>112.45</v>
       </c>
       <c r="K10">
-        <v>1349.4</v>
+        <v>2136.55</v>
       </c>
       <c r="L10">
-        <v>1349.4</v>
+        <v>2136.55</v>
       </c>
       <c r="M10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1515,37 +1527,37 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F11">
-        <v>347</v>
+        <v>752</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H11">
-        <v>15463</v>
+        <v>15462</v>
       </c>
       <c r="I11">
-        <v>14683</v>
+        <v>15435</v>
       </c>
       <c r="J11">
         <v>239.88</v>
       </c>
       <c r="K11">
-        <v>83238.36</v>
+        <v>180389.76</v>
       </c>
       <c r="L11">
-        <v>83238.36</v>
+        <v>180389.76</v>
       </c>
       <c r="M11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>260</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1562,31 +1574,31 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H12">
         <v>1808</v>
       </c>
       <c r="I12">
-        <v>2027</v>
+        <v>2146</v>
       </c>
       <c r="J12">
         <v>104.95</v>
       </c>
       <c r="K12">
-        <v>3253.45</v>
+        <v>12489.05</v>
       </c>
       <c r="L12">
-        <v>3253.45</v>
+        <v>12489.05</v>
       </c>
       <c r="M12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1609,37 +1621,37 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F13">
-        <v>962</v>
+        <v>2279</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H13">
         <v>53320</v>
       </c>
       <c r="I13">
-        <v>35644</v>
+        <v>37923</v>
       </c>
       <c r="J13">
         <v>35.98</v>
       </c>
       <c r="K13">
-        <v>34612.76</v>
+        <v>81998.42</v>
       </c>
       <c r="L13">
-        <v>34612.76</v>
+        <v>81998.42</v>
       </c>
       <c r="M13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5892</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1656,31 +1668,31 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F14">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="I14">
-        <v>2295</v>
+        <v>2415</v>
       </c>
       <c r="J14">
         <v>299.85</v>
       </c>
       <c r="K14">
-        <v>17391.3</v>
+        <v>35982</v>
       </c>
       <c r="L14">
-        <v>17391.3</v>
+        <v>35982</v>
       </c>
       <c r="M14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1703,37 +1715,37 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F15">
-        <v>420</v>
+        <v>1366</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H15">
         <v>31991</v>
       </c>
       <c r="I15">
-        <v>27330</v>
+        <v>28696</v>
       </c>
       <c r="J15">
         <v>29.99</v>
       </c>
       <c r="K15">
-        <v>12595.8</v>
+        <v>40966.34</v>
       </c>
       <c r="L15">
-        <v>12595.8</v>
+        <v>40966.34</v>
       </c>
       <c r="M15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1553</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1750,37 +1762,37 @@
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>413</v>
+        <v>2630</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H16">
-        <v>43180</v>
+        <v>85749</v>
       </c>
       <c r="I16">
-        <v>25185</v>
+        <v>60597</v>
       </c>
       <c r="J16">
-        <v>262.37</v>
+        <v>314.84</v>
       </c>
       <c r="K16">
-        <v>108358.81</v>
+        <v>828029.2</v>
       </c>
       <c r="L16">
-        <v>108358.81</v>
+        <v>828029.2</v>
       </c>
       <c r="M16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5998</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1797,37 +1809,37 @@
         <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F17">
-        <v>1072</v>
+        <v>1214</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H17">
-        <v>85502</v>
+        <v>43180</v>
       </c>
       <c r="I17">
-        <v>54929</v>
+        <v>26399</v>
       </c>
       <c r="J17">
-        <v>359.82</v>
+        <v>262.37</v>
       </c>
       <c r="K17">
-        <v>385727.04</v>
+        <v>318517.18</v>
       </c>
       <c r="L17">
-        <v>385727.04</v>
+        <v>318517.18</v>
       </c>
       <c r="M17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10191</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1844,37 +1856,37 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F18">
-        <v>1202</v>
+        <v>2691</v>
       </c>
       <c r="G18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H18">
-        <v>85749</v>
+        <v>85502</v>
       </c>
       <c r="I18">
-        <v>57967</v>
+        <v>57620</v>
       </c>
       <c r="J18">
-        <v>314.84</v>
+        <v>359.82</v>
       </c>
       <c r="K18">
-        <v>378437.68</v>
+        <v>968275.62</v>
       </c>
       <c r="L18">
-        <v>378437.68</v>
+        <v>968275.62</v>
       </c>
       <c r="M18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9260</v>
+        <v>13941</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1891,37 +1903,37 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F19">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H19">
         <v>4266</v>
       </c>
       <c r="I19">
-        <v>2510</v>
+        <v>2615</v>
       </c>
       <c r="J19">
         <v>179.91</v>
       </c>
       <c r="K19">
-        <v>7376.31</v>
+        <v>18890.55</v>
       </c>
       <c r="L19">
-        <v>7376.31</v>
+        <v>18890.55</v>
       </c>
       <c r="M19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>585</v>
+        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1938,37 +1950,37 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H20">
         <v>1662</v>
       </c>
       <c r="I20">
-        <v>1007</v>
+        <v>1041</v>
       </c>
       <c r="J20">
         <v>168.67</v>
       </c>
       <c r="K20">
-        <v>3036.06</v>
+        <v>5734.78</v>
       </c>
       <c r="L20">
-        <v>3036.06</v>
+        <v>5734.78</v>
       </c>
       <c r="M20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>218</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1985,37 +1997,37 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F21">
-        <v>1185</v>
+        <v>3357</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H21">
         <v>95981</v>
       </c>
       <c r="I21">
-        <v>68210</v>
+        <v>71567</v>
       </c>
       <c r="J21">
         <v>314.84</v>
       </c>
       <c r="K21">
-        <v>373085.4</v>
+        <v>1056917.88</v>
       </c>
       <c r="L21">
-        <v>351676.28</v>
+        <v>991116.3199999999</v>
       </c>
       <c r="M21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N21">
-        <v>21409.12</v>
+        <v>65801.56</v>
       </c>
       <c r="O21">
-        <v>9257</v>
+        <v>12207</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2032,37 +2044,37 @@
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H22">
         <v>10131</v>
       </c>
       <c r="I22">
-        <v>7264</v>
+        <v>7583</v>
       </c>
       <c r="J22">
         <v>432.53</v>
       </c>
       <c r="K22">
-        <v>64014.44</v>
+        <v>137977.07</v>
       </c>
       <c r="L22">
-        <v>64014.44</v>
+        <v>137977.07</v>
       </c>
       <c r="M22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>955</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2079,37 +2091,37 @@
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F23">
-        <v>328</v>
+        <v>4856</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H23">
-        <v>15997</v>
+        <v>143972</v>
       </c>
       <c r="I23">
-        <v>11860</v>
+        <v>123718</v>
       </c>
       <c r="J23">
-        <v>33.94</v>
+        <v>45.73</v>
       </c>
       <c r="K23">
-        <v>11132.32</v>
+        <v>222064.88</v>
       </c>
       <c r="L23">
-        <v>11132.32</v>
+        <v>187675.92</v>
       </c>
       <c r="M23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>34388.96</v>
       </c>
       <c r="O23">
-        <v>1379</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2126,37 +2138,37 @@
         <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F24">
-        <v>2514</v>
+        <v>465</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H24">
-        <v>143972</v>
+        <v>15997</v>
       </c>
       <c r="I24">
-        <v>118862</v>
+        <v>12325</v>
       </c>
       <c r="J24">
-        <v>45.73</v>
+        <v>33.94</v>
       </c>
       <c r="K24">
-        <v>114965.22</v>
+        <v>15782.1</v>
       </c>
       <c r="L24">
-        <v>99599.94</v>
+        <v>15782.1</v>
       </c>
       <c r="M24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N24">
-        <v>15365.28</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>8370</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2173,37 +2185,37 @@
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F25">
-        <v>649</v>
+        <v>1804</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H25">
-        <v>34775</v>
+        <v>55456</v>
       </c>
       <c r="I25">
-        <v>23157</v>
+        <v>38341</v>
       </c>
       <c r="J25">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="K25">
-        <v>24408.89</v>
+        <v>41185.32</v>
       </c>
       <c r="L25">
-        <v>24408.89</v>
+        <v>41240.52</v>
       </c>
       <c r="M25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>-55.2</v>
       </c>
       <c r="O25">
-        <v>3872</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2220,37 +2232,37 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F26">
-        <v>61</v>
+        <v>908</v>
       </c>
       <c r="G26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H26">
-        <v>4266</v>
+        <v>34775</v>
       </c>
       <c r="I26">
-        <v>3847</v>
+        <v>24065</v>
       </c>
       <c r="J26">
-        <v>224.89</v>
+        <v>37.61</v>
       </c>
       <c r="K26">
-        <v>13718.29</v>
+        <v>34149.88</v>
       </c>
       <c r="L26">
-        <v>13718.29</v>
+        <v>34149.88</v>
       </c>
       <c r="M26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>139</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2267,37 +2279,37 @@
         <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F27">
-        <v>702</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H27">
-        <v>55456</v>
+        <v>4266</v>
       </c>
       <c r="I27">
-        <v>36537</v>
+        <v>4102</v>
       </c>
       <c r="J27">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="K27">
-        <v>16026.66</v>
+        <v>57346.95</v>
       </c>
       <c r="L27">
-        <v>16026.66</v>
+        <v>57346.95</v>
       </c>
       <c r="M27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>6306</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2314,45 +2326,45 @@
         <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F28">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H28">
-        <v>2686</v>
+        <v>128</v>
       </c>
       <c r="I28">
-        <v>1662</v>
+        <v>84</v>
       </c>
       <c r="J28">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="K28">
-        <v>7871.15</v>
+        <v>149.93</v>
       </c>
       <c r="L28">
-        <v>7871.15</v>
+        <v>149.93</v>
       </c>
       <c r="M28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>341</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2361,37 +2373,37 @@
         <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F29">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H29">
-        <v>1632</v>
+        <v>2686</v>
       </c>
       <c r="I29">
-        <v>1149</v>
+        <v>1729</v>
       </c>
       <c r="J29">
-        <v>93.7</v>
+        <v>224.89</v>
       </c>
       <c r="K29">
-        <v>2248.8</v>
+        <v>15067.63</v>
       </c>
       <c r="L29">
-        <v>2248.8</v>
+        <v>15067.63</v>
       </c>
       <c r="M29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>161</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2408,37 +2420,37 @@
         <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F30">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H30">
-        <v>1972</v>
+        <v>380</v>
       </c>
       <c r="I30">
-        <v>1689</v>
+        <v>194</v>
       </c>
       <c r="J30">
-        <v>89.95999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="K30">
-        <v>2069.08</v>
+        <v>1259.37</v>
       </c>
       <c r="L30">
-        <v>2069.08</v>
+        <v>1259.37</v>
       </c>
       <c r="M30" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2455,37 +2467,37 @@
         <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H31">
         <v>1815</v>
       </c>
       <c r="I31">
-        <v>1328</v>
+        <v>1400</v>
       </c>
       <c r="J31">
         <v>337.33</v>
       </c>
       <c r="K31">
-        <v>6071.94</v>
+        <v>24287.76</v>
       </c>
       <c r="L31">
-        <v>6071.94</v>
+        <v>24287.76</v>
       </c>
       <c r="M31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2502,45 +2514,45 @@
         <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H32">
-        <v>380</v>
+        <v>1972</v>
       </c>
       <c r="I32">
-        <v>187</v>
+        <v>1775</v>
       </c>
       <c r="J32">
-        <v>179.91</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="K32">
-        <v>179.91</v>
+        <v>7736.56</v>
       </c>
       <c r="L32">
-        <v>179.91</v>
+        <v>7736.56</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -2549,45 +2561,45 @@
         <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H33">
-        <v>537</v>
+        <v>1632</v>
       </c>
       <c r="I33">
-        <v>477</v>
+        <v>1197</v>
       </c>
       <c r="J33">
-        <v>449.78</v>
+        <v>93.7</v>
       </c>
       <c r="K33">
-        <v>1349.34</v>
+        <v>4497.6</v>
       </c>
       <c r="L33">
-        <v>1349.34</v>
+        <v>4497.6</v>
       </c>
       <c r="M33" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>20</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -2596,37 +2608,37 @@
         <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F34">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H34">
-        <v>33060</v>
+        <v>537</v>
       </c>
       <c r="I34">
-        <v>23214</v>
+        <v>517</v>
       </c>
       <c r="J34">
-        <v>337.33</v>
+        <v>449.78</v>
       </c>
       <c r="K34">
-        <v>139654.62</v>
+        <v>17991.2</v>
       </c>
       <c r="L34">
-        <v>139654.62</v>
+        <v>17991.2</v>
       </c>
       <c r="M34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>3282</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2643,45 +2655,45 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F35">
-        <v>41</v>
+        <v>1067</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H35">
-        <v>5858</v>
+        <v>33060</v>
       </c>
       <c r="I35">
-        <v>3025</v>
+        <v>24281</v>
       </c>
       <c r="J35">
-        <v>395.8</v>
+        <v>337.33</v>
       </c>
       <c r="K35">
-        <v>16227.8</v>
+        <v>359931.11</v>
       </c>
       <c r="L35">
-        <v>16227.8</v>
+        <v>359931.11</v>
       </c>
       <c r="M35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>944</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -2690,37 +2702,37 @@
         <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F36">
-        <v>398</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H36">
-        <v>27728</v>
+        <v>5858</v>
       </c>
       <c r="I36">
-        <v>16395</v>
+        <v>3143</v>
       </c>
       <c r="J36">
-        <v>350.82</v>
+        <v>395.8</v>
       </c>
       <c r="K36">
-        <v>139626.36</v>
+        <v>46704.4</v>
       </c>
       <c r="L36">
-        <v>139626.36</v>
+        <v>46704.4</v>
       </c>
       <c r="M36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>3777</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2737,37 +2749,37 @@
         <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H37">
-        <v>1065</v>
+        <v>10665</v>
       </c>
       <c r="I37">
-        <v>1355</v>
+        <v>7086</v>
       </c>
       <c r="J37">
-        <v>52.47</v>
+        <v>247.38</v>
       </c>
       <c r="K37">
-        <v>1888.92</v>
+        <v>89798.94</v>
       </c>
       <c r="L37">
-        <v>1888.92</v>
+        <v>89798.94</v>
       </c>
       <c r="M37" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2787,34 +2799,34 @@
         <v>134</v>
       </c>
       <c r="F38">
-        <v>143</v>
+        <v>693</v>
       </c>
       <c r="G38" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H38">
-        <v>8531</v>
+        <v>20263</v>
       </c>
       <c r="I38">
-        <v>7196</v>
+        <v>15182</v>
       </c>
       <c r="J38">
-        <v>52.47</v>
+        <v>412.3</v>
       </c>
       <c r="K38">
-        <v>7503.21</v>
+        <v>285723.9</v>
       </c>
       <c r="L38">
-        <v>7503.21</v>
+        <v>285723.9</v>
       </c>
       <c r="M38" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>445</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2831,37 +2843,37 @@
         <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F39">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H39">
-        <v>20263</v>
+        <v>7464</v>
       </c>
       <c r="I39">
-        <v>14489</v>
+        <v>5708</v>
       </c>
       <c r="J39">
-        <v>412.3</v>
+        <v>262.37</v>
       </c>
       <c r="K39">
-        <v>112970.2</v>
+        <v>55360.07</v>
       </c>
       <c r="L39">
-        <v>112970.2</v>
+        <v>55360.07</v>
       </c>
       <c r="M39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1924</v>
+        <v>878</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2878,37 +2890,37 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F40">
-        <v>125</v>
+        <v>849</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H40">
-        <v>10665</v>
+        <v>27728</v>
       </c>
       <c r="I40">
-        <v>6723</v>
+        <v>17244</v>
       </c>
       <c r="J40">
-        <v>247.38</v>
+        <v>350.82</v>
       </c>
       <c r="K40">
-        <v>30922.5</v>
+        <v>297846.18</v>
       </c>
       <c r="L40">
-        <v>30922.5</v>
+        <v>297846.18</v>
       </c>
       <c r="M40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>1314</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2925,45 +2937,45 @@
         <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F41">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H41">
-        <v>7464</v>
+        <v>1065</v>
       </c>
       <c r="I41">
-        <v>5497</v>
+        <v>1431</v>
       </c>
       <c r="J41">
-        <v>262.37</v>
+        <v>52.47</v>
       </c>
       <c r="K41">
-        <v>28860.7</v>
+        <v>3987.72</v>
       </c>
       <c r="L41">
-        <v>28860.7</v>
+        <v>3987.72</v>
       </c>
       <c r="M41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -2972,37 +2984,37 @@
         <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F42">
-        <v>122</v>
+        <v>360</v>
       </c>
       <c r="G42" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="H42">
-        <v>14596</v>
+        <v>8531</v>
       </c>
       <c r="I42">
-        <v>8239</v>
+        <v>7556</v>
       </c>
       <c r="J42">
-        <v>22.49</v>
+        <v>52.47</v>
       </c>
       <c r="K42">
-        <v>2743.78</v>
+        <v>18889.2</v>
       </c>
       <c r="L42">
-        <v>2743.78</v>
+        <v>18889.2</v>
       </c>
       <c r="M42" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>2119</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3019,45 +3031,45 @@
         <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H43">
         <v>1288</v>
       </c>
       <c r="I43">
-        <v>1113</v>
+        <v>1155</v>
       </c>
       <c r="J43">
         <v>224.89</v>
       </c>
       <c r="K43">
-        <v>4497.8</v>
+        <v>9445.379999999999</v>
       </c>
       <c r="L43">
-        <v>4497.8</v>
+        <v>9445.379999999999</v>
       </c>
       <c r="M43" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -3066,37 +3078,37 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H44">
-        <v>825</v>
+        <v>14596</v>
       </c>
       <c r="I44">
-        <v>872</v>
+        <v>8455</v>
       </c>
       <c r="J44">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="K44">
-        <v>1319.34</v>
+        <v>4857.84</v>
       </c>
       <c r="L44">
-        <v>1319.34</v>
+        <v>4857.84</v>
       </c>
       <c r="M44" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3113,37 +3125,37 @@
         <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F45">
-        <v>529</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H45">
-        <v>36473</v>
+        <v>825</v>
       </c>
       <c r="I45">
-        <v>27698</v>
+        <v>907</v>
       </c>
       <c r="J45">
-        <v>299.85</v>
+        <v>119.94</v>
       </c>
       <c r="K45">
-        <v>158620.65</v>
+        <v>4197.9</v>
       </c>
       <c r="L45">
-        <v>158620.65</v>
+        <v>4197.9</v>
       </c>
       <c r="M45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>2925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3160,45 +3172,45 @@
         <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F46">
-        <v>594</v>
+        <v>2029</v>
       </c>
       <c r="G46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H46">
         <v>58654</v>
       </c>
       <c r="I46">
-        <v>37263</v>
+        <v>39292</v>
       </c>
       <c r="J46">
         <v>22.49</v>
       </c>
       <c r="K46">
-        <v>13359.06</v>
+        <v>45632.21</v>
       </c>
       <c r="L46">
-        <v>13359.06</v>
+        <v>45632.21</v>
       </c>
       <c r="M46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>7130</v>
+        <v>9681</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -3207,37 +3219,37 @@
         <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>1321</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="H47">
-        <v>2262</v>
+        <v>36473</v>
       </c>
       <c r="I47">
-        <v>833</v>
+        <v>29019</v>
       </c>
       <c r="J47">
-        <v>269.87</v>
+        <v>299.85</v>
       </c>
       <c r="K47">
-        <v>3238.44</v>
+        <v>396101.85</v>
       </c>
       <c r="L47">
-        <v>3238.44</v>
+        <v>396101.85</v>
       </c>
       <c r="M47" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>476</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3254,45 +3266,45 @@
         <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F48">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="G48" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="H48">
         <v>14930</v>
       </c>
       <c r="I48">
-        <v>7738</v>
+        <v>8055</v>
       </c>
       <c r="J48">
         <v>269.87</v>
       </c>
       <c r="K48">
-        <v>47497.12</v>
+        <v>85548.78999999999</v>
       </c>
       <c r="L48">
-        <v>47497.12</v>
+        <v>85548.78999999999</v>
       </c>
       <c r="M48" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>2397</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -3301,45 +3313,45 @@
         <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F49">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H49">
-        <v>2713</v>
+        <v>2262</v>
       </c>
       <c r="I49">
-        <v>2367</v>
+        <v>872</v>
       </c>
       <c r="J49">
-        <v>299.85</v>
+        <v>269.87</v>
       </c>
       <c r="K49">
-        <v>9295.35</v>
+        <v>10524.93</v>
       </c>
       <c r="L49">
-        <v>9295.35</v>
+        <v>10524.93</v>
       </c>
       <c r="M49" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>115</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -3351,34 +3363,34 @@
         <v>140</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="H50">
-        <v>957</v>
+        <v>2713</v>
       </c>
       <c r="I50">
-        <v>711</v>
+        <v>2486</v>
       </c>
       <c r="J50">
-        <v>224.89</v>
+        <v>299.85</v>
       </c>
       <c r="K50">
-        <v>1349.34</v>
+        <v>35682.15</v>
       </c>
       <c r="L50">
-        <v>674.67</v>
+        <v>35682.15</v>
       </c>
       <c r="M50" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="N50">
-        <v>674.67</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3395,37 +3407,37 @@
         <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H51">
-        <v>424</v>
+        <v>957</v>
       </c>
       <c r="I51">
-        <v>180</v>
+        <v>728</v>
       </c>
       <c r="J51">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="K51">
-        <v>134.93</v>
+        <v>3823.13</v>
       </c>
       <c r="L51">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="M51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>3598.24</v>
       </c>
       <c r="O51">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3442,37 +3454,37 @@
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F52">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="H52">
-        <v>13059</v>
+        <v>536</v>
       </c>
       <c r="I52">
-        <v>6119</v>
+        <v>233</v>
       </c>
       <c r="J52">
-        <v>449.78</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K52">
-        <v>55772.72</v>
+        <v>749.6</v>
       </c>
       <c r="L52">
-        <v>51274.92</v>
+        <v>749.6</v>
       </c>
       <c r="M52" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="N52">
-        <v>4497.8</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>2313</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3489,37 +3501,37 @@
         <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>1724</v>
       </c>
       <c r="G53" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H53">
-        <v>535</v>
+        <v>41590</v>
       </c>
       <c r="I53">
-        <v>323</v>
+        <v>34667</v>
       </c>
       <c r="J53">
-        <v>191.15</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K53">
-        <v>764.6</v>
+        <v>129231.04</v>
       </c>
       <c r="L53">
-        <v>764.6</v>
+        <v>115813.2</v>
       </c>
       <c r="M53" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>13417.84</v>
       </c>
       <c r="O53">
-        <v>70</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3536,45 +3548,45 @@
         <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F54">
-        <v>661</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="H54">
-        <v>41591</v>
+        <v>536</v>
       </c>
       <c r="I54">
-        <v>32943</v>
+        <v>328</v>
       </c>
       <c r="J54">
-        <v>74.95999999999999</v>
+        <v>191.15</v>
       </c>
       <c r="K54">
-        <v>49548.56</v>
+        <v>955.75</v>
       </c>
       <c r="L54">
-        <v>44301.36</v>
+        <v>955.75</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="N54">
-        <v>5247.2</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>2882</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -3583,45 +3595,45 @@
         <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H55">
-        <v>5332</v>
+        <v>425</v>
       </c>
       <c r="I55">
-        <v>2745</v>
+        <v>186</v>
       </c>
       <c r="J55">
-        <v>224.89</v>
+        <v>134.93</v>
       </c>
       <c r="K55">
-        <v>4497.8</v>
+        <v>809.58</v>
       </c>
       <c r="L55">
-        <v>4497.8</v>
+        <v>809.58</v>
       </c>
       <c r="M55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>862</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -3630,45 +3642,45 @@
         <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F56">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="H56">
-        <v>2104</v>
+        <v>13059</v>
       </c>
       <c r="I56">
-        <v>1268</v>
+        <v>6404</v>
       </c>
       <c r="J56">
-        <v>51.12</v>
+        <v>449.78</v>
       </c>
       <c r="K56">
-        <v>1329.12</v>
+        <v>128187.3</v>
       </c>
       <c r="L56">
-        <v>1329.12</v>
+        <v>118292.14</v>
       </c>
       <c r="M56" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>9895.16</v>
       </c>
       <c r="O56">
-        <v>278</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -3677,37 +3689,37 @@
         <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F57">
-        <v>408</v>
+        <v>131</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H57">
-        <v>34128</v>
+        <v>5332</v>
       </c>
       <c r="I57">
-        <v>21455</v>
+        <v>2876</v>
       </c>
       <c r="J57">
-        <v>35.68</v>
+        <v>224.89</v>
       </c>
       <c r="K57">
-        <v>14557.44</v>
+        <v>29460.59</v>
       </c>
       <c r="L57">
-        <v>14557.44</v>
+        <v>29460.59</v>
       </c>
       <c r="M57" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>4224</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3724,37 +3736,37 @@
         <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58">
-        <v>19</v>
+        <v>975</v>
       </c>
       <c r="G58" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H58">
-        <v>1289</v>
+        <v>34128</v>
       </c>
       <c r="I58">
-        <v>1197</v>
+        <v>22430</v>
       </c>
       <c r="J58">
-        <v>266.12</v>
+        <v>35.68</v>
       </c>
       <c r="K58">
-        <v>5056.28</v>
+        <v>34788</v>
       </c>
       <c r="L58">
-        <v>5056.28</v>
+        <v>34788</v>
       </c>
       <c r="M58" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>30</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3771,31 +3783,31 @@
         <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F59">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="H59">
         <v>1921</v>
       </c>
       <c r="I59">
-        <v>3397</v>
+        <v>3525</v>
       </c>
       <c r="J59">
         <v>22.64</v>
       </c>
       <c r="K59">
-        <v>2399.84</v>
+        <v>2897.92</v>
       </c>
       <c r="L59">
-        <v>2399.84</v>
+        <v>2897.92</v>
       </c>
       <c r="M59" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3818,45 +3830,45 @@
         <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F60">
-        <v>509</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H60">
-        <v>35193</v>
+        <v>1289</v>
       </c>
       <c r="I60">
-        <v>23032</v>
+        <v>1271</v>
       </c>
       <c r="J60">
-        <v>228.26</v>
+        <v>266.12</v>
       </c>
       <c r="K60">
-        <v>116184.34</v>
+        <v>19692.88</v>
       </c>
       <c r="L60">
-        <v>116184.34</v>
+        <v>19692.88</v>
       </c>
       <c r="M60" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>4053</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -3865,45 +3877,45 @@
         <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F61">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G61" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H61">
-        <v>7561</v>
+        <v>2104</v>
       </c>
       <c r="I61">
-        <v>3934</v>
+        <v>1335</v>
       </c>
       <c r="J61">
-        <v>179.91</v>
+        <v>51.12</v>
       </c>
       <c r="K61">
-        <v>12233.88</v>
+        <v>3425.04</v>
       </c>
       <c r="L61">
-        <v>12233.88</v>
+        <v>3425.04</v>
       </c>
       <c r="M61" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1209</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -3912,45 +3924,45 @@
         <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F62">
-        <v>29</v>
+        <v>1136</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="H62">
-        <v>1906</v>
+        <v>35193</v>
       </c>
       <c r="I62">
-        <v>933</v>
+        <v>24168</v>
       </c>
       <c r="J62">
-        <v>44.98</v>
+        <v>228.26</v>
       </c>
       <c r="K62">
-        <v>1304.42</v>
+        <v>259303.36</v>
       </c>
       <c r="L62">
-        <v>1304.42</v>
+        <v>259303.36</v>
       </c>
       <c r="M62" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>324</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -3959,45 +3971,45 @@
         <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F63">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="H63">
-        <v>1830</v>
+        <v>1906</v>
       </c>
       <c r="I63">
-        <v>1577</v>
+        <v>976</v>
       </c>
       <c r="J63">
-        <v>187.41</v>
+        <v>44.98</v>
       </c>
       <c r="K63">
-        <v>6184.53</v>
+        <v>1934.14</v>
       </c>
       <c r="L63">
-        <v>6184.53</v>
+        <v>1934.14</v>
       </c>
       <c r="M63" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>84</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -4006,45 +4018,45 @@
         <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F64">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="H64">
-        <v>8534</v>
+        <v>7560</v>
       </c>
       <c r="I64">
-        <v>5530</v>
+        <v>4122</v>
       </c>
       <c r="J64">
-        <v>142.43</v>
+        <v>179.91</v>
       </c>
       <c r="K64">
-        <v>14385.43</v>
+        <v>33823.08</v>
       </c>
       <c r="L64">
-        <v>14385.43</v>
+        <v>33823.08</v>
       </c>
       <c r="M64" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1001</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -4053,45 +4065,45 @@
         <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F65">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H65">
-        <v>3564</v>
+        <v>1830</v>
       </c>
       <c r="I65">
-        <v>1770</v>
+        <v>1629</v>
       </c>
       <c r="J65">
-        <v>179.91</v>
+        <v>187.41</v>
       </c>
       <c r="K65">
-        <v>4137.93</v>
+        <v>9745.32</v>
       </c>
       <c r="L65">
-        <v>4137.93</v>
+        <v>9745.32</v>
       </c>
       <c r="M65" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>598</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -4100,45 +4112,45 @@
         <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F66">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="G66" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H66">
-        <v>2285</v>
+        <v>8533</v>
       </c>
       <c r="I66">
-        <v>2945</v>
+        <v>5786</v>
       </c>
       <c r="J66">
-        <v>56.22</v>
+        <v>142.43</v>
       </c>
       <c r="K66">
-        <v>3429.42</v>
+        <v>36462.08</v>
       </c>
       <c r="L66">
-        <v>3429.42</v>
+        <v>36462.08</v>
       </c>
       <c r="M66" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -4150,42 +4162,42 @@
         <v>132</v>
       </c>
       <c r="F67">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="H67">
-        <v>9595</v>
+        <v>3564</v>
       </c>
       <c r="I67">
-        <v>7283</v>
+        <v>1871</v>
       </c>
       <c r="J67">
-        <v>149.93</v>
+        <v>179.91</v>
       </c>
       <c r="K67">
-        <v>23089.22</v>
+        <v>18170.91</v>
       </c>
       <c r="L67">
-        <v>23089.22</v>
+        <v>18170.91</v>
       </c>
       <c r="M67" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>770</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -4194,45 +4206,45 @@
         <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F68">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="G68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H68">
-        <v>11731</v>
+        <v>9595</v>
       </c>
       <c r="I68">
-        <v>7020</v>
+        <v>7608</v>
       </c>
       <c r="J68">
-        <v>359.82</v>
+        <v>149.93</v>
       </c>
       <c r="K68">
-        <v>37061.46</v>
+        <v>48727.25</v>
       </c>
       <c r="L68">
-        <v>37061.46</v>
+        <v>48727.25</v>
       </c>
       <c r="M68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1570</v>
+        <v>993</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -4244,28 +4256,28 @@
         <v>153</v>
       </c>
       <c r="F69">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="G69" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H69">
-        <v>521</v>
+        <v>2285</v>
       </c>
       <c r="I69">
-        <v>748</v>
+        <v>3099</v>
       </c>
       <c r="J69">
-        <v>134.93</v>
+        <v>56.22</v>
       </c>
       <c r="K69">
-        <v>1754.09</v>
+        <v>8657.879999999999</v>
       </c>
       <c r="L69">
-        <v>1754.09</v>
+        <v>8657.879999999999</v>
       </c>
       <c r="M69" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4276,10 +4288,10 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -4288,45 +4300,45 @@
         <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F70">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="G70" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H70">
-        <v>4555</v>
+        <v>11731</v>
       </c>
       <c r="I70">
-        <v>3496</v>
+        <v>7311</v>
       </c>
       <c r="J70">
-        <v>187.41</v>
+        <v>359.82</v>
       </c>
       <c r="K70">
-        <v>12369.06</v>
+        <v>104707.62</v>
       </c>
       <c r="L70">
-        <v>12369.06</v>
+        <v>104707.62</v>
       </c>
       <c r="M70" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>353</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -4335,45 +4347,45 @@
         <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F71">
-        <v>6144</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H71">
-        <v>197285</v>
+        <v>521</v>
       </c>
       <c r="I71">
-        <v>118886</v>
+        <v>768</v>
       </c>
       <c r="J71">
-        <v>41.23</v>
+        <v>134.93</v>
       </c>
       <c r="K71">
-        <v>253317.12</v>
+        <v>2698.6</v>
       </c>
       <c r="L71">
-        <v>231176.61</v>
+        <v>2698.6</v>
       </c>
       <c r="M71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N71">
-        <v>22140.51</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>26133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -4382,45 +4394,45 @@
         <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F72">
-        <v>38</v>
+        <v>16390</v>
       </c>
       <c r="G72" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H72">
-        <v>6190</v>
+        <v>197285</v>
       </c>
       <c r="I72">
-        <v>2810</v>
+        <v>135276</v>
       </c>
       <c r="J72">
-        <v>299.85</v>
+        <v>41.23</v>
       </c>
       <c r="K72">
-        <v>11394.3</v>
+        <v>675759.7</v>
       </c>
       <c r="L72">
-        <v>11394.3</v>
+        <v>616677.11</v>
       </c>
       <c r="M72" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>59082.59</v>
       </c>
       <c r="O72">
-        <v>1126</v>
+        <v>31004</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -4429,45 +4441,45 @@
         <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G73" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4555</v>
       </c>
       <c r="I73">
-        <v>144</v>
+        <v>3619</v>
       </c>
       <c r="J73">
-        <v>134.93</v>
+        <v>187.41</v>
       </c>
       <c r="K73">
-        <v>269.86</v>
+        <v>23051.43</v>
       </c>
       <c r="L73">
-        <v>269.86</v>
+        <v>23051.43</v>
       </c>
       <c r="M73" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -4476,45 +4488,45 @@
         <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F74">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="G74" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>6190</v>
       </c>
       <c r="I74">
-        <v>2653</v>
+        <v>2941</v>
       </c>
       <c r="J74">
-        <v>29.99</v>
+        <v>299.85</v>
       </c>
       <c r="K74">
-        <v>1019.66</v>
+        <v>39280.35</v>
       </c>
       <c r="L74">
-        <v>1019.66</v>
+        <v>39280.35</v>
       </c>
       <c r="M74" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -4523,45 +4535,45 @@
         <v>121</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F75">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="H75">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>4332</v>
+        <v>146</v>
       </c>
       <c r="J75">
-        <v>143.93</v>
+        <v>134.93</v>
       </c>
       <c r="K75">
-        <v>14968.72</v>
+        <v>269.86</v>
       </c>
       <c r="L75">
-        <v>14968.72</v>
+        <v>269.86</v>
       </c>
       <c r="M75" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>1556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -4573,34 +4585,34 @@
         <v>157</v>
       </c>
       <c r="F76">
-        <v>943</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H76">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>35137</v>
+        <v>2733</v>
       </c>
       <c r="J76">
-        <v>104.95</v>
+        <v>29.99</v>
       </c>
       <c r="K76">
-        <v>98967.85000000001</v>
+        <v>2399.2</v>
       </c>
       <c r="L76">
-        <v>93615.39999999999</v>
+        <v>2399.2</v>
       </c>
       <c r="M76" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="N76">
-        <v>5352.45</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>7621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4620,34 +4632,34 @@
         <v>158</v>
       </c>
       <c r="F77">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G77" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="H77">
-        <v>37000</v>
+        <v>8999</v>
       </c>
       <c r="I77">
-        <v>15190</v>
+        <v>4563</v>
       </c>
       <c r="J77">
-        <v>71.20999999999999</v>
+        <v>143.93</v>
       </c>
       <c r="K77">
-        <v>16520.72</v>
+        <v>33247.83</v>
       </c>
       <c r="L77">
-        <v>16022.25</v>
+        <v>33247.83</v>
       </c>
       <c r="M77" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="N77">
-        <v>498.47</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>7270</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4664,37 +4676,37 @@
         <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="F78">
-        <v>86</v>
+        <v>1625</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H78">
-        <v>8200</v>
+        <v>57999</v>
       </c>
       <c r="I78">
-        <v>4101</v>
+        <v>36762</v>
       </c>
       <c r="J78">
-        <v>224.89</v>
+        <v>104.95</v>
       </c>
       <c r="K78">
-        <v>19340.54</v>
+        <v>170543.75</v>
       </c>
       <c r="L78">
-        <v>19340.54</v>
+        <v>161098.25</v>
       </c>
       <c r="M78" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>9445.5</v>
       </c>
       <c r="O78">
-        <v>1366</v>
+        <v>10618</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4711,37 +4723,131 @@
         <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F79">
-        <v>829</v>
+        <v>204</v>
       </c>
       <c r="G79" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="H79">
+        <v>8200</v>
+      </c>
+      <c r="I79">
+        <v>4305</v>
+      </c>
+      <c r="J79">
+        <v>224.89</v>
+      </c>
+      <c r="K79">
+        <v>45877.56</v>
+      </c>
+      <c r="L79">
+        <v>45877.56</v>
+      </c>
+      <c r="M79" t="s">
+        <v>201</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80">
+        <v>1912</v>
+      </c>
+      <c r="G80" t="s">
+        <v>220</v>
+      </c>
+      <c r="H80">
         <v>60000</v>
       </c>
-      <c r="I79">
-        <v>34553</v>
-      </c>
-      <c r="J79">
+      <c r="I80">
+        <v>36465</v>
+      </c>
+      <c r="J80">
         <v>314.84</v>
       </c>
-      <c r="K79">
-        <v>261002.36</v>
-      </c>
-      <c r="L79">
-        <v>247149.4</v>
-      </c>
-      <c r="M79" t="s">
-        <v>217</v>
-      </c>
-      <c r="N79">
-        <v>13852.96</v>
-      </c>
-      <c r="O79">
-        <v>8482</v>
+      <c r="K80">
+        <v>601974.08</v>
+      </c>
+      <c r="L80">
+        <v>573953.3199999999</v>
+      </c>
+      <c r="M80" t="s">
+        <v>220</v>
+      </c>
+      <c r="N80">
+        <v>28020.76</v>
+      </c>
+      <c r="O80">
+        <v>11767</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81">
+        <v>900</v>
+      </c>
+      <c r="G81" t="s">
+        <v>221</v>
+      </c>
+      <c r="H81">
+        <v>37000</v>
+      </c>
+      <c r="I81">
+        <v>16090</v>
+      </c>
+      <c r="J81">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="K81">
+        <v>64089</v>
+      </c>
+      <c r="L81">
+        <v>61098.18</v>
+      </c>
+      <c r="M81" t="s">
+        <v>221</v>
+      </c>
+      <c r="N81">
+        <v>2990.82</v>
+      </c>
+      <c r="O81">
+        <v>10455</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2484</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2564</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>146</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6283</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7698</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1647</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12576</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8390</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13941</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>825</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>310</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2027,7 +2027,7 @@
         <v>65801.56</v>
       </c>
       <c r="O21">
-        <v>12207</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1274</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2121,7 +2121,7 @@
         <v>34388.96</v>
       </c>
       <c r="O23">
-        <v>10127</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1836</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2215,7 +2215,7 @@
         <v>-55.2</v>
       </c>
       <c r="O25">
-        <v>8557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>5355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>82</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>478</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>207</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>217</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>4389</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>1357</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>1789</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>2540</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>878</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>5242</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>487</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>3070</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>9681</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>3727</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>3437</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>695</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3437,7 +3437,7 @@
         <v>3598.24</v>
       </c>
       <c r="O51">
-        <v>114</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>151</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3531,7 +3531,7 @@
         <v>13417.84</v>
       </c>
       <c r="O53">
-        <v>3461</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3672,7 +3672,7 @@
         <v>9895.16</v>
       </c>
       <c r="O56">
-        <v>3327</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1228</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>5849</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>384</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>5512</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>465</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1719</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>1373</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>846</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>993</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>2210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4424,7 +4424,7 @@
         <v>59082.59</v>
       </c>
       <c r="O72">
-        <v>31004</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>468</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>1624</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>2218</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4706,7 +4706,7 @@
         <v>9445.5</v>
       </c>
       <c r="O78">
-        <v>10618</v>
+        <v>685</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>1947</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4800,7 +4800,7 @@
         <v>28020.76</v>
       </c>
       <c r="O80">
-        <v>11767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4847,7 +4847,7 @@
         <v>2990.82</v>
       </c>
       <c r="O81">
-        <v>10455</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="223">
   <si>
     <t>BSL NO</t>
   </si>
@@ -163,36 +163,39 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 1.2g IV Injection 1's</t>
+  </si>
+  <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 1gm Tablet 12's</t>
   </si>
   <si>
     <t>Augment 100ml PFS</t>
   </si>
   <si>
-    <t>Augment 1.2g IV Injection 1's</t>
-  </si>
-  <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
+    <t>Biltin 20mg Tablet 30's</t>
+  </si>
+  <si>
     <t>Bonflex FC Tablet</t>
   </si>
   <si>
     <t>Desodin 5mg Tablet</t>
   </si>
   <si>
+    <t>Dinafex 60mg FC Tablet 40's</t>
+  </si>
+  <si>
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 60mg FC Tablet 40's</t>
-  </si>
-  <si>
     <t>Dinafex 50ml Suspension</t>
   </si>
   <si>
@@ -220,10 +223,13 @@
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
+    <t>Flucloxin 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule 40's</t>
   </si>
   <si>
-    <t>Flucloxin 100ml Dry Suspension</t>
+    <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
     <t>Ketonic 10mg Tablet - 30's</t>
@@ -232,9 +238,6 @@
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection</t>
-  </si>
-  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
@@ -244,15 +247,15 @@
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
+    <t>Lindamax 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Lindamax Plus 10gm Gel</t>
+  </si>
+  <si>
     <t>Lindamax 25ml Lotion</t>
   </si>
   <si>
-    <t>Lindamax 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Lindamax Plus 10gm Gel</t>
-  </si>
-  <si>
     <t>Mebidal Tablet</t>
   </si>
   <si>
@@ -262,81 +265,81 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 15gm Gel</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
-    <t>Naprox 15gm Gel</t>
-  </si>
-  <si>
     <t>Naprox 500mg Tablet</t>
   </si>
   <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox Plus 375mg Tablet - 30's</t>
   </si>
   <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
+    <t>Ontin 60ml Syrup</t>
   </si>
   <si>
     <t>Ontin 10mg Tablet</t>
   </si>
   <si>
-    <t>Ontin 60ml Syrup</t>
+    <t>Oradin 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
     <t>Oradin 60ml Suspension</t>
   </si>
   <si>
-    <t>Oradin FT 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Oradin 10mg Tablet</t>
+    <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
     <t>Osticare Tablet 30's</t>
   </si>
   <si>
-    <t>Osticare FC Tab Container 30's</t>
-  </si>
-  <si>
     <t>Paino 100mg Tablet</t>
   </si>
   <si>
+    <t>Quinox 750mg Tablet</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet - 20's</t>
+  </si>
+  <si>
     <t>Quinox DS 60ml Pellets for Suspension</t>
   </si>
   <si>
-    <t>Quinox 750mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet - 20's</t>
-  </si>
-  <si>
     <t>Quinox 500mg Tablet (40's)</t>
   </si>
   <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 100ml IV Infusion</t>
   </si>
   <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 500mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Sk-Mox 500mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Sk-Mox 250mg Capsule</t>
   </si>
   <si>
@@ -346,33 +349,33 @@
     <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
+    <t>Sulidac 100mg Tablet 50's</t>
+  </si>
+  <si>
     <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
-    <t>Sulidac 100mg Tablet 50's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
+    <t>Timothy 50mg Tablet</t>
+  </si>
+  <si>
     <t>Timothy 5mg IM/IV</t>
   </si>
   <si>
-    <t>Timothy 50mg Tablet</t>
-  </si>
-  <si>
     <t>Tojak 5mg Tablet 10's</t>
   </si>
   <si>
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti 100ml Syrup</t>
+  </si>
+  <si>
     <t>Toti Tablet</t>
   </si>
   <si>
-    <t>Toti 100ml Syrup</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -382,15 +385,15 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 500mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet - 12's</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>Zithrox 35ml Dry Suspension</t>
   </si>
   <si>
@@ -400,15 +403,18 @@
     <t>18's</t>
   </si>
   <si>
+    <t>1's</t>
+  </si>
+  <si>
     <t>12's</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
+    <t>30's</t>
+  </si>
+  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -424,9 +430,6 @@
     <t>100 ml</t>
   </si>
   <si>
-    <t>30's</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
@@ -454,12 +457,12 @@
     <t>24's</t>
   </si>
   <si>
+    <t>15 gm</t>
+  </si>
+  <si>
     <t>36's</t>
   </si>
   <si>
-    <t>15 gm</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 50 's</t>
   </si>
   <si>
@@ -487,184 +490,199 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>12 's</t>
+  </si>
+  <si>
     <t>20ml</t>
   </si>
   <si>
-    <t>12 's</t>
-  </si>
-  <si>
     <t>35ml</t>
   </si>
   <si>
     <t>50ml</t>
   </si>
   <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>6.56</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>10.62</t>
+  </si>
+  <si>
+    <t>11.67</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>10.67</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
     <t>0.4</t>
   </si>
   <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>5.78</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>0.42</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>2.07</t>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>0.54</t>
   </si>
   <si>
     <t>0.46</t>
   </si>
   <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>10.29</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>11.62</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>2.03</t>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>1.77</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1089,37 +1107,37 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H2">
-        <v>2133</v>
+        <v>3520</v>
       </c>
       <c r="I2">
-        <v>1634</v>
+        <v>503</v>
       </c>
       <c r="J2">
         <v>269.87</v>
       </c>
       <c r="K2">
-        <v>15382.59</v>
+        <v>18351.16</v>
       </c>
       <c r="L2">
-        <v>15382.59</v>
+        <v>18351.16</v>
       </c>
       <c r="M2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1136,37 +1154,37 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H3">
-        <v>2133</v>
+        <v>2516</v>
       </c>
       <c r="I3">
-        <v>1632</v>
+        <v>1702</v>
       </c>
       <c r="J3">
-        <v>269.87</v>
+        <v>206.15</v>
       </c>
       <c r="K3">
-        <v>22938.95</v>
+        <v>78337</v>
       </c>
       <c r="L3">
-        <v>22938.95</v>
+        <v>78337</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1183,37 +1201,37 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4">
-        <v>10665</v>
+        <v>15137</v>
       </c>
       <c r="I4">
-        <v>4716</v>
+        <v>2579</v>
       </c>
       <c r="J4">
-        <v>131.18</v>
+        <v>337.33</v>
       </c>
       <c r="K4">
-        <v>28466.06</v>
+        <v>119414.82</v>
       </c>
       <c r="L4">
-        <v>28466.06</v>
+        <v>119414.82</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>991</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1230,37 +1248,37 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F5">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5">
-        <v>2126</v>
+        <v>2869</v>
       </c>
       <c r="I5">
-        <v>5590</v>
+        <v>469</v>
       </c>
       <c r="J5">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="K5">
-        <v>63081.9</v>
+        <v>15922.33</v>
       </c>
       <c r="L5">
-        <v>63081.9</v>
+        <v>15922.33</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1277,37 +1295,37 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F6">
-        <v>362</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H6">
-        <v>13331</v>
+        <v>12814</v>
       </c>
       <c r="I6">
-        <v>7232</v>
+        <v>1520</v>
       </c>
       <c r="J6">
-        <v>337.33</v>
+        <v>131.18</v>
       </c>
       <c r="K6">
-        <v>122113.46</v>
+        <v>29121.96</v>
       </c>
       <c r="L6">
-        <v>122113.46</v>
+        <v>29121.96</v>
       </c>
       <c r="M6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1016</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1324,45 +1342,45 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F7">
-        <v>1826</v>
+        <v>181</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H7">
-        <v>58000</v>
+        <v>68396</v>
       </c>
       <c r="I7">
-        <v>41293</v>
+        <v>1880</v>
       </c>
       <c r="J7">
         <v>224.89</v>
       </c>
       <c r="K7">
-        <v>410649.14</v>
+        <v>40705.09</v>
       </c>
       <c r="L7">
-        <v>410649.14</v>
+        <v>40705.09</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2784</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1371,31 +1389,31 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>1375</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>136</v>
+        <v>8466</v>
       </c>
       <c r="J8">
-        <v>239.88</v>
+        <v>337.33</v>
       </c>
       <c r="K8">
-        <v>239.88</v>
+        <v>463828.75</v>
       </c>
       <c r="L8">
-        <v>239.88</v>
+        <v>463828.75</v>
       </c>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1406,10 +1424,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1418,31 +1436,31 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>684</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>112.45</v>
+        <v>239.88</v>
       </c>
       <c r="K9">
-        <v>6409.65</v>
+        <v>1439.28</v>
       </c>
       <c r="L9">
-        <v>6409.65</v>
+        <v>1439.28</v>
       </c>
       <c r="M9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1453,10 +1471,10 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1465,37 +1483,37 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10">
-        <v>2269</v>
+        <v>487</v>
       </c>
       <c r="I10">
-        <v>2072</v>
+        <v>139</v>
       </c>
       <c r="J10">
-        <v>299.85</v>
+        <v>112.45</v>
       </c>
       <c r="K10">
-        <v>32983.5</v>
+        <v>1012.05</v>
       </c>
       <c r="L10">
-        <v>32983.5</v>
+        <v>1012.05</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1512,37 +1530,37 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F11">
-        <v>612</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H11">
-        <v>15462</v>
+        <v>2110</v>
       </c>
       <c r="I11">
-        <v>13321</v>
+        <v>439</v>
       </c>
       <c r="J11">
-        <v>239.88</v>
+        <v>104.95</v>
       </c>
       <c r="K11">
-        <v>146806.56</v>
+        <v>4512.85</v>
       </c>
       <c r="L11">
-        <v>146806.56</v>
+        <v>4512.85</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>356</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1559,37 +1577,37 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F12">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H12">
-        <v>1808</v>
+        <v>3024</v>
       </c>
       <c r="I12">
-        <v>1832</v>
+        <v>544</v>
       </c>
       <c r="J12">
-        <v>104.95</v>
+        <v>299.85</v>
       </c>
       <c r="K12">
-        <v>6926.7</v>
+        <v>17391.3</v>
       </c>
       <c r="L12">
-        <v>6926.7</v>
+        <v>17391.3</v>
       </c>
       <c r="M12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1606,45 +1624,45 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F13">
-        <v>1559</v>
+        <v>451</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H13">
-        <v>53320</v>
+        <v>17993</v>
       </c>
       <c r="I13">
-        <v>32040</v>
+        <v>3263</v>
       </c>
       <c r="J13">
-        <v>35.98</v>
+        <v>239.88</v>
       </c>
       <c r="K13">
-        <v>56092.82</v>
+        <v>108185.88</v>
       </c>
       <c r="L13">
-        <v>56092.82</v>
+        <v>108185.88</v>
       </c>
       <c r="M13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3546</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1653,45 +1671,45 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F14">
-        <v>1199</v>
+        <v>996</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H14">
-        <v>31991</v>
+        <v>70411</v>
       </c>
       <c r="I14">
-        <v>25209</v>
+        <v>8227</v>
       </c>
       <c r="J14">
-        <v>29.99</v>
+        <v>35.98</v>
       </c>
       <c r="K14">
-        <v>35958.01</v>
+        <v>35836.08</v>
       </c>
       <c r="L14">
-        <v>35958.01</v>
+        <v>35836.08</v>
       </c>
       <c r="M14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1130</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1700,37 +1718,37 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F15">
-        <v>2313</v>
+        <v>1122</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H15">
-        <v>85749</v>
+        <v>65379</v>
       </c>
       <c r="I15">
-        <v>52662</v>
+        <v>6255</v>
       </c>
       <c r="J15">
-        <v>314.84</v>
+        <v>29.99</v>
       </c>
       <c r="K15">
-        <v>728224.92</v>
+        <v>33648.78</v>
       </c>
       <c r="L15">
-        <v>728224.92</v>
+        <v>33648.78</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5514</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1747,37 +1765,37 @@
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <v>2033</v>
+        <v>2385</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H16">
-        <v>85502</v>
+        <v>79410</v>
       </c>
       <c r="I16">
-        <v>49987</v>
+        <v>14682</v>
       </c>
       <c r="J16">
-        <v>359.82</v>
+        <v>314.84</v>
       </c>
       <c r="K16">
-        <v>731514.0600000001</v>
+        <v>750893.4</v>
       </c>
       <c r="L16">
-        <v>731514.0600000001</v>
+        <v>750893.4</v>
       </c>
       <c r="M16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5919</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1794,45 +1812,45 @@
         <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F17">
-        <v>936</v>
+        <v>2294</v>
       </c>
       <c r="G17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H17">
-        <v>43180</v>
+        <v>80629</v>
       </c>
       <c r="I17">
-        <v>23025</v>
+        <v>13729</v>
       </c>
       <c r="J17">
-        <v>262.37</v>
+        <v>359.82</v>
       </c>
       <c r="K17">
-        <v>245578.32</v>
+        <v>825427.08</v>
       </c>
       <c r="L17">
-        <v>245578.32</v>
+        <v>825427.08</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3359</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1841,37 +1859,37 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>1058</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H18">
-        <v>1662</v>
+        <v>45653</v>
       </c>
       <c r="I18">
-        <v>931</v>
+        <v>6183</v>
       </c>
       <c r="J18">
-        <v>168.67</v>
+        <v>262.37</v>
       </c>
       <c r="K18">
-        <v>9614.190000000001</v>
+        <v>277587.46</v>
       </c>
       <c r="L18">
-        <v>9614.190000000001</v>
+        <v>277587.46</v>
       </c>
       <c r="M18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>121</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1888,45 +1906,45 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H19">
-        <v>4266</v>
+        <v>3522</v>
       </c>
       <c r="I19">
-        <v>2295</v>
+        <v>287</v>
       </c>
       <c r="J19">
-        <v>179.91</v>
+        <v>168.67</v>
       </c>
       <c r="K19">
-        <v>17991</v>
+        <v>6240.79</v>
       </c>
       <c r="L19">
-        <v>17991</v>
+        <v>6240.79</v>
       </c>
       <c r="M19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>328</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1935,37 +1953,37 @@
         <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F20">
-        <v>867</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="H20">
-        <v>15997</v>
+        <v>8044</v>
       </c>
       <c r="I20">
-        <v>10576</v>
+        <v>695</v>
       </c>
       <c r="J20">
-        <v>33.94</v>
+        <v>179.91</v>
       </c>
       <c r="K20">
-        <v>29425.98</v>
+        <v>21589.2</v>
       </c>
       <c r="L20">
-        <v>29425.98</v>
+        <v>21589.2</v>
       </c>
       <c r="M20" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>903</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1982,37 +2000,37 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F21">
-        <v>283</v>
+        <v>708</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H21">
-        <v>10131</v>
+        <v>19110</v>
       </c>
       <c r="I21">
-        <v>6609</v>
+        <v>3449</v>
       </c>
       <c r="J21">
-        <v>432.53</v>
+        <v>33.94</v>
       </c>
       <c r="K21">
-        <v>122405.99</v>
+        <v>24029.52</v>
       </c>
       <c r="L21">
-        <v>122405.99</v>
+        <v>24029.52</v>
       </c>
       <c r="M21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>587</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2029,37 +2047,37 @@
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F22">
-        <v>2778</v>
+        <v>262</v>
       </c>
       <c r="G22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H22">
-        <v>95981</v>
+        <v>10058</v>
       </c>
       <c r="I22">
-        <v>61757</v>
+        <v>1580</v>
       </c>
       <c r="J22">
-        <v>314.84</v>
+        <v>432.53</v>
       </c>
       <c r="K22">
-        <v>874625.52</v>
+        <v>113322.86</v>
       </c>
       <c r="L22">
-        <v>825825.3199999999</v>
+        <v>113322.86</v>
       </c>
       <c r="M22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N22">
-        <v>48800.2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>5704</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2076,45 +2094,45 @@
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F23">
-        <v>4678</v>
+        <v>3607</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H23">
-        <v>143972</v>
+        <v>130754</v>
       </c>
       <c r="I23">
-        <v>108882</v>
+        <v>23487</v>
       </c>
       <c r="J23">
         <v>45.73</v>
       </c>
       <c r="K23">
-        <v>213924.94</v>
+        <v>164948.11</v>
       </c>
       <c r="L23">
-        <v>184520.55</v>
+        <v>138378.98</v>
       </c>
       <c r="M23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N23">
-        <v>29404.39</v>
+        <v>26569.13</v>
       </c>
       <c r="O23">
-        <v>5848</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -2123,37 +2141,37 @@
         <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24">
-        <v>250</v>
+        <v>2544</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H24">
-        <v>4266</v>
+        <v>102592</v>
       </c>
       <c r="I24">
-        <v>3510</v>
+        <v>15501</v>
       </c>
       <c r="J24">
-        <v>224.89</v>
+        <v>314.84</v>
       </c>
       <c r="K24">
-        <v>56222.5</v>
+        <v>800952.96</v>
       </c>
       <c r="L24">
-        <v>56222.5</v>
+        <v>754671.48</v>
       </c>
       <c r="M24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>46281.48</v>
       </c>
       <c r="O24">
-        <v>126</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2170,37 +2188,37 @@
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25">
-        <v>1393</v>
+        <v>1113</v>
       </c>
       <c r="G25" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H25">
-        <v>34775</v>
+        <v>62364</v>
       </c>
       <c r="I25">
-        <v>20943</v>
+        <v>8051</v>
       </c>
       <c r="J25">
-        <v>37.61</v>
+        <v>22.83</v>
       </c>
       <c r="K25">
-        <v>52390.73</v>
+        <v>25409.79</v>
       </c>
       <c r="L25">
-        <v>52390.73</v>
+        <v>26329.79</v>
       </c>
       <c r="M25" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>-920</v>
       </c>
       <c r="O25">
-        <v>2305</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2217,45 +2235,45 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F26">
-        <v>1664</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H26">
-        <v>55456</v>
+        <v>4795</v>
       </c>
       <c r="I26">
-        <v>33082</v>
+        <v>903</v>
       </c>
       <c r="J26">
-        <v>22.83</v>
+        <v>224.89</v>
       </c>
       <c r="K26">
-        <v>37989.12</v>
+        <v>31709.49</v>
       </c>
       <c r="L26">
-        <v>37989.12</v>
+        <v>31709.49</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>3729</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -2267,34 +2285,34 @@
         <v>141</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>730</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H27">
-        <v>128</v>
+        <v>38371</v>
       </c>
       <c r="I27">
-        <v>73</v>
+        <v>5818</v>
       </c>
       <c r="J27">
-        <v>149.93</v>
+        <v>37.61</v>
       </c>
       <c r="K27">
-        <v>599.72</v>
+        <v>27455.3</v>
       </c>
       <c r="L27">
-        <v>599.72</v>
+        <v>27488.9</v>
       </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>-33.6</v>
       </c>
       <c r="O27">
-        <v>9</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2314,42 +2332,42 @@
         <v>142</v>
       </c>
       <c r="F28">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="H28">
-        <v>2686</v>
+        <v>120</v>
       </c>
       <c r="I28">
-        <v>1440</v>
+        <v>22</v>
       </c>
       <c r="J28">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="K28">
-        <v>10344.94</v>
+        <v>449.79</v>
       </c>
       <c r="L28">
-        <v>10344.94</v>
+        <v>449.79</v>
       </c>
       <c r="M28" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>207</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2358,37 +2376,37 @@
         <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F29">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H29">
-        <v>1815</v>
+        <v>3024</v>
       </c>
       <c r="I29">
-        <v>1201</v>
+        <v>370</v>
       </c>
       <c r="J29">
-        <v>337.33</v>
+        <v>224.89</v>
       </c>
       <c r="K29">
-        <v>19902.47</v>
+        <v>12368.95</v>
       </c>
       <c r="L29">
-        <v>19902.47</v>
+        <v>12368.95</v>
       </c>
       <c r="M29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2405,37 +2423,37 @@
         <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F30">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="H30">
-        <v>1632</v>
+        <v>2054</v>
       </c>
       <c r="I30">
-        <v>1032</v>
+        <v>383</v>
       </c>
       <c r="J30">
-        <v>93.7</v>
+        <v>337.33</v>
       </c>
       <c r="K30">
-        <v>5247.2</v>
+        <v>18553.15</v>
       </c>
       <c r="L30">
-        <v>5247.2</v>
+        <v>18553.15</v>
       </c>
       <c r="M30" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2452,37 +2470,37 @@
         <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="H31">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="I31">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="J31">
         <v>179.91</v>
       </c>
       <c r="K31">
-        <v>719.64</v>
+        <v>899.55</v>
       </c>
       <c r="L31">
-        <v>719.64</v>
+        <v>899.55</v>
       </c>
       <c r="M31" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2499,45 +2517,45 @@
         <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F32">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H32">
-        <v>1972</v>
+        <v>2217</v>
       </c>
       <c r="I32">
-        <v>1539</v>
+        <v>322</v>
       </c>
       <c r="J32">
         <v>89.95999999999999</v>
       </c>
       <c r="K32">
-        <v>4677.92</v>
+        <v>3868.28</v>
       </c>
       <c r="L32">
-        <v>4677.92</v>
+        <v>3868.28</v>
       </c>
       <c r="M32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -2546,45 +2564,45 @@
         <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F33">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H33">
-        <v>537</v>
+        <v>1832</v>
       </c>
       <c r="I33">
-        <v>432</v>
+        <v>245</v>
       </c>
       <c r="J33">
-        <v>449.78</v>
+        <v>93.7</v>
       </c>
       <c r="K33">
-        <v>4947.58</v>
+        <v>2998.4</v>
       </c>
       <c r="L33">
-        <v>4947.58</v>
+        <v>2998.4</v>
       </c>
       <c r="M33" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -2596,34 +2614,34 @@
         <v>145</v>
       </c>
       <c r="F34">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H34">
-        <v>5858</v>
+        <v>614</v>
       </c>
       <c r="I34">
-        <v>2753</v>
+        <v>60</v>
       </c>
       <c r="J34">
-        <v>395.8</v>
+        <v>449.78</v>
       </c>
       <c r="K34">
-        <v>43142.2</v>
+        <v>3598.24</v>
       </c>
       <c r="L34">
-        <v>43142.2</v>
+        <v>3598.24</v>
       </c>
       <c r="M34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>517</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2640,45 +2658,45 @@
         <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F35">
-        <v>838</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H35">
-        <v>33060</v>
+        <v>5675</v>
       </c>
       <c r="I35">
-        <v>21119</v>
+        <v>676</v>
       </c>
       <c r="J35">
-        <v>337.33</v>
+        <v>395.8</v>
       </c>
       <c r="K35">
-        <v>282682.54</v>
+        <v>41954.8</v>
       </c>
       <c r="L35">
-        <v>282682.54</v>
+        <v>41954.8</v>
       </c>
       <c r="M35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>1990</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -2687,37 +2705,37 @@
         <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F36">
-        <v>652</v>
+        <v>898</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H36">
-        <v>27728</v>
+        <v>31941</v>
       </c>
       <c r="I36">
-        <v>14796</v>
+        <v>5807</v>
       </c>
       <c r="J36">
-        <v>350.82</v>
+        <v>337.33</v>
       </c>
       <c r="K36">
-        <v>228734.64</v>
+        <v>302922.34</v>
       </c>
       <c r="L36">
-        <v>228734.64</v>
+        <v>302922.34</v>
       </c>
       <c r="M36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>2155</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2737,34 +2755,34 @@
         <v>147</v>
       </c>
       <c r="F37">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H37">
-        <v>1065</v>
+        <v>1005</v>
       </c>
       <c r="I37">
-        <v>1223</v>
+        <v>332</v>
       </c>
       <c r="J37">
         <v>52.47</v>
       </c>
       <c r="K37">
-        <v>3672.9</v>
+        <v>2623.5</v>
       </c>
       <c r="L37">
-        <v>3672.9</v>
+        <v>2623.5</v>
       </c>
       <c r="M37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2781,37 +2799,37 @@
         <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F38">
-        <v>668</v>
+        <v>709</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H38">
-        <v>20263</v>
+        <v>31165</v>
       </c>
       <c r="I38">
-        <v>13222</v>
+        <v>4372</v>
       </c>
       <c r="J38">
-        <v>412.3</v>
+        <v>350.82</v>
       </c>
       <c r="K38">
-        <v>275416.4</v>
+        <v>248731.38</v>
       </c>
       <c r="L38">
-        <v>275416.4</v>
+        <v>248731.38</v>
       </c>
       <c r="M38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1173</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2828,37 +2846,37 @@
         <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F39">
-        <v>276</v>
+        <v>629</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H39">
-        <v>10665</v>
+        <v>22122</v>
       </c>
       <c r="I39">
-        <v>6130</v>
+        <v>3767</v>
       </c>
       <c r="J39">
-        <v>247.38</v>
+        <v>412.3</v>
       </c>
       <c r="K39">
-        <v>68276.88</v>
+        <v>259336.7</v>
       </c>
       <c r="L39">
-        <v>68276.88</v>
+        <v>259336.7</v>
       </c>
       <c r="M39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2875,37 +2893,37 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F40">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H40">
-        <v>8531</v>
+        <v>7241</v>
       </c>
       <c r="I40">
-        <v>6539</v>
+        <v>1301</v>
       </c>
       <c r="J40">
-        <v>52.47</v>
+        <v>262.37</v>
       </c>
       <c r="K40">
-        <v>16947.81</v>
+        <v>66379.61</v>
       </c>
       <c r="L40">
-        <v>16947.81</v>
+        <v>66379.61</v>
       </c>
       <c r="M40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>332</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2922,45 +2940,45 @@
         <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F41">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H41">
-        <v>7464</v>
+        <v>9052</v>
       </c>
       <c r="I41">
-        <v>5042</v>
+        <v>1954</v>
       </c>
       <c r="J41">
-        <v>262.37</v>
+        <v>52.47</v>
       </c>
       <c r="K41">
-        <v>49587.93</v>
+        <v>17262.63</v>
       </c>
       <c r="L41">
-        <v>49587.93</v>
+        <v>17262.63</v>
       </c>
       <c r="M41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>403</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -2972,34 +2990,34 @@
         <v>139</v>
       </c>
       <c r="F42">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="G42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H42">
-        <v>1288</v>
+        <v>11064</v>
       </c>
       <c r="I42">
-        <v>1027</v>
+        <v>1880</v>
       </c>
       <c r="J42">
-        <v>224.89</v>
+        <v>247.38</v>
       </c>
       <c r="K42">
-        <v>16866.75</v>
+        <v>77429.94</v>
       </c>
       <c r="L42">
-        <v>16866.75</v>
+        <v>77429.94</v>
       </c>
       <c r="M42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>43</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3016,45 +3034,45 @@
         <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F43">
-        <v>348</v>
+        <v>507</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H43">
-        <v>14596</v>
+        <v>18104</v>
       </c>
       <c r="I43">
-        <v>7642</v>
+        <v>1462</v>
       </c>
       <c r="J43">
         <v>22.49</v>
       </c>
       <c r="K43">
-        <v>7826.52</v>
+        <v>11402.43</v>
       </c>
       <c r="L43">
-        <v>7826.52</v>
+        <v>11402.43</v>
       </c>
       <c r="M43" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1159</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -3063,37 +3081,37 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F44">
-        <v>1248</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H44">
-        <v>58654</v>
+        <v>1444</v>
       </c>
       <c r="I44">
-        <v>34095</v>
+        <v>504</v>
       </c>
       <c r="J44">
-        <v>22.49</v>
+        <v>224.89</v>
       </c>
       <c r="K44">
-        <v>28067.52</v>
+        <v>8770.709999999999</v>
       </c>
       <c r="L44">
-        <v>27977.56</v>
+        <v>8770.709999999999</v>
       </c>
       <c r="M44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N44">
-        <v>89.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>4093</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3110,37 +3128,37 @@
         <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F45">
-        <v>26</v>
+        <v>1017</v>
       </c>
       <c r="G45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H45">
-        <v>825</v>
+        <v>45715</v>
       </c>
       <c r="I45">
-        <v>800</v>
+        <v>6486</v>
       </c>
       <c r="J45">
-        <v>119.94</v>
+        <v>299.85</v>
       </c>
       <c r="K45">
-        <v>3118.44</v>
+        <v>304947.45</v>
       </c>
       <c r="L45">
-        <v>3118.44</v>
+        <v>304947.45</v>
       </c>
       <c r="M45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3157,45 +3175,45 @@
         <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F46">
-        <v>944</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="H46">
-        <v>36473</v>
+        <v>921</v>
       </c>
       <c r="I46">
-        <v>24968</v>
+        <v>212</v>
       </c>
       <c r="J46">
-        <v>299.85</v>
+        <v>119.94</v>
       </c>
       <c r="K46">
-        <v>283058.4</v>
+        <v>5277.36</v>
       </c>
       <c r="L46">
-        <v>283058.4</v>
+        <v>5277.36</v>
       </c>
       <c r="M46" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1917</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -3204,37 +3222,37 @@
         <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F47">
-        <v>361</v>
+        <v>1250</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H47">
-        <v>14930</v>
+        <v>64376</v>
       </c>
       <c r="I47">
-        <v>6963</v>
+        <v>8063</v>
       </c>
       <c r="J47">
-        <v>269.87</v>
+        <v>22.49</v>
       </c>
       <c r="K47">
-        <v>97423.07000000001</v>
+        <v>28112.5</v>
       </c>
       <c r="L47">
-        <v>97423.07000000001</v>
+        <v>28045.03</v>
       </c>
       <c r="M47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>67.47</v>
       </c>
       <c r="O47">
-        <v>1327</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3251,45 +3269,45 @@
         <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F48">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="H48">
-        <v>2262</v>
+        <v>3071</v>
       </c>
       <c r="I48">
-        <v>749</v>
+        <v>262</v>
       </c>
       <c r="J48">
         <v>269.87</v>
       </c>
       <c r="K48">
-        <v>9715.32</v>
+        <v>15112.72</v>
       </c>
       <c r="L48">
-        <v>9715.32</v>
+        <v>15112.72</v>
       </c>
       <c r="M48" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>252</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -3298,45 +3316,45 @@
         <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F49">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="G49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H49">
-        <v>2713</v>
+        <v>17104</v>
       </c>
       <c r="I49">
-        <v>2181</v>
+        <v>1976</v>
       </c>
       <c r="J49">
-        <v>299.85</v>
+        <v>269.87</v>
       </c>
       <c r="K49">
-        <v>38680.65</v>
+        <v>93644.89</v>
       </c>
       <c r="L49">
-        <v>38680.65</v>
+        <v>93644.89</v>
       </c>
       <c r="M49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>88</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -3345,37 +3363,37 @@
         <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F50">
-        <v>1585</v>
+        <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H50">
-        <v>41591</v>
+        <v>4019</v>
       </c>
       <c r="I50">
-        <v>29569</v>
+        <v>623</v>
       </c>
       <c r="J50">
-        <v>74.95999999999999</v>
+        <v>299.85</v>
       </c>
       <c r="K50">
-        <v>118811.6</v>
+        <v>29685.15</v>
       </c>
       <c r="L50">
-        <v>106218.32</v>
+        <v>29685.15</v>
       </c>
       <c r="M50" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N50">
-        <v>12593.28</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>2003</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3392,37 +3410,37 @@
         <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H51">
-        <v>424</v>
+        <v>514</v>
       </c>
       <c r="I51">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="J51">
         <v>134.93</v>
       </c>
       <c r="K51">
-        <v>404.79</v>
+        <v>1349.3</v>
       </c>
       <c r="L51">
-        <v>404.79</v>
+        <v>1349.3</v>
       </c>
       <c r="M51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3439,37 +3457,37 @@
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="H52">
-        <v>957</v>
+        <v>1011</v>
       </c>
       <c r="I52">
-        <v>679</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>224.89</v>
       </c>
       <c r="K52">
-        <v>2248.9</v>
+        <v>1799.12</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>224.89</v>
       </c>
       <c r="M52" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="N52">
-        <v>2248.9</v>
+        <v>1574.23</v>
       </c>
       <c r="O52">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3486,37 +3504,37 @@
         <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F53">
-        <v>212</v>
+        <v>1449</v>
       </c>
       <c r="G53" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H53">
-        <v>13059</v>
+        <v>50299</v>
       </c>
       <c r="I53">
-        <v>5474</v>
+        <v>8670</v>
       </c>
       <c r="J53">
-        <v>449.78</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K53">
-        <v>95353.36</v>
+        <v>108617.04</v>
       </c>
       <c r="L53">
-        <v>89056.44</v>
+        <v>97148.16</v>
       </c>
       <c r="M53" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="N53">
-        <v>6296.92</v>
+        <v>11468.88</v>
       </c>
       <c r="O53">
-        <v>1264</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3533,37 +3551,37 @@
         <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="G54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H54">
-        <v>536</v>
+        <v>13075</v>
       </c>
       <c r="I54">
-        <v>196</v>
+        <v>1249</v>
       </c>
       <c r="J54">
-        <v>74.95999999999999</v>
+        <v>449.78</v>
       </c>
       <c r="K54">
-        <v>1049.44</v>
+        <v>101650.28</v>
       </c>
       <c r="L54">
-        <v>1049.44</v>
+        <v>93104.46000000001</v>
       </c>
       <c r="M54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>8545.82</v>
       </c>
       <c r="O54">
-        <v>56</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3580,45 +3598,45 @@
         <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H55">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="I55">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="J55">
         <v>191.15</v>
       </c>
       <c r="K55">
-        <v>2676.1</v>
+        <v>2102.65</v>
       </c>
       <c r="L55">
-        <v>2676.1</v>
+        <v>2102.65</v>
       </c>
       <c r="M55" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -3627,45 +3645,45 @@
         <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F56">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H56">
-        <v>5332</v>
+        <v>1011</v>
       </c>
       <c r="I56">
-        <v>2533</v>
+        <v>25</v>
       </c>
       <c r="J56">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K56">
-        <v>24737.9</v>
+        <v>1499.2</v>
       </c>
       <c r="L56">
-        <v>24737.9</v>
+        <v>1499.2</v>
       </c>
       <c r="M56" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>466</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -3674,37 +3692,37 @@
         <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F57">
-        <v>791</v>
+        <v>111</v>
       </c>
       <c r="G57" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H57">
-        <v>34128</v>
+        <v>5995</v>
       </c>
       <c r="I57">
-        <v>19796</v>
+        <v>663</v>
       </c>
       <c r="J57">
-        <v>35.68</v>
+        <v>224.89</v>
       </c>
       <c r="K57">
-        <v>28222.88</v>
+        <v>24962.79</v>
       </c>
       <c r="L57">
-        <v>28222.88</v>
+        <v>24962.79</v>
       </c>
       <c r="M57" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>2388</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3721,37 +3739,37 @@
         <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F58">
-        <v>1041</v>
+        <v>660</v>
       </c>
       <c r="G58" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="H58">
-        <v>35193</v>
+        <v>35203</v>
       </c>
       <c r="I58">
-        <v>20743</v>
+        <v>4545</v>
       </c>
       <c r="J58">
         <v>228.26</v>
       </c>
       <c r="K58">
-        <v>237618.66</v>
+        <v>150651.6</v>
       </c>
       <c r="L58">
-        <v>237618.66</v>
+        <v>150651.6</v>
       </c>
       <c r="M58" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>2408</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3768,37 +3786,37 @@
         <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F59">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G59" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="H59">
-        <v>1921</v>
+        <v>2110</v>
       </c>
       <c r="I59">
-        <v>3107</v>
+        <v>734</v>
       </c>
       <c r="J59">
         <v>22.64</v>
       </c>
       <c r="K59">
-        <v>2558.32</v>
+        <v>2965.84</v>
       </c>
       <c r="L59">
-        <v>2558.32</v>
+        <v>2965.84</v>
       </c>
       <c r="M59" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3815,37 +3833,37 @@
         <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H60">
-        <v>2104</v>
+        <v>2003</v>
       </c>
       <c r="I60">
-        <v>1147</v>
+        <v>364</v>
       </c>
       <c r="J60">
         <v>51.12</v>
       </c>
       <c r="K60">
-        <v>357.84</v>
+        <v>3731.76</v>
       </c>
       <c r="L60">
-        <v>357.84</v>
+        <v>3731.76</v>
       </c>
       <c r="M60" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>159</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3862,45 +3880,45 @@
         <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F61">
-        <v>53</v>
+        <v>812</v>
       </c>
       <c r="G61" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="H61">
-        <v>1289</v>
+        <v>35207</v>
       </c>
       <c r="I61">
-        <v>1098</v>
+        <v>5407</v>
       </c>
       <c r="J61">
-        <v>266.12</v>
+        <v>35.68</v>
       </c>
       <c r="K61">
-        <v>14104.36</v>
+        <v>28972.16</v>
       </c>
       <c r="L61">
-        <v>14104.36</v>
+        <v>28972.16</v>
       </c>
       <c r="M61" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>31</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -3909,37 +3927,37 @@
         <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F62">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H62">
-        <v>1906</v>
+        <v>2155</v>
       </c>
       <c r="I62">
-        <v>814</v>
+        <v>246</v>
       </c>
       <c r="J62">
-        <v>44.98</v>
+        <v>266.12</v>
       </c>
       <c r="K62">
-        <v>1484.34</v>
+        <v>13838.24</v>
       </c>
       <c r="L62">
-        <v>1484.34</v>
+        <v>13838.24</v>
       </c>
       <c r="M62" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>182</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3956,45 +3974,45 @@
         <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F63">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="H63">
-        <v>7560</v>
+        <v>3024</v>
       </c>
       <c r="I63">
-        <v>3582</v>
+        <v>218</v>
       </c>
       <c r="J63">
-        <v>179.91</v>
+        <v>44.98</v>
       </c>
       <c r="K63">
-        <v>24107.94</v>
+        <v>1529.32</v>
       </c>
       <c r="L63">
-        <v>24107.94</v>
+        <v>1529.32</v>
       </c>
       <c r="M63" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>663</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -4003,37 +4021,37 @@
         <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F64">
+        <v>159</v>
+      </c>
+      <c r="G64" t="s">
         <v>202</v>
       </c>
-      <c r="G64" t="s">
-        <v>161</v>
-      </c>
       <c r="H64">
-        <v>8534</v>
+        <v>9050</v>
       </c>
       <c r="I64">
-        <v>5011</v>
+        <v>1006</v>
       </c>
       <c r="J64">
-        <v>142.43</v>
+        <v>179.91</v>
       </c>
       <c r="K64">
-        <v>28770.86</v>
+        <v>28605.69</v>
       </c>
       <c r="L64">
-        <v>28770.86</v>
+        <v>28605.69</v>
       </c>
       <c r="M64" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>587</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4050,45 +4068,45 @@
         <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F65">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H65">
-        <v>1830</v>
+        <v>2017</v>
       </c>
       <c r="I65">
-        <v>1419</v>
+        <v>316</v>
       </c>
       <c r="J65">
         <v>187.41</v>
       </c>
       <c r="K65">
-        <v>8808.27</v>
+        <v>9183.09</v>
       </c>
       <c r="L65">
-        <v>8808.27</v>
+        <v>9183.09</v>
       </c>
       <c r="M65" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -4097,45 +4115,45 @@
         <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F66">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="G66" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="H66">
-        <v>3564</v>
+        <v>9607</v>
       </c>
       <c r="I66">
-        <v>1640</v>
+        <v>1355</v>
       </c>
       <c r="J66">
-        <v>179.91</v>
+        <v>142.43</v>
       </c>
       <c r="K66">
-        <v>17091.45</v>
+        <v>26919.27</v>
       </c>
       <c r="L66">
-        <v>17091.45</v>
+        <v>26919.27</v>
       </c>
       <c r="M66" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>320</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -4144,37 +4162,37 @@
         <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F67">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H67">
-        <v>2285</v>
+        <v>3992</v>
       </c>
       <c r="I67">
-        <v>2585</v>
+        <v>453</v>
       </c>
       <c r="J67">
-        <v>56.22</v>
+        <v>179.91</v>
       </c>
       <c r="K67">
-        <v>5959.32</v>
+        <v>11514.24</v>
       </c>
       <c r="L67">
-        <v>5959.32</v>
+        <v>11514.24</v>
       </c>
       <c r="M67" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4191,45 +4209,45 @@
         <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F68">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H68">
-        <v>9595</v>
+        <v>5747</v>
       </c>
       <c r="I68">
-        <v>6733</v>
+        <v>1880</v>
       </c>
       <c r="J68">
         <v>149.93</v>
       </c>
       <c r="K68">
-        <v>43029.91</v>
+        <v>45278.86</v>
       </c>
       <c r="L68">
-        <v>43029.91</v>
+        <v>45278.86</v>
       </c>
       <c r="M68" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>477</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -4241,42 +4259,42 @@
         <v>153</v>
       </c>
       <c r="F69">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="H69">
-        <v>11731</v>
+        <v>1739</v>
       </c>
       <c r="I69">
-        <v>6375</v>
+        <v>781</v>
       </c>
       <c r="J69">
-        <v>359.82</v>
+        <v>56.22</v>
       </c>
       <c r="K69">
-        <v>102908.52</v>
+        <v>4441.38</v>
       </c>
       <c r="L69">
-        <v>102908.52</v>
+        <v>4441.38</v>
       </c>
       <c r="M69" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>892</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -4288,42 +4306,42 @@
         <v>154</v>
       </c>
       <c r="F70">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="G70" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H70">
-        <v>521</v>
+        <v>13307</v>
       </c>
       <c r="I70">
-        <v>693</v>
+        <v>1850</v>
       </c>
       <c r="J70">
-        <v>134.93</v>
+        <v>359.82</v>
       </c>
       <c r="K70">
-        <v>8500.59</v>
+        <v>116581.68</v>
       </c>
       <c r="L70">
-        <v>8500.59</v>
+        <v>116581.68</v>
       </c>
       <c r="M70" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -4332,37 +4350,37 @@
         <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F71">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="G71" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H71">
-        <v>4555</v>
+        <v>571</v>
       </c>
       <c r="I71">
-        <v>3231</v>
+        <v>245</v>
       </c>
       <c r="J71">
-        <v>187.41</v>
+        <v>134.93</v>
       </c>
       <c r="K71">
-        <v>29610.78</v>
+        <v>7691.01</v>
       </c>
       <c r="L71">
-        <v>29610.78</v>
+        <v>7691.01</v>
       </c>
       <c r="M71" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>220</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4379,45 +4397,45 @@
         <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F72">
-        <v>1345</v>
+        <v>7243</v>
       </c>
       <c r="G72" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H72">
-        <v>197285</v>
+        <v>231337</v>
       </c>
       <c r="I72">
-        <v>93449</v>
+        <v>50622</v>
       </c>
       <c r="J72">
         <v>41.23</v>
       </c>
       <c r="K72">
-        <v>55454.35</v>
+        <v>298628.89</v>
       </c>
       <c r="L72">
-        <v>50795.36</v>
+        <v>273107.52</v>
       </c>
       <c r="M72" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N72">
-        <v>4658.99</v>
+        <v>25521.37</v>
       </c>
       <c r="O72">
-        <v>17306</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -4426,45 +4444,45 @@
         <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F73">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="G73" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H73">
-        <v>6190</v>
+        <v>5126</v>
       </c>
       <c r="I73">
-        <v>2525</v>
+        <v>1248</v>
       </c>
       <c r="J73">
-        <v>299.85</v>
+        <v>187.41</v>
       </c>
       <c r="K73">
-        <v>30284.85</v>
+        <v>38419.05</v>
       </c>
       <c r="L73">
-        <v>30284.85</v>
+        <v>38419.05</v>
       </c>
       <c r="M73" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>610</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -4473,45 +4491,45 @@
         <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>5025</v>
       </c>
       <c r="I74">
-        <v>134</v>
+        <v>751</v>
       </c>
       <c r="J74">
-        <v>134.93</v>
+        <v>299.85</v>
       </c>
       <c r="K74">
-        <v>269.86</v>
+        <v>32683.65</v>
       </c>
       <c r="L74">
-        <v>269.86</v>
+        <v>32683.65</v>
       </c>
       <c r="M74" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -4520,31 +4538,31 @@
         <v>121</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F75">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>2459</v>
+        <v>48</v>
       </c>
       <c r="J75">
-        <v>29.99</v>
+        <v>134.93</v>
       </c>
       <c r="K75">
-        <v>2639.12</v>
+        <v>809.58</v>
       </c>
       <c r="L75">
-        <v>2639.12</v>
+        <v>809.58</v>
       </c>
       <c r="M75" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4555,10 +4573,10 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -4570,34 +4588,34 @@
         <v>157</v>
       </c>
       <c r="F76">
-        <v>543</v>
+        <v>64</v>
       </c>
       <c r="G76" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H76">
-        <v>37000</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>13668</v>
+        <v>627</v>
       </c>
       <c r="J76">
-        <v>71.20999999999999</v>
+        <v>29.99</v>
       </c>
       <c r="K76">
-        <v>38667.03</v>
+        <v>1919.36</v>
       </c>
       <c r="L76">
-        <v>37385.25</v>
+        <v>1919.36</v>
       </c>
       <c r="M76" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N76">
-        <v>1281.78</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>3888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4617,34 +4635,34 @@
         <v>158</v>
       </c>
       <c r="F77">
-        <v>1636</v>
+        <v>1063</v>
       </c>
       <c r="G77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H77">
-        <v>60000</v>
+        <v>50267</v>
       </c>
       <c r="I77">
-        <v>30854</v>
+        <v>7606</v>
       </c>
       <c r="J77">
         <v>314.84</v>
       </c>
       <c r="K77">
-        <v>515078.24</v>
+        <v>334674.92</v>
       </c>
       <c r="L77">
-        <v>497447.2</v>
+        <v>321136.8</v>
       </c>
       <c r="M77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N77">
-        <v>17631.04</v>
+        <v>13538.12</v>
       </c>
       <c r="O77">
-        <v>4857</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4661,37 +4679,37 @@
         <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F78">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G78" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="H78">
-        <v>8200</v>
+        <v>9585</v>
       </c>
       <c r="I78">
-        <v>3752</v>
+        <v>955</v>
       </c>
       <c r="J78">
         <v>224.89</v>
       </c>
       <c r="K78">
-        <v>40705.09</v>
+        <v>34408.17</v>
       </c>
       <c r="L78">
-        <v>40705.09</v>
+        <v>34408.17</v>
       </c>
       <c r="M78" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>741</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4711,34 +4729,34 @@
         <v>159</v>
       </c>
       <c r="F79">
-        <v>1440</v>
+        <v>492</v>
       </c>
       <c r="G79" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="H79">
-        <v>58000</v>
+        <v>40232</v>
       </c>
       <c r="I79">
-        <v>31878</v>
+        <v>3543</v>
       </c>
       <c r="J79">
-        <v>104.95</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="K79">
-        <v>151128</v>
+        <v>35035.32</v>
       </c>
       <c r="L79">
-        <v>144096.35</v>
+        <v>34038.38</v>
       </c>
       <c r="M79" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="N79">
-        <v>7031.65</v>
+        <v>996.9400000000001</v>
       </c>
       <c r="O79">
-        <v>4353</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4758,34 +4776,81 @@
         <v>160</v>
       </c>
       <c r="F80">
-        <v>251</v>
+        <v>1252</v>
       </c>
       <c r="G80" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="H80">
-        <v>8999</v>
+        <v>55319</v>
       </c>
       <c r="I80">
-        <v>3974</v>
+        <v>7390</v>
       </c>
       <c r="J80">
+        <v>104.95</v>
+      </c>
+      <c r="K80">
+        <v>131397.4</v>
+      </c>
+      <c r="L80">
+        <v>125100.4</v>
+      </c>
+      <c r="M80" t="s">
+        <v>222</v>
+      </c>
+      <c r="N80">
+        <v>6297</v>
+      </c>
+      <c r="O80">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81">
+        <v>120</v>
+      </c>
+      <c r="G81" t="s">
+        <v>196</v>
+      </c>
+      <c r="H81">
+        <v>11064</v>
+      </c>
+      <c r="I81">
+        <v>1016</v>
+      </c>
+      <c r="J81">
         <v>143.93</v>
       </c>
-      <c r="K80">
-        <v>36126.43</v>
-      </c>
-      <c r="L80">
-        <v>36126.43</v>
-      </c>
-      <c r="M80" t="s">
-        <v>182</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>837</v>
+      <c r="K81">
+        <v>17271.6</v>
+      </c>
+      <c r="L81">
+        <v>17271.6</v>
+      </c>
+      <c r="M81" t="s">
+        <v>196</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="219">
   <si>
     <t>BSL NO</t>
   </si>
@@ -163,18 +163,18 @@
     <t>Augment 375 Tablet 18's</t>
   </si>
   <si>
+    <t>Augment 1gm Tablet 12's</t>
+  </si>
+  <si>
+    <t>Augment 100ml PFS</t>
+  </si>
+  <si>
+    <t>Augment 625 Tablet 18's</t>
+  </si>
+  <si>
     <t>Augment 1.2g IV Injection 1's</t>
   </si>
   <si>
-    <t>Augment 625 Tablet 18's</t>
-  </si>
-  <si>
-    <t>Augment 1gm Tablet 12's</t>
-  </si>
-  <si>
-    <t>Augment 100ml PFS</t>
-  </si>
-  <si>
     <t>Biltin 20mg Tablet 20's</t>
   </si>
   <si>
@@ -193,12 +193,12 @@
     <t>Dinafex 180mg FC Tablet 40's</t>
   </si>
   <si>
+    <t>Dinafex 50ml Suspension</t>
+  </si>
+  <si>
     <t>Dinafex 120mg FC Tablet 40's</t>
   </si>
   <si>
-    <t>Dinafex 50ml Suspension</t>
-  </si>
-  <si>
     <t>Dorenta 100ml Syrup</t>
   </si>
   <si>
@@ -220,15 +220,15 @@
     <t>Flucloxin 500mg IM/IV Injection</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule 40's</t>
+  </si>
+  <si>
     <t>Flucloxin 250mg Capsule</t>
   </si>
   <si>
     <t>Flucloxin 100ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule 40's</t>
-  </si>
-  <si>
     <t>Ketonic 30mg IM/IV Injection</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>Ketonic 60mg IM Injection</t>
   </si>
   <si>
+    <t>Levomax 500mg Tablet - 20's</t>
+  </si>
+  <si>
     <t>Levomax 750mg Tablet - 10's</t>
   </si>
   <si>
-    <t>Levomax 500mg Tablet - 20's</t>
-  </si>
-  <si>
     <t>Lindamax 300mg Capsule</t>
   </si>
   <si>
@@ -265,24 +265,24 @@
     <t>Nabumet 500mg FC Tab 30's</t>
   </si>
   <si>
+    <t>Naprox 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox Plus 375mg Tablet - 30's</t>
+  </si>
+  <si>
     <t>Naprox 15gm Gel</t>
   </si>
   <si>
+    <t>Naprox 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Naprox 50ml Suspension</t>
+  </si>
+  <si>
     <t>Naprox Plus 500mg Tablet - 36's</t>
   </si>
   <si>
-    <t>Naprox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Naprox 50ml Suspension</t>
-  </si>
-  <si>
-    <t>Naprox Plus 375mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Ontin 60ml Syrup</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>Oradin 10mg Tablet</t>
   </si>
   <si>
+    <t>Oradin 60ml Suspension</t>
+  </si>
+  <si>
     <t>Oradin FT 10mg Tablet</t>
   </si>
   <si>
-    <t>Oradin 60ml Suspension</t>
-  </si>
-  <si>
     <t>Osticare FC Tab Container 30's</t>
   </si>
   <si>
@@ -310,51 +310,51 @@
     <t>Quinox 750mg Tablet</t>
   </si>
   <si>
+    <t>Quinox DS 60ml Pellets for Suspension</t>
+  </si>
+  <si>
+    <t>Quinox 500mg Tablet (40's)</t>
+  </si>
+  <si>
+    <t>Quinox 250mg Tablet</t>
+  </si>
+  <si>
     <t>Quinox 500mg Tablet - 20's</t>
   </si>
   <si>
-    <t>Quinox DS 60ml Pellets for Suspension</t>
-  </si>
-  <si>
-    <t>Quinox 500mg Tablet (40's)</t>
-  </si>
-  <si>
-    <t>Quinox 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Quinox 100ml IV Infusion</t>
-  </si>
-  <si>
     <t>Rupaday 10mg Tablet 30's</t>
   </si>
   <si>
+    <t>Sk-Mox 15ml P/D</t>
+  </si>
+  <si>
+    <t>Sk-Mox 100ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Sk-Mox 500mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox 250mg Capsule</t>
+  </si>
+  <si>
+    <t>Sk-Mox DS 100ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Sk-Mox 500mg Capsule 50's</t>
   </si>
   <si>
-    <t>Sk-Mox 15ml P/D</t>
-  </si>
-  <si>
-    <t>Sk-Mox DS 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 100ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Sk-Mox 250mg Capsule</t>
+    <t>Stiba 10mg Tablet - 30's</t>
   </si>
   <si>
     <t>Stiba 30ml Syrup</t>
   </si>
   <si>
-    <t>Stiba 10mg Tablet - 30's</t>
+    <t>Sulidac 200 Tablet 20's</t>
   </si>
   <si>
     <t>Sulidac 100mg Tablet 50's</t>
   </si>
   <si>
-    <t>Sulidac 200 Tablet 20's</t>
-  </si>
-  <si>
     <t>Tenoxim 20mg Tablet</t>
   </si>
   <si>
@@ -370,12 +370,12 @@
     <t>Toperin 50mg Tablet - 60's</t>
   </si>
   <si>
+    <t>Toti Tablet</t>
+  </si>
+  <si>
     <t>Toti 100ml Syrup</t>
   </si>
   <si>
-    <t>Toti Tablet</t>
-  </si>
-  <si>
     <t>Visomox 400mg FC Tablet 10's</t>
   </si>
   <si>
@@ -385,30 +385,30 @@
     <t>Xenthol 30 Cream</t>
   </si>
   <si>
+    <t>Zithrox 250mg Tablet - 12's</t>
+  </si>
+  <si>
+    <t>Zithrox 50ml Powder for Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 35ml Dry Suspension</t>
+  </si>
+  <si>
     <t>Zithrox 500mg Tablet - 12's</t>
   </si>
   <si>
-    <t>Zithrox 250mg Tablet - 12's</t>
-  </si>
-  <si>
     <t>Zithrox 20ml Powder for Suspension</t>
   </si>
   <si>
-    <t>Zithrox 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 50ml Powder for Suspension</t>
-  </si>
-  <si>
     <t>18's</t>
   </si>
   <si>
+    <t>12's</t>
+  </si>
+  <si>
     <t>1's</t>
   </si>
   <si>
-    <t>12's</t>
-  </si>
-  <si>
     <t>20's</t>
   </si>
   <si>
@@ -442,12 +442,12 @@
     <t>1 's</t>
   </si>
   <si>
+    <t>20 's</t>
+  </si>
+  <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>20 's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -457,21 +457,24 @@
     <t>24's</t>
   </si>
   <si>
+    <t xml:space="preserve"> 50 's</t>
+  </si>
+  <si>
     <t>15 gm</t>
   </si>
   <si>
     <t>36's</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50 's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
     <t>15 ml</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
     <t>30ml</t>
   </si>
   <si>
@@ -490,199 +493,184 @@
     <t>15gm</t>
   </si>
   <si>
+    <t>50ml</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
     <t>12 's</t>
   </si>
   <si>
     <t>20ml</t>
   </si>
   <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>50ml</t>
-  </si>
-  <si>
-    <t>0.26</t>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>6.56</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>11.29</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
   <si>
     <t>1.11</t>
   </si>
   <si>
-    <t>1.69</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>6.56</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>10.62</t>
-  </si>
-  <si>
-    <t>11.67</t>
-  </si>
-  <si>
-    <t>3.92</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.45</t>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>3.87</t>
   </si>
   <si>
     <t>0.39</t>
   </si>
   <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>4.28</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>3.86</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>1.77</t>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>0.63</t>
   </si>
 </sst>
 </file>
@@ -1110,34 +1098,34 @@
         <v>128</v>
       </c>
       <c r="F2">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H2">
         <v>3520</v>
       </c>
       <c r="I2">
-        <v>503</v>
+        <v>828</v>
       </c>
       <c r="J2">
         <v>269.87</v>
       </c>
       <c r="K2">
-        <v>18351.16</v>
+        <v>25367.78</v>
       </c>
       <c r="L2">
-        <v>18351.16</v>
+        <v>25367.78</v>
       </c>
       <c r="M2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1157,34 +1145,34 @@
         <v>129</v>
       </c>
       <c r="F3">
-        <v>380</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H3">
-        <v>2516</v>
+        <v>2869</v>
       </c>
       <c r="I3">
-        <v>1702</v>
+        <v>722</v>
       </c>
       <c r="J3">
-        <v>206.15</v>
+        <v>269.87</v>
       </c>
       <c r="K3">
-        <v>78337</v>
+        <v>17271.68</v>
       </c>
       <c r="L3">
-        <v>78337</v>
+        <v>17271.68</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>33</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1201,37 +1189,37 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F4">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H4">
-        <v>15137</v>
+        <v>12814</v>
       </c>
       <c r="I4">
-        <v>2579</v>
+        <v>2454</v>
       </c>
       <c r="J4">
-        <v>337.33</v>
+        <v>131.18</v>
       </c>
       <c r="K4">
-        <v>119414.82</v>
+        <v>36992.76</v>
       </c>
       <c r="L4">
-        <v>119414.82</v>
+        <v>36992.76</v>
       </c>
       <c r="M4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>523</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1248,37 +1236,37 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5">
-        <v>59</v>
+        <v>391</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H5">
-        <v>2869</v>
+        <v>15137</v>
       </c>
       <c r="I5">
-        <v>469</v>
+        <v>4177</v>
       </c>
       <c r="J5">
-        <v>269.87</v>
+        <v>337.33</v>
       </c>
       <c r="K5">
-        <v>15922.33</v>
+        <v>131896.03</v>
       </c>
       <c r="L5">
-        <v>15922.33</v>
+        <v>131896.03</v>
       </c>
       <c r="M5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1295,37 +1283,37 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H6">
-        <v>12814</v>
+        <v>2516</v>
       </c>
       <c r="I6">
-        <v>1520</v>
+        <v>3794</v>
       </c>
       <c r="J6">
-        <v>131.18</v>
+        <v>206.15</v>
       </c>
       <c r="K6">
-        <v>29121.96</v>
+        <v>87201.45</v>
       </c>
       <c r="L6">
-        <v>29121.96</v>
+        <v>87201.45</v>
       </c>
       <c r="M6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1345,34 +1333,34 @@
         <v>131</v>
       </c>
       <c r="F7">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H7">
         <v>68396</v>
       </c>
       <c r="I7">
-        <v>1880</v>
+        <v>2520</v>
       </c>
       <c r="J7">
         <v>224.89</v>
       </c>
       <c r="K7">
-        <v>40705.09</v>
+        <v>29685.48</v>
       </c>
       <c r="L7">
-        <v>40705.09</v>
+        <v>29685.48</v>
       </c>
       <c r="M7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2771</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1392,28 +1380,28 @@
         <v>132</v>
       </c>
       <c r="F8">
-        <v>1375</v>
+        <v>1590</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8466</v>
+        <v>14790</v>
       </c>
       <c r="J8">
         <v>337.33</v>
       </c>
       <c r="K8">
-        <v>463828.75</v>
+        <v>536354.7</v>
       </c>
       <c r="L8">
-        <v>463828.75</v>
+        <v>536354.7</v>
       </c>
       <c r="M8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1439,28 +1427,28 @@
         <v>133</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>239.88</v>
       </c>
       <c r="K9">
-        <v>1439.28</v>
+        <v>719.64</v>
       </c>
       <c r="L9">
-        <v>1439.28</v>
+        <v>719.64</v>
       </c>
       <c r="M9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1486,34 +1474,34 @@
         <v>134</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H10">
         <v>487</v>
       </c>
       <c r="I10">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="J10">
         <v>112.45</v>
       </c>
       <c r="K10">
-        <v>1012.05</v>
+        <v>4273.1</v>
       </c>
       <c r="L10">
-        <v>1012.05</v>
+        <v>4273.1</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1533,34 +1521,34 @@
         <v>135</v>
       </c>
       <c r="F11">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H11">
         <v>2110</v>
       </c>
       <c r="I11">
-        <v>439</v>
+        <v>728</v>
       </c>
       <c r="J11">
         <v>104.95</v>
       </c>
       <c r="K11">
-        <v>4512.85</v>
+        <v>8710.85</v>
       </c>
       <c r="L11">
-        <v>4512.85</v>
+        <v>8710.85</v>
       </c>
       <c r="M11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1580,34 +1568,34 @@
         <v>135</v>
       </c>
       <c r="F12">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H12">
         <v>3024</v>
       </c>
       <c r="I12">
-        <v>544</v>
+        <v>900</v>
       </c>
       <c r="J12">
         <v>299.85</v>
       </c>
       <c r="K12">
-        <v>17391.3</v>
+        <v>27586.2</v>
       </c>
       <c r="L12">
-        <v>17391.3</v>
+        <v>27586.2</v>
       </c>
       <c r="M12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1624,37 +1612,37 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13">
-        <v>451</v>
+        <v>1499</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H13">
-        <v>17993</v>
+        <v>70411</v>
       </c>
       <c r="I13">
-        <v>3263</v>
+        <v>13970</v>
       </c>
       <c r="J13">
-        <v>239.88</v>
+        <v>35.98</v>
       </c>
       <c r="K13">
-        <v>108185.88</v>
+        <v>53934.02</v>
       </c>
       <c r="L13">
-        <v>108185.88</v>
+        <v>53934.02</v>
       </c>
       <c r="M13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>613</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1671,37 +1659,37 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14">
-        <v>996</v>
+        <v>546</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H14">
-        <v>70411</v>
+        <v>17993</v>
       </c>
       <c r="I14">
-        <v>8227</v>
+        <v>5600</v>
       </c>
       <c r="J14">
-        <v>35.98</v>
+        <v>239.88</v>
       </c>
       <c r="K14">
-        <v>35836.08</v>
+        <v>130974.48</v>
       </c>
       <c r="L14">
-        <v>35836.08</v>
+        <v>130974.48</v>
       </c>
       <c r="M14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2591</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1721,34 +1709,34 @@
         <v>137</v>
       </c>
       <c r="F15">
-        <v>1122</v>
+        <v>1025</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H15">
-        <v>65379</v>
+        <v>65378</v>
       </c>
       <c r="I15">
-        <v>6255</v>
+        <v>10509</v>
       </c>
       <c r="J15">
         <v>29.99</v>
       </c>
       <c r="K15">
-        <v>33648.78</v>
+        <v>30739.75</v>
       </c>
       <c r="L15">
-        <v>33648.78</v>
+        <v>30739.75</v>
       </c>
       <c r="M15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2463</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1768,34 +1756,34 @@
         <v>132</v>
       </c>
       <c r="F16">
-        <v>2385</v>
+        <v>2807</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H16">
         <v>79410</v>
       </c>
       <c r="I16">
-        <v>14682</v>
+        <v>25830</v>
       </c>
       <c r="J16">
         <v>314.84</v>
       </c>
       <c r="K16">
-        <v>750893.4</v>
+        <v>883755.88</v>
       </c>
       <c r="L16">
-        <v>750893.4</v>
+        <v>883755.88</v>
       </c>
       <c r="M16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2697</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1815,34 +1803,34 @@
         <v>135</v>
       </c>
       <c r="F17">
-        <v>2294</v>
+        <v>2566</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H17">
         <v>80629</v>
       </c>
       <c r="I17">
-        <v>13729</v>
+        <v>23985</v>
       </c>
       <c r="J17">
         <v>359.82</v>
       </c>
       <c r="K17">
-        <v>825427.08</v>
+        <v>923298.12</v>
       </c>
       <c r="L17">
-        <v>825427.08</v>
+        <v>923298.12</v>
       </c>
       <c r="M17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2787</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1862,34 +1850,34 @@
         <v>138</v>
       </c>
       <c r="F18">
-        <v>1058</v>
+        <v>1285</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H18">
         <v>45653</v>
       </c>
       <c r="I18">
-        <v>6183</v>
+        <v>11130</v>
       </c>
       <c r="J18">
         <v>262.37</v>
       </c>
       <c r="K18">
-        <v>277587.46</v>
+        <v>337145.45</v>
       </c>
       <c r="L18">
-        <v>277587.46</v>
+        <v>337145.45</v>
       </c>
       <c r="M18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1644</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1909,34 +1897,34 @@
         <v>134</v>
       </c>
       <c r="F19">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H19">
         <v>3522</v>
       </c>
       <c r="I19">
-        <v>287</v>
+        <v>468</v>
       </c>
       <c r="J19">
         <v>168.67</v>
       </c>
       <c r="K19">
-        <v>6240.79</v>
+        <v>8096.16</v>
       </c>
       <c r="L19">
-        <v>6240.79</v>
+        <v>8096.16</v>
       </c>
       <c r="M19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1956,34 +1944,34 @@
         <v>139</v>
       </c>
       <c r="F20">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H20">
         <v>8044</v>
       </c>
       <c r="I20">
-        <v>695</v>
+        <v>1176</v>
       </c>
       <c r="J20">
         <v>179.91</v>
       </c>
       <c r="K20">
-        <v>21589.2</v>
+        <v>19970.01</v>
       </c>
       <c r="L20">
-        <v>21589.2</v>
+        <v>19970.01</v>
       </c>
       <c r="M20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>306</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2000,37 +1988,37 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21">
-        <v>708</v>
+        <v>491</v>
       </c>
       <c r="G21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H21">
         <v>19110</v>
       </c>
       <c r="I21">
-        <v>3449</v>
+        <v>5457</v>
       </c>
       <c r="J21">
         <v>33.94</v>
       </c>
       <c r="K21">
-        <v>24029.52</v>
+        <v>16664.54</v>
       </c>
       <c r="L21">
-        <v>24029.52</v>
+        <v>16664.54</v>
       </c>
       <c r="M21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>652</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2047,37 +2035,37 @@
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F22">
-        <v>262</v>
+        <v>3098</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H22">
-        <v>10058</v>
+        <v>102592</v>
       </c>
       <c r="I22">
-        <v>1580</v>
+        <v>27169</v>
       </c>
       <c r="J22">
-        <v>432.53</v>
+        <v>314.84</v>
       </c>
       <c r="K22">
-        <v>113322.86</v>
+        <v>975374.3199999999</v>
       </c>
       <c r="L22">
-        <v>113322.86</v>
+        <v>916184.4</v>
       </c>
       <c r="M22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>59189.92</v>
       </c>
       <c r="O22">
-        <v>353</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2094,37 +2082,37 @@
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F23">
-        <v>3607</v>
+        <v>319</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H23">
-        <v>130754</v>
+        <v>10058</v>
       </c>
       <c r="I23">
-        <v>23487</v>
+        <v>2607</v>
       </c>
       <c r="J23">
-        <v>45.73</v>
+        <v>432.53</v>
       </c>
       <c r="K23">
-        <v>164948.11</v>
+        <v>137977.07</v>
       </c>
       <c r="L23">
-        <v>138378.98</v>
+        <v>137977.07</v>
       </c>
       <c r="M23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N23">
-        <v>26569.13</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4469</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2141,37 +2129,37 @@
         <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F24">
-        <v>2544</v>
+        <v>4436</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H24">
-        <v>102592</v>
+        <v>130754</v>
       </c>
       <c r="I24">
-        <v>15501</v>
+        <v>40206</v>
       </c>
       <c r="J24">
-        <v>314.84</v>
+        <v>45.73</v>
       </c>
       <c r="K24">
-        <v>800952.96</v>
+        <v>202858.28</v>
       </c>
       <c r="L24">
-        <v>754671.48</v>
+        <v>171121.66</v>
       </c>
       <c r="M24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N24">
-        <v>46281.48</v>
+        <v>31736.62</v>
       </c>
       <c r="O24">
-        <v>3628</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2191,34 +2179,34 @@
         <v>141</v>
       </c>
       <c r="F25">
-        <v>1113</v>
+        <v>1471</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H25">
         <v>62364</v>
       </c>
       <c r="I25">
-        <v>8051</v>
+        <v>14808</v>
       </c>
       <c r="J25">
         <v>22.83</v>
       </c>
       <c r="K25">
-        <v>25409.79</v>
+        <v>33582.93</v>
       </c>
       <c r="L25">
-        <v>26329.79</v>
+        <v>33619.73</v>
       </c>
       <c r="M25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N25">
-        <v>-920</v>
+        <v>-36.8</v>
       </c>
       <c r="O25">
-        <v>2263</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2238,34 +2226,34 @@
         <v>132</v>
       </c>
       <c r="F26">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H26">
         <v>4795</v>
       </c>
       <c r="I26">
-        <v>903</v>
+        <v>1466</v>
       </c>
       <c r="J26">
         <v>224.89</v>
       </c>
       <c r="K26">
-        <v>31709.49</v>
+        <v>31484.6</v>
       </c>
       <c r="L26">
-        <v>31709.49</v>
+        <v>31484.6</v>
       </c>
       <c r="M26" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2285,7 +2273,7 @@
         <v>141</v>
       </c>
       <c r="F27">
-        <v>730</v>
+        <v>1101</v>
       </c>
       <c r="G27" t="s">
         <v>187</v>
@@ -2294,25 +2282,25 @@
         <v>38371</v>
       </c>
       <c r="I27">
-        <v>5818</v>
+        <v>9813</v>
       </c>
       <c r="J27">
         <v>37.61</v>
       </c>
       <c r="K27">
-        <v>27455.3</v>
+        <v>41408.61</v>
       </c>
       <c r="L27">
-        <v>27488.9</v>
+        <v>41509.41</v>
       </c>
       <c r="M27" t="s">
         <v>187</v>
       </c>
       <c r="N27">
-        <v>-33.6</v>
+        <v>-100.8</v>
       </c>
       <c r="O27">
-        <v>1356</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2332,34 +2320,34 @@
         <v>142</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="H28">
-        <v>120</v>
+        <v>3024</v>
       </c>
       <c r="I28">
-        <v>22</v>
+        <v>639</v>
       </c>
       <c r="J28">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="K28">
-        <v>449.79</v>
+        <v>13943.18</v>
       </c>
       <c r="L28">
-        <v>449.79</v>
+        <v>13943.18</v>
       </c>
       <c r="M28" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2379,34 +2367,34 @@
         <v>143</v>
       </c>
       <c r="F29">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H29">
-        <v>3024</v>
+        <v>120</v>
       </c>
       <c r="I29">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="J29">
-        <v>224.89</v>
+        <v>149.93</v>
       </c>
       <c r="K29">
-        <v>12368.95</v>
+        <v>749.65</v>
       </c>
       <c r="L29">
-        <v>12368.95</v>
+        <v>749.65</v>
       </c>
       <c r="M29" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2426,34 +2414,34 @@
         <v>132</v>
       </c>
       <c r="F30">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="H30">
         <v>2054</v>
       </c>
       <c r="I30">
-        <v>383</v>
+        <v>610</v>
       </c>
       <c r="J30">
         <v>337.33</v>
       </c>
       <c r="K30">
-        <v>18553.15</v>
+        <v>16529.17</v>
       </c>
       <c r="L30">
-        <v>18553.15</v>
+        <v>16529.17</v>
       </c>
       <c r="M30" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2473,7 +2461,7 @@
         <v>132</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31" t="s">
         <v>170</v>
@@ -2482,16 +2470,16 @@
         <v>422</v>
       </c>
       <c r="I31">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="J31">
         <v>179.91</v>
       </c>
       <c r="K31">
-        <v>899.55</v>
+        <v>539.73</v>
       </c>
       <c r="L31">
-        <v>899.55</v>
+        <v>539.73</v>
       </c>
       <c r="M31" t="s">
         <v>170</v>
@@ -2500,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2520,7 +2508,7 @@
         <v>144</v>
       </c>
       <c r="F32">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
         <v>189</v>
@@ -2529,16 +2517,16 @@
         <v>2217</v>
       </c>
       <c r="I32">
-        <v>322</v>
+        <v>541</v>
       </c>
       <c r="J32">
         <v>89.95999999999999</v>
       </c>
       <c r="K32">
-        <v>3868.28</v>
+        <v>5757.44</v>
       </c>
       <c r="L32">
-        <v>3868.28</v>
+        <v>5757.44</v>
       </c>
       <c r="M32" t="s">
         <v>189</v>
@@ -2547,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2564,10 +2552,10 @@
         <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
         <v>190</v>
@@ -2576,16 +2564,16 @@
         <v>1832</v>
       </c>
       <c r="I33">
-        <v>245</v>
+        <v>422</v>
       </c>
       <c r="J33">
         <v>93.7</v>
       </c>
       <c r="K33">
-        <v>2998.4</v>
+        <v>4778.7</v>
       </c>
       <c r="L33">
-        <v>2998.4</v>
+        <v>4778.7</v>
       </c>
       <c r="M33" t="s">
         <v>190</v>
@@ -2594,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2614,34 +2602,34 @@
         <v>145</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H34">
         <v>614</v>
       </c>
       <c r="I34">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J34">
         <v>449.78</v>
       </c>
       <c r="K34">
-        <v>3598.24</v>
+        <v>2248.9</v>
       </c>
       <c r="L34">
-        <v>3598.24</v>
+        <v>2248.9</v>
       </c>
       <c r="M34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2661,34 +2649,34 @@
         <v>146</v>
       </c>
       <c r="F35">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H35">
         <v>5675</v>
       </c>
       <c r="I35">
-        <v>676</v>
+        <v>1234</v>
       </c>
       <c r="J35">
         <v>395.8</v>
       </c>
       <c r="K35">
-        <v>41954.8</v>
+        <v>53433</v>
       </c>
       <c r="L35">
-        <v>41954.8</v>
+        <v>53433</v>
       </c>
       <c r="M35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2708,34 +2696,34 @@
         <v>132</v>
       </c>
       <c r="F36">
-        <v>898</v>
+        <v>1179</v>
       </c>
       <c r="G36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H36">
         <v>31941</v>
       </c>
       <c r="I36">
-        <v>5807</v>
+        <v>10153</v>
       </c>
       <c r="J36">
         <v>337.33</v>
       </c>
       <c r="K36">
-        <v>302922.34</v>
+        <v>397712.07</v>
       </c>
       <c r="L36">
-        <v>302922.34</v>
+        <v>397712.07</v>
       </c>
       <c r="M36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>1088</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2755,34 +2743,34 @@
         <v>147</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H37">
-        <v>1005</v>
+        <v>7241</v>
       </c>
       <c r="I37">
-        <v>332</v>
+        <v>2260</v>
       </c>
       <c r="J37">
-        <v>52.47</v>
+        <v>262.37</v>
       </c>
       <c r="K37">
-        <v>2623.5</v>
+        <v>64543.02</v>
       </c>
       <c r="L37">
-        <v>2623.5</v>
+        <v>64543.02</v>
       </c>
       <c r="M37" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>28</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2799,37 +2787,37 @@
         <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F38">
-        <v>709</v>
+        <v>351</v>
       </c>
       <c r="G38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H38">
-        <v>31165</v>
+        <v>11064</v>
       </c>
       <c r="I38">
-        <v>4372</v>
+        <v>3240</v>
       </c>
       <c r="J38">
-        <v>350.82</v>
+        <v>247.38</v>
       </c>
       <c r="K38">
-        <v>248731.38</v>
+        <v>86830.38</v>
       </c>
       <c r="L38">
-        <v>248731.38</v>
+        <v>86830.38</v>
       </c>
       <c r="M38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1116</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2846,37 +2834,37 @@
         <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F39">
-        <v>629</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H39">
-        <v>22122</v>
+        <v>1005</v>
       </c>
       <c r="I39">
-        <v>3767</v>
+        <v>520</v>
       </c>
       <c r="J39">
-        <v>412.3</v>
+        <v>52.47</v>
       </c>
       <c r="K39">
-        <v>259336.7</v>
+        <v>2885.85</v>
       </c>
       <c r="L39">
-        <v>259336.7</v>
+        <v>2885.85</v>
       </c>
       <c r="M39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>764</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2893,37 +2881,37 @@
         <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F40">
-        <v>253</v>
+        <v>688</v>
       </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H40">
-        <v>7241</v>
+        <v>22122</v>
       </c>
       <c r="I40">
-        <v>1301</v>
+        <v>6306</v>
       </c>
       <c r="J40">
-        <v>262.37</v>
+        <v>412.3</v>
       </c>
       <c r="K40">
-        <v>66379.61</v>
+        <v>283662.4</v>
       </c>
       <c r="L40">
-        <v>66379.61</v>
+        <v>283662.4</v>
       </c>
       <c r="M40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>247</v>
+        <v>832</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2943,34 +2931,34 @@
         <v>136</v>
       </c>
       <c r="F41">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="G41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H41">
         <v>9052</v>
       </c>
       <c r="I41">
-        <v>1954</v>
+        <v>3237</v>
       </c>
       <c r="J41">
         <v>52.47</v>
       </c>
       <c r="K41">
-        <v>17262.63</v>
+        <v>22247.28</v>
       </c>
       <c r="L41">
-        <v>17262.63</v>
+        <v>22247.28</v>
       </c>
       <c r="M41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2987,37 +2975,37 @@
         <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F42">
-        <v>313</v>
+        <v>816</v>
       </c>
       <c r="G42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H42">
-        <v>11064</v>
+        <v>31165</v>
       </c>
       <c r="I42">
-        <v>1880</v>
+        <v>7640</v>
       </c>
       <c r="J42">
-        <v>247.38</v>
+        <v>350.82</v>
       </c>
       <c r="K42">
-        <v>77429.94</v>
+        <v>286269.12</v>
       </c>
       <c r="L42">
-        <v>77429.94</v>
+        <v>286269.12</v>
       </c>
       <c r="M42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>382</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3037,34 +3025,34 @@
         <v>150</v>
       </c>
       <c r="F43">
-        <v>507</v>
+        <v>284</v>
       </c>
       <c r="G43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H43">
         <v>18104</v>
       </c>
       <c r="I43">
-        <v>1462</v>
+        <v>3167</v>
       </c>
       <c r="J43">
         <v>22.49</v>
       </c>
       <c r="K43">
-        <v>11402.43</v>
+        <v>6387.16</v>
       </c>
       <c r="L43">
-        <v>11402.43</v>
+        <v>6387.16</v>
       </c>
       <c r="M43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>693</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3084,34 +3072,34 @@
         <v>140</v>
       </c>
       <c r="F44">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="H44">
         <v>1444</v>
       </c>
       <c r="I44">
-        <v>504</v>
+        <v>641</v>
       </c>
       <c r="J44">
         <v>224.89</v>
       </c>
       <c r="K44">
-        <v>8770.709999999999</v>
+        <v>9220.49</v>
       </c>
       <c r="L44">
-        <v>8770.709999999999</v>
+        <v>9220.49</v>
       </c>
       <c r="M44" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3131,34 +3119,34 @@
         <v>140</v>
       </c>
       <c r="F45">
-        <v>1017</v>
+        <v>1090</v>
       </c>
       <c r="G45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H45">
         <v>45715</v>
       </c>
       <c r="I45">
-        <v>6486</v>
+        <v>10952</v>
       </c>
       <c r="J45">
         <v>299.85</v>
       </c>
       <c r="K45">
-        <v>304947.45</v>
+        <v>326836.5</v>
       </c>
       <c r="L45">
-        <v>304947.45</v>
+        <v>326836.5</v>
       </c>
       <c r="M45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>1634</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3175,37 +3163,37 @@
         <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F46">
-        <v>44</v>
+        <v>1250</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="H46">
-        <v>921</v>
+        <v>64376</v>
       </c>
       <c r="I46">
-        <v>212</v>
+        <v>13325</v>
       </c>
       <c r="J46">
-        <v>119.94</v>
+        <v>22.49</v>
       </c>
       <c r="K46">
-        <v>5277.36</v>
+        <v>28112.5</v>
       </c>
       <c r="L46">
-        <v>5277.36</v>
+        <v>28090.01</v>
       </c>
       <c r="M46" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>22.49</v>
       </c>
       <c r="O46">
-        <v>29</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3222,37 +3210,37 @@
         <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F47">
-        <v>1250</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H47">
-        <v>64376</v>
+        <v>921</v>
       </c>
       <c r="I47">
-        <v>8063</v>
+        <v>345</v>
       </c>
       <c r="J47">
-        <v>22.49</v>
+        <v>119.94</v>
       </c>
       <c r="K47">
-        <v>28112.5</v>
+        <v>2878.56</v>
       </c>
       <c r="L47">
-        <v>28045.03</v>
+        <v>2878.56</v>
       </c>
       <c r="M47" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N47">
-        <v>67.47</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>2346</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3272,34 +3260,34 @@
         <v>132</v>
       </c>
       <c r="F48">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H48">
         <v>3071</v>
       </c>
       <c r="I48">
-        <v>262</v>
+        <v>457</v>
       </c>
       <c r="J48">
         <v>269.87</v>
       </c>
       <c r="K48">
-        <v>15112.72</v>
+        <v>9445.450000000001</v>
       </c>
       <c r="L48">
-        <v>15112.72</v>
+        <v>9445.450000000001</v>
       </c>
       <c r="M48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3319,34 +3307,34 @@
         <v>132</v>
       </c>
       <c r="F49">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="G49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H49">
-        <v>17104</v>
+        <v>17103</v>
       </c>
       <c r="I49">
-        <v>1976</v>
+        <v>3420</v>
       </c>
       <c r="J49">
         <v>269.87</v>
       </c>
       <c r="K49">
-        <v>93644.89</v>
+        <v>100391.64</v>
       </c>
       <c r="L49">
-        <v>93644.89</v>
+        <v>100391.64</v>
       </c>
       <c r="M49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3366,34 +3354,34 @@
         <v>140</v>
       </c>
       <c r="F50">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H50">
         <v>4019</v>
       </c>
       <c r="I50">
-        <v>623</v>
+        <v>1056</v>
       </c>
       <c r="J50">
         <v>299.85</v>
       </c>
       <c r="K50">
-        <v>29685.15</v>
+        <v>34182.9</v>
       </c>
       <c r="L50">
-        <v>29685.15</v>
+        <v>34182.9</v>
       </c>
       <c r="M50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3410,19 +3398,19 @@
         <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="H51">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I51">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J51">
         <v>134.93</v>
@@ -3434,13 +3422,13 @@
         <v>1349.3</v>
       </c>
       <c r="M51" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3457,37 +3445,37 @@
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>1348</v>
       </c>
       <c r="G52" t="s">
         <v>206</v>
       </c>
       <c r="H52">
-        <v>1011</v>
+        <v>50300</v>
       </c>
       <c r="I52">
-        <v>44</v>
+        <v>14670</v>
       </c>
       <c r="J52">
-        <v>224.89</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K52">
-        <v>1799.12</v>
+        <v>101046.08</v>
       </c>
       <c r="L52">
-        <v>224.89</v>
+        <v>90776.56</v>
       </c>
       <c r="M52" t="s">
         <v>206</v>
       </c>
       <c r="N52">
-        <v>1574.23</v>
+        <v>10269.52</v>
       </c>
       <c r="O52">
-        <v>40</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3504,37 +3492,37 @@
         <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F53">
-        <v>1449</v>
+        <v>167</v>
       </c>
       <c r="G53" t="s">
         <v>207</v>
       </c>
       <c r="H53">
-        <v>50299</v>
+        <v>13075</v>
       </c>
       <c r="I53">
-        <v>8670</v>
+        <v>2131</v>
       </c>
       <c r="J53">
-        <v>74.95999999999999</v>
+        <v>449.78</v>
       </c>
       <c r="K53">
-        <v>108617.04</v>
+        <v>75113.25999999999</v>
       </c>
       <c r="L53">
-        <v>97148.16</v>
+        <v>70165.67999999999</v>
       </c>
       <c r="M53" t="s">
         <v>207</v>
       </c>
       <c r="N53">
-        <v>11468.88</v>
+        <v>4947.58</v>
       </c>
       <c r="O53">
-        <v>1734</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3551,37 +3539,37 @@
         <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F54">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="H54">
-        <v>13075</v>
+        <v>514</v>
       </c>
       <c r="I54">
-        <v>1249</v>
+        <v>107</v>
       </c>
       <c r="J54">
-        <v>449.78</v>
+        <v>191.15</v>
       </c>
       <c r="K54">
-        <v>101650.28</v>
+        <v>1146.9</v>
       </c>
       <c r="L54">
-        <v>93104.46000000001</v>
+        <v>1146.9</v>
       </c>
       <c r="M54" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="N54">
-        <v>8545.82</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>492</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3598,45 +3586,45 @@
         <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F55">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G55" t="s">
         <v>208</v>
       </c>
       <c r="H55">
-        <v>514</v>
+        <v>1011</v>
       </c>
       <c r="I55">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J55">
-        <v>191.15</v>
+        <v>224.89</v>
       </c>
       <c r="K55">
-        <v>2102.65</v>
+        <v>899.5599999999999</v>
       </c>
       <c r="L55">
-        <v>2102.65</v>
+        <v>0</v>
       </c>
       <c r="M55" t="s">
         <v>208</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>899.5599999999999</v>
       </c>
       <c r="O55">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -3645,45 +3633,45 @@
         <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H56">
-        <v>1011</v>
+        <v>5995</v>
       </c>
       <c r="I56">
-        <v>25</v>
+        <v>1115</v>
       </c>
       <c r="J56">
-        <v>74.95999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="K56">
-        <v>1499.2</v>
+        <v>30809.93</v>
       </c>
       <c r="L56">
-        <v>1499.2</v>
+        <v>30809.93</v>
       </c>
       <c r="M56" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>41</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -3692,37 +3680,37 @@
         <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F57">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="G57" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H57">
-        <v>5995</v>
+        <v>2109</v>
       </c>
       <c r="I57">
-        <v>663</v>
+        <v>1211</v>
       </c>
       <c r="J57">
-        <v>224.89</v>
+        <v>22.64</v>
       </c>
       <c r="K57">
-        <v>24962.79</v>
+        <v>3599.76</v>
       </c>
       <c r="L57">
-        <v>24962.79</v>
+        <v>3599.76</v>
       </c>
       <c r="M57" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>222</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3739,37 +3727,37 @@
         <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58">
-        <v>660</v>
+        <v>788</v>
       </c>
       <c r="G58" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="H58">
-        <v>35203</v>
+        <v>35207</v>
       </c>
       <c r="I58">
-        <v>4545</v>
+        <v>8440</v>
       </c>
       <c r="J58">
-        <v>228.26</v>
+        <v>35.68</v>
       </c>
       <c r="K58">
-        <v>150651.6</v>
+        <v>28115.84</v>
       </c>
       <c r="L58">
-        <v>150651.6</v>
+        <v>28115.84</v>
       </c>
       <c r="M58" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1277</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3786,37 +3774,37 @@
         <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F59">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="H59">
-        <v>2110</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>734</v>
+        <v>4</v>
       </c>
       <c r="J59">
-        <v>22.64</v>
+        <v>219.13</v>
       </c>
       <c r="K59">
-        <v>2965.84</v>
+        <v>219.13</v>
       </c>
       <c r="L59">
-        <v>2965.84</v>
+        <v>219.13</v>
       </c>
       <c r="M59" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3833,37 +3821,37 @@
         <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F60">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H60">
-        <v>2003</v>
+        <v>2155</v>
       </c>
       <c r="I60">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="J60">
-        <v>51.12</v>
+        <v>266.12</v>
       </c>
       <c r="K60">
-        <v>3731.76</v>
+        <v>9846.440000000001</v>
       </c>
       <c r="L60">
-        <v>3731.76</v>
+        <v>9846.440000000001</v>
       </c>
       <c r="M60" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3883,34 +3871,34 @@
         <v>137</v>
       </c>
       <c r="F61">
-        <v>812</v>
+        <v>95</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="H61">
-        <v>35207</v>
+        <v>2003</v>
       </c>
       <c r="I61">
-        <v>5407</v>
+        <v>584</v>
       </c>
       <c r="J61">
-        <v>35.68</v>
+        <v>51.12</v>
       </c>
       <c r="K61">
-        <v>28972.16</v>
+        <v>4856.4</v>
       </c>
       <c r="L61">
-        <v>28972.16</v>
+        <v>4856.4</v>
       </c>
       <c r="M61" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1241</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3927,37 +3915,37 @@
         <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F62">
-        <v>52</v>
+        <v>985</v>
       </c>
       <c r="G62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H62">
-        <v>2155</v>
+        <v>35203</v>
       </c>
       <c r="I62">
-        <v>246</v>
+        <v>7818</v>
       </c>
       <c r="J62">
-        <v>266.12</v>
+        <v>228.26</v>
       </c>
       <c r="K62">
-        <v>13838.24</v>
+        <v>224836.1</v>
       </c>
       <c r="L62">
-        <v>13838.24</v>
+        <v>224836.1</v>
       </c>
       <c r="M62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>79</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3974,37 +3962,37 @@
         <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="F63">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="H63">
-        <v>3024</v>
+        <v>9051</v>
       </c>
       <c r="I63">
-        <v>218</v>
+        <v>1649</v>
       </c>
       <c r="J63">
-        <v>44.98</v>
+        <v>179.91</v>
       </c>
       <c r="K63">
-        <v>1529.32</v>
+        <v>28425.78</v>
       </c>
       <c r="L63">
-        <v>1529.32</v>
+        <v>28425.78</v>
       </c>
       <c r="M63" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>116</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4021,37 +4009,37 @@
         <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F64">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H64">
-        <v>9050</v>
+        <v>3024</v>
       </c>
       <c r="I64">
-        <v>1006</v>
+        <v>311</v>
       </c>
       <c r="J64">
-        <v>179.91</v>
+        <v>44.98</v>
       </c>
       <c r="K64">
-        <v>28605.69</v>
+        <v>1304.42</v>
       </c>
       <c r="L64">
-        <v>28605.69</v>
+        <v>1304.42</v>
       </c>
       <c r="M64" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>335</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4068,37 +4056,37 @@
         <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F65">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="G65" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="H65">
-        <v>2017</v>
+        <v>9607</v>
       </c>
       <c r="I65">
-        <v>316</v>
+        <v>2378</v>
       </c>
       <c r="J65">
-        <v>187.41</v>
+        <v>142.43</v>
       </c>
       <c r="K65">
-        <v>9183.09</v>
+        <v>36889.37</v>
       </c>
       <c r="L65">
-        <v>9183.09</v>
+        <v>36889.37</v>
       </c>
       <c r="M65" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>70</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4115,37 +4103,37 @@
         <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F66">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="H66">
-        <v>9607</v>
+        <v>2017</v>
       </c>
       <c r="I66">
-        <v>1355</v>
+        <v>537</v>
       </c>
       <c r="J66">
-        <v>142.43</v>
+        <v>187.41</v>
       </c>
       <c r="K66">
-        <v>26919.27</v>
+        <v>8620.860000000001</v>
       </c>
       <c r="L66">
-        <v>26919.27</v>
+        <v>8620.860000000001</v>
       </c>
       <c r="M66" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>343</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4165,34 +4153,34 @@
         <v>132</v>
       </c>
       <c r="F67">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="H67">
         <v>3992</v>
       </c>
       <c r="I67">
-        <v>453</v>
+        <v>836</v>
       </c>
       <c r="J67">
         <v>179.91</v>
       </c>
       <c r="K67">
-        <v>11514.24</v>
+        <v>17991</v>
       </c>
       <c r="L67">
-        <v>11514.24</v>
+        <v>17991</v>
       </c>
       <c r="M67" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4212,34 +4200,34 @@
         <v>134</v>
       </c>
       <c r="F68">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="G68" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="H68">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="I68">
-        <v>1880</v>
+        <v>3119</v>
       </c>
       <c r="J68">
         <v>149.93</v>
       </c>
       <c r="K68">
-        <v>45278.86</v>
+        <v>41830.47</v>
       </c>
       <c r="L68">
-        <v>45278.86</v>
+        <v>41830.47</v>
       </c>
       <c r="M68" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4256,37 +4244,37 @@
         <v>115</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F69">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H69">
         <v>1739</v>
       </c>
       <c r="I69">
-        <v>781</v>
+        <v>1341</v>
       </c>
       <c r="J69">
         <v>56.22</v>
       </c>
       <c r="K69">
-        <v>4441.38</v>
+        <v>8376.780000000001</v>
       </c>
       <c r="L69">
-        <v>4441.38</v>
+        <v>8376.780000000001</v>
       </c>
       <c r="M69" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4303,37 +4291,37 @@
         <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F70">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="G70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H70">
         <v>13307</v>
       </c>
       <c r="I70">
-        <v>1850</v>
+        <v>3257</v>
       </c>
       <c r="J70">
         <v>359.82</v>
       </c>
       <c r="K70">
-        <v>116581.68</v>
+        <v>129535.2</v>
       </c>
       <c r="L70">
-        <v>116581.68</v>
+        <v>129535.2</v>
       </c>
       <c r="M70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>477</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4350,37 +4338,37 @@
         <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F71">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="H71">
         <v>571</v>
       </c>
       <c r="I71">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="J71">
         <v>134.93</v>
       </c>
       <c r="K71">
-        <v>7691.01</v>
+        <v>4047.9</v>
       </c>
       <c r="L71">
-        <v>7691.01</v>
+        <v>4047.9</v>
       </c>
       <c r="M71" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4397,37 +4385,37 @@
         <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F72">
-        <v>7243</v>
+        <v>213</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H72">
-        <v>231337</v>
+        <v>5127</v>
       </c>
       <c r="I72">
-        <v>50622</v>
+        <v>2336</v>
       </c>
       <c r="J72">
-        <v>41.23</v>
+        <v>187.41</v>
       </c>
       <c r="K72">
-        <v>298628.89</v>
+        <v>39918.33</v>
       </c>
       <c r="L72">
-        <v>273107.52</v>
+        <v>39918.33</v>
       </c>
       <c r="M72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N72">
-        <v>25521.37</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>7529</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4444,37 +4432,37 @@
         <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F73">
-        <v>205</v>
+        <v>8400</v>
       </c>
       <c r="G73" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H73">
-        <v>5126</v>
+        <v>231337</v>
       </c>
       <c r="I73">
-        <v>1248</v>
+        <v>82450</v>
       </c>
       <c r="J73">
-        <v>187.41</v>
+        <v>41.23</v>
       </c>
       <c r="K73">
-        <v>38419.05</v>
+        <v>346332</v>
       </c>
       <c r="L73">
-        <v>38419.05</v>
+        <v>316728.86</v>
       </c>
       <c r="M73" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>29603.14</v>
       </c>
       <c r="O73">
-        <v>161</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4491,37 +4479,37 @@
         <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F74">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H74">
         <v>5025</v>
       </c>
       <c r="I74">
-        <v>751</v>
+        <v>1193</v>
       </c>
       <c r="J74">
         <v>299.85</v>
       </c>
       <c r="K74">
-        <v>32683.65</v>
+        <v>31784.1</v>
       </c>
       <c r="L74">
-        <v>32683.65</v>
+        <v>31784.1</v>
       </c>
       <c r="M74" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4538,10 +4526,10 @@
         <v>121</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
         <v>170</v>
@@ -4550,16 +4538,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J75">
         <v>134.93</v>
       </c>
       <c r="K75">
-        <v>809.58</v>
+        <v>539.72</v>
       </c>
       <c r="L75">
-        <v>809.58</v>
+        <v>539.72</v>
       </c>
       <c r="M75" t="s">
         <v>170</v>
@@ -4585,31 +4573,31 @@
         <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>627</v>
+        <v>1003</v>
       </c>
       <c r="J76">
         <v>29.99</v>
       </c>
       <c r="K76">
-        <v>1919.36</v>
+        <v>2999</v>
       </c>
       <c r="L76">
-        <v>1919.36</v>
+        <v>2999</v>
       </c>
       <c r="M76" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4632,37 +4620,37 @@
         <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="F77">
-        <v>1063</v>
+        <v>143</v>
       </c>
       <c r="G77" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H77">
-        <v>50267</v>
+        <v>9585</v>
       </c>
       <c r="I77">
-        <v>7606</v>
+        <v>1541</v>
       </c>
       <c r="J77">
-        <v>314.84</v>
+        <v>224.89</v>
       </c>
       <c r="K77">
-        <v>334674.92</v>
+        <v>32159.27</v>
       </c>
       <c r="L77">
-        <v>321136.8</v>
+        <v>32159.27</v>
       </c>
       <c r="M77" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N77">
-        <v>13538.12</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>1777</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4679,37 +4667,37 @@
         <v>124</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F78">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="G78" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="H78">
-        <v>9585</v>
+        <v>11064</v>
       </c>
       <c r="I78">
-        <v>955</v>
+        <v>1799</v>
       </c>
       <c r="J78">
-        <v>224.89</v>
+        <v>143.93</v>
       </c>
       <c r="K78">
-        <v>34408.17</v>
+        <v>29793.51</v>
       </c>
       <c r="L78">
-        <v>34408.17</v>
+        <v>29793.51</v>
       </c>
       <c r="M78" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>359</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4726,37 +4714,37 @@
         <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F79">
-        <v>492</v>
+        <v>1545</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="H79">
-        <v>40232</v>
+        <v>55319</v>
       </c>
       <c r="I79">
-        <v>3543</v>
+        <v>12650</v>
       </c>
       <c r="J79">
-        <v>71.20999999999999</v>
+        <v>104.95</v>
       </c>
       <c r="K79">
-        <v>35035.32</v>
+        <v>162147.75</v>
       </c>
       <c r="L79">
-        <v>34038.38</v>
+        <v>154801.25</v>
       </c>
       <c r="M79" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="N79">
-        <v>996.9400000000001</v>
+        <v>7346.5</v>
       </c>
       <c r="O79">
-        <v>1528</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4773,37 +4761,37 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F80">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G80" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H80">
-        <v>55319</v>
+        <v>50267</v>
       </c>
       <c r="I80">
-        <v>7390</v>
+        <v>13096</v>
       </c>
       <c r="J80">
-        <v>104.95</v>
+        <v>314.84</v>
       </c>
       <c r="K80">
-        <v>131397.4</v>
+        <v>393550</v>
       </c>
       <c r="L80">
-        <v>125100.4</v>
+        <v>374659.6</v>
       </c>
       <c r="M80" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N80">
-        <v>6297</v>
+        <v>18890.4</v>
       </c>
       <c r="O80">
-        <v>1997</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4820,37 +4808,37 @@
         <v>127</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F81">
-        <v>120</v>
+        <v>757</v>
       </c>
       <c r="G81" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="H81">
-        <v>11064</v>
+        <v>40232</v>
       </c>
       <c r="I81">
-        <v>1016</v>
+        <v>6162</v>
       </c>
       <c r="J81">
-        <v>143.93</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="K81">
-        <v>17271.6</v>
+        <v>53905.97</v>
       </c>
       <c r="L81">
-        <v>17271.6</v>
+        <v>51627.25</v>
       </c>
       <c r="M81" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>2278.72</v>
       </c>
       <c r="O81">
-        <v>418</v>
+        <v>1793</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>BSL NO</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Aladay</t>
   </si>
   <si>
-    <t>Alphagan</t>
-  </si>
-  <si>
     <t>Combigan</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
     <t>Levomax OS</t>
   </si>
   <si>
+    <t>Lumigan</t>
+  </si>
+  <si>
     <t>Refresh Tears</t>
   </si>
   <si>
@@ -97,9 +97,6 @@
     <t>Aladay 5ml Ophthalmic Solution</t>
   </si>
   <si>
-    <t>Alphagan P 5 ml</t>
-  </si>
-  <si>
     <t>Combigan Ophthalmic Susp 5ml</t>
   </si>
   <si>
@@ -109,12 +106,12 @@
     <t>Freshtear 10ml Ophthalmic Solution</t>
   </si>
   <si>
-    <t>Levomax 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
     <t>Levomax TS 5ml Ophthalmic Solution</t>
   </si>
   <si>
+    <t>Lumigan 0.03% 3 ml</t>
+  </si>
+  <si>
     <t>Refresh Tears 15ml</t>
   </si>
   <si>
@@ -145,49 +142,49 @@
     <t>1's</t>
   </si>
   <si>
+    <t>3 ml</t>
+  </si>
+  <si>
     <t>15ml</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>12.05</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
-    <t>15.33</t>
-  </si>
-  <si>
-    <t>14.15</t>
-  </si>
-  <si>
-    <t>8.19</t>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>16.46</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>40.17</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>2.16</t>
   </si>
 </sst>
 </file>
@@ -545,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +609,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -624,16 +621,16 @@
         <v>965</v>
       </c>
       <c r="I2">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="J2">
         <v>82.45999999999999</v>
       </c>
       <c r="K2">
-        <v>1814.12</v>
+        <v>329.84</v>
       </c>
       <c r="L2">
-        <v>1814.12</v>
+        <v>329.84</v>
       </c>
       <c r="M2" t="s">
         <v>45</v>
@@ -642,12 +639,12 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -662,25 +659,25 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="J3">
-        <v>522.83</v>
+        <v>560.63</v>
       </c>
       <c r="K3">
-        <v>1568.49</v>
+        <v>560.63</v>
       </c>
       <c r="L3">
-        <v>1568.49</v>
+        <v>560.63</v>
       </c>
       <c r="M3" t="s">
         <v>46</v>
@@ -689,12 +686,12 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -706,28 +703,28 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
       </c>
       <c r="H4">
-        <v>374</v>
+        <v>977</v>
       </c>
       <c r="I4">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="J4">
-        <v>560.63</v>
+        <v>52.47</v>
       </c>
       <c r="K4">
-        <v>4485.04</v>
+        <v>524.7</v>
       </c>
       <c r="L4">
-        <v>4485.04</v>
+        <v>524.7</v>
       </c>
       <c r="M4" t="s">
         <v>47</v>
@@ -736,12 +733,12 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -753,28 +750,28 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
       </c>
       <c r="H5">
-        <v>977</v>
+        <v>5520</v>
       </c>
       <c r="I5">
-        <v>148</v>
+        <v>2304</v>
       </c>
       <c r="J5">
-        <v>52.47</v>
+        <v>149.93</v>
       </c>
       <c r="K5">
-        <v>1311.75</v>
+        <v>9295.66</v>
       </c>
       <c r="L5">
-        <v>1311.75</v>
+        <v>9295.66</v>
       </c>
       <c r="M5" t="s">
         <v>48</v>
@@ -783,12 +780,12 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>48</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -803,25 +800,25 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>49</v>
       </c>
       <c r="H6">
-        <v>5520</v>
+        <v>980</v>
       </c>
       <c r="I6">
-        <v>1879</v>
+        <v>340</v>
       </c>
       <c r="J6">
-        <v>149.93</v>
+        <v>97.45</v>
       </c>
       <c r="K6">
-        <v>17241.95</v>
+        <v>584.7</v>
       </c>
       <c r="L6">
-        <v>17241.95</v>
+        <v>584.7</v>
       </c>
       <c r="M6" t="s">
         <v>49</v>
@@ -830,12 +827,12 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>214</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -847,28 +844,28 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
       </c>
       <c r="H7">
-        <v>986</v>
+        <v>94</v>
       </c>
       <c r="I7">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="J7">
-        <v>67.47</v>
+        <v>1027.56</v>
       </c>
       <c r="K7">
-        <v>2293.98</v>
+        <v>1027.56</v>
       </c>
       <c r="L7">
-        <v>2293.98</v>
+        <v>1027.56</v>
       </c>
       <c r="M7" t="s">
         <v>50</v>
@@ -877,15 +874,15 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -894,28 +891,28 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
       </c>
       <c r="H8">
-        <v>980</v>
+        <v>11300</v>
       </c>
       <c r="I8">
-        <v>307</v>
+        <v>3104</v>
       </c>
       <c r="J8">
-        <v>97.45</v>
+        <v>236.22</v>
       </c>
       <c r="K8">
-        <v>1266.85</v>
+        <v>22677.12</v>
       </c>
       <c r="L8">
-        <v>1266.85</v>
+        <v>22677.12</v>
       </c>
       <c r="M8" t="s">
         <v>51</v>
@@ -924,15 +921,15 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>39</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -941,28 +938,28 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
       </c>
       <c r="H9">
-        <v>11300</v>
+        <v>959</v>
       </c>
       <c r="I9">
-        <v>2546</v>
+        <v>614</v>
       </c>
       <c r="J9">
-        <v>236.22</v>
+        <v>67.47</v>
       </c>
       <c r="K9">
-        <v>50787.3</v>
+        <v>809.64</v>
       </c>
       <c r="L9">
-        <v>50787.3</v>
+        <v>809.64</v>
       </c>
       <c r="M9" t="s">
         <v>52</v>
@@ -971,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>514</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -988,28 +985,28 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
       </c>
       <c r="H10">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="I10">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="J10">
-        <v>67.47</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K10">
-        <v>5937.36</v>
+        <v>1874</v>
       </c>
       <c r="L10">
-        <v>5937.36</v>
+        <v>1874</v>
       </c>
       <c r="M10" t="s">
         <v>53</v>
@@ -1018,15 +1015,15 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1035,28 +1032,28 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
       </c>
       <c r="H11">
-        <v>946</v>
+        <v>3822</v>
       </c>
       <c r="I11">
-        <v>196</v>
+        <v>2388</v>
       </c>
       <c r="J11">
-        <v>74.95999999999999</v>
+        <v>104.95</v>
       </c>
       <c r="K11">
-        <v>2473.68</v>
+        <v>4512.85</v>
       </c>
       <c r="L11">
-        <v>2473.68</v>
+        <v>4512.85</v>
       </c>
       <c r="M11" t="s">
         <v>54</v>
@@ -1065,15 +1062,15 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1082,28 +1079,28 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
       </c>
       <c r="H12">
-        <v>3822</v>
+        <v>1895</v>
       </c>
       <c r="I12">
-        <v>1899</v>
+        <v>1054</v>
       </c>
       <c r="J12">
-        <v>104.95</v>
+        <v>224.89</v>
       </c>
       <c r="K12">
-        <v>21934.55</v>
+        <v>13043.62</v>
       </c>
       <c r="L12">
-        <v>21934.55</v>
+        <v>13043.62</v>
       </c>
       <c r="M12" t="s">
         <v>55</v>
@@ -1112,15 +1109,15 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1129,28 +1126,28 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
       </c>
       <c r="H13">
-        <v>1895</v>
+        <v>960</v>
       </c>
       <c r="I13">
-        <v>788</v>
+        <v>680</v>
       </c>
       <c r="J13">
-        <v>224.89</v>
+        <v>93.7</v>
       </c>
       <c r="K13">
-        <v>20240.1</v>
+        <v>1218.1</v>
       </c>
       <c r="L13">
-        <v>20240.1</v>
+        <v>1218.1</v>
       </c>
       <c r="M13" t="s">
         <v>56</v>
@@ -1159,53 +1156,6 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14">
-        <v>125</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14">
-        <v>960</v>
-      </c>
-      <c r="I14">
-        <v>595</v>
-      </c>
-      <c r="J14">
-        <v>93.7</v>
-      </c>
-      <c r="K14">
-        <v>11712.5</v>
-      </c>
-      <c r="L14">
-        <v>11712.5</v>
-      </c>
-      <c r="M14" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
         <v>21</v>
       </c>
     </row>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
   <si>
     <t>BSL NO</t>
   </si>
@@ -61,133 +61,454 @@
     <t>LD Target Qty/Day</t>
   </si>
   <si>
-    <t>Aladay</t>
-  </si>
-  <si>
-    <t>Alphagan</t>
-  </si>
-  <si>
-    <t>Combigan</t>
-  </si>
-  <si>
-    <t>Dextor OPT</t>
-  </si>
-  <si>
-    <t>Freshtear</t>
-  </si>
-  <si>
-    <t>Levomax OS</t>
-  </si>
-  <si>
-    <t>Refresh Tears</t>
-  </si>
-  <si>
-    <t>Romfen</t>
-  </si>
-  <si>
-    <t>Visomox OPT</t>
-  </si>
-  <si>
-    <t>Visovit</t>
-  </si>
-  <si>
-    <t>Zymarin</t>
-  </si>
-  <si>
-    <t>Aladay 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Alphagan P 5 ml</t>
-  </si>
-  <si>
-    <t>Combigan Ophthalmic Susp 5ml</t>
-  </si>
-  <si>
-    <t>Dextor C 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Freshtear 10ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Levomax 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Levomax TS 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Refresh Tears 15ml</t>
-  </si>
-  <si>
-    <t>Romfen S 5ml Opthalmic Solution</t>
-  </si>
-  <si>
-    <t>Romfen 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Visomox 5ml Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>Visovit Capsule 30's</t>
-  </si>
-  <si>
-    <t>Zymarin 0.5% Ophthalmic Solution</t>
-  </si>
-  <si>
-    <t>5 ml</t>
-  </si>
-  <si>
-    <t>5ml</t>
-  </si>
-  <si>
-    <t>10 ml</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>15ml</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Anapril</t>
+  </si>
+  <si>
+    <t>Cardimet</t>
+  </si>
+  <si>
+    <t>Cardobis</t>
+  </si>
+  <si>
+    <t>Cardon</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Dezide</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>Dietil</t>
+  </si>
+  <si>
+    <t>Edenil</t>
+  </si>
+  <si>
+    <t>Emazid</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Glunor</t>
+  </si>
+  <si>
+    <t>GTN</t>
+  </si>
+  <si>
+    <t>Irbes</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Noclog</t>
+  </si>
+  <si>
+    <t>Noficon</t>
+  </si>
+  <si>
+    <t>Olmesta</t>
+  </si>
+  <si>
+    <t>Rivarox</t>
+  </si>
+  <si>
+    <t>Sidopin</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Topress</t>
+  </si>
+  <si>
+    <t>Vigamet</t>
+  </si>
+  <si>
+    <t>Vigatin</t>
+  </si>
+  <si>
+    <t>Virenta</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Anapril 5mg Tablet</t>
+  </si>
+  <si>
+    <t>Anapril 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Cardimet 35mg MR Tablet</t>
+  </si>
+  <si>
+    <t>Cardobis Plus 2.5/6.25mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardobis 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardobis M 2.5/5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardobis Plus 5/6.25mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardobis 2.5mg FC Tablet 50's</t>
+  </si>
+  <si>
+    <t>Cardon 50mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Cardon 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Creston 5mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Creston 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Dezide Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 3mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Dialon 1mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 2mg Tablet</t>
+  </si>
+  <si>
+    <t>Dietil 120mg Capsule</t>
+  </si>
+  <si>
+    <t>Edenil 20mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Edenil 40mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Emazid 25mg FC Tablet 10's</t>
+  </si>
+  <si>
+    <t>Emazid 10mg FC Tablet 20's</t>
+  </si>
+  <si>
+    <t>Emazid M FC Tablet 20's</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 40's</t>
+  </si>
+  <si>
+    <t>Glikazid 30 MR Tablet 30's</t>
+  </si>
+  <si>
+    <t>Glikazid 60mg MR Tablet 20's</t>
+  </si>
+  <si>
+    <t>Glunor XR Tablet</t>
+  </si>
+  <si>
+    <t>Glunor 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Glunor 850mg Tablet</t>
+  </si>
+  <si>
+    <t>GTN 2.6mg Tablet</t>
+  </si>
+  <si>
+    <t>Irbes 150mg Tablet</t>
+  </si>
+  <si>
+    <t>Irbes 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/1000</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/850</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Noclog 75mg Tablet 40's</t>
+  </si>
+  <si>
+    <t>Noclog Plus 75mg Tablet 40's</t>
+  </si>
+  <si>
+    <t>Noficon 200mg Capsule</t>
+  </si>
+  <si>
+    <t>Olmesta 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Olmesta M Tablet 30's</t>
+  </si>
+  <si>
+    <t>Olmesta 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Olmesta Plus Tablet</t>
+  </si>
+  <si>
+    <t>Olmesta 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Rivarox 10mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Rivarox 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Rivarox 15mg FC Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Rivarox 2.5mg Tablet</t>
+  </si>
+  <si>
+    <t>Sidoplus 50mg Tablet 50's</t>
+  </si>
+  <si>
+    <t>Sidopin 5mg Tablet</t>
+  </si>
+  <si>
+    <t>Sidoplus 25mg Tablet</t>
+  </si>
+  <si>
+    <t>Sitazid M 50/1000 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Sitazid M 50/500 Tablet 20's</t>
+  </si>
+  <si>
+    <t>Topress 50mg Tablet</t>
+  </si>
+  <si>
+    <t>Vigamet 50/500 Tablet 20'S</t>
+  </si>
+  <si>
+    <t>Vigamet 50/850 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Vigatin 50mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Virenta 0.5mg Tablet - 10's</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>12.05</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
-    <t>15.33</t>
-  </si>
-  <si>
-    <t>14.15</t>
-  </si>
-  <si>
-    <t>8.19</t>
+    <t>100 's</t>
+  </si>
+  <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>40 's</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>50 's</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>40's</t>
+  </si>
+  <si>
+    <t>18's</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>6.32</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>9.39</t>
+  </si>
+  <si>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>1.05</t>
   </si>
 </sst>
 </file>
@@ -545,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,40 +930,40 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="H2">
-        <v>965</v>
+        <v>11909</v>
       </c>
       <c r="I2">
-        <v>351</v>
+        <v>5561</v>
       </c>
       <c r="J2">
-        <v>82.45999999999999</v>
+        <v>224.89</v>
       </c>
       <c r="K2">
-        <v>1814.12</v>
+        <v>20689.88</v>
       </c>
       <c r="L2">
-        <v>1814.12</v>
+        <v>20689.88</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -656,557 +977,2766 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="H3">
-        <v>293</v>
+        <v>619</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>541</v>
       </c>
       <c r="J3">
-        <v>522.83</v>
+        <v>113.19</v>
       </c>
       <c r="K3">
-        <v>1568.49</v>
+        <v>565.95</v>
       </c>
       <c r="L3">
-        <v>1568.49</v>
+        <v>565.95</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="H4">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="I4">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="J4">
-        <v>560.63</v>
+        <v>202.4</v>
       </c>
       <c r="K4">
-        <v>4485.04</v>
+        <v>1214.4</v>
       </c>
       <c r="L4">
-        <v>4485.04</v>
+        <v>1214.4</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="H5">
-        <v>977</v>
+        <v>4798</v>
       </c>
       <c r="I5">
-        <v>148</v>
+        <v>2794</v>
       </c>
       <c r="J5">
-        <v>52.47</v>
+        <v>134.93</v>
       </c>
       <c r="K5">
-        <v>1311.75</v>
+        <v>8770.450000000001</v>
       </c>
       <c r="L5">
-        <v>1311.75</v>
+        <v>8770.450000000001</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>48</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F6">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6">
+        <v>1458</v>
+      </c>
+      <c r="I6">
+        <v>1164</v>
+      </c>
+      <c r="J6">
+        <v>134.93</v>
+      </c>
+      <c r="K6">
+        <v>2968.46</v>
+      </c>
+      <c r="L6">
+        <v>2968.46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>49</v>
-      </c>
-      <c r="H6">
-        <v>5520</v>
-      </c>
-      <c r="I6">
-        <v>1879</v>
-      </c>
-      <c r="J6">
-        <v>149.93</v>
-      </c>
-      <c r="K6">
-        <v>17241.95</v>
-      </c>
-      <c r="L6">
-        <v>17241.95</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="F7">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="H7">
-        <v>986</v>
+        <v>10943</v>
       </c>
       <c r="I7">
-        <v>178</v>
+        <v>7812</v>
       </c>
       <c r="J7">
-        <v>67.47</v>
+        <v>224.89</v>
       </c>
       <c r="K7">
-        <v>2293.98</v>
+        <v>28111.25</v>
       </c>
       <c r="L7">
-        <v>2293.98</v>
+        <v>28111.25</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>47</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="H8">
-        <v>980</v>
+        <v>4390</v>
       </c>
       <c r="I8">
-        <v>307</v>
+        <v>3267</v>
       </c>
       <c r="J8">
-        <v>97.45</v>
+        <v>134.93</v>
       </c>
       <c r="K8">
-        <v>1266.85</v>
+        <v>8230.73</v>
       </c>
       <c r="L8">
-        <v>1266.85</v>
+        <v>8230.73</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>39</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H9">
-        <v>11300</v>
+        <v>1554</v>
       </c>
       <c r="I9">
-        <v>2546</v>
+        <v>1088</v>
       </c>
       <c r="J9">
-        <v>236.22</v>
+        <v>224.89</v>
       </c>
       <c r="K9">
-        <v>50787.3</v>
+        <v>5622.25</v>
       </c>
       <c r="L9">
-        <v>50787.3</v>
+        <v>5622.25</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>514</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F10">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="H10">
-        <v>959</v>
+        <v>16826</v>
       </c>
       <c r="I10">
-        <v>402</v>
+        <v>10713</v>
       </c>
       <c r="J10">
-        <v>67.47</v>
+        <v>224.89</v>
       </c>
       <c r="K10">
-        <v>5937.36</v>
+        <v>46552.23</v>
       </c>
       <c r="L10">
-        <v>5937.36</v>
+        <v>46552.23</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="H11">
-        <v>946</v>
+        <v>9480</v>
       </c>
       <c r="I11">
-        <v>196</v>
+        <v>4442</v>
       </c>
       <c r="J11">
-        <v>74.95999999999999</v>
+        <v>239.88</v>
       </c>
       <c r="K11">
-        <v>2473.68</v>
+        <v>17991</v>
       </c>
       <c r="L11">
-        <v>2473.68</v>
+        <v>17991</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>44</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="F12">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="H12">
-        <v>3822</v>
+        <v>2631</v>
       </c>
       <c r="I12">
-        <v>1899</v>
+        <v>1392</v>
       </c>
       <c r="J12">
-        <v>104.95</v>
+        <v>101.2</v>
       </c>
       <c r="K12">
-        <v>21934.55</v>
+        <v>1821.6</v>
       </c>
       <c r="L12">
-        <v>21934.55</v>
+        <v>1821.6</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>113</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="H13">
-        <v>1895</v>
+        <v>4029</v>
       </c>
       <c r="I13">
-        <v>788</v>
+        <v>2889</v>
       </c>
       <c r="J13">
         <v>224.89</v>
       </c>
       <c r="K13">
-        <v>20240.1</v>
+        <v>12818.73</v>
       </c>
       <c r="L13">
-        <v>20240.1</v>
+        <v>12818.73</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>65</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14">
+        <v>7571</v>
+      </c>
+      <c r="I14">
+        <v>3919</v>
+      </c>
+      <c r="J14">
+        <v>224.89</v>
+      </c>
+      <c r="K14">
+        <v>13268.51</v>
+      </c>
+      <c r="L14">
+        <v>13268.51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15">
+        <v>3372</v>
+      </c>
+      <c r="I15">
+        <v>2303</v>
+      </c>
+      <c r="J15">
+        <v>74.95999999999999</v>
+      </c>
+      <c r="K15">
+        <v>3223.28</v>
+      </c>
+      <c r="L15">
+        <v>3223.28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>313</v>
+      </c>
+      <c r="J16">
+        <v>149.93</v>
+      </c>
+      <c r="K16">
+        <v>1349.37</v>
+      </c>
+      <c r="L16">
+        <v>1349.37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17">
+        <v>1413</v>
+      </c>
+      <c r="I17">
+        <v>687</v>
+      </c>
+      <c r="J17">
+        <v>168.67</v>
+      </c>
+      <c r="K17">
+        <v>1686.7</v>
+      </c>
+      <c r="L17">
+        <v>1686.7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18">
+        <v>1868</v>
+      </c>
+      <c r="I18">
+        <v>1186</v>
+      </c>
+      <c r="J18">
+        <v>179.91</v>
+      </c>
+      <c r="K18">
+        <v>3058.47</v>
+      </c>
+      <c r="L18">
+        <v>3058.47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19">
+        <v>599</v>
+      </c>
+      <c r="I19">
+        <v>241</v>
+      </c>
+      <c r="J19">
+        <v>299.85</v>
+      </c>
+      <c r="K19">
+        <v>2698.65</v>
+      </c>
+      <c r="L19">
+        <v>2698.65</v>
+      </c>
+      <c r="M19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20">
+        <v>6005</v>
+      </c>
+      <c r="I20">
+        <v>2376</v>
+      </c>
+      <c r="J20">
+        <v>299.85</v>
+      </c>
+      <c r="K20">
+        <v>11394.3</v>
+      </c>
+      <c r="L20">
+        <v>11394.3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>894</v>
+      </c>
+      <c r="J21">
+        <v>374.82</v>
+      </c>
+      <c r="K21">
+        <v>4872.66</v>
+      </c>
+      <c r="L21">
+        <v>4872.66</v>
+      </c>
+      <c r="M21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22">
+        <v>3961</v>
+      </c>
+      <c r="I22">
+        <v>2895</v>
+      </c>
+      <c r="J22">
+        <v>299.85</v>
+      </c>
+      <c r="K22">
+        <v>21589.2</v>
+      </c>
+      <c r="L22">
+        <v>21589.2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23">
+        <v>110</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23">
+        <v>11039</v>
+      </c>
+      <c r="I23">
+        <v>7567</v>
+      </c>
+      <c r="J23">
+        <v>374.81</v>
+      </c>
+      <c r="K23">
+        <v>41229.1</v>
+      </c>
+      <c r="L23">
+        <v>41229.1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24">
+        <v>11759</v>
+      </c>
+      <c r="I24">
+        <v>8092</v>
+      </c>
+      <c r="J24">
+        <v>224.89</v>
+      </c>
+      <c r="K24">
+        <v>27886.36</v>
+      </c>
+      <c r="L24">
+        <v>27886.36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25">
+        <v>295</v>
+      </c>
+      <c r="G25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25">
+        <v>27740</v>
+      </c>
+      <c r="I25">
+        <v>18044</v>
+      </c>
+      <c r="J25">
+        <v>149.92</v>
+      </c>
+      <c r="K25">
+        <v>44226.4</v>
+      </c>
+      <c r="L25">
+        <v>44226.4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26">
+        <v>741</v>
+      </c>
+      <c r="I26">
+        <v>1077</v>
+      </c>
+      <c r="J26">
+        <v>112.44</v>
+      </c>
+      <c r="K26">
+        <v>2473.68</v>
+      </c>
+      <c r="L26">
+        <v>2473.68</v>
+      </c>
+      <c r="M26" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27">
+        <v>2875</v>
+      </c>
+      <c r="I27">
+        <v>2508</v>
+      </c>
+      <c r="J27">
+        <v>149.93</v>
+      </c>
+      <c r="K27">
+        <v>6896.78</v>
+      </c>
+      <c r="L27">
+        <v>6896.78</v>
+      </c>
+      <c r="M27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28">
+        <v>545</v>
+      </c>
+      <c r="I28">
+        <v>469</v>
+      </c>
+      <c r="J28">
+        <v>224.89</v>
+      </c>
+      <c r="K28">
+        <v>2473.79</v>
+      </c>
+      <c r="L28">
+        <v>2473.79</v>
+      </c>
+      <c r="M28" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29">
+        <v>5541</v>
+      </c>
+      <c r="I29">
+        <v>3287</v>
+      </c>
+      <c r="J29">
+        <v>149.93</v>
+      </c>
+      <c r="K29">
+        <v>9895.379999999999</v>
+      </c>
+      <c r="L29">
+        <v>9895.379999999999</v>
+      </c>
+      <c r="M29" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30">
+        <v>1213</v>
+      </c>
+      <c r="I30">
+        <v>655</v>
+      </c>
+      <c r="J30">
+        <v>224.89</v>
+      </c>
+      <c r="K30">
+        <v>4722.69</v>
+      </c>
+      <c r="L30">
+        <v>4722.69</v>
+      </c>
+      <c r="M30" t="s">
+        <v>141</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31">
+        <v>381</v>
+      </c>
+      <c r="G31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31">
+        <v>32259</v>
+      </c>
+      <c r="I31">
+        <v>19232</v>
+      </c>
+      <c r="J31">
+        <v>187.41</v>
+      </c>
+      <c r="K31">
+        <v>71403.21000000001</v>
+      </c>
+      <c r="L31">
+        <v>71403.21000000001</v>
+      </c>
+      <c r="M31" t="s">
+        <v>142</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>242</v>
+      </c>
+      <c r="J32">
+        <v>202.4</v>
+      </c>
+      <c r="K32">
+        <v>1012</v>
+      </c>
+      <c r="L32">
+        <v>1012</v>
+      </c>
+      <c r="M32" t="s">
+        <v>143</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>64</v>
+      </c>
+      <c r="J33">
+        <v>187.41</v>
+      </c>
+      <c r="K33">
+        <v>187.41</v>
+      </c>
+      <c r="L33">
+        <v>187.41</v>
+      </c>
+      <c r="M33" t="s">
+        <v>144</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34">
+        <v>1887</v>
+      </c>
+      <c r="I34">
+        <v>1447</v>
+      </c>
+      <c r="J34">
+        <v>215.89</v>
+      </c>
+      <c r="K34">
+        <v>8203.82</v>
+      </c>
+      <c r="L34">
+        <v>8203.82</v>
+      </c>
+      <c r="M34" t="s">
+        <v>120</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35">
+        <v>114</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35">
+        <v>7928</v>
+      </c>
+      <c r="I35">
+        <v>6614</v>
+      </c>
+      <c r="J35">
+        <v>188.91</v>
+      </c>
+      <c r="K35">
+        <v>21535.74</v>
+      </c>
+      <c r="L35">
+        <v>21535.74</v>
+      </c>
+      <c r="M35" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36">
+        <v>154</v>
+      </c>
+      <c r="G36" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36">
+        <v>14391</v>
+      </c>
+      <c r="I36">
+        <v>8212</v>
+      </c>
+      <c r="J36">
+        <v>404.8</v>
+      </c>
+      <c r="K36">
+        <v>62339.2</v>
+      </c>
+      <c r="L36">
+        <v>62339.2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37">
+        <v>393</v>
+      </c>
+      <c r="G37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37">
+        <v>34183</v>
+      </c>
+      <c r="I37">
+        <v>18162</v>
+      </c>
+      <c r="J37">
+        <v>269.87</v>
+      </c>
+      <c r="K37">
+        <v>106058.91</v>
+      </c>
+      <c r="L37">
+        <v>106058.91</v>
+      </c>
+      <c r="M37" t="s">
+        <v>146</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38">
+        <v>216</v>
+      </c>
+      <c r="G38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38">
+        <v>22256</v>
+      </c>
+      <c r="I38">
+        <v>12107</v>
+      </c>
+      <c r="J38">
+        <v>374.82</v>
+      </c>
+      <c r="K38">
+        <v>80961.12</v>
+      </c>
+      <c r="L38">
+        <v>80961.12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>147</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39">
+        <v>65</v>
+      </c>
+      <c r="G39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39">
+        <v>4152</v>
+      </c>
+      <c r="I39">
+        <v>3232</v>
+      </c>
+      <c r="J39">
+        <v>404.8</v>
+      </c>
+      <c r="K39">
+        <v>26312</v>
+      </c>
+      <c r="L39">
+        <v>26312</v>
+      </c>
+      <c r="M39" t="s">
+        <v>148</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40">
+        <v>166</v>
+      </c>
+      <c r="G40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40">
+        <v>15404</v>
+      </c>
+      <c r="I40">
+        <v>9407</v>
+      </c>
+      <c r="J40">
+        <v>359.82</v>
+      </c>
+      <c r="K40">
+        <v>59730.12</v>
+      </c>
+      <c r="L40">
+        <v>59730.12</v>
+      </c>
+      <c r="M40" t="s">
+        <v>149</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41">
+        <v>117</v>
+      </c>
+      <c r="G41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41">
+        <v>9944</v>
+      </c>
+      <c r="I41">
+        <v>6138</v>
+      </c>
+      <c r="J41">
+        <v>359.82</v>
+      </c>
+      <c r="K41">
+        <v>42098.94</v>
+      </c>
+      <c r="L41">
+        <v>42098.94</v>
+      </c>
+      <c r="M41" t="s">
+        <v>150</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>175</v>
+      </c>
+      <c r="J42">
+        <v>209.9</v>
+      </c>
+      <c r="K42">
+        <v>629.7</v>
+      </c>
+      <c r="L42">
+        <v>629.7</v>
+      </c>
+      <c r="M42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43">
         <v>42</v>
       </c>
-      <c r="F14">
-        <v>125</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H43">
+        <v>1994</v>
+      </c>
+      <c r="I43">
+        <v>1360</v>
+      </c>
+      <c r="J43">
+        <v>224.89</v>
+      </c>
+      <c r="K43">
+        <v>3148.46</v>
+      </c>
+      <c r="L43">
+        <v>3148.46</v>
+      </c>
+      <c r="M43" t="s">
+        <v>152</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44">
+        <v>8476</v>
+      </c>
+      <c r="I44">
+        <v>6441</v>
+      </c>
+      <c r="J44">
+        <v>179.91</v>
+      </c>
+      <c r="K44">
+        <v>19250.37</v>
+      </c>
+      <c r="L44">
+        <v>19250.37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>153</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45">
+        <v>119</v>
+      </c>
+      <c r="G45" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45">
+        <v>9635</v>
+      </c>
+      <c r="I45">
+        <v>6114</v>
+      </c>
+      <c r="J45">
+        <v>179.91</v>
+      </c>
+      <c r="K45">
+        <v>21409.29</v>
+      </c>
+      <c r="L45">
+        <v>21409.29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>154</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46">
+        <v>1431</v>
+      </c>
+      <c r="I46">
+        <v>972</v>
+      </c>
+      <c r="J46">
+        <v>179.91</v>
+      </c>
+      <c r="K46">
+        <v>3058.47</v>
+      </c>
+      <c r="L46">
+        <v>3058.47</v>
+      </c>
+      <c r="M46" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47">
+        <v>1111</v>
+      </c>
+      <c r="I47">
+        <v>693</v>
+      </c>
+      <c r="J47">
+        <v>112.44</v>
+      </c>
+      <c r="K47">
+        <v>787.08</v>
+      </c>
+      <c r="L47">
+        <v>787.08</v>
+      </c>
+      <c r="M47" t="s">
+        <v>155</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48">
+        <v>425</v>
+      </c>
+      <c r="G48" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48">
+        <v>35655</v>
+      </c>
+      <c r="I48">
+        <v>22731</v>
+      </c>
+      <c r="J48">
+        <v>374.81</v>
+      </c>
+      <c r="K48">
+        <v>159294.25</v>
+      </c>
+      <c r="L48">
+        <v>159294.25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>156</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49">
+        <v>2019</v>
+      </c>
+      <c r="I49">
+        <v>1091</v>
+      </c>
+      <c r="J49">
+        <v>674.66</v>
+      </c>
+      <c r="K49">
+        <v>8095.92</v>
+      </c>
+      <c r="L49">
+        <v>8095.92</v>
+      </c>
+      <c r="M49" t="s">
+        <v>157</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50">
+        <v>1215</v>
+      </c>
+      <c r="I50">
+        <v>765</v>
+      </c>
+      <c r="J50">
+        <v>524.74</v>
+      </c>
+      <c r="K50">
+        <v>6296.88</v>
+      </c>
+      <c r="L50">
+        <v>6296.88</v>
+      </c>
+      <c r="M50" t="s">
+        <v>158</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51">
+        <v>5256</v>
+      </c>
+      <c r="I51">
+        <v>2912</v>
+      </c>
+      <c r="J51">
+        <v>179.91</v>
+      </c>
+      <c r="K51">
+        <v>8275.860000000001</v>
+      </c>
+      <c r="L51">
+        <v>8275.860000000001</v>
+      </c>
+      <c r="M51" t="s">
+        <v>120</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52">
+        <v>9922</v>
+      </c>
+      <c r="I52">
+        <v>4784</v>
+      </c>
+      <c r="J52">
+        <v>224.89</v>
+      </c>
+      <c r="K52">
+        <v>13493.4</v>
+      </c>
+      <c r="L52">
+        <v>13493.4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>159</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53">
+        <v>1959</v>
+      </c>
+      <c r="I53">
+        <v>1086</v>
+      </c>
+      <c r="J53">
+        <v>187.41</v>
+      </c>
+      <c r="K53">
+        <v>3935.61</v>
+      </c>
+      <c r="L53">
+        <v>3935.61</v>
+      </c>
+      <c r="M53" t="s">
+        <v>160</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H54">
+        <v>1602</v>
+      </c>
+      <c r="I54">
+        <v>896</v>
+      </c>
+      <c r="J54">
+        <v>157.42</v>
+      </c>
+      <c r="K54">
+        <v>1889.04</v>
+      </c>
+      <c r="L54">
+        <v>1889.04</v>
+      </c>
+      <c r="M54" t="s">
+        <v>161</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>26</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55">
+        <v>272</v>
+      </c>
+      <c r="I55">
+        <v>202</v>
+      </c>
+      <c r="J55">
+        <v>202.4</v>
+      </c>
+      <c r="K55">
+        <v>607.2</v>
+      </c>
+      <c r="L55">
+        <v>607.2</v>
+      </c>
+      <c r="M55" t="s">
+        <v>115</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>158</v>
+      </c>
+      <c r="H56">
+        <v>2681</v>
+      </c>
+      <c r="I56">
+        <v>1582</v>
+      </c>
+      <c r="J56">
+        <v>209.9</v>
+      </c>
+      <c r="K56">
+        <v>6297</v>
+      </c>
+      <c r="L56">
+        <v>6297</v>
+      </c>
+      <c r="M56" t="s">
+        <v>158</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>143</v>
+      </c>
+      <c r="J57">
+        <v>149.93</v>
+      </c>
+      <c r="K57">
+        <v>149.93</v>
+      </c>
+      <c r="L57">
+        <v>149.93</v>
+      </c>
+      <c r="M57" t="s">
+        <v>162</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58">
         <v>57</v>
       </c>
-      <c r="H14">
-        <v>960</v>
-      </c>
-      <c r="I14">
-        <v>595</v>
-      </c>
-      <c r="J14">
-        <v>93.7</v>
-      </c>
-      <c r="K14">
-        <v>11712.5</v>
-      </c>
-      <c r="L14">
-        <v>11712.5</v>
-      </c>
-      <c r="M14" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>21</v>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58">
+        <v>59</v>
+      </c>
+      <c r="G58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58">
+        <v>6440</v>
+      </c>
+      <c r="I58">
+        <v>3493</v>
+      </c>
+      <c r="J58">
+        <v>299.85</v>
+      </c>
+      <c r="K58">
+        <v>17691.15</v>
+      </c>
+      <c r="L58">
+        <v>17691.15</v>
+      </c>
+      <c r="M58" t="s">
+        <v>163</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59">
+        <v>3997</v>
+      </c>
+      <c r="I59">
+        <v>1670</v>
+      </c>
+      <c r="J59">
+        <v>296.85</v>
+      </c>
+      <c r="K59">
+        <v>11874</v>
+      </c>
+      <c r="L59">
+        <v>11874</v>
+      </c>
+      <c r="M59" t="s">
+        <v>164</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60">
+        <v>1362</v>
+      </c>
+      <c r="I60">
+        <v>496</v>
+      </c>
+      <c r="J60">
+        <v>299.85</v>
+      </c>
+      <c r="K60">
+        <v>1799.1</v>
+      </c>
+      <c r="L60">
+        <v>1799.1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>124</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61">
+        <v>1626</v>
+      </c>
+      <c r="I61">
+        <v>533</v>
+      </c>
+      <c r="J61">
+        <v>359.82</v>
+      </c>
+      <c r="K61">
+        <v>3238.38</v>
+      </c>
+      <c r="L61">
+        <v>3238.38</v>
+      </c>
+      <c r="M61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
   <si>
     <t>BSL NO</t>
   </si>
@@ -61,454 +61,418 @@
     <t>LD Target Qty/Day</t>
   </si>
   <si>
-    <t>Aldorin</t>
-  </si>
-  <si>
-    <t>Anapril</t>
-  </si>
-  <si>
-    <t>Cardimet</t>
-  </si>
-  <si>
-    <t>Cardobis</t>
-  </si>
-  <si>
-    <t>Cardon</t>
-  </si>
-  <si>
-    <t>Creston</t>
-  </si>
-  <si>
-    <t>Dezide</t>
-  </si>
-  <si>
-    <t>Dialon</t>
-  </si>
-  <si>
-    <t>Dietil</t>
-  </si>
-  <si>
-    <t>Edenil</t>
-  </si>
-  <si>
-    <t>Emazid</t>
-  </si>
-  <si>
-    <t>GLIKAZID</t>
-  </si>
-  <si>
-    <t>Glunor</t>
-  </si>
-  <si>
-    <t>GTN</t>
-  </si>
-  <si>
-    <t>Irbes</t>
-  </si>
-  <si>
-    <t>Ligazid</t>
-  </si>
-  <si>
-    <t>Lipicon</t>
-  </si>
-  <si>
-    <t>Noclog</t>
-  </si>
-  <si>
-    <t>Noficon</t>
-  </si>
-  <si>
-    <t>Olmesta</t>
-  </si>
-  <si>
-    <t>Rivarox</t>
-  </si>
-  <si>
-    <t>Sidopin</t>
-  </si>
-  <si>
-    <t>Sitazid</t>
-  </si>
-  <si>
-    <t>Topress</t>
-  </si>
-  <si>
-    <t>Vigamet</t>
-  </si>
-  <si>
-    <t>Vigatin</t>
-  </si>
-  <si>
-    <t>Virenta</t>
-  </si>
-  <si>
-    <t>Aldorin 50mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Anapril 5mg Tablet</t>
-  </si>
-  <si>
-    <t>Anapril 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Cardimet 35mg MR Tablet</t>
-  </si>
-  <si>
-    <t>Cardobis Plus 2.5/6.25mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardobis 5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardobis M 2.5/5 FC Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardobis Plus 5/6.25mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Cardobis 2.5mg FC Tablet 50's</t>
-  </si>
-  <si>
-    <t>Cardon 50mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Cardon 25mg Tablet</t>
-  </si>
-  <si>
-    <t>Creston 5mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Creston 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Dezide Tablet</t>
-  </si>
-  <si>
-    <t>Dialon 3mg Tablet 20's</t>
-  </si>
-  <si>
-    <t>Dialon 1mg Tablet</t>
-  </si>
-  <si>
-    <t>Dialon 2mg Tablet</t>
-  </si>
-  <si>
-    <t>Dietil 120mg Capsule</t>
-  </si>
-  <si>
-    <t>Edenil 20mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Edenil 40mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Emazid 25mg FC Tablet 10's</t>
-  </si>
-  <si>
-    <t>Emazid 10mg FC Tablet 20's</t>
-  </si>
-  <si>
-    <t>Emazid M FC Tablet 20's</t>
-  </si>
-  <si>
-    <t>Glikazid 80mg Tablet 40's</t>
-  </si>
-  <si>
-    <t>Glikazid 30 MR Tablet 30's</t>
-  </si>
-  <si>
-    <t>Glikazid 60mg MR Tablet 20's</t>
-  </si>
-  <si>
-    <t>Glunor XR Tablet</t>
-  </si>
-  <si>
-    <t>Glunor 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Glunor 850mg Tablet</t>
-  </si>
-  <si>
-    <t>GTN 2.6mg Tablet</t>
-  </si>
-  <si>
-    <t>Irbes 150mg Tablet</t>
-  </si>
-  <si>
-    <t>Irbes 75mg Tablet</t>
-  </si>
-  <si>
-    <t>Ligazid M 2.5/1000</t>
-  </si>
-  <si>
-    <t>Ligazid M 2.5/850</t>
-  </si>
-  <si>
-    <t>Ligazid 5mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Ligazid M 2.5/500mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Lipicon 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Lipicon 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Noclog 75mg Tablet 40's</t>
-  </si>
-  <si>
-    <t>Noclog Plus 75mg Tablet 40's</t>
-  </si>
-  <si>
-    <t>Noficon 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Olmesta 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Olmesta M Tablet 30's</t>
-  </si>
-  <si>
-    <t>Olmesta 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Olmesta Plus Tablet</t>
-  </si>
-  <si>
-    <t>Olmesta 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Rivarox 10mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Rivarox 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Rivarox 15mg FC Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Rivarox 2.5mg Tablet</t>
-  </si>
-  <si>
-    <t>Sidoplus 50mg Tablet 50's</t>
-  </si>
-  <si>
-    <t>Sidopin 5mg Tablet</t>
-  </si>
-  <si>
-    <t>Sidoplus 25mg Tablet</t>
-  </si>
-  <si>
-    <t>Sitazid M 50/1000 Tablet 18's</t>
-  </si>
-  <si>
-    <t>Sitazid M 50/500 Tablet 20's</t>
-  </si>
-  <si>
-    <t>Topress 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Vigamet 50/500 Tablet 20'S</t>
-  </si>
-  <si>
-    <t>Vigamet 50/850 Tablet 18's</t>
-  </si>
-  <si>
-    <t>Vigatin 50mg Tablet - 20's</t>
-  </si>
-  <si>
-    <t>Virenta 0.5mg Tablet - 10's</t>
+    <t>Cortider</t>
+  </si>
+  <si>
+    <t>Esoral</t>
+  </si>
+  <si>
+    <t>ETRIAM</t>
+  </si>
+  <si>
+    <t>Facid</t>
+  </si>
+  <si>
+    <t>Flucoder</t>
+  </si>
+  <si>
+    <t>Hairgrow</t>
+  </si>
+  <si>
+    <t>Kezona</t>
+  </si>
+  <si>
+    <t>Licnil</t>
+  </si>
+  <si>
+    <t>Losectil</t>
+  </si>
+  <si>
+    <t>Lulizol</t>
+  </si>
+  <si>
+    <t>Mupiron</t>
+  </si>
+  <si>
+    <t>Mycofin</t>
+  </si>
+  <si>
+    <t>Nospot</t>
+  </si>
+  <si>
+    <t>Orogurd</t>
+  </si>
+  <si>
+    <t>Panoral</t>
+  </si>
+  <si>
+    <t>Perosa</t>
+  </si>
+  <si>
+    <t>Rabifast</t>
+  </si>
+  <si>
+    <t>Softi</t>
+  </si>
+  <si>
+    <t>Sorex</t>
+  </si>
+  <si>
+    <t>Topibet</t>
+  </si>
+  <si>
+    <t>Topiclo</t>
+  </si>
+  <si>
+    <t>Cortider 10gm Cream</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet 112's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Esoral Mups 40 Tablet</t>
+  </si>
+  <si>
+    <t>Esoral MUPS 20mg Tab 50s</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Capsule - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 100's</t>
+  </si>
+  <si>
+    <t>Etriam 10gm Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Ointment</t>
+  </si>
+  <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
+    <t>Facid 250mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Facid HC Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Flucoder 200mg Capsule - 10's</t>
+  </si>
+  <si>
+    <t>Flucoder 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 50mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Hairgrow 5% Topical Solution 60ml</t>
+  </si>
+  <si>
+    <t>Kezona 200mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Licnil 60gm Lotion</t>
+  </si>
+  <si>
+    <t>Licnil 117gm Lotion</t>
+  </si>
+  <si>
+    <t>Losectil V 40mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil MUPS 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil Mups 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Lulizol 20gm Cream</t>
+  </si>
+  <si>
+    <t>Lulizol 10gm Cream</t>
+  </si>
+  <si>
+    <t>Mupiron 20gm Ointment</t>
+  </si>
+  <si>
+    <t>Mupiron 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Mycofin 5gm Cream</t>
+  </si>
+  <si>
+    <t>Mycofin 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Nospot 30gm Cream</t>
+  </si>
+  <si>
+    <t>Orogurd 15gm Oral Gel</t>
+  </si>
+  <si>
+    <t>Panoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Panoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Perosa 30gm Cream</t>
+  </si>
+  <si>
+    <t>Rabifast 20 mg Tablet</t>
+  </si>
+  <si>
+    <t>Softi Ointment 50gm</t>
+  </si>
+  <si>
+    <t>Sorex 5gm Oral Paste</t>
+  </si>
+  <si>
+    <t>Topibet CL 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo NN 15gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo S 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>Topiclo S Ointment 1's 20g</t>
+  </si>
+  <si>
+    <t>10 gm</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
-    <t>100 's</t>
+    <t>112's</t>
+  </si>
+  <si>
+    <t>1's</t>
   </si>
   <si>
     <t>50's</t>
   </si>
   <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>15gm</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
+    <t>60's</t>
+  </si>
+  <si>
+    <t>120's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>10gm</t>
+  </si>
+  <si>
+    <t>5gm</t>
+  </si>
+  <si>
+    <t>40's</t>
+  </si>
+  <si>
     <t>40 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>20s</t>
-  </si>
-  <si>
-    <t>50 's</t>
-  </si>
-  <si>
-    <t>10 's</t>
-  </si>
-  <si>
-    <t>10's</t>
-  </si>
-  <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>18's</t>
-  </si>
-  <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>0.05</t>
+    <t>30 gm</t>
+  </si>
+  <si>
+    <t>70's</t>
+  </si>
+  <si>
+    <t>50gm</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>7.95</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>46.2</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>2.07</t>
   </si>
   <si>
     <t>0.11</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>2.49</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>4.12</t>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>0.39</t>
   </si>
   <si>
     <t>1.59</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>0.29</t>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>2.47</t>
-  </si>
-  <si>
-    <t>3.92</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>6.32</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>5.52</t>
-  </si>
-  <si>
-    <t>9.39</t>
-  </si>
-  <si>
-    <t>7.17</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>5.29</t>
-  </si>
-  <si>
-    <t>3.73</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>1.05</t>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.13</t>
   </si>
 </sst>
 </file>
@@ -866,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,40 +894,40 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>11909</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5561</v>
+        <v>413</v>
       </c>
       <c r="J2">
-        <v>224.89</v>
+        <v>26.24</v>
       </c>
       <c r="K2">
-        <v>20689.88</v>
+        <v>3988.48</v>
       </c>
       <c r="L2">
-        <v>20689.88</v>
+        <v>3988.48</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -977,40 +941,40 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>541</v>
+        <v>1455</v>
       </c>
       <c r="J3">
-        <v>113.19</v>
+        <v>179.91</v>
       </c>
       <c r="K3">
-        <v>565.95</v>
+        <v>60269.85</v>
       </c>
       <c r="L3">
-        <v>565.95</v>
+        <v>60269.85</v>
       </c>
       <c r="M3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1024,598 +988,598 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>1793</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>297</v>
+        <v>6810</v>
       </c>
       <c r="J4">
-        <v>202.4</v>
+        <v>419.79</v>
       </c>
       <c r="K4">
-        <v>1214.4</v>
+        <v>752683.47</v>
       </c>
       <c r="L4">
-        <v>1214.4</v>
+        <v>752683.47</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F5">
-        <v>65</v>
+        <v>4177</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>4798</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2794</v>
+        <v>16708</v>
       </c>
       <c r="J5">
-        <v>134.93</v>
+        <v>38.26</v>
       </c>
       <c r="K5">
-        <v>8770.450000000001</v>
+        <v>159812.02</v>
       </c>
       <c r="L5">
-        <v>8770.450000000001</v>
+        <v>160016.49</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-204.47</v>
       </c>
       <c r="O5">
-        <v>334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>426</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H6">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1164</v>
+        <v>1562</v>
       </c>
       <c r="J6">
-        <v>134.93</v>
+        <v>314.84</v>
       </c>
       <c r="K6">
-        <v>2968.46</v>
+        <v>134121.84</v>
       </c>
       <c r="L6">
-        <v>2968.46</v>
+        <v>134121.84</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F7">
-        <v>125</v>
+        <v>2679</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H7">
-        <v>10943</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7812</v>
+        <v>9912</v>
       </c>
       <c r="J7">
-        <v>224.89</v>
+        <v>374.82</v>
       </c>
       <c r="K7">
-        <v>28111.25</v>
+        <v>1004142.78</v>
       </c>
       <c r="L7">
-        <v>28111.25</v>
+        <v>1004142.78</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>61</v>
+        <v>1056</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H8">
-        <v>4390</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3267</v>
+        <v>3929</v>
       </c>
       <c r="J8">
-        <v>134.93</v>
+        <v>224.89</v>
       </c>
       <c r="K8">
-        <v>8230.73</v>
+        <v>237483.84</v>
       </c>
       <c r="L8">
-        <v>8230.73</v>
+        <v>237483.84</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>1784</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H9">
-        <v>1554</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1088</v>
+        <v>6526</v>
       </c>
       <c r="J9">
-        <v>224.89</v>
+        <v>524.74</v>
       </c>
       <c r="K9">
-        <v>5622.25</v>
+        <v>936136.16</v>
       </c>
       <c r="L9">
-        <v>5622.25</v>
+        <v>936136.16</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>4183</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H10">
-        <v>16826</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>10713</v>
+        <v>12797</v>
       </c>
       <c r="J10">
-        <v>224.89</v>
+        <v>29.99</v>
       </c>
       <c r="K10">
-        <v>46552.23</v>
+        <v>125448.17</v>
       </c>
       <c r="L10">
-        <v>46552.23</v>
+        <v>114351.87</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11096.3</v>
       </c>
       <c r="O10">
-        <v>1018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F11">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H11">
-        <v>9480</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>4442</v>
+        <v>518</v>
       </c>
       <c r="J11">
-        <v>239.88</v>
+        <v>67.47</v>
       </c>
       <c r="K11">
-        <v>17991</v>
+        <v>10997.61</v>
       </c>
       <c r="L11">
-        <v>17991</v>
+        <v>10997.61</v>
       </c>
       <c r="M11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>959</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H12">
-        <v>2631</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1392</v>
+        <v>3206</v>
       </c>
       <c r="J12">
-        <v>101.2</v>
+        <v>127.44</v>
       </c>
       <c r="K12">
-        <v>1821.6</v>
+        <v>122214.96</v>
       </c>
       <c r="L12">
-        <v>1821.6</v>
+        <v>122214.96</v>
       </c>
       <c r="M12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F13">
-        <v>57</v>
+        <v>314</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H13">
-        <v>4029</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2889</v>
+        <v>1117</v>
       </c>
       <c r="J13">
-        <v>224.89</v>
+        <v>487.26</v>
       </c>
       <c r="K13">
-        <v>12818.73</v>
+        <v>152999.64</v>
       </c>
       <c r="L13">
-        <v>12818.73</v>
+        <v>152999.64</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F14">
-        <v>59</v>
+        <v>911</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H14">
-        <v>7571</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3919</v>
+        <v>3077</v>
       </c>
       <c r="J14">
-        <v>224.89</v>
+        <v>93.7</v>
       </c>
       <c r="K14">
-        <v>13268.51</v>
+        <v>85360.7</v>
       </c>
       <c r="L14">
-        <v>13268.51</v>
+        <v>85360.7</v>
       </c>
       <c r="M14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F15">
-        <v>43</v>
+        <v>665</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H15">
-        <v>3372</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2303</v>
+        <v>2360</v>
       </c>
       <c r="J15">
-        <v>74.95999999999999</v>
+        <v>67.47</v>
       </c>
       <c r="K15">
-        <v>3223.28</v>
+        <v>44867.55</v>
       </c>
       <c r="L15">
-        <v>3223.28</v>
+        <v>44867.55</v>
       </c>
       <c r="M15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>313</v>
+        <v>63</v>
       </c>
       <c r="J16">
-        <v>149.93</v>
+        <v>187.41</v>
       </c>
       <c r="K16">
-        <v>1349.37</v>
+        <v>1874.1</v>
       </c>
       <c r="L16">
-        <v>1349.37</v>
+        <v>1874.1</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1626,231 +1590,231 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H17">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>687</v>
+        <v>167</v>
       </c>
       <c r="J17">
-        <v>168.67</v>
+        <v>164.92</v>
       </c>
       <c r="K17">
-        <v>1686.7</v>
+        <v>8246</v>
       </c>
       <c r="L17">
-        <v>1686.7</v>
+        <v>8246</v>
       </c>
       <c r="M17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H18">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1186</v>
+        <v>615</v>
       </c>
       <c r="J18">
-        <v>179.91</v>
+        <v>182.16</v>
       </c>
       <c r="K18">
-        <v>3058.47</v>
+        <v>32424.48</v>
       </c>
       <c r="L18">
-        <v>3058.47</v>
+        <v>32424.48</v>
       </c>
       <c r="M18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H19">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="J19">
-        <v>299.85</v>
+        <v>58.47</v>
       </c>
       <c r="K19">
-        <v>2698.65</v>
+        <v>4502.19</v>
       </c>
       <c r="L19">
-        <v>2698.65</v>
+        <v>4502.19</v>
       </c>
       <c r="M19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F20">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H20">
-        <v>6005</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2376</v>
+        <v>22</v>
       </c>
       <c r="J20">
-        <v>299.85</v>
+        <v>449.78</v>
       </c>
       <c r="K20">
-        <v>11394.3</v>
+        <v>2698.68</v>
       </c>
       <c r="L20">
-        <v>11394.3</v>
+        <v>2698.68</v>
       </c>
       <c r="M20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>894</v>
+        <v>486</v>
       </c>
       <c r="J21">
-        <v>374.82</v>
+        <v>202.4</v>
       </c>
       <c r="K21">
-        <v>4872.66</v>
+        <v>25502.4</v>
       </c>
       <c r="L21">
-        <v>4872.66</v>
+        <v>25502.4</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1861,231 +1825,231 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F22">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H22">
-        <v>3961</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2895</v>
+        <v>355</v>
       </c>
       <c r="J22">
-        <v>299.85</v>
+        <v>97.45</v>
       </c>
       <c r="K22">
-        <v>21589.2</v>
+        <v>8088.35</v>
       </c>
       <c r="L22">
-        <v>21589.2</v>
+        <v>8088.35</v>
       </c>
       <c r="M22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F23">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H23">
-        <v>11039</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>7567</v>
+        <v>91</v>
       </c>
       <c r="J23">
-        <v>374.81</v>
+        <v>157.42</v>
       </c>
       <c r="K23">
-        <v>41229.1</v>
+        <v>3935.5</v>
       </c>
       <c r="L23">
-        <v>41229.1</v>
+        <v>3935.5</v>
       </c>
       <c r="M23" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F24">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H24">
-        <v>11759</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>8092</v>
+        <v>219</v>
       </c>
       <c r="J24">
-        <v>224.89</v>
+        <v>359.82</v>
       </c>
       <c r="K24">
-        <v>27886.36</v>
+        <v>19070.46</v>
       </c>
       <c r="L24">
-        <v>27886.36</v>
+        <v>19070.46</v>
       </c>
       <c r="M24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F25">
-        <v>295</v>
+        <v>405</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H25">
-        <v>27740</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18044</v>
+        <v>1273</v>
       </c>
       <c r="J25">
-        <v>149.92</v>
+        <v>262.37</v>
       </c>
       <c r="K25">
-        <v>44226.4</v>
+        <v>106259.85</v>
       </c>
       <c r="L25">
-        <v>44226.4</v>
+        <v>106259.85</v>
       </c>
       <c r="M25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>12092</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H26">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1077</v>
+        <v>42640</v>
       </c>
       <c r="J26">
-        <v>112.44</v>
+        <v>449.77</v>
       </c>
       <c r="K26">
-        <v>2473.68</v>
+        <v>5438618.84</v>
       </c>
       <c r="L26">
-        <v>2473.68</v>
+        <v>5438618.84</v>
       </c>
       <c r="M26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2096,278 +2060,278 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F27">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="G27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H27">
-        <v>2875</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2508</v>
+        <v>1027</v>
       </c>
       <c r="J27">
-        <v>149.93</v>
+        <v>224.89</v>
       </c>
       <c r="K27">
-        <v>6896.78</v>
+        <v>66567.44</v>
       </c>
       <c r="L27">
-        <v>6896.78</v>
+        <v>66567.44</v>
       </c>
       <c r="M27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>602</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H28">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>469</v>
+        <v>2230</v>
       </c>
       <c r="J28">
-        <v>224.89</v>
+        <v>404.8</v>
       </c>
       <c r="K28">
-        <v>2473.79</v>
+        <v>243689.6</v>
       </c>
       <c r="L28">
-        <v>2473.79</v>
+        <v>243689.6</v>
       </c>
       <c r="M28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F29">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H29">
-        <v>5541</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3287</v>
+        <v>194</v>
       </c>
       <c r="J29">
-        <v>149.93</v>
+        <v>179.91</v>
       </c>
       <c r="K29">
-        <v>9895.379999999999</v>
+        <v>12593.7</v>
       </c>
       <c r="L29">
-        <v>9895.379999999999</v>
+        <v>12593.7</v>
       </c>
       <c r="M29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F30">
-        <v>21</v>
+        <v>587</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H30">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>655</v>
+        <v>2150</v>
       </c>
       <c r="J30">
-        <v>224.89</v>
+        <v>374.81</v>
       </c>
       <c r="K30">
-        <v>4722.69</v>
+        <v>220013.47</v>
       </c>
       <c r="L30">
-        <v>4722.69</v>
+        <v>220013.47</v>
       </c>
       <c r="M30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F31">
-        <v>381</v>
+        <v>904</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H31">
-        <v>32259</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>19232</v>
+        <v>4121</v>
       </c>
       <c r="J31">
-        <v>187.41</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="K31">
-        <v>71403.21000000001</v>
+        <v>81323.84</v>
       </c>
       <c r="L31">
-        <v>71403.21000000001</v>
+        <v>81323.84</v>
       </c>
       <c r="M31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>2171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>2038</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>242</v>
+        <v>6312</v>
       </c>
       <c r="J32">
-        <v>202.4</v>
+        <v>224.89</v>
       </c>
       <c r="K32">
-        <v>1012</v>
+        <v>458325.82</v>
       </c>
       <c r="L32">
-        <v>1012</v>
+        <v>458325.82</v>
       </c>
       <c r="M32" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2378,46 +2342,46 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>1196</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>64</v>
+        <v>6723</v>
       </c>
       <c r="J33">
-        <v>187.41</v>
+        <v>38.26</v>
       </c>
       <c r="K33">
-        <v>187.41</v>
+        <v>45758.96</v>
       </c>
       <c r="L33">
-        <v>187.41</v>
+        <v>45846.59</v>
       </c>
       <c r="M33" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>-87.63</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2425,419 +2389,419 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F34">
-        <v>38</v>
+        <v>1390</v>
       </c>
       <c r="G34" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H34">
-        <v>1887</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1447</v>
+        <v>4557</v>
       </c>
       <c r="J34">
-        <v>215.89</v>
+        <v>134.93</v>
       </c>
       <c r="K34">
-        <v>8203.82</v>
+        <v>187552.7</v>
       </c>
       <c r="L34">
-        <v>8203.82</v>
+        <v>187552.7</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F35">
-        <v>114</v>
+        <v>4232</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H35">
-        <v>7928</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>6614</v>
+        <v>13183</v>
       </c>
       <c r="J35">
-        <v>188.91</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K35">
-        <v>21535.74</v>
+        <v>317230.72</v>
       </c>
       <c r="L35">
-        <v>21535.74</v>
+        <v>317230.72</v>
       </c>
       <c r="M35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F36">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H36">
-        <v>14391</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>8212</v>
+        <v>51</v>
       </c>
       <c r="J36">
-        <v>404.8</v>
+        <v>164.92</v>
       </c>
       <c r="K36">
-        <v>62339.2</v>
+        <v>1484.28</v>
       </c>
       <c r="L36">
-        <v>62339.2</v>
+        <v>1484.28</v>
       </c>
       <c r="M36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>1029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
         <v>102</v>
       </c>
       <c r="F37">
-        <v>393</v>
+        <v>228</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H37">
-        <v>34183</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>18162</v>
+        <v>1067</v>
       </c>
       <c r="J37">
-        <v>269.87</v>
+        <v>104.95</v>
       </c>
       <c r="K37">
-        <v>106058.91</v>
+        <v>23928.6</v>
       </c>
       <c r="L37">
-        <v>106058.91</v>
+        <v>23928.6</v>
       </c>
       <c r="M37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>2670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38">
-        <v>216</v>
+        <v>524</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H38">
-        <v>22256</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>12107</v>
+        <v>1968</v>
       </c>
       <c r="J38">
-        <v>374.82</v>
+        <v>37.48</v>
       </c>
       <c r="K38">
-        <v>80961.12</v>
+        <v>19639.52</v>
       </c>
       <c r="L38">
-        <v>80961.12</v>
+        <v>19639.52</v>
       </c>
       <c r="M38" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F39">
-        <v>65</v>
+        <v>791</v>
       </c>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H39">
-        <v>4152</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3232</v>
+        <v>2499</v>
       </c>
       <c r="J39">
-        <v>404.8</v>
+        <v>299.85</v>
       </c>
       <c r="K39">
-        <v>26312</v>
+        <v>237181.35</v>
       </c>
       <c r="L39">
-        <v>26312</v>
+        <v>237181.35</v>
       </c>
       <c r="M39" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F40">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H40">
-        <v>15404</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>9407</v>
+        <v>745</v>
       </c>
       <c r="J40">
-        <v>359.82</v>
+        <v>149.93</v>
       </c>
       <c r="K40">
-        <v>59730.12</v>
+        <v>38681.94</v>
       </c>
       <c r="L40">
-        <v>59730.12</v>
+        <v>38681.94</v>
       </c>
       <c r="M40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F41">
-        <v>117</v>
+        <v>645</v>
       </c>
       <c r="G41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H41">
-        <v>9944</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>6138</v>
+        <v>2393</v>
       </c>
       <c r="J41">
-        <v>359.82</v>
+        <v>44.98</v>
       </c>
       <c r="K41">
-        <v>42098.94</v>
+        <v>29012.1</v>
       </c>
       <c r="L41">
-        <v>42098.94</v>
+        <v>29012.1</v>
       </c>
       <c r="M41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>209.9</v>
       </c>
       <c r="K42">
-        <v>629.7</v>
+        <v>2518.8</v>
       </c>
       <c r="L42">
-        <v>629.7</v>
+        <v>2518.8</v>
       </c>
       <c r="M42" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2848,289 +2812,289 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F43">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="H43">
-        <v>1994</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1360</v>
+        <v>179</v>
       </c>
       <c r="J43">
-        <v>224.89</v>
+        <v>149.92</v>
       </c>
       <c r="K43">
-        <v>3148.46</v>
+        <v>8245.6</v>
       </c>
       <c r="L43">
-        <v>3148.46</v>
+        <v>8245.6</v>
       </c>
       <c r="M43" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F44">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="G44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H44">
-        <v>8476</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>6441</v>
+        <v>1546</v>
       </c>
       <c r="J44">
-        <v>179.91</v>
+        <v>37.48</v>
       </c>
       <c r="K44">
-        <v>19250.37</v>
+        <v>16041.44</v>
       </c>
       <c r="L44">
-        <v>19250.37</v>
+        <v>16003.96</v>
       </c>
       <c r="M44" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>37.48</v>
       </c>
       <c r="O44">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F45">
-        <v>119</v>
+        <v>532</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H45">
-        <v>9635</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>6114</v>
+        <v>2214</v>
       </c>
       <c r="J45">
-        <v>179.91</v>
+        <v>262.37</v>
       </c>
       <c r="K45">
-        <v>21409.29</v>
+        <v>139580.84</v>
       </c>
       <c r="L45">
-        <v>21409.29</v>
+        <v>134858.18</v>
       </c>
       <c r="M45" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>4722.66</v>
       </c>
       <c r="O45">
-        <v>586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F46">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="H46">
-        <v>1431</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>972</v>
+        <v>539</v>
       </c>
       <c r="J46">
-        <v>179.91</v>
+        <v>67.47</v>
       </c>
       <c r="K46">
-        <v>3058.47</v>
+        <v>11672.31</v>
       </c>
       <c r="L46">
-        <v>3058.47</v>
+        <v>11672.31</v>
       </c>
       <c r="M46" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H47">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>693</v>
+        <v>176</v>
       </c>
       <c r="J47">
-        <v>112.44</v>
+        <v>56.22</v>
       </c>
       <c r="K47">
-        <v>787.08</v>
+        <v>2136.36</v>
       </c>
       <c r="L47">
-        <v>787.08</v>
+        <v>2136.36</v>
       </c>
       <c r="M47" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F48">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="G48" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H48">
-        <v>35655</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>22731</v>
+        <v>2172</v>
       </c>
       <c r="J48">
-        <v>374.81</v>
+        <v>22.49</v>
       </c>
       <c r="K48">
-        <v>159294.25</v>
+        <v>9085.959999999999</v>
       </c>
       <c r="L48">
-        <v>159294.25</v>
+        <v>9085.959999999999</v>
       </c>
       <c r="M48" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>2154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -3139,45 +3103,45 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H49">
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>1091</v>
+        <v>1291</v>
       </c>
       <c r="J49">
-        <v>674.66</v>
+        <v>48.73</v>
       </c>
       <c r="K49">
-        <v>8095.92</v>
+        <v>14424.08</v>
       </c>
       <c r="L49">
-        <v>8095.92</v>
+        <v>14424.08</v>
       </c>
       <c r="M49" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
@@ -3186,45 +3150,45 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>1908</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H50">
-        <v>1215</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>765</v>
+        <v>6294</v>
       </c>
       <c r="J50">
-        <v>524.74</v>
+        <v>52.47</v>
       </c>
       <c r="K50">
-        <v>6296.88</v>
+        <v>100112.76</v>
       </c>
       <c r="L50">
-        <v>6296.88</v>
+        <v>100112.76</v>
       </c>
       <c r="M50" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -3233,510 +3197,134 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
         <v>102</v>
       </c>
       <c r="F51">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H51">
-        <v>5256</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2912</v>
+        <v>289</v>
       </c>
       <c r="J51">
-        <v>179.91</v>
+        <v>37.48</v>
       </c>
       <c r="K51">
-        <v>8275.860000000001</v>
+        <v>3035.88</v>
       </c>
       <c r="L51">
-        <v>8275.860000000001</v>
+        <v>3035.88</v>
       </c>
       <c r="M51" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F52">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="H52">
-        <v>9922</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4784</v>
+        <v>224</v>
       </c>
       <c r="J52">
-        <v>224.89</v>
+        <v>33.73</v>
       </c>
       <c r="K52">
-        <v>13493.4</v>
+        <v>1349.2</v>
       </c>
       <c r="L52">
-        <v>13493.4</v>
+        <v>1349.2</v>
       </c>
       <c r="M52" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F53">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H53">
-        <v>1959</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>1086</v>
+        <v>475</v>
       </c>
       <c r="J53">
-        <v>187.41</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="K53">
-        <v>3935.61</v>
+        <v>15383.16</v>
       </c>
       <c r="L53">
-        <v>3935.61</v>
+        <v>15383.16</v>
       </c>
       <c r="M53" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54">
-        <v>25</v>
-      </c>
-      <c r="B54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>161</v>
-      </c>
-      <c r="H54">
-        <v>1602</v>
-      </c>
-      <c r="I54">
-        <v>896</v>
-      </c>
-      <c r="J54">
-        <v>157.42</v>
-      </c>
-      <c r="K54">
-        <v>1889.04</v>
-      </c>
-      <c r="L54">
-        <v>1889.04</v>
-      </c>
-      <c r="M54" t="s">
-        <v>161</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55">
-        <v>26</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55">
-        <v>54</v>
-      </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>115</v>
-      </c>
-      <c r="H55">
-        <v>272</v>
-      </c>
-      <c r="I55">
-        <v>202</v>
-      </c>
-      <c r="J55">
-        <v>202.4</v>
-      </c>
-      <c r="K55">
-        <v>607.2</v>
-      </c>
-      <c r="L55">
-        <v>607.2</v>
-      </c>
-      <c r="M55" t="s">
-        <v>115</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56">
-        <v>55</v>
-      </c>
-      <c r="D56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>158</v>
-      </c>
-      <c r="H56">
-        <v>2681</v>
-      </c>
-      <c r="I56">
-        <v>1582</v>
-      </c>
-      <c r="J56">
-        <v>209.9</v>
-      </c>
-      <c r="K56">
-        <v>6297</v>
-      </c>
-      <c r="L56">
-        <v>6297</v>
-      </c>
-      <c r="M56" t="s">
-        <v>158</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57">
-        <v>27</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57">
-        <v>56</v>
-      </c>
-      <c r="D57" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>162</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>143</v>
-      </c>
-      <c r="J57">
-        <v>149.93</v>
-      </c>
-      <c r="K57">
-        <v>149.93</v>
-      </c>
-      <c r="L57">
-        <v>149.93</v>
-      </c>
-      <c r="M57" t="s">
-        <v>162</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58">
-        <v>28</v>
-      </c>
-      <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58">
-        <v>59</v>
-      </c>
-      <c r="G58" t="s">
-        <v>163</v>
-      </c>
-      <c r="H58">
-        <v>6440</v>
-      </c>
-      <c r="I58">
-        <v>3493</v>
-      </c>
-      <c r="J58">
-        <v>299.85</v>
-      </c>
-      <c r="K58">
-        <v>17691.15</v>
-      </c>
-      <c r="L58">
-        <v>17691.15</v>
-      </c>
-      <c r="M58" t="s">
-        <v>163</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59">
-        <v>28</v>
-      </c>
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59">
-        <v>40</v>
-      </c>
-      <c r="G59" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59">
-        <v>3997</v>
-      </c>
-      <c r="I59">
-        <v>1670</v>
-      </c>
-      <c r="J59">
-        <v>296.85</v>
-      </c>
-      <c r="K59">
-        <v>11874</v>
-      </c>
-      <c r="L59">
-        <v>11874</v>
-      </c>
-      <c r="M59" t="s">
-        <v>164</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="B60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60">
-        <v>59</v>
-      </c>
-      <c r="D60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60">
-        <v>6</v>
-      </c>
-      <c r="G60" t="s">
-        <v>124</v>
-      </c>
-      <c r="H60">
-        <v>1362</v>
-      </c>
-      <c r="I60">
-        <v>496</v>
-      </c>
-      <c r="J60">
-        <v>299.85</v>
-      </c>
-      <c r="K60">
-        <v>1799.1</v>
-      </c>
-      <c r="L60">
-        <v>1799.1</v>
-      </c>
-      <c r="M60" t="s">
-        <v>124</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61">
-        <v>30</v>
-      </c>
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61">
-        <v>9</v>
-      </c>
-      <c r="G61" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61">
-        <v>1626</v>
-      </c>
-      <c r="I61">
-        <v>533</v>
-      </c>
-      <c r="J61">
-        <v>359.82</v>
-      </c>
-      <c r="K61">
-        <v>3238.38</v>
-      </c>
-      <c r="L61">
-        <v>3238.38</v>
-      </c>
-      <c r="M61" t="s">
-        <v>127</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="145">
   <si>
     <t>BSL NO</t>
   </si>
@@ -130,51 +130,51 @@
     <t>Esoral 40mg Tablet - 30's</t>
   </si>
   <si>
+    <t>Esoral 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Capsule - 30's</t>
+  </si>
+  <si>
     <t>Esoral 20mg Tablet 112's</t>
   </si>
   <si>
-    <t>Esoral 40mg IV Injection</t>
+    <t>Esoral MUPS 20mg Tab 50s</t>
   </si>
   <si>
     <t>Esoral Mups 40 Tablet</t>
   </si>
   <si>
-    <t>Esoral MUPS 20mg Tab 50s</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Capsule - 30's</t>
-  </si>
-  <si>
     <t>Esoral 20mg Capsule 100's</t>
   </si>
   <si>
     <t>Etriam 10gm Cream</t>
   </si>
   <si>
+    <t>Facid 250mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Facid HC Cream</t>
+  </si>
+  <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
     <t>Facid 15gm Ointment</t>
   </si>
   <si>
-    <t>Facid 10gm BT Cream</t>
-  </si>
-  <si>
-    <t>Facid 250mg Tablet 10's</t>
-  </si>
-  <si>
-    <t>Facid HC Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Cream</t>
+    <t>Flucoder 50mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 150mg Capsule</t>
   </si>
   <si>
     <t>Flucoder 200mg Capsule - 10's</t>
   </si>
   <si>
-    <t>Flucoder 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucoder 50mg Capsule</t>
-  </si>
-  <si>
     <t>Flucoder 35ml Dry Suspension</t>
   </si>
   <si>
@@ -190,42 +190,42 @@
     <t>Licnil 117gm Lotion</t>
   </si>
   <si>
+    <t>Losectil Mups 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil MUPS 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule 60's</t>
+  </si>
+  <si>
     <t>Losectil V 40mg Capsule</t>
   </si>
   <si>
-    <t>Losectil MUPS 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 120's</t>
-  </si>
-  <si>
     <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
   </si>
   <si>
-    <t>Losectil 40mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Losectil Mups 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil V 20mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg PFS 50's</t>
-  </si>
-  <si>
     <t>Losectil 40mg IV Injection</t>
   </si>
   <si>
+    <t>Lulizol 10gm Cream</t>
+  </si>
+  <si>
     <t>Lulizol 20gm Cream</t>
   </si>
   <si>
-    <t>Lulizol 10gm Cream</t>
-  </si>
-  <si>
     <t>Mupiron 20gm Ointment</t>
   </si>
   <si>
@@ -244,12 +244,12 @@
     <t>Orogurd 15gm Oral Gel</t>
   </si>
   <si>
+    <t>Panoral 20mg Tablet</t>
+  </si>
+  <si>
     <t>Panoral 40mg Tablet</t>
   </si>
   <si>
-    <t>Panoral 20mg Tablet</t>
-  </si>
-  <si>
     <t>Perosa 30gm Cream</t>
   </si>
   <si>
@@ -265,18 +265,18 @@
     <t>Topibet CL 10gm Ointment</t>
   </si>
   <si>
+    <t>Topiclo S 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
     <t>Topiclo NN 15gm Ointment</t>
   </si>
   <si>
-    <t>Topiclo S 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Cream</t>
-  </si>
-  <si>
     <t>Topiclo S Ointment 1's 20g</t>
   </si>
   <si>
@@ -286,54 +286,54 @@
     <t>30's</t>
   </si>
   <si>
+    <t>1's</t>
+  </si>
+  <si>
     <t>112's</t>
   </si>
   <si>
-    <t>1's</t>
-  </si>
-  <si>
     <t>50's</t>
   </si>
   <si>
     <t>100's</t>
   </si>
   <si>
+    <t>10's</t>
+  </si>
+  <si>
     <t>15gm</t>
   </si>
   <si>
-    <t>10's</t>
+    <t>30 's</t>
   </si>
   <si>
     <t>10 's</t>
   </si>
   <si>
-    <t>30 's</t>
-  </si>
-  <si>
     <t>35ml</t>
   </si>
   <si>
+    <t>24's</t>
+  </si>
+  <si>
     <t>60's</t>
   </si>
   <si>
     <t>120's</t>
   </si>
   <si>
-    <t>24's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
     <t>5gm</t>
   </si>
   <si>
+    <t>40 's</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>40 's</t>
-  </si>
-  <si>
     <t>30 gm</t>
   </si>
   <si>
@@ -343,136 +343,112 @@
     <t>50gm</t>
   </si>
   <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>6.34</t>
+  </si>
+  <si>
+    <t>8.55</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
     <t>0.03</t>
   </si>
   <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>6.39</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>8.53</t>
-  </si>
-  <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>7.95</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.3</t>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.07</t>
   </si>
   <si>
     <t>0.73</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>46.2</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>2.07</t>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>48.89</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>1.79</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.15</t>
   </si>
   <si>
     <t>0.11</t>
-  </si>
-  <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>3.89</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>1.59</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.13</t>
   </si>
 </sst>
 </file>
@@ -900,25 +876,25 @@
         <v>88</v>
       </c>
       <c r="F2">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I2">
-        <v>413</v>
+        <v>570</v>
       </c>
       <c r="J2">
         <v>26.24</v>
       </c>
       <c r="K2">
-        <v>3988.48</v>
+        <v>2204.16</v>
       </c>
       <c r="L2">
-        <v>3988.48</v>
+        <v>2204.16</v>
       </c>
       <c r="M2" t="s">
         <v>109</v>
@@ -927,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -947,25 +923,25 @@
         <v>89</v>
       </c>
       <c r="F3">
-        <v>335</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
         <v>110</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10022</v>
       </c>
       <c r="I3">
-        <v>1455</v>
+        <v>1989</v>
       </c>
       <c r="J3">
         <v>179.91</v>
       </c>
       <c r="K3">
-        <v>60269.85</v>
+        <v>40299.84</v>
       </c>
       <c r="L3">
-        <v>60269.85</v>
+        <v>40299.84</v>
       </c>
       <c r="M3" t="s">
         <v>110</v>
@@ -974,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -994,34 +970,34 @@
         <v>90</v>
       </c>
       <c r="F4">
-        <v>1793</v>
+        <v>3109</v>
       </c>
       <c r="G4" t="s">
         <v>111</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I4">
-        <v>6810</v>
+        <v>24153</v>
       </c>
       <c r="J4">
-        <v>419.79</v>
+        <v>38.26</v>
       </c>
       <c r="K4">
-        <v>752683.47</v>
+        <v>118950.34</v>
       </c>
       <c r="L4">
-        <v>752683.47</v>
+        <v>129086.21</v>
       </c>
       <c r="M4" t="s">
         <v>111</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-10135.87</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1038,37 +1014,37 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5">
-        <v>4177</v>
+        <v>996</v>
       </c>
       <c r="G5" t="s">
         <v>112</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="I5">
-        <v>16708</v>
+        <v>5829</v>
       </c>
       <c r="J5">
-        <v>38.26</v>
+        <v>224.89</v>
       </c>
       <c r="K5">
-        <v>159812.02</v>
+        <v>223990.44</v>
       </c>
       <c r="L5">
-        <v>160016.49</v>
+        <v>223990.44</v>
       </c>
       <c r="M5" t="s">
         <v>112</v>
       </c>
       <c r="N5">
-        <v>-204.47</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1085,28 +1061,28 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F6">
-        <v>426</v>
+        <v>1688</v>
       </c>
       <c r="G6" t="s">
         <v>113</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I6">
-        <v>1562</v>
+        <v>10194</v>
       </c>
       <c r="J6">
-        <v>314.84</v>
+        <v>419.79</v>
       </c>
       <c r="K6">
-        <v>134121.84</v>
+        <v>708605.52</v>
       </c>
       <c r="L6">
-        <v>134121.84</v>
+        <v>708605.52</v>
       </c>
       <c r="M6" t="s">
         <v>113</v>
@@ -1115,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1135,25 +1111,25 @@
         <v>92</v>
       </c>
       <c r="F7">
-        <v>2679</v>
+        <v>2550</v>
       </c>
       <c r="G7" t="s">
         <v>114</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="I7">
-        <v>9912</v>
+        <v>14737</v>
       </c>
       <c r="J7">
         <v>374.82</v>
       </c>
       <c r="K7">
-        <v>1004142.78</v>
+        <v>955791</v>
       </c>
       <c r="L7">
-        <v>1004142.78</v>
+        <v>955791</v>
       </c>
       <c r="M7" t="s">
         <v>114</v>
@@ -1162,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1182,25 +1158,25 @@
         <v>89</v>
       </c>
       <c r="F8">
-        <v>1056</v>
+        <v>431</v>
       </c>
       <c r="G8" t="s">
         <v>115</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7954</v>
       </c>
       <c r="I8">
-        <v>3929</v>
+        <v>2336</v>
       </c>
       <c r="J8">
-        <v>224.89</v>
+        <v>314.84</v>
       </c>
       <c r="K8">
-        <v>237483.84</v>
+        <v>135696.04</v>
       </c>
       <c r="L8">
-        <v>237483.84</v>
+        <v>135696.04</v>
       </c>
       <c r="M8" t="s">
         <v>115</v>
@@ -1209,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1229,25 +1205,25 @@
         <v>93</v>
       </c>
       <c r="F9">
-        <v>1784</v>
+        <v>1545</v>
       </c>
       <c r="G9" t="s">
         <v>116</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>50108</v>
       </c>
       <c r="I9">
-        <v>6526</v>
+        <v>9660</v>
       </c>
       <c r="J9">
         <v>524.74</v>
       </c>
       <c r="K9">
-        <v>936136.16</v>
+        <v>810723.3</v>
       </c>
       <c r="L9">
-        <v>936136.16</v>
+        <v>810723.3</v>
       </c>
       <c r="M9" t="s">
         <v>116</v>
@@ -1256,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1273,37 +1249,37 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10">
-        <v>4183</v>
+        <v>3130</v>
       </c>
       <c r="G10" t="s">
         <v>117</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I10">
-        <v>12797</v>
+        <v>19426</v>
       </c>
       <c r="J10">
         <v>29.99</v>
       </c>
       <c r="K10">
-        <v>125448.17</v>
+        <v>93868.7</v>
       </c>
       <c r="L10">
-        <v>114351.87</v>
+        <v>85651.44</v>
       </c>
       <c r="M10" t="s">
         <v>117</v>
       </c>
       <c r="N10">
-        <v>11096.3</v>
+        <v>8217.26</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1323,25 +1299,25 @@
         <v>94</v>
       </c>
       <c r="F11">
-        <v>163</v>
+        <v>343</v>
       </c>
       <c r="G11" t="s">
         <v>118</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I11">
-        <v>518</v>
+        <v>1812</v>
       </c>
       <c r="J11">
-        <v>67.47</v>
+        <v>487.26</v>
       </c>
       <c r="K11">
-        <v>10997.61</v>
+        <v>167130.18</v>
       </c>
       <c r="L11">
-        <v>10997.61</v>
+        <v>167130.18</v>
       </c>
       <c r="M11" t="s">
         <v>118</v>
@@ -1350,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1367,28 +1343,28 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F12">
-        <v>959</v>
+        <v>710</v>
       </c>
       <c r="G12" t="s">
         <v>119</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="I12">
-        <v>3206</v>
+        <v>3690</v>
       </c>
       <c r="J12">
-        <v>127.44</v>
+        <v>67.47</v>
       </c>
       <c r="K12">
-        <v>122214.96</v>
+        <v>47903.7</v>
       </c>
       <c r="L12">
-        <v>122214.96</v>
+        <v>47903.7</v>
       </c>
       <c r="M12" t="s">
         <v>119</v>
@@ -1397,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1414,28 +1390,28 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F13">
-        <v>314</v>
+        <v>752</v>
       </c>
       <c r="G13" t="s">
         <v>120</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="I13">
-        <v>1117</v>
+        <v>4762</v>
       </c>
       <c r="J13">
-        <v>487.26</v>
+        <v>93.7</v>
       </c>
       <c r="K13">
-        <v>152999.64</v>
+        <v>70462.39999999999</v>
       </c>
       <c r="L13">
-        <v>152999.64</v>
+        <v>70462.39999999999</v>
       </c>
       <c r="M13" t="s">
         <v>120</v>
@@ -1444,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1464,25 +1440,25 @@
         <v>88</v>
       </c>
       <c r="F14">
-        <v>911</v>
+        <v>804</v>
       </c>
       <c r="G14" t="s">
         <v>121</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="I14">
-        <v>3077</v>
+        <v>4864</v>
       </c>
       <c r="J14">
-        <v>93.7</v>
+        <v>127.44</v>
       </c>
       <c r="K14">
-        <v>85360.7</v>
+        <v>102461.76</v>
       </c>
       <c r="L14">
-        <v>85360.7</v>
+        <v>102461.76</v>
       </c>
       <c r="M14" t="s">
         <v>121</v>
@@ -1491,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1508,28 +1484,28 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15">
-        <v>665</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
         <v>122</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I15">
-        <v>2360</v>
+        <v>751</v>
       </c>
       <c r="J15">
         <v>67.47</v>
       </c>
       <c r="K15">
-        <v>44867.55</v>
+        <v>6881.94</v>
       </c>
       <c r="L15">
-        <v>44867.55</v>
+        <v>6881.94</v>
       </c>
       <c r="M15" t="s">
         <v>122</v>
@@ -1538,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1555,28 +1531,28 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
         <v>123</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I16">
-        <v>63</v>
+        <v>932</v>
       </c>
       <c r="J16">
-        <v>187.41</v>
+        <v>182.16</v>
       </c>
       <c r="K16">
-        <v>1874.1</v>
+        <v>26777.52</v>
       </c>
       <c r="L16">
-        <v>1874.1</v>
+        <v>26777.52</v>
       </c>
       <c r="M16" t="s">
         <v>123</v>
@@ -1585,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1602,37 +1578,37 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I17">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="J17">
         <v>164.92</v>
       </c>
       <c r="K17">
-        <v>8246</v>
+        <v>7256.48</v>
       </c>
       <c r="L17">
-        <v>8246</v>
+        <v>7256.48</v>
       </c>
       <c r="M17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1649,37 +1625,37 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F18">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="I18">
-        <v>615</v>
+        <v>107</v>
       </c>
       <c r="J18">
-        <v>182.16</v>
+        <v>187.41</v>
       </c>
       <c r="K18">
-        <v>32424.48</v>
+        <v>3185.97</v>
       </c>
       <c r="L18">
-        <v>32424.48</v>
+        <v>3185.97</v>
       </c>
       <c r="M18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1699,34 +1675,34 @@
         <v>98</v>
       </c>
       <c r="F19">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I19">
-        <v>203</v>
+        <v>335</v>
       </c>
       <c r="J19">
         <v>58.47</v>
       </c>
       <c r="K19">
-        <v>4502.19</v>
+        <v>6607.11</v>
       </c>
       <c r="L19">
-        <v>4502.19</v>
+        <v>6607.11</v>
       </c>
       <c r="M19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1743,37 +1719,37 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="I20">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>449.78</v>
       </c>
       <c r="K20">
-        <v>2698.68</v>
+        <v>4048.02</v>
       </c>
       <c r="L20">
-        <v>2698.68</v>
+        <v>4048.02</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1793,34 +1769,34 @@
         <v>89</v>
       </c>
       <c r="F21">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
         <v>126</v>
       </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
       <c r="H21">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I21">
-        <v>486</v>
+        <v>700</v>
       </c>
       <c r="J21">
         <v>202.4</v>
       </c>
       <c r="K21">
-        <v>25502.4</v>
+        <v>22466.4</v>
       </c>
       <c r="L21">
-        <v>25502.4</v>
+        <v>22466.4</v>
       </c>
       <c r="M21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1837,37 +1813,37 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3181</v>
       </c>
       <c r="I22">
-        <v>355</v>
+        <v>528</v>
       </c>
       <c r="J22">
         <v>97.45</v>
       </c>
       <c r="K22">
-        <v>8088.35</v>
+        <v>7990.9</v>
       </c>
       <c r="L22">
-        <v>8088.35</v>
+        <v>7990.9</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1884,37 +1860,37 @@
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>716</v>
       </c>
       <c r="I23">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="J23">
         <v>157.42</v>
       </c>
       <c r="K23">
-        <v>3935.5</v>
+        <v>3778.08</v>
       </c>
       <c r="L23">
-        <v>3935.5</v>
+        <v>3778.08</v>
       </c>
       <c r="M23" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1934,34 +1910,34 @@
         <v>99</v>
       </c>
       <c r="F24">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="I24">
-        <v>219</v>
+        <v>283</v>
       </c>
       <c r="J24">
-        <v>359.82</v>
+        <v>179.91</v>
       </c>
       <c r="K24">
-        <v>19070.46</v>
+        <v>7736.13</v>
       </c>
       <c r="L24">
-        <v>19070.46</v>
+        <v>7736.13</v>
       </c>
       <c r="M24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1978,37 +1954,37 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>405</v>
+        <v>905</v>
       </c>
       <c r="G25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="I25">
-        <v>1273</v>
+        <v>6070</v>
       </c>
       <c r="J25">
-        <v>262.37</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="K25">
-        <v>106259.85</v>
+        <v>81413.8</v>
       </c>
       <c r="L25">
-        <v>106259.85</v>
+        <v>81413.8</v>
       </c>
       <c r="M25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>728</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2025,37 +2001,37 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F26">
-        <v>12092</v>
+        <v>286</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>9544</v>
       </c>
       <c r="I26">
-        <v>42640</v>
+        <v>1907</v>
       </c>
       <c r="J26">
-        <v>449.77</v>
+        <v>262.37</v>
       </c>
       <c r="K26">
-        <v>5438618.84</v>
+        <v>75037.82000000001</v>
       </c>
       <c r="L26">
-        <v>5438618.84</v>
+        <v>75037.82000000001</v>
       </c>
       <c r="M26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2072,37 +2048,37 @@
         <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F27">
-        <v>296</v>
+        <v>12154</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>370000</v>
       </c>
       <c r="I27">
-        <v>1027</v>
+        <v>66462</v>
       </c>
       <c r="J27">
-        <v>224.89</v>
+        <v>449.77</v>
       </c>
       <c r="K27">
-        <v>66567.44</v>
+        <v>5466504.58</v>
       </c>
       <c r="L27">
-        <v>66567.44</v>
+        <v>5466504.58</v>
       </c>
       <c r="M27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>11674</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2119,37 +2095,37 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F28">
-        <v>602</v>
+        <v>1576</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="I28">
-        <v>2230</v>
+        <v>9500</v>
       </c>
       <c r="J28">
-        <v>404.8</v>
+        <v>224.89</v>
       </c>
       <c r="K28">
-        <v>243689.6</v>
+        <v>354426.64</v>
       </c>
       <c r="L28">
-        <v>243689.6</v>
+        <v>354426.64</v>
       </c>
       <c r="M28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>865</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2166,37 +2142,37 @@
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F29">
-        <v>70</v>
+        <v>519</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>18134</v>
       </c>
       <c r="I29">
-        <v>194</v>
+        <v>3175</v>
       </c>
       <c r="J29">
-        <v>179.91</v>
+        <v>374.81</v>
       </c>
       <c r="K29">
-        <v>12593.7</v>
+        <v>194526.39</v>
       </c>
       <c r="L29">
-        <v>12593.7</v>
+        <v>194526.39</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2213,37 +2189,37 @@
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F30">
-        <v>587</v>
+        <v>529</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I30">
-        <v>2150</v>
+        <v>3333</v>
       </c>
       <c r="J30">
-        <v>374.81</v>
+        <v>404.8</v>
       </c>
       <c r="K30">
-        <v>220013.47</v>
+        <v>214139.2</v>
       </c>
       <c r="L30">
-        <v>220013.47</v>
+        <v>214139.2</v>
       </c>
       <c r="M30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2260,37 +2236,37 @@
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31">
-        <v>904</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1559</v>
       </c>
       <c r="I31">
-        <v>4121</v>
+        <v>348</v>
       </c>
       <c r="J31">
-        <v>89.95999999999999</v>
+        <v>359.82</v>
       </c>
       <c r="K31">
-        <v>81323.84</v>
+        <v>26626.68</v>
       </c>
       <c r="L31">
-        <v>81323.84</v>
+        <v>26626.68</v>
       </c>
       <c r="M31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2307,37 +2283,37 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32">
-        <v>2038</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I32">
-        <v>6312</v>
+        <v>1668</v>
       </c>
       <c r="J32">
         <v>224.89</v>
       </c>
       <c r="K32">
-        <v>458325.82</v>
+        <v>70615.46000000001</v>
       </c>
       <c r="L32">
-        <v>458325.82</v>
+        <v>70615.46000000001</v>
       </c>
       <c r="M32" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2354,37 +2330,37 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33">
-        <v>1196</v>
+        <v>976</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>25849</v>
       </c>
       <c r="I33">
-        <v>6723</v>
+        <v>8824</v>
       </c>
       <c r="J33">
         <v>38.26</v>
       </c>
       <c r="K33">
-        <v>45758.96</v>
+        <v>37341.76</v>
       </c>
       <c r="L33">
-        <v>45846.59</v>
+        <v>40321.18</v>
       </c>
       <c r="M33" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="N33">
-        <v>-87.63</v>
+        <v>-2979.42</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2401,37 +2377,37 @@
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34">
-        <v>1390</v>
+        <v>3706</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I34">
-        <v>4557</v>
+        <v>20424</v>
       </c>
       <c r="J34">
-        <v>134.93</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K34">
-        <v>187552.7</v>
+        <v>277801.76</v>
       </c>
       <c r="L34">
-        <v>187552.7</v>
+        <v>277801.76</v>
       </c>
       <c r="M34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2448,37 +2424,37 @@
         <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35">
-        <v>4232</v>
+        <v>1232</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I35">
-        <v>13183</v>
+        <v>6841</v>
       </c>
       <c r="J35">
-        <v>74.95999999999999</v>
+        <v>134.93</v>
       </c>
       <c r="K35">
-        <v>317230.72</v>
+        <v>166233.76</v>
       </c>
       <c r="L35">
-        <v>317230.72</v>
+        <v>166233.76</v>
       </c>
       <c r="M35" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2495,37 +2471,37 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I36">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="J36">
         <v>164.92</v>
       </c>
       <c r="K36">
-        <v>1484.28</v>
+        <v>1979.04</v>
       </c>
       <c r="L36">
-        <v>1484.28</v>
+        <v>1979.04</v>
       </c>
       <c r="M36" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2545,34 +2521,34 @@
         <v>102</v>
       </c>
       <c r="F37">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G37" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>5727</v>
       </c>
       <c r="I37">
-        <v>1067</v>
+        <v>1445</v>
       </c>
       <c r="J37">
         <v>104.95</v>
       </c>
       <c r="K37">
-        <v>23928.6</v>
+        <v>22459.3</v>
       </c>
       <c r="L37">
-        <v>23928.6</v>
+        <v>22459.3</v>
       </c>
       <c r="M37" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2592,34 +2568,34 @@
         <v>103</v>
       </c>
       <c r="F38">
-        <v>524</v>
+        <v>693</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I38">
-        <v>1968</v>
+        <v>3313</v>
       </c>
       <c r="J38">
         <v>37.48</v>
       </c>
       <c r="K38">
-        <v>19639.52</v>
+        <v>25973.64</v>
       </c>
       <c r="L38">
-        <v>19639.52</v>
+        <v>25973.64</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>641</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2636,37 +2612,37 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39">
-        <v>791</v>
+        <v>669</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I39">
-        <v>2499</v>
+        <v>3740</v>
       </c>
       <c r="J39">
         <v>299.85</v>
       </c>
       <c r="K39">
-        <v>237181.35</v>
+        <v>200599.65</v>
       </c>
       <c r="L39">
-        <v>237181.35</v>
+        <v>200599.65</v>
       </c>
       <c r="M39" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2683,37 +2659,37 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="G40" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I40">
-        <v>745</v>
+        <v>1230</v>
       </c>
       <c r="J40">
         <v>149.93</v>
       </c>
       <c r="K40">
-        <v>38681.94</v>
+        <v>32384.88</v>
       </c>
       <c r="L40">
-        <v>38681.94</v>
+        <v>32234.95</v>
       </c>
       <c r="M40" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>149.93</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2730,37 +2706,37 @@
         <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41">
-        <v>645</v>
+        <v>436</v>
       </c>
       <c r="G41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I41">
-        <v>2393</v>
+        <v>3323</v>
       </c>
       <c r="J41">
         <v>44.98</v>
       </c>
       <c r="K41">
-        <v>29012.1</v>
+        <v>19611.28</v>
       </c>
       <c r="L41">
-        <v>29012.1</v>
+        <v>19611.28</v>
       </c>
       <c r="M41" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2780,34 +2756,34 @@
         <v>104</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I42">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="J42">
-        <v>209.9</v>
+        <v>149.92</v>
       </c>
       <c r="K42">
-        <v>2518.8</v>
+        <v>7645.92</v>
       </c>
       <c r="L42">
-        <v>2518.8</v>
+        <v>7645.92</v>
       </c>
       <c r="M42" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2827,34 +2803,34 @@
         <v>105</v>
       </c>
       <c r="F43">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="G43" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="I43">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="J43">
-        <v>149.92</v>
+        <v>209.9</v>
       </c>
       <c r="K43">
-        <v>8245.6</v>
+        <v>1679.2</v>
       </c>
       <c r="L43">
-        <v>8245.6</v>
+        <v>1679.2</v>
       </c>
       <c r="M43" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2874,34 +2850,34 @@
         <v>106</v>
       </c>
       <c r="F44">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I44">
-        <v>1546</v>
+        <v>2392</v>
       </c>
       <c r="J44">
         <v>37.48</v>
       </c>
       <c r="K44">
-        <v>16041.44</v>
+        <v>15441.76</v>
       </c>
       <c r="L44">
-        <v>16003.96</v>
+        <v>15441.76</v>
       </c>
       <c r="M44" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N44">
-        <v>37.48</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2921,34 +2897,34 @@
         <v>107</v>
       </c>
       <c r="F45">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>18453</v>
       </c>
       <c r="I45">
-        <v>2214</v>
+        <v>3505</v>
       </c>
       <c r="J45">
         <v>262.37</v>
       </c>
       <c r="K45">
-        <v>139580.84</v>
+        <v>148763.79</v>
       </c>
       <c r="L45">
-        <v>134858.18</v>
+        <v>141155.06</v>
       </c>
       <c r="M45" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="N45">
-        <v>4722.66</v>
+        <v>7608.73</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2968,34 +2944,34 @@
         <v>108</v>
       </c>
       <c r="F46">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I46">
-        <v>539</v>
+        <v>804</v>
       </c>
       <c r="J46">
         <v>67.47</v>
       </c>
       <c r="K46">
-        <v>11672.31</v>
+        <v>8096.4</v>
       </c>
       <c r="L46">
-        <v>11672.31</v>
+        <v>8096.4</v>
       </c>
       <c r="M46" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3015,34 +2991,34 @@
         <v>103</v>
       </c>
       <c r="F47">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="I47">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="J47">
         <v>56.22</v>
       </c>
       <c r="K47">
-        <v>2136.36</v>
+        <v>3148.32</v>
       </c>
       <c r="L47">
-        <v>2136.36</v>
+        <v>3148.32</v>
       </c>
       <c r="M47" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3062,34 +3038,34 @@
         <v>102</v>
       </c>
       <c r="F48">
-        <v>404</v>
+        <v>937</v>
       </c>
       <c r="G48" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>15112</v>
       </c>
       <c r="I48">
-        <v>2172</v>
+        <v>3644</v>
       </c>
       <c r="J48">
         <v>22.49</v>
       </c>
       <c r="K48">
-        <v>9085.959999999999</v>
+        <v>21073.13</v>
       </c>
       <c r="L48">
-        <v>9085.959999999999</v>
+        <v>21073.13</v>
       </c>
       <c r="M48" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3106,37 +3082,37 @@
         <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F49">
-        <v>296</v>
+        <v>1970</v>
       </c>
       <c r="G49" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="I49">
-        <v>1291</v>
+        <v>10011</v>
       </c>
       <c r="J49">
-        <v>48.73</v>
+        <v>52.47</v>
       </c>
       <c r="K49">
-        <v>14424.08</v>
+        <v>103365.9</v>
       </c>
       <c r="L49">
-        <v>14424.08</v>
+        <v>103365.9</v>
       </c>
       <c r="M49" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3156,34 +3132,34 @@
         <v>102</v>
       </c>
       <c r="F50">
-        <v>1908</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1432</v>
       </c>
       <c r="I50">
-        <v>6294</v>
+        <v>298</v>
       </c>
       <c r="J50">
-        <v>52.47</v>
+        <v>33.73</v>
       </c>
       <c r="K50">
-        <v>100112.76</v>
+        <v>1281.74</v>
       </c>
       <c r="L50">
-        <v>100112.76</v>
+        <v>1281.74</v>
       </c>
       <c r="M50" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3203,25 +3179,25 @@
         <v>102</v>
       </c>
       <c r="F51">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
         <v>109</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2386</v>
       </c>
       <c r="I51">
-        <v>289</v>
+        <v>427</v>
       </c>
       <c r="J51">
         <v>37.48</v>
       </c>
       <c r="K51">
-        <v>3035.88</v>
+        <v>2661.08</v>
       </c>
       <c r="L51">
-        <v>3035.88</v>
+        <v>2661.08</v>
       </c>
       <c r="M51" t="s">
         <v>109</v>
@@ -3230,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3247,37 +3223,37 @@
         <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F52">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I52">
-        <v>224</v>
+        <v>2076</v>
       </c>
       <c r="J52">
-        <v>33.73</v>
+        <v>48.73</v>
       </c>
       <c r="K52">
-        <v>1349.2</v>
+        <v>16616.93</v>
       </c>
       <c r="L52">
-        <v>1349.2</v>
+        <v>16616.93</v>
       </c>
       <c r="M52" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3294,37 +3270,37 @@
         <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="G53" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I53">
-        <v>475</v>
+        <v>839</v>
       </c>
       <c r="J53">
         <v>89.95999999999999</v>
       </c>
       <c r="K53">
-        <v>15383.16</v>
+        <v>11964.68</v>
       </c>
       <c r="L53">
-        <v>15383.16</v>
+        <v>11964.68</v>
       </c>
       <c r="M53" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Data/item_wise_yesterday_sales.xlsx
+++ b/Data/item_wise_yesterday_sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="148">
   <si>
     <t>BSL NO</t>
   </si>
@@ -127,12 +127,18 @@
     <t>Cortider 10gm Cream</t>
   </si>
   <si>
+    <t>Esoral Mups 40 Tablet</t>
+  </si>
+  <si>
     <t>Esoral 40mg Tablet - 30's</t>
   </si>
   <si>
     <t>Esoral 40mg IV Injection</t>
   </si>
   <si>
+    <t>Esoral 20mg Capsule 100's</t>
+  </si>
+  <si>
     <t>Esoral 40mg Capsule - 30's</t>
   </si>
   <si>
@@ -142,102 +148,96 @@
     <t>Esoral MUPS 20mg Tab 50s</t>
   </si>
   <si>
-    <t>Esoral Mups 40 Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 100's</t>
-  </si>
-  <si>
     <t>Etriam 10gm Cream</t>
   </si>
   <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Ointment</t>
+  </si>
+  <si>
     <t>Facid 250mg Tablet 10's</t>
   </si>
   <si>
-    <t>Facid 15gm Cream</t>
-  </si>
-  <si>
     <t>Facid HC Cream</t>
   </si>
   <si>
-    <t>Facid 10gm BT Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Ointment</t>
+    <t>Flucoder 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 200mg Capsule - 10's</t>
+  </si>
+  <si>
+    <t>Flucoder 35ml Dry Suspension</t>
   </si>
   <si>
     <t>Flucoder 50mg Capsule</t>
   </si>
   <si>
-    <t>Flucoder 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucoder 200mg Capsule - 10's</t>
-  </si>
-  <si>
-    <t>Flucoder 35ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Hairgrow 5% Topical Solution 60ml</t>
   </si>
   <si>
     <t>Kezona 200mg Tablet 30's</t>
   </si>
   <si>
+    <t>Licnil 117gm Lotion</t>
+  </si>
+  <si>
     <t>Licnil 60gm Lotion</t>
   </si>
   <si>
-    <t>Licnil 117gm Lotion</t>
+    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
   </si>
   <si>
     <t>Losectil Mups 40mg Tablet</t>
   </si>
   <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
+    <t>Losectil MUPS 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil V 40mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
+  </si>
+  <si>
     <t>Losectil 10mg Capsule 60's</t>
   </si>
   <si>
-    <t>Losectil MUPS 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 120's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg PFS 50's</t>
-  </si>
-  <si>
-    <t>Losectil V 20mg Capsule</t>
-  </si>
-  <si>
     <t>Losectil 40mg Capsule 60's</t>
   </si>
   <si>
-    <t>Losectil V 40mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg IV Injection</t>
+    <t>Lulizol 20gm Cream</t>
   </si>
   <si>
     <t>Lulizol 10gm Cream</t>
   </si>
   <si>
-    <t>Lulizol 20gm Cream</t>
-  </si>
-  <si>
     <t>Mupiron 20gm Ointment</t>
   </si>
   <si>
     <t>Mupiron 10gm Ointment</t>
   </si>
   <si>
+    <t>Mycofin 250mg Tablet</t>
+  </si>
+  <si>
     <t>Mycofin 5gm Cream</t>
   </si>
   <si>
-    <t>Mycofin 250mg Tablet</t>
-  </si>
-  <si>
     <t>Nospot 30gm Cream</t>
   </si>
   <si>
@@ -265,21 +265,21 @@
     <t>Topibet CL 10gm Ointment</t>
   </si>
   <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>Topiclo S Ointment 1's 20g</t>
+  </si>
+  <si>
     <t>Topiclo S 10gm Ointment</t>
   </si>
   <si>
-    <t>Topiclo 10gm Cream</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Ointment</t>
-  </si>
-  <si>
     <t>Topiclo NN 15gm Ointment</t>
   </si>
   <si>
-    <t>Topiclo S Ointment 1's 20g</t>
-  </si>
-  <si>
     <t>10 gm</t>
   </si>
   <si>
@@ -289,39 +289,39 @@
     <t>1's</t>
   </si>
   <si>
+    <t>100's</t>
+  </si>
+  <si>
     <t>112's</t>
   </si>
   <si>
     <t>50's</t>
   </si>
   <si>
-    <t>100's</t>
+    <t>15gm</t>
   </si>
   <si>
     <t>10's</t>
   </si>
   <si>
-    <t>15gm</t>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>35ml</t>
   </si>
   <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
     <t>24's</t>
   </si>
   <si>
+    <t>120's</t>
+  </si>
+  <si>
     <t>60's</t>
   </si>
   <si>
-    <t>120's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
@@ -346,109 +346,118 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>6.34</t>
-  </si>
-  <si>
-    <t>8.55</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>1.49</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.92</t>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>6.89</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.07</t>
   </si>
   <si>
     <t>0.06</t>
   </si>
   <si>
-    <t>0.24</t>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.19</t>
   </si>
   <si>
     <t>0.03</t>
   </si>
   <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>48.89</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>1.74</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>0.29</t>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>50.98</t>
+  </si>
+  <si>
+    <t>0.69</t>
   </si>
   <si>
     <t>0.18</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>0.19</t>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>2.44</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.11</t>
+    <t>1.59</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
 </sst>
 </file>
@@ -861,7 +870,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -876,7 +885,7 @@
         <v>88</v>
       </c>
       <c r="F2">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -885,16 +894,16 @@
         <v>3500</v>
       </c>
       <c r="I2">
-        <v>570</v>
+        <v>1162</v>
       </c>
       <c r="J2">
         <v>26.24</v>
       </c>
       <c r="K2">
-        <v>2204.16</v>
+        <v>2597.76</v>
       </c>
       <c r="L2">
-        <v>2204.16</v>
+        <v>2597.76</v>
       </c>
       <c r="M2" t="s">
         <v>109</v>
@@ -903,12 +912,12 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -923,25 +932,25 @@
         <v>89</v>
       </c>
       <c r="F3">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
         <v>110</v>
       </c>
       <c r="H3">
-        <v>10022</v>
+        <v>7954</v>
       </c>
       <c r="I3">
-        <v>1989</v>
+        <v>5160</v>
       </c>
       <c r="J3">
-        <v>179.91</v>
+        <v>314.84</v>
       </c>
       <c r="K3">
-        <v>40299.84</v>
+        <v>102008.16</v>
       </c>
       <c r="L3">
-        <v>40299.84</v>
+        <v>102008.16</v>
       </c>
       <c r="M3" t="s">
         <v>110</v>
@@ -950,12 +959,12 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>308</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -967,42 +976,42 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4">
-        <v>3109</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
         <v>111</v>
       </c>
       <c r="H4">
-        <v>100000</v>
+        <v>10022</v>
       </c>
       <c r="I4">
-        <v>24153</v>
+        <v>4339</v>
       </c>
       <c r="J4">
-        <v>38.26</v>
+        <v>179.91</v>
       </c>
       <c r="K4">
-        <v>118950.34</v>
+        <v>53973</v>
       </c>
       <c r="L4">
-        <v>129086.21</v>
+        <v>53973</v>
       </c>
       <c r="M4" t="s">
         <v>111</v>
       </c>
       <c r="N4">
-        <v>-10135.87</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2917</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1014,42 +1023,42 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5">
-        <v>996</v>
+        <v>3024</v>
       </c>
       <c r="G5" t="s">
         <v>112</v>
       </c>
       <c r="H5">
-        <v>27000</v>
+        <v>100000</v>
       </c>
       <c r="I5">
-        <v>5829</v>
+        <v>47279</v>
       </c>
       <c r="J5">
-        <v>224.89</v>
+        <v>38.26</v>
       </c>
       <c r="K5">
-        <v>223990.44</v>
+        <v>115698.24</v>
       </c>
       <c r="L5">
-        <v>223990.44</v>
+        <v>120138.16</v>
       </c>
       <c r="M5" t="s">
         <v>112</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-4439.92</v>
       </c>
       <c r="O5">
-        <v>814</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1064,25 +1073,25 @@
         <v>91</v>
       </c>
       <c r="F6">
-        <v>1688</v>
+        <v>1527</v>
       </c>
       <c r="G6" t="s">
         <v>113</v>
       </c>
       <c r="H6">
-        <v>50000</v>
+        <v>50108</v>
       </c>
       <c r="I6">
-        <v>10194</v>
+        <v>21516</v>
       </c>
       <c r="J6">
-        <v>419.79</v>
+        <v>524.74</v>
       </c>
       <c r="K6">
-        <v>708605.52</v>
+        <v>801277.98</v>
       </c>
       <c r="L6">
-        <v>708605.52</v>
+        <v>801277.98</v>
       </c>
       <c r="M6" t="s">
         <v>113</v>
@@ -1091,12 +1100,12 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1531</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1108,28 +1117,28 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F7">
-        <v>2550</v>
+        <v>915</v>
       </c>
       <c r="G7" t="s">
         <v>114</v>
       </c>
       <c r="H7">
-        <v>90000</v>
+        <v>27000</v>
       </c>
       <c r="I7">
-        <v>14737</v>
+        <v>13182</v>
       </c>
       <c r="J7">
-        <v>374.82</v>
+        <v>224.89</v>
       </c>
       <c r="K7">
-        <v>955791</v>
+        <v>205774.35</v>
       </c>
       <c r="L7">
-        <v>955791</v>
+        <v>205774.35</v>
       </c>
       <c r="M7" t="s">
         <v>114</v>
@@ -1138,12 +1147,12 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2894</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1155,28 +1164,28 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F8">
-        <v>431</v>
+        <v>1648</v>
       </c>
       <c r="G8" t="s">
         <v>115</v>
       </c>
       <c r="H8">
-        <v>7954</v>
+        <v>50000</v>
       </c>
       <c r="I8">
-        <v>2336</v>
+        <v>22961</v>
       </c>
       <c r="J8">
-        <v>314.84</v>
+        <v>419.79</v>
       </c>
       <c r="K8">
-        <v>135696.04</v>
+        <v>691813.92</v>
       </c>
       <c r="L8">
-        <v>135696.04</v>
+        <v>691813.92</v>
       </c>
       <c r="M8" t="s">
         <v>115</v>
@@ -1185,12 +1194,12 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>216</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1205,25 +1214,25 @@
         <v>93</v>
       </c>
       <c r="F9">
-        <v>1545</v>
+        <v>3478</v>
       </c>
       <c r="G9" t="s">
         <v>116</v>
       </c>
       <c r="H9">
-        <v>50108</v>
+        <v>90000</v>
       </c>
       <c r="I9">
-        <v>9660</v>
+        <v>33170</v>
       </c>
       <c r="J9">
-        <v>524.74</v>
+        <v>374.82</v>
       </c>
       <c r="K9">
-        <v>810723.3</v>
+        <v>1303623.96</v>
       </c>
       <c r="L9">
-        <v>810723.3</v>
+        <v>1303623.96</v>
       </c>
       <c r="M9" t="s">
         <v>116</v>
@@ -1232,12 +1241,12 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1555</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1252,7 +1261,7 @@
         <v>90</v>
       </c>
       <c r="F10">
-        <v>3130</v>
+        <v>2829</v>
       </c>
       <c r="G10" t="s">
         <v>117</v>
@@ -1261,30 +1270,30 @@
         <v>100000</v>
       </c>
       <c r="I10">
-        <v>19426</v>
+        <v>40726</v>
       </c>
       <c r="J10">
         <v>29.99</v>
       </c>
       <c r="K10">
-        <v>93868.7</v>
+        <v>84841.71000000001</v>
       </c>
       <c r="L10">
-        <v>85651.44</v>
+        <v>77464.17</v>
       </c>
       <c r="M10" t="s">
         <v>117</v>
       </c>
       <c r="N10">
-        <v>8217.26</v>
+        <v>7377.54</v>
       </c>
       <c r="O10">
-        <v>3099</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1296,28 +1305,28 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>343</v>
+        <v>750</v>
       </c>
       <c r="G11" t="s">
         <v>118</v>
       </c>
       <c r="H11">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="I11">
-        <v>1812</v>
+        <v>10840</v>
       </c>
       <c r="J11">
-        <v>487.26</v>
+        <v>127.44</v>
       </c>
       <c r="K11">
-        <v>167130.18</v>
+        <v>95580</v>
       </c>
       <c r="L11">
-        <v>167130.18</v>
+        <v>95580</v>
       </c>
       <c r="M11" t="s">
         <v>118</v>
@@ -1326,12 +1335,12 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>314</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1343,10 +1352,10 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12">
-        <v>710</v>
+        <v>459</v>
       </c>
       <c r="G12" t="s">
         <v>119</v>
@@ -1355,16 +1364,16 @@
         <v>17000</v>
       </c>
       <c r="I12">
-        <v>3690</v>
+        <v>8225</v>
       </c>
       <c r="J12">
         <v>67.47</v>
       </c>
       <c r="K12">
-        <v>47903.7</v>
+        <v>30968.73</v>
       </c>
       <c r="L12">
-        <v>47903.7</v>
+        <v>30968.73</v>
       </c>
       <c r="M12" t="s">
         <v>119</v>
@@ -1373,12 +1382,12 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1390,28 +1399,28 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F13">
-        <v>752</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>120</v>
       </c>
       <c r="H13">
-        <v>23000</v>
+        <v>3500</v>
       </c>
       <c r="I13">
-        <v>4762</v>
+        <v>1713</v>
       </c>
       <c r="J13">
-        <v>93.7</v>
+        <v>67.47</v>
       </c>
       <c r="K13">
-        <v>70462.39999999999</v>
+        <v>9175.92</v>
       </c>
       <c r="L13">
-        <v>70462.39999999999</v>
+        <v>9175.92</v>
       </c>
       <c r="M13" t="s">
         <v>120</v>
@@ -1420,12 +1429,12 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>701</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1437,28 +1446,28 @@
         <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F14">
-        <v>804</v>
+        <v>308</v>
       </c>
       <c r="G14" t="s">
         <v>121</v>
       </c>
       <c r="H14">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="I14">
-        <v>4864</v>
+        <v>4187</v>
       </c>
       <c r="J14">
-        <v>127.44</v>
+        <v>487.26</v>
       </c>
       <c r="K14">
-        <v>102461.76</v>
+        <v>150076.08</v>
       </c>
       <c r="L14">
-        <v>102461.76</v>
+        <v>150076.08</v>
       </c>
       <c r="M14" t="s">
         <v>121</v>
@@ -1467,12 +1476,12 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>736</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1484,28 +1493,28 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F15">
-        <v>102</v>
+        <v>720</v>
       </c>
       <c r="G15" t="s">
         <v>122</v>
       </c>
       <c r="H15">
-        <v>3500</v>
+        <v>23000</v>
       </c>
       <c r="I15">
-        <v>751</v>
+        <v>10450</v>
       </c>
       <c r="J15">
-        <v>67.47</v>
+        <v>93.7</v>
       </c>
       <c r="K15">
-        <v>6881.94</v>
+        <v>67464</v>
       </c>
       <c r="L15">
-        <v>6881.94</v>
+        <v>67464</v>
       </c>
       <c r="M15" t="s">
         <v>122</v>
@@ -1514,12 +1523,12 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>105</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1534,39 +1543,39 @@
         <v>96</v>
       </c>
       <c r="F16">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H16">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="I16">
-        <v>932</v>
+        <v>618</v>
       </c>
       <c r="J16">
-        <v>182.16</v>
+        <v>164.92</v>
       </c>
       <c r="K16">
-        <v>26777.52</v>
+        <v>9400.440000000001</v>
       </c>
       <c r="L16">
-        <v>26777.52</v>
+        <v>9400.440000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>118</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1578,42 +1587,42 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H17">
-        <v>1500</v>
+        <v>477</v>
       </c>
       <c r="I17">
         <v>263</v>
       </c>
       <c r="J17">
-        <v>164.92</v>
+        <v>187.41</v>
       </c>
       <c r="K17">
-        <v>7256.48</v>
+        <v>7683.81</v>
       </c>
       <c r="L17">
-        <v>7256.48</v>
+        <v>7683.81</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1625,28 +1634,28 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
         <v>124</v>
       </c>
       <c r="H18">
-        <v>477</v>
+        <v>3000</v>
       </c>
       <c r="I18">
-        <v>107</v>
+        <v>714</v>
       </c>
       <c r="J18">
-        <v>187.41</v>
+        <v>58.47</v>
       </c>
       <c r="K18">
-        <v>3185.97</v>
+        <v>7133.34</v>
       </c>
       <c r="L18">
-        <v>3185.97</v>
+        <v>7133.34</v>
       </c>
       <c r="M18" t="s">
         <v>124</v>
@@ -1655,12 +1664,12 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1675,39 +1684,39 @@
         <v>98</v>
       </c>
       <c r="F19">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I19">
-        <v>335</v>
+        <v>2014</v>
       </c>
       <c r="J19">
-        <v>58.47</v>
+        <v>182.16</v>
       </c>
       <c r="K19">
-        <v>6607.11</v>
+        <v>19855.44</v>
       </c>
       <c r="L19">
-        <v>6607.11</v>
+        <v>19855.44</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1722,39 +1731,39 @@
         <v>90</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H20">
         <v>398</v>
       </c>
       <c r="I20">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="J20">
         <v>449.78</v>
       </c>
       <c r="K20">
-        <v>4048.02</v>
+        <v>2248.9</v>
       </c>
       <c r="L20">
-        <v>4048.02</v>
+        <v>2248.9</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1769,7 +1778,7 @@
         <v>89</v>
       </c>
       <c r="F21">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
         <v>126</v>
@@ -1778,16 +1787,16 @@
         <v>4000</v>
       </c>
       <c r="I21">
-        <v>700</v>
+        <v>1558</v>
       </c>
       <c r="J21">
         <v>202.4</v>
       </c>
       <c r="K21">
-        <v>22466.4</v>
+        <v>22061.6</v>
       </c>
       <c r="L21">
-        <v>22466.4</v>
+        <v>22061.6</v>
       </c>
       <c r="M21" t="s">
         <v>126</v>
@@ -1796,12 +1805,12 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1816,39 +1825,39 @@
         <v>90</v>
       </c>
       <c r="F22">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H22">
-        <v>3181</v>
+        <v>716</v>
       </c>
       <c r="I22">
-        <v>528</v>
+        <v>302</v>
       </c>
       <c r="J22">
-        <v>97.45</v>
+        <v>157.42</v>
       </c>
       <c r="K22">
-        <v>7990.9</v>
+        <v>2518.72</v>
       </c>
       <c r="L22">
-        <v>7990.9</v>
+        <v>2518.72</v>
       </c>
       <c r="M22" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1863,39 +1872,39 @@
         <v>90</v>
       </c>
       <c r="F23">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H23">
-        <v>716</v>
+        <v>3181</v>
       </c>
       <c r="I23">
-        <v>152</v>
+        <v>1184</v>
       </c>
       <c r="J23">
-        <v>157.42</v>
+        <v>97.45</v>
       </c>
       <c r="K23">
-        <v>3778.08</v>
+        <v>3898</v>
       </c>
       <c r="L23">
-        <v>3778.08</v>
+        <v>3898</v>
       </c>
       <c r="M23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1907,42 +1916,42 @@
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F24">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24">
-        <v>1432</v>
+        <v>6000</v>
       </c>
       <c r="I24">
-        <v>283</v>
+        <v>3743</v>
       </c>
       <c r="J24">
-        <v>179.91</v>
+        <v>224.89</v>
       </c>
       <c r="K24">
-        <v>7736.13</v>
+        <v>56672.28</v>
       </c>
       <c r="L24">
-        <v>7736.13</v>
+        <v>56672.28</v>
       </c>
       <c r="M24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1954,42 +1963,42 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>905</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H25">
-        <v>25000</v>
+        <v>1432</v>
       </c>
       <c r="I25">
-        <v>6070</v>
+        <v>585</v>
       </c>
       <c r="J25">
-        <v>89.95999999999999</v>
+        <v>179.91</v>
       </c>
       <c r="K25">
-        <v>81413.8</v>
+        <v>7736.13</v>
       </c>
       <c r="L25">
-        <v>81413.8</v>
+        <v>7736.13</v>
       </c>
       <c r="M25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>728</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -2001,28 +2010,28 @@
         <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F26">
-        <v>286</v>
+        <v>13177</v>
       </c>
       <c r="G26" t="s">
         <v>129</v>
       </c>
       <c r="H26">
-        <v>9544</v>
+        <v>370000</v>
       </c>
       <c r="I26">
-        <v>1907</v>
+        <v>168069</v>
       </c>
       <c r="J26">
-        <v>262.37</v>
+        <v>449.77</v>
       </c>
       <c r="K26">
-        <v>75037.82000000001</v>
+        <v>5926619.29</v>
       </c>
       <c r="L26">
-        <v>75037.82000000001</v>
+        <v>5926619.29</v>
       </c>
       <c r="M26" t="s">
         <v>129</v>
@@ -2031,12 +2040,12 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>293</v>
+        <v>11218</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -2048,28 +2057,28 @@
         <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F27">
-        <v>12154</v>
+        <v>304</v>
       </c>
       <c r="G27" t="s">
         <v>130</v>
       </c>
       <c r="H27">
-        <v>370000</v>
+        <v>9544</v>
       </c>
       <c r="I27">
-        <v>66462</v>
+        <v>4179</v>
       </c>
       <c r="J27">
-        <v>449.77</v>
+        <v>262.37</v>
       </c>
       <c r="K27">
-        <v>5466504.58</v>
+        <v>79760.48</v>
       </c>
       <c r="L27">
-        <v>5466504.58</v>
+        <v>79760.48</v>
       </c>
       <c r="M27" t="s">
         <v>130</v>
@@ -2078,12 +2087,12 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>11674</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -2095,28 +2104,28 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F28">
-        <v>1576</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
         <v>131</v>
       </c>
       <c r="H28">
-        <v>32000</v>
+        <v>1559</v>
       </c>
       <c r="I28">
-        <v>9500</v>
+        <v>778</v>
       </c>
       <c r="J28">
-        <v>224.89</v>
+        <v>359.82</v>
       </c>
       <c r="K28">
-        <v>354426.64</v>
+        <v>20509.74</v>
       </c>
       <c r="L28">
-        <v>354426.64</v>
+        <v>20509.74</v>
       </c>
       <c r="M28" t="s">
         <v>131</v>
@@ -2125,12 +2134,12 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>865</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -2142,42 +2151,42 @@
         <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F29">
-        <v>519</v>
+        <v>858</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
       </c>
       <c r="H29">
-        <v>18134</v>
+        <v>25849</v>
       </c>
       <c r="I29">
-        <v>3175</v>
+        <v>16934</v>
       </c>
       <c r="J29">
-        <v>374.81</v>
+        <v>38.26</v>
       </c>
       <c r="K29">
-        <v>194526.39</v>
+        <v>32827.08</v>
       </c>
       <c r="L29">
-        <v>194526.39</v>
+        <v>34696.52</v>
       </c>
       <c r="M29" t="s">
         <v>132</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-1869.44</v>
       </c>
       <c r="O29">
-        <v>575</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -2189,28 +2198,28 @@
         <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F30">
-        <v>529</v>
+        <v>1313</v>
       </c>
       <c r="G30" t="s">
         <v>133</v>
       </c>
       <c r="H30">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="I30">
-        <v>3333</v>
+        <v>19850</v>
       </c>
       <c r="J30">
-        <v>404.8</v>
+        <v>224.89</v>
       </c>
       <c r="K30">
-        <v>214139.2</v>
+        <v>295280.57</v>
       </c>
       <c r="L30">
-        <v>214139.2</v>
+        <v>295280.57</v>
       </c>
       <c r="M30" t="s">
         <v>133</v>
@@ -2219,12 +2228,12 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>448</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2236,42 +2245,42 @@
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F31">
-        <v>74</v>
+        <v>518</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H31">
-        <v>1559</v>
+        <v>18134</v>
       </c>
       <c r="I31">
-        <v>348</v>
+        <v>7313</v>
       </c>
       <c r="J31">
-        <v>359.82</v>
+        <v>374.81</v>
       </c>
       <c r="K31">
-        <v>26626.68</v>
+        <v>194151.58</v>
       </c>
       <c r="L31">
-        <v>26626.68</v>
+        <v>194151.58</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>46</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2283,42 +2292,42 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F32">
-        <v>314</v>
+        <v>977</v>
       </c>
       <c r="G32" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H32">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="I32">
-        <v>1668</v>
+        <v>13199</v>
       </c>
       <c r="J32">
-        <v>224.89</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="K32">
-        <v>70615.46000000001</v>
+        <v>87890.92</v>
       </c>
       <c r="L32">
-        <v>70615.46000000001</v>
+        <v>87890.92</v>
       </c>
       <c r="M32" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>166</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2330,42 +2339,42 @@
         <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F33">
-        <v>976</v>
+        <v>519</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="H33">
-        <v>25849</v>
+        <v>15000</v>
       </c>
       <c r="I33">
-        <v>8824</v>
+        <v>7365</v>
       </c>
       <c r="J33">
-        <v>38.26</v>
+        <v>404.8</v>
       </c>
       <c r="K33">
-        <v>37341.76</v>
+        <v>210091.2</v>
       </c>
       <c r="L33">
-        <v>40321.18</v>
+        <v>210091.2</v>
       </c>
       <c r="M33" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="N33">
-        <v>-2979.42</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>654</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -2380,39 +2389,39 @@
         <v>90</v>
       </c>
       <c r="F34">
-        <v>3706</v>
+        <v>514</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H34">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="I34">
-        <v>20424</v>
+        <v>12774</v>
       </c>
       <c r="J34">
-        <v>74.95999999999999</v>
+        <v>134.93</v>
       </c>
       <c r="K34">
-        <v>277801.76</v>
+        <v>69354.02</v>
       </c>
       <c r="L34">
-        <v>277801.76</v>
+        <v>69354.02</v>
       </c>
       <c r="M34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>3060</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -2427,39 +2436,39 @@
         <v>90</v>
       </c>
       <c r="F35">
-        <v>1232</v>
+        <v>3785</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H35">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="I35">
-        <v>6841</v>
+        <v>48143</v>
       </c>
       <c r="J35">
-        <v>134.93</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="K35">
-        <v>166233.76</v>
+        <v>283723.6</v>
       </c>
       <c r="L35">
-        <v>166233.76</v>
+        <v>283723.6</v>
       </c>
       <c r="M35" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>506</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -2474,39 +2483,39 @@
         <v>90</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H36">
         <v>300</v>
       </c>
       <c r="I36">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="J36">
         <v>164.92</v>
       </c>
       <c r="K36">
-        <v>1979.04</v>
+        <v>1319.36</v>
       </c>
       <c r="L36">
-        <v>1979.04</v>
+        <v>1319.36</v>
       </c>
       <c r="M36" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -2521,39 +2530,39 @@
         <v>102</v>
       </c>
       <c r="F37">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H37">
         <v>5727</v>
       </c>
       <c r="I37">
-        <v>1445</v>
+        <v>2845</v>
       </c>
       <c r="J37">
         <v>104.95</v>
       </c>
       <c r="K37">
-        <v>22459.3</v>
+        <v>19835.55</v>
       </c>
       <c r="L37">
-        <v>22459.3</v>
+        <v>19835.55</v>
       </c>
       <c r="M37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -2565,42 +2574,42 @@
         <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F38">
-        <v>693</v>
+        <v>616</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H38">
         <v>20000</v>
       </c>
       <c r="I38">
-        <v>3313</v>
+        <v>8383</v>
       </c>
       <c r="J38">
-        <v>37.48</v>
+        <v>299.85</v>
       </c>
       <c r="K38">
-        <v>25973.64</v>
+        <v>184707.6</v>
       </c>
       <c r="L38">
-        <v>25973.64</v>
+        <v>184707.6</v>
       </c>
       <c r="M38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -2612,42 +2621,42 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F39">
-        <v>669</v>
+        <v>490</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H39">
         <v>20000</v>
       </c>
       <c r="I39">
-        <v>3740</v>
+        <v>7408</v>
       </c>
       <c r="J39">
-        <v>299.85</v>
+        <v>37.48</v>
       </c>
       <c r="K39">
-        <v>200599.65</v>
+        <v>18365.2</v>
       </c>
       <c r="L39">
-        <v>200599.65</v>
+        <v>18365.2</v>
       </c>
       <c r="M39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
-        <v>625</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -2662,39 +2671,39 @@
         <v>90</v>
       </c>
       <c r="F40">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G40" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H40">
         <v>3500</v>
       </c>
       <c r="I40">
-        <v>1230</v>
+        <v>2928</v>
       </c>
       <c r="J40">
         <v>149.93</v>
       </c>
       <c r="K40">
-        <v>32384.88</v>
+        <v>31635.23</v>
       </c>
       <c r="L40">
-        <v>32234.95</v>
+        <v>31635.23</v>
       </c>
       <c r="M40" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="N40">
-        <v>149.93</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -2706,42 +2715,42 @@
         <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F41">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H41">
         <v>12000</v>
       </c>
       <c r="I41">
-        <v>3323</v>
+        <v>6391</v>
       </c>
       <c r="J41">
         <v>44.98</v>
       </c>
       <c r="K41">
-        <v>19611.28</v>
+        <v>21050.64</v>
       </c>
       <c r="L41">
-        <v>19611.28</v>
+        <v>21050.64</v>
       </c>
       <c r="M41" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -2756,39 +2765,39 @@
         <v>104</v>
       </c>
       <c r="F42">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H42">
         <v>3000</v>
       </c>
       <c r="I42">
-        <v>281</v>
+        <v>811</v>
       </c>
       <c r="J42">
         <v>149.92</v>
       </c>
       <c r="K42">
-        <v>7645.92</v>
+        <v>7945.76</v>
       </c>
       <c r="L42">
-        <v>7645.92</v>
+        <v>7945.76</v>
       </c>
       <c r="M42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -2803,28 +2812,28 @@
         <v>105</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="H43">
         <v>295</v>
       </c>
       <c r="I43">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="J43">
         <v>209.9</v>
       </c>
       <c r="K43">
-        <v>1679.2</v>
+        <v>3148.5</v>
       </c>
       <c r="L43">
-        <v>1679.2</v>
+        <v>3148.5</v>
       </c>
       <c r="M43" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2835,7 +2844,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>30</v>
@@ -2850,39 +2859,39 @@
         <v>106</v>
       </c>
       <c r="F44">
-        <v>412</v>
+        <v>276</v>
       </c>
       <c r="G44" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H44">
         <v>12000</v>
       </c>
       <c r="I44">
-        <v>2392</v>
+        <v>4551</v>
       </c>
       <c r="J44">
         <v>37.48</v>
       </c>
       <c r="K44">
-        <v>15441.76</v>
+        <v>10344.48</v>
       </c>
       <c r="L44">
-        <v>15441.76</v>
+        <v>10344.48</v>
       </c>
       <c r="M44" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
         <v>31</v>
@@ -2897,39 +2906,39 @@
         <v>107</v>
       </c>
       <c r="F45">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="G45" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H45">
         <v>18453</v>
       </c>
       <c r="I45">
-        <v>3505</v>
+        <v>8008</v>
       </c>
       <c r="J45">
         <v>262.37</v>
       </c>
       <c r="K45">
-        <v>148763.79</v>
+        <v>145877.72</v>
       </c>
       <c r="L45">
-        <v>141155.06</v>
+        <v>139318.47</v>
       </c>
       <c r="M45" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="N45">
-        <v>7608.73</v>
+        <v>6559.25</v>
       </c>
       <c r="O45">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -2944,39 +2953,39 @@
         <v>108</v>
       </c>
       <c r="F46">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="H46">
         <v>3500</v>
       </c>
       <c r="I46">
-        <v>804</v>
+        <v>1435</v>
       </c>
       <c r="J46">
         <v>67.47</v>
       </c>
       <c r="K46">
-        <v>8096.4</v>
+        <v>5734.95</v>
       </c>
       <c r="L46">
-        <v>8096.4</v>
+        <v>5734.95</v>
       </c>
       <c r="M46" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -2991,39 +3000,39 @@
         <v>103</v>
       </c>
       <c r="F47">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H47">
         <v>1432</v>
       </c>
       <c r="I47">
-        <v>276</v>
+        <v>619</v>
       </c>
       <c r="J47">
         <v>56.22</v>
       </c>
       <c r="K47">
-        <v>3148.32</v>
+        <v>1742.82</v>
       </c>
       <c r="L47">
-        <v>3148.32</v>
+        <v>1742.82</v>
       </c>
       <c r="M47" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -3038,39 +3047,39 @@
         <v>102</v>
       </c>
       <c r="F48">
-        <v>937</v>
+        <v>600</v>
       </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H48">
         <v>15112</v>
       </c>
       <c r="I48">
-        <v>3644</v>
+        <v>8489</v>
       </c>
       <c r="J48">
         <v>22.49</v>
       </c>
       <c r="K48">
-        <v>21073.13</v>
+        <v>13494</v>
       </c>
       <c r="L48">
-        <v>21073.13</v>
+        <v>13494</v>
       </c>
       <c r="M48" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>441</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -3085,39 +3094,39 @@
         <v>102</v>
       </c>
       <c r="F49">
-        <v>1970</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H49">
-        <v>48000</v>
+        <v>2386</v>
       </c>
       <c r="I49">
-        <v>10011</v>
+        <v>1017</v>
       </c>
       <c r="J49">
-        <v>52.47</v>
+        <v>37.48</v>
       </c>
       <c r="K49">
-        <v>103365.9</v>
+        <v>2473.68</v>
       </c>
       <c r="L49">
-        <v>103365.9</v>
+        <v>2473.68</v>
       </c>
       <c r="M49" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1461</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
@@ -3132,39 +3141,39 @@
         <v>102</v>
       </c>
       <c r="F50">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="H50">
         <v>1432</v>
       </c>
       <c r="I50">
-        <v>298</v>
+        <v>735</v>
       </c>
       <c r="J50">
         <v>33.73</v>
       </c>
       <c r="K50">
-        <v>1281.74</v>
+        <v>2698.4</v>
       </c>
       <c r="L50">
-        <v>1281.74</v>
+        <v>2698.4</v>
       </c>
       <c r="M50" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -3176,42 +3185,42 @@
         <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F51">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="H51">
-        <v>2386</v>
+        <v>3000</v>
       </c>
       <c r="I51">
-        <v>427</v>
+        <v>1846</v>
       </c>
       <c r="J51">
-        <v>37.48</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="K51">
-        <v>2661.08</v>
+        <v>11874.72</v>
       </c>
       <c r="L51">
-        <v>2661.08</v>
+        <v>11874.72</v>
       </c>
       <c r="M51" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
@@ -3223,42 +3232,42 @@
         <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F52">
-        <v>341</v>
+        <v>1551</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H52">
-        <v>10000</v>
+        <v>48000</v>
       </c>
       <c r="I52">
-        <v>2076</v>
+        <v>21814</v>
       </c>
       <c r="J52">
-        <v>48.73</v>
+        <v>52.47</v>
       </c>
       <c r="K52">
-        <v>16616.93</v>
+        <v>81380.97</v>
       </c>
       <c r="L52">
-        <v>16616.93</v>
+        <v>81380.97</v>
       </c>
       <c r="M52" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>304</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
@@ -3273,34 +3282,34 @@
         <v>90</v>
       </c>
       <c r="F53">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="G53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H53">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="I53">
-        <v>839</v>
+        <v>4249</v>
       </c>
       <c r="J53">
-        <v>89.95999999999999</v>
+        <v>48.73</v>
       </c>
       <c r="K53">
-        <v>11964.68</v>
+        <v>14082.97</v>
       </c>
       <c r="L53">
-        <v>11964.68</v>
+        <v>14082.97</v>
       </c>
       <c r="M53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53">
-        <v>83</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
